--- a/Planificacion/PlanificacionTesis.xlsx
+++ b/Planificacion/PlanificacionTesis.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="395">
   <si>
     <t>Nº</t>
   </si>
@@ -1223,7 +1223,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1271,6 +1271,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FF138576"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1423,7 +1442,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1455,6 +1474,33 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1473,48 +1519,44 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="85">
+  <dxfs count="30">
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF5050"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1528,14 +1570,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFF5050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1552,7 +1587,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF5050"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1566,14 +1608,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFF5050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1590,7 +1625,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF5050"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1604,14 +1646,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFF5050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1628,7 +1663,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF5050"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1642,14 +1684,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFFF5050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1666,7 +1701,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF5050"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1680,442 +1722,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2455,17 +2062,17 @@
   <dimension ref="A1:L185"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="119.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.85546875" customWidth="1"/>
     <col min="2" max="2" width="38.7109375" customWidth="1"/>
-    <col min="3" max="3" width="40.42578125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" style="25" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="25" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" style="25" customWidth="1"/>
+    <col min="3" max="3" width="40.42578125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" style="17" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="17" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" style="17" customWidth="1"/>
     <col min="7" max="7" width="98" customWidth="1"/>
     <col min="8" max="8" width="9.5703125" customWidth="1"/>
     <col min="9" max="9" width="19.7109375" customWidth="1"/>
@@ -2484,13 +2091,13 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="15" t="s">
         <v>379</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="15" t="s">
         <v>380</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="15" t="s">
         <v>381</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -2507,11 +2114,13 @@
       <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22" t="s">
+      <c r="D2" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="F2" s="16" t="s">
         <v>393</v>
       </c>
       <c r="G2" s="7" t="s">
@@ -2528,17 +2137,19 @@
       <c r="C3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22" t="s">
+      <c r="D3" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="F3" s="16" t="s">
         <v>390</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="18" t="s">
+      <c r="L3" s="12" t="s">
         <v>382</v>
       </c>
     </row>
@@ -2552,17 +2163,19 @@
       <c r="C4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22" t="s">
+      <c r="D4" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="F4" s="16" t="s">
         <v>390</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="19" t="s">
+      <c r="L4" s="13" t="s">
         <v>383</v>
       </c>
     </row>
@@ -2576,17 +2189,19 @@
       <c r="C5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22" t="s">
+      <c r="D5" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="F5" s="16" t="s">
         <v>390</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="19" t="s">
+      <c r="L5" s="13" t="s">
         <v>384</v>
       </c>
     </row>
@@ -2600,17 +2215,19 @@
       <c r="C6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22" t="s">
-        <v>393</v>
+      <c r="D6" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>390</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L6" s="20" t="s">
+      <c r="L6" s="14" t="s">
         <v>385</v>
       </c>
     </row>
@@ -2624,11 +2241,13 @@
       <c r="C7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22" t="s">
+      <c r="D7" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="F7" s="16" t="s">
         <v>390</v>
       </c>
       <c r="G7" s="7" t="s">
@@ -2645,17 +2264,19 @@
       <c r="C8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="16" t="s">
         <v>384</v>
       </c>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22" t="s">
+      <c r="E8" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="F8" s="16" t="s">
         <v>393</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="L8" s="18" t="s">
+      <c r="L8" s="12" t="s">
         <v>380</v>
       </c>
     </row>
@@ -2669,17 +2290,19 @@
       <c r="C9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="16" t="s">
         <v>384</v>
       </c>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22" t="s">
+      <c r="E9" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="F9" s="16" t="s">
         <v>390</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="L9" s="19" t="s">
+      <c r="L9" s="13" t="s">
         <v>386</v>
       </c>
     </row>
@@ -2693,17 +2316,17 @@
       <c r="C10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="16" t="s">
         <v>383</v>
       </c>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22" t="s">
+      <c r="E10" s="16"/>
+      <c r="F10" s="16" t="s">
         <v>392</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="L10" s="19" t="s">
+      <c r="L10" s="13" t="s">
         <v>387</v>
       </c>
     </row>
@@ -2717,17 +2340,19 @@
       <c r="C11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="16" t="s">
         <v>384</v>
       </c>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22" t="s">
+      <c r="E11" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="F11" s="16" t="s">
         <v>390</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="L11" s="19" t="s">
+      <c r="L11" s="13" t="s">
         <v>388</v>
       </c>
     </row>
@@ -2741,17 +2366,19 @@
       <c r="C12" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22" t="s">
+      <c r="D12" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="F12" s="16" t="s">
         <v>393</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="L12" s="20" t="s">
+      <c r="L12" s="14" t="s">
         <v>389</v>
       </c>
     </row>
@@ -2765,11 +2392,13 @@
       <c r="C13" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22" t="s">
+      <c r="D13" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="F13" s="16" t="s">
         <v>393</v>
       </c>
       <c r="G13" s="7" t="s">
@@ -2786,17 +2415,19 @@
       <c r="C14" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22" t="s">
+      <c r="D14" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="F14" s="16" t="s">
         <v>393</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="L14" s="26" t="s">
+      <c r="L14" s="18" t="s">
         <v>381</v>
       </c>
     </row>
@@ -2810,17 +2441,17 @@
       <c r="C15" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22" t="s">
+      <c r="D15" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16" t="s">
         <v>392</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="L15" s="27" t="s">
+      <c r="L15" s="19" t="s">
         <v>390</v>
       </c>
     </row>
@@ -2834,17 +2465,17 @@
       <c r="C16" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22" t="s">
+      <c r="D16" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16" t="s">
         <v>390</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="L16" s="27" t="s">
+      <c r="L16" s="19" t="s">
         <v>392</v>
       </c>
     </row>
@@ -2858,17 +2489,19 @@
       <c r="C17" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="22" t="s">
+      <c r="D17" s="16" t="s">
         <v>383</v>
       </c>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22" t="s">
+      <c r="E17" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="F17" s="16" t="s">
         <v>390</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="L17" s="27" t="s">
+      <c r="L17" s="19" t="s">
         <v>393</v>
       </c>
     </row>
@@ -2882,17 +2515,19 @@
       <c r="C18" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="16" t="s">
         <v>383</v>
       </c>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22" t="s">
+      <c r="E18" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="F18" s="16" t="s">
         <v>390</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="L18" s="27" t="s">
+      <c r="L18" s="19" t="s">
         <v>394</v>
       </c>
     </row>
@@ -2906,17 +2541,19 @@
       <c r="C19" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="16" t="s">
         <v>384</v>
       </c>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22" t="s">
+      <c r="E19" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="F19" s="16" t="s">
         <v>393</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="L19" s="28" t="s">
+      <c r="L19" s="20" t="s">
         <v>391</v>
       </c>
     </row>
@@ -2930,11 +2567,13 @@
       <c r="C20" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22" t="s">
+      <c r="D20" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="F20" s="16" t="s">
         <v>393</v>
       </c>
       <c r="G20" s="7" t="s">
@@ -2951,11 +2590,13 @@
       <c r="C21" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="16" t="s">
         <v>384</v>
       </c>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22" t="s">
+      <c r="E21" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="F21" s="16" t="s">
         <v>393</v>
       </c>
       <c r="G21" s="7" t="s">
@@ -2972,11 +2613,11 @@
       <c r="C22" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22" t="s">
+      <c r="D22" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16" t="s">
         <v>392</v>
       </c>
       <c r="G22" s="7" t="s">
@@ -2993,11 +2634,11 @@
       <c r="C23" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D23" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22" t="s">
+      <c r="D23" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16" t="s">
         <v>393</v>
       </c>
       <c r="G23" s="6" t="s">
@@ -3014,11 +2655,11 @@
       <c r="C24" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D24" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22" t="s">
+      <c r="D24" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16" t="s">
         <v>393</v>
       </c>
       <c r="G24" s="7" t="s">
@@ -3035,11 +2676,11 @@
       <c r="C25" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="22" t="s">
+      <c r="D25" s="16" t="s">
         <v>384</v>
       </c>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22" t="s">
+      <c r="E25" s="16"/>
+      <c r="F25" s="16" t="s">
         <v>390</v>
       </c>
       <c r="G25" s="7" t="s">
@@ -3056,11 +2697,11 @@
       <c r="C26" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="22" t="s">
+      <c r="D26" s="16" t="s">
         <v>384</v>
       </c>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22" t="s">
+      <c r="E26" s="16"/>
+      <c r="F26" s="16" t="s">
         <v>390</v>
       </c>
       <c r="G26" s="7" t="s">
@@ -3077,11 +2718,11 @@
       <c r="C27" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D27" s="22" t="s">
+      <c r="D27" s="16" t="s">
         <v>384</v>
       </c>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22" t="s">
+      <c r="E27" s="16"/>
+      <c r="F27" s="16" t="s">
         <v>394</v>
       </c>
       <c r="G27" s="7" t="s">
@@ -3098,11 +2739,13 @@
       <c r="C28" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D28" s="22" t="s">
+      <c r="D28" s="16" t="s">
         <v>384</v>
       </c>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22" t="s">
+      <c r="E28" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="F28" s="16" t="s">
         <v>393</v>
       </c>
       <c r="G28" s="7" t="s">
@@ -3119,11 +2762,11 @@
       <c r="C29" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D29" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22" t="s">
+      <c r="D29" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16" t="s">
         <v>393</v>
       </c>
       <c r="G29" s="7" t="s">
@@ -3140,11 +2783,11 @@
       <c r="C30" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D30" s="22" t="s">
+      <c r="D30" s="16" t="s">
         <v>384</v>
       </c>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22" t="s">
+      <c r="E30" s="16"/>
+      <c r="F30" s="16" t="s">
         <v>390</v>
       </c>
       <c r="G30" s="7" t="s">
@@ -3161,11 +2804,13 @@
       <c r="C31" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D31" s="22" t="s">
+      <c r="D31" s="16" t="s">
         <v>384</v>
       </c>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22" t="s">
+      <c r="E31" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="F31" s="16" t="s">
         <v>390</v>
       </c>
       <c r="G31" s="7" t="s">
@@ -3182,11 +2827,11 @@
       <c r="C32" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D32" s="22" t="s">
+      <c r="D32" s="16" t="s">
         <v>384</v>
       </c>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22" t="s">
+      <c r="E32" s="16"/>
+      <c r="F32" s="16" t="s">
         <v>390</v>
       </c>
       <c r="G32" s="7" t="s">
@@ -3203,11 +2848,11 @@
       <c r="C33" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D33" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22" t="s">
+      <c r="D33" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16" t="s">
         <v>390</v>
       </c>
       <c r="G33" s="7" t="s">
@@ -3224,11 +2869,13 @@
       <c r="C34" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D34" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22" t="s">
+      <c r="D34" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="F34" s="16" t="s">
         <v>390</v>
       </c>
       <c r="G34" s="7" t="s">
@@ -3245,11 +2892,13 @@
       <c r="C35" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D35" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22" t="s">
+      <c r="D35" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="F35" s="16" t="s">
         <v>390</v>
       </c>
       <c r="G35" s="7" t="s">
@@ -3263,14 +2912,14 @@
       <c r="B36" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="D36" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22" t="s">
+      <c r="D36" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16" t="s">
         <v>390</v>
       </c>
       <c r="G36" s="7" t="s">
@@ -3284,14 +2933,14 @@
       <c r="B37" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="D37" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22" t="s">
+      <c r="D37" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16" t="s">
         <v>390</v>
       </c>
       <c r="G37" s="7" t="s">
@@ -3305,14 +2954,14 @@
       <c r="B38" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="D38" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22" t="s">
+      <c r="D38" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16" t="s">
         <v>390</v>
       </c>
       <c r="G38" s="7" t="s">
@@ -3326,14 +2975,14 @@
       <c r="B39" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="D39" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22" t="s">
+      <c r="D39" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16" t="s">
         <v>390</v>
       </c>
       <c r="G39" s="7" t="s">
@@ -3347,14 +2996,14 @@
       <c r="B40" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="D40" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22" t="s">
+      <c r="D40" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16" t="s">
         <v>390</v>
       </c>
       <c r="G40" s="7" t="s">
@@ -3368,14 +3017,14 @@
       <c r="B41" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="D41" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="E41" s="22"/>
-      <c r="F41" s="22" t="s">
+      <c r="D41" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16" t="s">
         <v>390</v>
       </c>
       <c r="G41" s="7" t="s">
@@ -3389,14 +3038,14 @@
       <c r="B42" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="D42" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22" t="s">
+      <c r="D42" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16" t="s">
         <v>390</v>
       </c>
       <c r="G42" s="7" t="s">
@@ -3410,14 +3059,14 @@
       <c r="B43" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="D43" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="E43" s="22"/>
-      <c r="F43" s="22" t="s">
+      <c r="D43" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16" t="s">
         <v>390</v>
       </c>
       <c r="G43" s="7" t="s">
@@ -3434,11 +3083,13 @@
       <c r="C44" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D44" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22" t="s">
+      <c r="D44" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="F44" s="16" t="s">
         <v>390</v>
       </c>
       <c r="G44" s="7" t="s">
@@ -3455,11 +3106,13 @@
       <c r="C45" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D45" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="E45" s="22"/>
-      <c r="F45" s="22" t="s">
+      <c r="D45" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E45" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="F45" s="16" t="s">
         <v>390</v>
       </c>
       <c r="G45" s="7" t="s">
@@ -3476,11 +3129,13 @@
       <c r="C46" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D46" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="E46" s="22"/>
-      <c r="F46" s="22" t="s">
+      <c r="D46" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E46" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="F46" s="16" t="s">
         <v>390</v>
       </c>
       <c r="G46" s="7" t="s">
@@ -3497,11 +3152,11 @@
       <c r="C47" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="D47" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="E47" s="22"/>
-      <c r="F47" s="22" t="s">
+      <c r="D47" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E47" s="31"/>
+      <c r="F47" s="16" t="s">
         <v>390</v>
       </c>
       <c r="G47" s="7" t="s">
@@ -3518,11 +3173,13 @@
       <c r="C48" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="D48" s="22" t="s">
+      <c r="D48" s="16" t="s">
         <v>384</v>
       </c>
-      <c r="E48" s="22"/>
-      <c r="F48" s="22" t="s">
+      <c r="E48" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="F48" s="16" t="s">
         <v>390</v>
       </c>
       <c r="G48" s="7" t="s">
@@ -3539,11 +3196,13 @@
       <c r="C49" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="D49" s="22" t="s">
+      <c r="D49" s="16" t="s">
         <v>384</v>
       </c>
-      <c r="E49" s="22"/>
-      <c r="F49" s="22" t="s">
+      <c r="E49" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="F49" s="16" t="s">
         <v>390</v>
       </c>
       <c r="G49" s="7" t="s">
@@ -3560,11 +3219,13 @@
       <c r="C50" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D50" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="E50" s="22"/>
-      <c r="F50" s="22" t="s">
+      <c r="D50" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E50" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="F50" s="16" t="s">
         <v>390</v>
       </c>
       <c r="G50" s="7" t="s">
@@ -3581,11 +3242,11 @@
       <c r="C51" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="D51" s="22" t="s">
+      <c r="D51" s="16" t="s">
         <v>383</v>
       </c>
-      <c r="E51" s="22"/>
-      <c r="F51" s="22" t="s">
+      <c r="E51" s="16"/>
+      <c r="F51" s="16" t="s">
         <v>390</v>
       </c>
       <c r="G51" s="7" t="s">
@@ -3602,11 +3263,13 @@
       <c r="C52" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="D52" s="22" t="s">
+      <c r="D52" s="16" t="s">
         <v>384</v>
       </c>
-      <c r="E52" s="22"/>
-      <c r="F52" s="22" t="s">
+      <c r="E52" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="F52" s="16" t="s">
         <v>393</v>
       </c>
       <c r="G52" s="7" t="s">
@@ -3623,11 +3286,13 @@
       <c r="C53" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="D53" s="22" t="s">
+      <c r="D53" s="16" t="s">
         <v>384</v>
       </c>
-      <c r="E53" s="22"/>
-      <c r="F53" s="22" t="s">
+      <c r="E53" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="F53" s="16" t="s">
         <v>393</v>
       </c>
       <c r="G53" s="7" t="s">
@@ -3644,11 +3309,13 @@
       <c r="C54" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="D54" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="E54" s="22"/>
-      <c r="F54" s="22" t="s">
+      <c r="D54" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E54" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="F54" s="16" t="s">
         <v>393</v>
       </c>
       <c r="G54" s="7" t="s">
@@ -3665,11 +3332,13 @@
       <c r="C55" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="D55" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="E55" s="22"/>
-      <c r="F55" s="22" t="s">
+      <c r="D55" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E55" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="F55" s="16" t="s">
         <v>393</v>
       </c>
       <c r="G55" s="7" t="s">
@@ -3686,11 +3355,13 @@
       <c r="C56" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="D56" s="22" t="s">
+      <c r="D56" s="16" t="s">
         <v>384</v>
       </c>
-      <c r="E56" s="22"/>
-      <c r="F56" s="22" t="s">
+      <c r="E56" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="F56" s="16" t="s">
         <v>393</v>
       </c>
       <c r="G56" s="7" t="s">
@@ -3707,11 +3378,13 @@
       <c r="C57" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="D57" s="22" t="s">
+      <c r="D57" s="16" t="s">
         <v>384</v>
       </c>
-      <c r="E57" s="22"/>
-      <c r="F57" s="22" t="s">
+      <c r="E57" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="F57" s="16" t="s">
         <v>393</v>
       </c>
       <c r="G57" s="7" t="s">
@@ -3728,11 +3401,13 @@
       <c r="C58" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="D58" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="E58" s="22"/>
-      <c r="F58" s="22" t="s">
+      <c r="D58" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E58" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="F58" s="16" t="s">
         <v>393</v>
       </c>
       <c r="G58" s="7" t="s">
@@ -3749,11 +3424,13 @@
       <c r="C59" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="D59" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="E59" s="22"/>
-      <c r="F59" s="22" t="s">
+      <c r="D59" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E59" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="F59" s="16" t="s">
         <v>393</v>
       </c>
       <c r="G59" s="7" t="s">
@@ -3770,11 +3447,13 @@
       <c r="C60" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D60" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="E60" s="22"/>
-      <c r="F60" s="22" t="s">
+      <c r="D60" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E60" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="F60" s="16" t="s">
         <v>390</v>
       </c>
       <c r="G60" s="7" t="s">
@@ -3791,11 +3470,13 @@
       <c r="C61" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="D61" s="22" t="s">
+      <c r="D61" s="16" t="s">
         <v>384</v>
       </c>
-      <c r="E61" s="22"/>
-      <c r="F61" s="22" t="s">
+      <c r="E61" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="F61" s="16" t="s">
         <v>390</v>
       </c>
       <c r="G61" s="7" t="s">
@@ -3812,11 +3493,13 @@
       <c r="C62" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="D62" s="22" t="s">
+      <c r="D62" s="16" t="s">
         <v>384</v>
       </c>
-      <c r="E62" s="22"/>
-      <c r="F62" s="22" t="s">
+      <c r="E62" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="F62" s="16" t="s">
         <v>390</v>
       </c>
       <c r="G62" s="7" t="s">
@@ -3833,13 +3516,13 @@
       <c r="C63" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="D63" s="22" t="s">
+      <c r="D63" s="16" t="s">
         <v>383</v>
       </c>
-      <c r="E63" s="22" t="s">
+      <c r="E63" s="16" t="s">
         <v>388</v>
       </c>
-      <c r="F63" s="22" t="s">
+      <c r="F63" s="16" t="s">
         <v>392</v>
       </c>
       <c r="G63" s="7" t="s">
@@ -3856,11 +3539,13 @@
       <c r="C64" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="D64" s="22" t="s">
+      <c r="D64" s="16" t="s">
         <v>383</v>
       </c>
-      <c r="E64" s="22"/>
-      <c r="F64" s="22" t="s">
+      <c r="E64" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="F64" s="16" t="s">
         <v>390</v>
       </c>
       <c r="G64" s="7" t="s">
@@ -3877,11 +3562,13 @@
       <c r="C65" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="D65" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="E65" s="22"/>
-      <c r="F65" s="22" t="s">
+      <c r="D65" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E65" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="F65" s="16" t="s">
         <v>393</v>
       </c>
       <c r="G65" s="7" t="s">
@@ -3898,11 +3585,13 @@
       <c r="C66" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="D66" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="E66" s="22"/>
-      <c r="F66" s="22" t="s">
+      <c r="D66" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E66" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="F66" s="16" t="s">
         <v>393</v>
       </c>
       <c r="G66" s="7" t="s">
@@ -3919,11 +3608,13 @@
       <c r="C67" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="D67" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="E67" s="22"/>
-      <c r="F67" s="22" t="s">
+      <c r="D67" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E67" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="F67" s="16" t="s">
         <v>393</v>
       </c>
       <c r="G67" s="7" t="s">
@@ -3940,11 +3631,13 @@
       <c r="C68" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="D68" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="E68" s="22"/>
-      <c r="F68" s="22" t="s">
+      <c r="D68" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E68" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="F68" s="16" t="s">
         <v>393</v>
       </c>
       <c r="G68" s="7" t="s">
@@ -3961,11 +3654,13 @@
       <c r="C69" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="D69" s="22" t="s">
+      <c r="D69" s="16" t="s">
         <v>384</v>
       </c>
-      <c r="E69" s="22"/>
-      <c r="F69" s="22" t="s">
+      <c r="E69" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="F69" s="16" t="s">
         <v>393</v>
       </c>
       <c r="G69" s="7" t="s">
@@ -3982,11 +3677,13 @@
       <c r="C70" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="D70" s="22" t="s">
+      <c r="D70" s="16" t="s">
         <v>383</v>
       </c>
-      <c r="E70" s="22"/>
-      <c r="F70" s="22" t="s">
+      <c r="E70" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="F70" s="16" t="s">
         <v>390</v>
       </c>
       <c r="G70" s="7" t="s">
@@ -4003,11 +3700,13 @@
       <c r="C71" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="D71" s="22" t="s">
+      <c r="D71" s="16" t="s">
         <v>384</v>
       </c>
-      <c r="E71" s="22"/>
-      <c r="F71" s="22" t="s">
+      <c r="E71" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="F71" s="16" t="s">
         <v>393</v>
       </c>
       <c r="G71" s="7" t="s">
@@ -4024,11 +3723,13 @@
       <c r="C72" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="D72" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="E72" s="22"/>
-      <c r="F72" s="22" t="s">
+      <c r="D72" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E72" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="F72" s="16" t="s">
         <v>393</v>
       </c>
       <c r="G72" s="7" t="s">
@@ -4045,11 +3746,13 @@
       <c r="C73" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="D73" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="E73" s="22"/>
-      <c r="F73" s="22" t="s">
+      <c r="D73" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E73" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="F73" s="16" t="s">
         <v>390</v>
       </c>
       <c r="G73" s="7" t="s">
@@ -4066,11 +3769,13 @@
       <c r="C74" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="D74" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="E74" s="22"/>
-      <c r="F74" s="22" t="s">
+      <c r="D74" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E74" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="F74" s="16" t="s">
         <v>393</v>
       </c>
       <c r="G74" s="7" t="s">
@@ -4087,11 +3792,11 @@
       <c r="C75" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="D75" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="E75" s="22"/>
-      <c r="F75" s="22" t="s">
+      <c r="D75" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E75" s="16"/>
+      <c r="F75" s="16" t="s">
         <v>390</v>
       </c>
       <c r="G75" s="7" t="s">
@@ -4108,11 +3813,11 @@
       <c r="C76" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="D76" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="E76" s="22"/>
-      <c r="F76" s="22" t="s">
+      <c r="D76" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E76" s="16"/>
+      <c r="F76" s="16" t="s">
         <v>390</v>
       </c>
       <c r="G76" s="7" t="s">
@@ -4129,11 +3834,13 @@
       <c r="C77" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="D77" s="22" t="s">
+      <c r="D77" s="16" t="s">
         <v>384</v>
       </c>
-      <c r="E77" s="22"/>
-      <c r="F77" s="22" t="s">
+      <c r="E77" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="F77" s="16" t="s">
         <v>390</v>
       </c>
       <c r="G77" s="7" t="s">
@@ -4150,11 +3857,13 @@
       <c r="C78" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="D78" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="E78" s="22"/>
-      <c r="F78" s="22" t="s">
+      <c r="D78" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E78" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="F78" s="16" t="s">
         <v>393</v>
       </c>
       <c r="G78" s="7" t="s">
@@ -4171,11 +3880,13 @@
       <c r="C79" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="D79" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="E79" s="22"/>
-      <c r="F79" s="22" t="s">
+      <c r="D79" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E79" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="F79" s="16" t="s">
         <v>393</v>
       </c>
       <c r="G79" s="7" t="s">
@@ -4192,11 +3903,13 @@
       <c r="C80" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="D80" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="E80" s="22"/>
-      <c r="F80" s="22" t="s">
+      <c r="D80" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E80" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="F80" s="16" t="s">
         <v>393</v>
       </c>
       <c r="G80" s="7" t="s">
@@ -4213,11 +3926,13 @@
       <c r="C81" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="D81" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="E81" s="22"/>
-      <c r="F81" s="22" t="s">
+      <c r="D81" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E81" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="F81" s="16" t="s">
         <v>393</v>
       </c>
       <c r="G81" s="7" t="s">
@@ -4234,11 +3949,13 @@
       <c r="C82" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="D82" s="22" t="s">
+      <c r="D82" s="16" t="s">
         <v>384</v>
       </c>
-      <c r="E82" s="22"/>
-      <c r="F82" s="22" t="s">
+      <c r="E82" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="F82" s="16" t="s">
         <v>393</v>
       </c>
       <c r="G82" s="7" t="s">
@@ -4255,11 +3972,13 @@
       <c r="C83" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="D83" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="E83" s="22"/>
-      <c r="F83" s="22" t="s">
+      <c r="D83" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E83" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="F83" s="16" t="s">
         <v>393</v>
       </c>
       <c r="G83" s="7" t="s">
@@ -4276,11 +3995,13 @@
       <c r="C84" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="D84" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="E84" s="22"/>
-      <c r="F84" s="22" t="s">
+      <c r="D84" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E84" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="F84" s="16" t="s">
         <v>393</v>
       </c>
       <c r="G84" s="7" t="s">
@@ -4297,11 +4018,13 @@
       <c r="C85" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="D85" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="E85" s="22"/>
-      <c r="F85" s="22" t="s">
+      <c r="D85" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E85" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="F85" s="16" t="s">
         <v>393</v>
       </c>
       <c r="G85" s="7" t="s">
@@ -4318,11 +4041,13 @@
       <c r="C86" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="D86" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="E86" s="22"/>
-      <c r="F86" s="22" t="s">
+      <c r="D86" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E86" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="F86" s="16" t="s">
         <v>393</v>
       </c>
       <c r="G86" s="7" t="s">
@@ -4339,11 +4064,13 @@
       <c r="C87" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="D87" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="E87" s="22"/>
-      <c r="F87" s="22" t="s">
+      <c r="D87" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E87" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="F87" s="16" t="s">
         <v>393</v>
       </c>
       <c r="G87" s="7" t="s">
@@ -4360,11 +4087,13 @@
       <c r="C88" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="D88" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="E88" s="22"/>
-      <c r="F88" s="22" t="s">
+      <c r="D88" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E88" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="F88" s="16" t="s">
         <v>393</v>
       </c>
       <c r="G88" s="7" t="s">
@@ -4381,11 +4110,13 @@
       <c r="C89" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="D89" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="E89" s="22"/>
-      <c r="F89" s="22" t="s">
+      <c r="D89" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E89" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="F89" s="16" t="s">
         <v>393</v>
       </c>
       <c r="G89" s="7" t="s">
@@ -4402,11 +4133,13 @@
       <c r="C90" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="D90" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="E90" s="22"/>
-      <c r="F90" s="22" t="s">
+      <c r="D90" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E90" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="F90" s="16" t="s">
         <v>393</v>
       </c>
       <c r="G90" s="7" t="s">
@@ -4423,11 +4156,13 @@
       <c r="C91" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="D91" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="E91" s="22"/>
-      <c r="F91" s="22" t="s">
+      <c r="D91" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E91" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="F91" s="16" t="s">
         <v>393</v>
       </c>
       <c r="G91" s="7" t="s">
@@ -4444,11 +4179,13 @@
       <c r="C92" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="D92" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="E92" s="22"/>
-      <c r="F92" s="22" t="s">
+      <c r="D92" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E92" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="F92" s="16" t="s">
         <v>393</v>
       </c>
       <c r="G92" s="7" t="s">
@@ -4465,11 +4202,13 @@
       <c r="C93" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="D93" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="E93" s="22"/>
-      <c r="F93" s="22" t="s">
+      <c r="D93" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E93" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="F93" s="16" t="s">
         <v>393</v>
       </c>
       <c r="G93" s="7" t="s">
@@ -4486,11 +4225,13 @@
       <c r="C94" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="D94" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="E94" s="22"/>
-      <c r="F94" s="22" t="s">
+      <c r="D94" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E94" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="F94" s="16" t="s">
         <v>390</v>
       </c>
       <c r="G94" s="7" t="s">
@@ -4507,11 +4248,13 @@
       <c r="C95" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="D95" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="E95" s="22"/>
-      <c r="F95" s="22" t="s">
+      <c r="D95" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E95" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="F95" s="16" t="s">
         <v>390</v>
       </c>
       <c r="G95" s="7" t="s">
@@ -4528,11 +4271,13 @@
       <c r="C96" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="D96" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="E96" s="22"/>
-      <c r="F96" s="22" t="s">
+      <c r="D96" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E96" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="F96" s="16" t="s">
         <v>390</v>
       </c>
       <c r="G96" s="7" t="s">
@@ -4549,11 +4294,13 @@
       <c r="C97" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="D97" s="22" t="s">
+      <c r="D97" s="16" t="s">
         <v>384</v>
       </c>
-      <c r="E97" s="22"/>
-      <c r="F97" s="22" t="s">
+      <c r="E97" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="F97" s="16" t="s">
         <v>390</v>
       </c>
       <c r="G97" s="7" t="s">
@@ -4570,11 +4317,13 @@
       <c r="C98" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="D98" s="22" t="s">
+      <c r="D98" s="16" t="s">
         <v>384</v>
       </c>
-      <c r="E98" s="22"/>
-      <c r="F98" s="22" t="s">
+      <c r="E98" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="F98" s="16" t="s">
         <v>390</v>
       </c>
       <c r="G98" s="7" t="s">
@@ -4591,11 +4340,13 @@
       <c r="C99" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="D99" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="E99" s="22"/>
-      <c r="F99" s="22" t="s">
+      <c r="D99" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E99" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="F99" s="16" t="s">
         <v>390</v>
       </c>
       <c r="G99" s="7" t="s">
@@ -4612,14 +4363,16 @@
       <c r="C100" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="D100" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="E100" s="22"/>
-      <c r="F100" s="22" t="s">
-        <v>390</v>
-      </c>
-      <c r="G100" s="29" t="s">
+      <c r="D100" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E100" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="F100" s="16" t="s">
+        <v>390</v>
+      </c>
+      <c r="G100" s="21" t="s">
         <v>206</v>
       </c>
     </row>
@@ -4633,11 +4386,13 @@
       <c r="C101" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="D101" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="E101" s="22"/>
-      <c r="F101" s="22" t="s">
+      <c r="D101" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E101" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="F101" s="16" t="s">
         <v>390</v>
       </c>
       <c r="G101" s="7" t="s">
@@ -4654,11 +4409,11 @@
       <c r="C102" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="D102" s="22" t="s">
+      <c r="D102" s="16" t="s">
         <v>383</v>
       </c>
-      <c r="E102" s="22"/>
-      <c r="F102" s="22" t="s">
+      <c r="E102" s="16"/>
+      <c r="F102" s="16" t="s">
         <v>392</v>
       </c>
       <c r="G102" s="7" t="s">
@@ -4675,11 +4430,13 @@
       <c r="C103" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="D103" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="E103" s="22"/>
-      <c r="F103" s="22" t="s">
+      <c r="D103" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E103" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="F103" s="16" t="s">
         <v>390</v>
       </c>
       <c r="G103" s="7" t="s">
@@ -4696,11 +4453,13 @@
       <c r="C104" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="D104" s="22" t="s">
+      <c r="D104" s="16" t="s">
         <v>384</v>
       </c>
-      <c r="E104" s="22"/>
-      <c r="F104" s="22" t="s">
+      <c r="E104" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="F104" s="16" t="s">
         <v>390</v>
       </c>
       <c r="G104" s="7" t="s">
@@ -4717,11 +4476,11 @@
       <c r="C105" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="D105" s="22" t="s">
+      <c r="D105" s="16" t="s">
         <v>384</v>
       </c>
-      <c r="E105" s="22"/>
-      <c r="F105" s="22" t="s">
+      <c r="E105" s="16"/>
+      <c r="F105" s="16" t="s">
         <v>390</v>
       </c>
       <c r="G105" s="7" t="s">
@@ -4738,11 +4497,13 @@
       <c r="C106" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="D106" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="E106" s="22"/>
-      <c r="F106" s="22" t="s">
+      <c r="D106" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E106" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="F106" s="16" t="s">
         <v>393</v>
       </c>
       <c r="G106" s="7" t="s">
@@ -4759,11 +4520,13 @@
       <c r="C107" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="D107" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="E107" s="22"/>
-      <c r="F107" s="22" t="s">
+      <c r="D107" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E107" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="F107" s="16" t="s">
         <v>393</v>
       </c>
       <c r="G107" s="7" t="s">
@@ -4780,11 +4543,13 @@
       <c r="C108" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="D108" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="E108" s="22"/>
-      <c r="F108" s="22" t="s">
+      <c r="D108" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E108" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="F108" s="16" t="s">
         <v>393</v>
       </c>
       <c r="G108" s="7" t="s">
@@ -4801,11 +4566,11 @@
       <c r="C109" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="D109" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="E109" s="22"/>
-      <c r="F109" s="22" t="s">
+      <c r="D109" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E109" s="16"/>
+      <c r="F109" s="16" t="s">
         <v>390</v>
       </c>
       <c r="G109" s="7" t="s">
@@ -4822,11 +4587,11 @@
       <c r="C110" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="D110" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="E110" s="22"/>
-      <c r="F110" s="22" t="s">
+      <c r="D110" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E110" s="16"/>
+      <c r="F110" s="16" t="s">
         <v>390</v>
       </c>
       <c r="G110" s="7" t="s">
@@ -4843,11 +4608,13 @@
       <c r="C111" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="D111" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="E111" s="22"/>
-      <c r="F111" s="22" t="s">
+      <c r="D111" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E111" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="F111" s="16" t="s">
         <v>390</v>
       </c>
       <c r="G111" s="7" t="s">
@@ -4864,11 +4631,13 @@
       <c r="C112" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="D112" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="E112" s="22"/>
-      <c r="F112" s="22" t="s">
+      <c r="D112" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E112" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="F112" s="16" t="s">
         <v>393</v>
       </c>
       <c r="G112" s="7" t="s">
@@ -4885,11 +4654,13 @@
       <c r="C113" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="D113" s="22" t="s">
+      <c r="D113" s="16" t="s">
         <v>383</v>
       </c>
-      <c r="E113" s="22"/>
-      <c r="F113" s="22" t="s">
+      <c r="E113" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="F113" s="16" t="s">
         <v>390</v>
       </c>
       <c r="G113" s="7" t="s">
@@ -4906,11 +4677,13 @@
       <c r="C114" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="D114" s="22" t="s">
+      <c r="D114" s="16" t="s">
         <v>383</v>
       </c>
-      <c r="E114" s="22"/>
-      <c r="F114" s="22" t="s">
+      <c r="E114" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="F114" s="16" t="s">
         <v>390</v>
       </c>
       <c r="G114" s="7" t="s">
@@ -4927,11 +4700,13 @@
       <c r="C115" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="D115" s="22" t="s">
+      <c r="D115" s="16" t="s">
         <v>383</v>
       </c>
-      <c r="E115" s="22"/>
-      <c r="F115" s="22" t="s">
+      <c r="E115" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="F115" s="16" t="s">
         <v>390</v>
       </c>
       <c r="G115" s="7" t="s">
@@ -4948,11 +4723,13 @@
       <c r="C116" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="D116" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="E116" s="22"/>
-      <c r="F116" s="22" t="s">
+      <c r="D116" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E116" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="F116" s="16" t="s">
         <v>390</v>
       </c>
       <c r="G116" s="7" t="s">
@@ -4969,11 +4746,13 @@
       <c r="C117" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="D117" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="E117" s="22"/>
-      <c r="F117" s="22" t="s">
+      <c r="D117" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E117" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="F117" s="16" t="s">
         <v>390</v>
       </c>
       <c r="G117" s="7" t="s">
@@ -4990,11 +4769,13 @@
       <c r="C118" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="D118" s="22" t="s">
+      <c r="D118" s="16" t="s">
         <v>383</v>
       </c>
-      <c r="E118" s="22"/>
-      <c r="F118" s="22" t="s">
+      <c r="E118" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="F118" s="16" t="s">
         <v>390</v>
       </c>
       <c r="G118" s="7" t="s">
@@ -5011,11 +4792,13 @@
       <c r="C119" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="D119" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="E119" s="22"/>
-      <c r="F119" s="22" t="s">
+      <c r="D119" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E119" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="F119" s="16" t="s">
         <v>390</v>
       </c>
       <c r="G119" s="7" t="s">
@@ -5032,11 +4815,13 @@
       <c r="C120" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="D120" s="22" t="s">
+      <c r="D120" s="16" t="s">
         <v>384</v>
       </c>
-      <c r="E120" s="22"/>
-      <c r="F120" s="22" t="s">
+      <c r="E120" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="F120" s="16" t="s">
         <v>393</v>
       </c>
       <c r="G120" s="7" t="s">
@@ -5053,11 +4838,13 @@
       <c r="C121" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="D121" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="E121" s="22"/>
-      <c r="F121" s="22" t="s">
+      <c r="D121" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E121" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="F121" s="16" t="s">
         <v>390</v>
       </c>
       <c r="G121" s="7" t="s">
@@ -5074,11 +4861,13 @@
       <c r="C122" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="D122" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="E122" s="22"/>
-      <c r="F122" s="22" t="s">
+      <c r="D122" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E122" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="F122" s="16" t="s">
         <v>390</v>
       </c>
       <c r="G122" s="7" t="s">
@@ -5095,11 +4884,13 @@
       <c r="C123" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="D123" s="22" t="s">
+      <c r="D123" s="16" t="s">
         <v>384</v>
       </c>
-      <c r="E123" s="22"/>
-      <c r="F123" s="22" t="s">
+      <c r="E123" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="F123" s="16" t="s">
         <v>390</v>
       </c>
       <c r="G123" s="7" t="s">
@@ -5116,11 +4907,13 @@
       <c r="C124" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="D124" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="E124" s="22"/>
-      <c r="F124" s="22" t="s">
+      <c r="D124" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E124" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="F124" s="16" t="s">
         <v>390</v>
       </c>
       <c r="G124" s="7" t="s">
@@ -5137,11 +4930,13 @@
       <c r="C125" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="D125" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="E125" s="22"/>
-      <c r="F125" s="22" t="s">
+      <c r="D125" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E125" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="F125" s="16" t="s">
         <v>390</v>
       </c>
       <c r="G125" s="7" t="s">
@@ -5158,11 +4953,13 @@
       <c r="C126" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="D126" s="22" t="s">
+      <c r="D126" s="16" t="s">
         <v>384</v>
       </c>
-      <c r="E126" s="22"/>
-      <c r="F126" s="22" t="s">
+      <c r="E126" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="F126" s="16" t="s">
         <v>390</v>
       </c>
       <c r="G126" s="7" t="s">
@@ -5179,11 +4976,13 @@
       <c r="C127" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="D127" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="E127" s="22"/>
-      <c r="F127" s="22" t="s">
+      <c r="D127" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E127" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="F127" s="16" t="s">
         <v>390</v>
       </c>
       <c r="G127" s="7" t="s">
@@ -5200,11 +4999,13 @@
       <c r="C128" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="D128" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="E128" s="22"/>
-      <c r="F128" s="22" t="s">
+      <c r="D128" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E128" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="F128" s="16" t="s">
         <v>390</v>
       </c>
       <c r="G128" s="7" t="s">
@@ -5221,11 +5022,13 @@
       <c r="C129" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="D129" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="E129" s="22"/>
-      <c r="F129" s="22" t="s">
+      <c r="D129" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E129" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="F129" s="16" t="s">
         <v>390</v>
       </c>
       <c r="G129" s="7" t="s">
@@ -5242,11 +5045,13 @@
       <c r="C130" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="D130" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="E130" s="22"/>
-      <c r="F130" s="22" t="s">
+      <c r="D130" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E130" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="F130" s="16" t="s">
         <v>390</v>
       </c>
       <c r="G130" s="7" t="s">
@@ -5263,11 +5068,13 @@
       <c r="C131" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="D131" s="22" t="s">
+      <c r="D131" s="16" t="s">
         <v>384</v>
       </c>
-      <c r="E131" s="22"/>
-      <c r="F131" s="22" t="s">
+      <c r="E131" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="F131" s="16" t="s">
         <v>390</v>
       </c>
       <c r="G131" s="7" t="s">
@@ -5284,11 +5091,13 @@
       <c r="C132" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="D132" s="22" t="s">
+      <c r="D132" s="16" t="s">
         <v>384</v>
       </c>
-      <c r="E132" s="22"/>
-      <c r="F132" s="22" t="s">
+      <c r="E132" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="F132" s="16" t="s">
         <v>393</v>
       </c>
       <c r="G132" s="7" t="s">
@@ -5305,11 +5114,13 @@
       <c r="C133" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="D133" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="E133" s="22"/>
-      <c r="F133" s="22" t="s">
+      <c r="D133" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E133" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="F133" s="16" t="s">
         <v>390</v>
       </c>
       <c r="G133" s="7" t="s">
@@ -5326,11 +5137,13 @@
       <c r="C134" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="D134" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="E134" s="22"/>
-      <c r="F134" s="22" t="s">
+      <c r="D134" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E134" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="F134" s="16" t="s">
         <v>393</v>
       </c>
       <c r="G134" s="7" t="s">
@@ -5347,11 +5160,13 @@
       <c r="C135" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="D135" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="E135" s="22"/>
-      <c r="F135" s="22" t="s">
+      <c r="D135" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E135" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="F135" s="16" t="s">
         <v>390</v>
       </c>
       <c r="G135" s="7" t="s">
@@ -5368,11 +5183,11 @@
       <c r="C136" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="D136" s="22" t="s">
+      <c r="D136" s="16" t="s">
         <v>384</v>
       </c>
-      <c r="E136" s="22"/>
-      <c r="F136" s="22" t="s">
+      <c r="E136" s="16"/>
+      <c r="F136" s="16" t="s">
         <v>392</v>
       </c>
       <c r="G136" s="7" t="s">
@@ -5389,11 +5204,13 @@
       <c r="C137" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="D137" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="E137" s="22"/>
-      <c r="F137" s="22" t="s">
+      <c r="D137" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E137" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="F137" s="16" t="s">
         <v>390</v>
       </c>
       <c r="G137" s="7" t="s">
@@ -5410,11 +5227,13 @@
       <c r="C138" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="D138" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="E138" s="22"/>
-      <c r="F138" s="22" t="s">
+      <c r="D138" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E138" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="F138" s="16" t="s">
         <v>390</v>
       </c>
       <c r="G138" s="7" t="s">
@@ -5431,11 +5250,11 @@
       <c r="C139" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="D139" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="E139" s="22"/>
-      <c r="F139" s="22" t="s">
+      <c r="D139" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E139" s="16"/>
+      <c r="F139" s="16" t="s">
         <v>390</v>
       </c>
       <c r="G139" s="7" t="s">
@@ -5452,11 +5271,11 @@
       <c r="C140" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="D140" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="E140" s="22"/>
-      <c r="F140" s="22" t="s">
+      <c r="D140" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E140" s="16"/>
+      <c r="F140" s="16" t="s">
         <v>390</v>
       </c>
       <c r="G140" s="7" t="s">
@@ -5470,14 +5289,14 @@
       <c r="B141" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="C141" s="5" t="s">
+      <c r="C141" s="30" t="s">
         <v>289</v>
       </c>
-      <c r="D141" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="E141" s="22"/>
-      <c r="F141" s="22" t="s">
+      <c r="D141" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E141" s="16"/>
+      <c r="F141" s="16" t="s">
         <v>390</v>
       </c>
       <c r="G141" s="7" t="s">
@@ -5491,14 +5310,14 @@
       <c r="B142" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="C142" s="5" t="s">
+      <c r="C142" s="30" t="s">
         <v>291</v>
       </c>
-      <c r="D142" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="E142" s="22"/>
-      <c r="F142" s="22" t="s">
+      <c r="D142" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E142" s="16"/>
+      <c r="F142" s="16" t="s">
         <v>390</v>
       </c>
       <c r="G142" s="7" t="s">
@@ -5512,14 +5331,14 @@
       <c r="B143" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="C143" s="5" t="s">
+      <c r="C143" s="30" t="s">
         <v>293</v>
       </c>
-      <c r="D143" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="E143" s="22"/>
-      <c r="F143" s="22" t="s">
+      <c r="D143" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E143" s="16"/>
+      <c r="F143" s="16" t="s">
         <v>390</v>
       </c>
       <c r="G143" s="7" t="s">
@@ -5533,14 +5352,14 @@
       <c r="B144" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="C144" s="5" t="s">
+      <c r="C144" s="30" t="s">
         <v>295</v>
       </c>
-      <c r="D144" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="E144" s="22"/>
-      <c r="F144" s="22" t="s">
+      <c r="D144" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E144" s="16"/>
+      <c r="F144" s="16" t="s">
         <v>390</v>
       </c>
       <c r="G144" s="7" t="s">
@@ -5557,11 +5376,13 @@
       <c r="C145" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="D145" s="22" t="s">
+      <c r="D145" s="16" t="s">
         <v>384</v>
       </c>
-      <c r="E145" s="22"/>
-      <c r="F145" s="22" t="s">
+      <c r="E145" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="F145" s="16" t="s">
         <v>390</v>
       </c>
       <c r="G145" s="7" t="s">
@@ -5578,11 +5399,13 @@
       <c r="C146" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="D146" s="22" t="s">
+      <c r="D146" s="16" t="s">
         <v>384</v>
       </c>
-      <c r="E146" s="22"/>
-      <c r="F146" s="22" t="s">
+      <c r="E146" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="F146" s="16" t="s">
         <v>390</v>
       </c>
       <c r="G146" s="7" t="s">
@@ -5599,11 +5422,13 @@
       <c r="C147" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="D147" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="E147" s="22"/>
-      <c r="F147" s="22" t="s">
+      <c r="D147" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E147" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="F147" s="16" t="s">
         <v>390</v>
       </c>
       <c r="G147" s="7" t="s">
@@ -5620,11 +5445,13 @@
       <c r="C148" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="D148" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="E148" s="22"/>
-      <c r="F148" s="22" t="s">
+      <c r="D148" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E148" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="F148" s="16" t="s">
         <v>390</v>
       </c>
       <c r="G148" s="7" t="s">
@@ -5641,11 +5468,13 @@
       <c r="C149" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="D149" s="22" t="s">
+      <c r="D149" s="16" t="s">
         <v>384</v>
       </c>
-      <c r="E149" s="22"/>
-      <c r="F149" s="22" t="s">
+      <c r="E149" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="F149" s="16" t="s">
         <v>390</v>
       </c>
       <c r="G149" s="7" t="s">
@@ -5662,11 +5491,13 @@
       <c r="C150" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="D150" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="E150" s="22"/>
-      <c r="F150" s="22" t="s">
+      <c r="D150" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E150" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="F150" s="16" t="s">
         <v>390</v>
       </c>
       <c r="G150" s="7" t="s">
@@ -5683,11 +5514,13 @@
       <c r="C151" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="D151" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="E151" s="22"/>
-      <c r="F151" s="22" t="s">
+      <c r="D151" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E151" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="F151" s="16" t="s">
         <v>390</v>
       </c>
       <c r="G151" s="7" t="s">
@@ -5704,11 +5537,13 @@
       <c r="C152" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="D152" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="E152" s="22"/>
-      <c r="F152" s="22" t="s">
+      <c r="D152" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E152" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="F152" s="16" t="s">
         <v>390</v>
       </c>
       <c r="G152" s="7" t="s">
@@ -5725,11 +5560,13 @@
       <c r="C153" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="D153" s="22" t="s">
+      <c r="D153" s="16" t="s">
         <v>384</v>
       </c>
-      <c r="E153" s="22"/>
-      <c r="F153" s="22" t="s">
+      <c r="E153" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="F153" s="16" t="s">
         <v>390</v>
       </c>
       <c r="G153" s="7" t="s">
@@ -5746,11 +5583,13 @@
       <c r="C154" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="D154" s="22" t="s">
+      <c r="D154" s="16" t="s">
         <v>384</v>
       </c>
-      <c r="E154" s="22"/>
-      <c r="F154" s="22" t="s">
+      <c r="E154" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="F154" s="16" t="s">
         <v>390</v>
       </c>
       <c r="G154" s="7" t="s">
@@ -5767,11 +5606,13 @@
       <c r="C155" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="D155" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="E155" s="22"/>
-      <c r="F155" s="22" t="s">
+      <c r="D155" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E155" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="F155" s="16" t="s">
         <v>390</v>
       </c>
       <c r="G155" s="7" t="s">
@@ -5788,11 +5629,13 @@
       <c r="C156" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="D156" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="E156" s="22"/>
-      <c r="F156" s="22" t="s">
+      <c r="D156" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E156" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="F156" s="16" t="s">
         <v>390</v>
       </c>
       <c r="G156" s="7" t="s">
@@ -5809,11 +5652,13 @@
       <c r="C157" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="D157" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="E157" s="22"/>
-      <c r="F157" s="22" t="s">
+      <c r="D157" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E157" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="F157" s="16" t="s">
         <v>390</v>
       </c>
       <c r="G157" s="7" t="s">
@@ -5830,11 +5675,13 @@
       <c r="C158" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="D158" s="22" t="s">
+      <c r="D158" s="16" t="s">
         <v>384</v>
       </c>
-      <c r="E158" s="22"/>
-      <c r="F158" s="22" t="s">
+      <c r="E158" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="F158" s="16" t="s">
         <v>390</v>
       </c>
       <c r="G158" s="7" t="s">
@@ -5851,11 +5698,13 @@
       <c r="C159" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="D159" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="E159" s="22"/>
-      <c r="F159" s="22" t="s">
+      <c r="D159" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E159" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="F159" s="16" t="s">
         <v>390</v>
       </c>
       <c r="G159" s="7" t="s">
@@ -5872,11 +5721,13 @@
       <c r="C160" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="D160" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="E160" s="22"/>
-      <c r="F160" s="22" t="s">
+      <c r="D160" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E160" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="F160" s="16" t="s">
         <v>390</v>
       </c>
       <c r="G160" s="7" t="s">
@@ -5893,11 +5744,13 @@
       <c r="C161" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="D161" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="E161" s="22"/>
-      <c r="F161" s="22" t="s">
+      <c r="D161" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E161" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="F161" s="16" t="s">
         <v>390</v>
       </c>
       <c r="G161" s="7" t="s">
@@ -5914,11 +5767,13 @@
       <c r="C162" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="D162" s="22" t="s">
+      <c r="D162" s="16" t="s">
         <v>384</v>
       </c>
-      <c r="E162" s="22"/>
-      <c r="F162" s="22" t="s">
+      <c r="E162" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="F162" s="16" t="s">
         <v>390</v>
       </c>
       <c r="G162" s="7" t="s">
@@ -5935,11 +5790,11 @@
       <c r="C163" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="D163" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="E163" s="22"/>
-      <c r="F163" s="22" t="s">
+      <c r="D163" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E163" s="16"/>
+      <c r="F163" s="16" t="s">
         <v>390</v>
       </c>
       <c r="G163" s="7" t="s">
@@ -5956,11 +5811,11 @@
       <c r="C164" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="D164" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="E164" s="22"/>
-      <c r="F164" s="22" t="s">
+      <c r="D164" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E164" s="16"/>
+      <c r="F164" s="16" t="s">
         <v>390</v>
       </c>
       <c r="G164" s="7" t="s">
@@ -5977,11 +5832,11 @@
       <c r="C165" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="D165" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="E165" s="22"/>
-      <c r="F165" s="22" t="s">
+      <c r="D165" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E165" s="16"/>
+      <c r="F165" s="16" t="s">
         <v>390</v>
       </c>
       <c r="G165" s="7" t="s">
@@ -5998,11 +5853,11 @@
       <c r="C166" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="D166" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="E166" s="22"/>
-      <c r="F166" s="22" t="s">
+      <c r="D166" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E166" s="16"/>
+      <c r="F166" s="16" t="s">
         <v>390</v>
       </c>
       <c r="G166" s="7" t="s">
@@ -6019,11 +5874,11 @@
       <c r="C167" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="D167" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="E167" s="22"/>
-      <c r="F167" s="22" t="s">
+      <c r="D167" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E167" s="16"/>
+      <c r="F167" s="16" t="s">
         <v>390</v>
       </c>
       <c r="G167" s="7" t="s">
@@ -6040,11 +5895,11 @@
       <c r="C168" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="D168" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="E168" s="22"/>
-      <c r="F168" s="22" t="s">
+      <c r="D168" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E168" s="16"/>
+      <c r="F168" s="16" t="s">
         <v>390</v>
       </c>
       <c r="G168" s="7" t="s">
@@ -6061,11 +5916,11 @@
       <c r="C169" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="D169" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="E169" s="22"/>
-      <c r="F169" s="22" t="s">
+      <c r="D169" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E169" s="16"/>
+      <c r="F169" s="16" t="s">
         <v>390</v>
       </c>
       <c r="G169" s="7" t="s">
@@ -6082,11 +5937,11 @@
       <c r="C170" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="D170" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="E170" s="22"/>
-      <c r="F170" s="22" t="s">
+      <c r="D170" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E170" s="16"/>
+      <c r="F170" s="16" t="s">
         <v>390</v>
       </c>
       <c r="G170" s="7" t="s">
@@ -6103,11 +5958,11 @@
       <c r="C171" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="D171" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="E171" s="22"/>
-      <c r="F171" s="22" t="s">
+      <c r="D171" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E171" s="16"/>
+      <c r="F171" s="16" t="s">
         <v>390</v>
       </c>
       <c r="G171" s="7" t="s">
@@ -6124,11 +5979,11 @@
       <c r="C172" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="D172" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="E172" s="22"/>
-      <c r="F172" s="22" t="s">
+      <c r="D172" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E172" s="16"/>
+      <c r="F172" s="16" t="s">
         <v>390</v>
       </c>
       <c r="G172" s="7" t="s">
@@ -6145,11 +6000,11 @@
       <c r="C173" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="D173" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="E173" s="22"/>
-      <c r="F173" s="22" t="s">
+      <c r="D173" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E173" s="16"/>
+      <c r="F173" s="16" t="s">
         <v>390</v>
       </c>
       <c r="G173" s="7" t="s">
@@ -6166,11 +6021,11 @@
       <c r="C174" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="D174" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="E174" s="22"/>
-      <c r="F174" s="22" t="s">
+      <c r="D174" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E174" s="16"/>
+      <c r="F174" s="16" t="s">
         <v>390</v>
       </c>
       <c r="G174" s="7" t="s">
@@ -6187,11 +6042,11 @@
       <c r="C175" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="D175" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="E175" s="22"/>
-      <c r="F175" s="22" t="s">
+      <c r="D175" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E175" s="16"/>
+      <c r="F175" s="16" t="s">
         <v>390</v>
       </c>
       <c r="G175" s="7" t="s">
@@ -6208,11 +6063,11 @@
       <c r="C176" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="D176" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="E176" s="22"/>
-      <c r="F176" s="22" t="s">
+      <c r="D176" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E176" s="16"/>
+      <c r="F176" s="16" t="s">
         <v>390</v>
       </c>
       <c r="G176" s="7" t="s">
@@ -6229,11 +6084,11 @@
       <c r="C177" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="D177" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="E177" s="22"/>
-      <c r="F177" s="22" t="s">
+      <c r="D177" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E177" s="16"/>
+      <c r="F177" s="16" t="s">
         <v>390</v>
       </c>
       <c r="G177" s="7" t="s">
@@ -6250,11 +6105,11 @@
       <c r="C178" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D178" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="E178" s="22"/>
-      <c r="F178" s="22" t="s">
+      <c r="D178" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E178" s="16"/>
+      <c r="F178" s="16" t="s">
         <v>390</v>
       </c>
       <c r="G178" s="7" t="s">
@@ -6271,11 +6126,13 @@
       <c r="C179" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="D179" s="22" t="s">
+      <c r="D179" s="16" t="s">
         <v>384</v>
       </c>
-      <c r="E179" s="22"/>
-      <c r="F179" s="22" t="s">
+      <c r="E179" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="F179" s="16" t="s">
         <v>390</v>
       </c>
       <c r="G179" s="7" t="s">
@@ -6284,20 +6141,22 @@
     </row>
     <row r="180" spans="1:7">
       <c r="A180" s="10"/>
-      <c r="B180" s="11" t="s">
+      <c r="B180" s="22" t="s">
         <v>297</v>
       </c>
-      <c r="C180" s="13" t="s">
+      <c r="C180" s="24" t="s">
         <v>369</v>
       </c>
-      <c r="D180" s="23" t="s">
-        <v>385</v>
-      </c>
-      <c r="E180" s="23"/>
-      <c r="F180" s="23" t="s">
-        <v>390</v>
-      </c>
-      <c r="G180" s="15" t="s">
+      <c r="D180" s="28" t="s">
+        <v>385</v>
+      </c>
+      <c r="E180" s="28" t="s">
+        <v>386</v>
+      </c>
+      <c r="F180" s="28" t="s">
+        <v>390</v>
+      </c>
+      <c r="G180" s="26" t="s">
         <v>370</v>
       </c>
     </row>
@@ -6305,12 +6164,12 @@
       <c r="A181" s="3">
         <v>179</v>
       </c>
-      <c r="B181" s="12"/>
-      <c r="C181" s="14"/>
-      <c r="D181" s="24"/>
-      <c r="E181" s="24"/>
-      <c r="F181" s="24"/>
-      <c r="G181" s="16"/>
+      <c r="B181" s="23"/>
+      <c r="C181" s="25"/>
+      <c r="D181" s="29"/>
+      <c r="E181" s="29"/>
+      <c r="F181" s="29"/>
+      <c r="G181" s="27"/>
     </row>
     <row r="182" spans="1:7" ht="30.75" thickBot="1">
       <c r="A182" s="3">
@@ -6322,11 +6181,13 @@
       <c r="C182" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="D182" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="E182" s="22"/>
-      <c r="F182" s="22" t="s">
+      <c r="D182" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E182" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="F182" s="16" t="s">
         <v>390</v>
       </c>
       <c r="G182" s="7" t="s">
@@ -6343,11 +6204,13 @@
       <c r="C183" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="D183" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="E183" s="22"/>
-      <c r="F183" s="22" t="s">
+      <c r="D183" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E183" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="F183" s="16" t="s">
         <v>390</v>
       </c>
       <c r="G183" s="7" t="s">
@@ -6364,11 +6227,13 @@
       <c r="C184" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="D184" s="22" t="s">
+      <c r="D184" s="16" t="s">
         <v>383</v>
       </c>
-      <c r="E184" s="22"/>
-      <c r="F184" s="22" t="s">
+      <c r="E184" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="F184" s="16" t="s">
         <v>390</v>
       </c>
       <c r="G184" s="7" t="s">
@@ -6385,11 +6250,13 @@
       <c r="C185" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="D185" s="22" t="s">
+      <c r="D185" s="16" t="s">
         <v>384</v>
       </c>
-      <c r="E185" s="22"/>
-      <c r="F185" s="22" t="s">
+      <c r="E185" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="F185" s="16" t="s">
         <v>390</v>
       </c>
       <c r="G185" s="7" t="s">
@@ -6407,104 +6274,104 @@
     <mergeCell ref="F180:F181"/>
   </mergeCells>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="containsText" dxfId="84" priority="30" operator="containsText" text="Sin Empezar">
+    <cfRule type="containsText" dxfId="29" priority="30" operator="containsText" text="Sin Empezar">
       <formula>NOT(ISERROR(SEARCH("Sin Empezar",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="83" priority="29" operator="containsText" text="Finalizado">
+    <cfRule type="containsText" dxfId="28" priority="29" operator="containsText" text="Finalizado">
       <formula>NOT(ISERROR(SEARCH("Finalizado",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="28" operator="containsText" text="En Progreso">
+    <cfRule type="containsText" dxfId="27" priority="28" operator="containsText" text="En Progreso">
       <formula>NOT(ISERROR(SEARCH("En Progreso",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="81" priority="27" operator="containsText" text="Implementado">
+    <cfRule type="containsText" dxfId="26" priority="27" operator="containsText" text="Implementado">
       <formula>NOT(ISERROR(SEARCH("Implementado",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="80" priority="26" operator="containsText" text="Testeado con errores">
+    <cfRule type="containsText" dxfId="25" priority="26" operator="containsText" text="Testeado con errores">
       <formula>NOT(ISERROR(SEARCH("Testeado con errores",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L15">
-    <cfRule type="containsText" dxfId="75" priority="21" operator="containsText" text="Testeado con errores">
+    <cfRule type="containsText" dxfId="24" priority="21" operator="containsText" text="Testeado con errores">
       <formula>NOT(ISERROR(SEARCH("Testeado con errores",L15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="22" operator="containsText" text="Implementado">
+    <cfRule type="containsText" dxfId="23" priority="22" operator="containsText" text="Implementado">
       <formula>NOT(ISERROR(SEARCH("Implementado",L15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="77" priority="23" operator="containsText" text="En Progreso">
+    <cfRule type="containsText" dxfId="22" priority="23" operator="containsText" text="En Progreso">
       <formula>NOT(ISERROR(SEARCH("En Progreso",L15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="24" operator="containsText" text="Finalizado">
+    <cfRule type="containsText" dxfId="21" priority="24" operator="containsText" text="Finalizado">
       <formula>NOT(ISERROR(SEARCH("Finalizado",L15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="79" priority="25" operator="containsText" text="Sin Empezar">
+    <cfRule type="containsText" dxfId="20" priority="25" operator="containsText" text="Sin Empezar">
       <formula>NOT(ISERROR(SEARCH("Sin Empezar",L15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L16">
-    <cfRule type="containsText" dxfId="70" priority="16" operator="containsText" text="Testeado con errores">
+    <cfRule type="containsText" dxfId="19" priority="16" operator="containsText" text="Testeado con errores">
       <formula>NOT(ISERROR(SEARCH("Testeado con errores",L16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="71" priority="17" operator="containsText" text="Implementado">
+    <cfRule type="containsText" dxfId="18" priority="17" operator="containsText" text="Implementado">
       <formula>NOT(ISERROR(SEARCH("Implementado",L16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="18" operator="containsText" text="En Progreso">
+    <cfRule type="containsText" dxfId="17" priority="18" operator="containsText" text="En Progreso">
       <formula>NOT(ISERROR(SEARCH("En Progreso",L16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="19" operator="containsText" text="Finalizado">
+    <cfRule type="containsText" dxfId="16" priority="19" operator="containsText" text="Finalizado">
       <formula>NOT(ISERROR(SEARCH("Finalizado",L16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="20" operator="containsText" text="Sin Empezar">
+    <cfRule type="containsText" dxfId="15" priority="20" operator="containsText" text="Sin Empezar">
       <formula>NOT(ISERROR(SEARCH("Sin Empezar",L16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L17">
-    <cfRule type="containsText" dxfId="65" priority="11" operator="containsText" text="Testeado con errores">
+    <cfRule type="containsText" dxfId="14" priority="11" operator="containsText" text="Testeado con errores">
       <formula>NOT(ISERROR(SEARCH("Testeado con errores",L17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="12" operator="containsText" text="Implementado">
+    <cfRule type="containsText" dxfId="13" priority="12" operator="containsText" text="Implementado">
       <formula>NOT(ISERROR(SEARCH("Implementado",L17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="13" operator="containsText" text="En Progreso">
+    <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="En Progreso">
       <formula>NOT(ISERROR(SEARCH("En Progreso",L17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="14" operator="containsText" text="Finalizado">
+    <cfRule type="containsText" dxfId="11" priority="14" operator="containsText" text="Finalizado">
       <formula>NOT(ISERROR(SEARCH("Finalizado",L17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="15" operator="containsText" text="Sin Empezar">
+    <cfRule type="containsText" dxfId="10" priority="15" operator="containsText" text="Sin Empezar">
       <formula>NOT(ISERROR(SEARCH("Sin Empezar",L17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L18">
-    <cfRule type="containsText" dxfId="60" priority="6" operator="containsText" text="Testeado con errores">
+    <cfRule type="containsText" dxfId="9" priority="6" operator="containsText" text="Testeado con errores">
       <formula>NOT(ISERROR(SEARCH("Testeado con errores",L18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="7" operator="containsText" text="Implementado">
+    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="Implementado">
       <formula>NOT(ISERROR(SEARCH("Implementado",L18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="8" operator="containsText" text="En Progreso">
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="En Progreso">
       <formula>NOT(ISERROR(SEARCH("En Progreso",L18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="9" operator="containsText" text="Finalizado">
+    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="Finalizado">
       <formula>NOT(ISERROR(SEARCH("Finalizado",L18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="10" operator="containsText" text="Sin Empezar">
+    <cfRule type="containsText" dxfId="5" priority="10" operator="containsText" text="Sin Empezar">
       <formula>NOT(ISERROR(SEARCH("Sin Empezar",L18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L19">
-    <cfRule type="containsText" dxfId="55" priority="1" operator="containsText" text="Testeado con errores">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="Testeado con errores">
       <formula>NOT(ISERROR(SEARCH("Testeado con errores",L19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="2" operator="containsText" text="Implementado">
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="Implementado">
       <formula>NOT(ISERROR(SEARCH("Implementado",L19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="3" operator="containsText" text="En Progreso">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="En Progreso">
       <formula>NOT(ISERROR(SEARCH("En Progreso",L19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="4" operator="containsText" text="Finalizado">
+    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="Finalizado">
       <formula>NOT(ISERROR(SEARCH("Finalizado",L19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="59" priority="5" operator="containsText" text="Sin Empezar">
+    <cfRule type="containsText" dxfId="0" priority="5" operator="containsText" text="Sin Empezar">
       <formula>NOT(ISERROR(SEARCH("Sin Empezar",L19)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Planificacion/PlanificacionTesis.xlsx
+++ b/Planificacion/PlanificacionTesis.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="30" windowWidth="18915" windowHeight="8505"/>
@@ -1501,6 +1501,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1523,12 +1529,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2062,7 +2062,7 @@
   <dimension ref="A1:L185"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="119.42578125" defaultRowHeight="15"/>
@@ -2248,7 +2248,7 @@
         <v>387</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>17</v>
@@ -2912,7 +2912,7 @@
       <c r="B36" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C36" s="30" t="s">
+      <c r="C36" s="22" t="s">
         <v>76</v>
       </c>
       <c r="D36" s="16" t="s">
@@ -2933,7 +2933,7 @@
       <c r="B37" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C37" s="30" t="s">
+      <c r="C37" s="22" t="s">
         <v>78</v>
       </c>
       <c r="D37" s="16" t="s">
@@ -2954,7 +2954,7 @@
       <c r="B38" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C38" s="30" t="s">
+      <c r="C38" s="22" t="s">
         <v>80</v>
       </c>
       <c r="D38" s="16" t="s">
@@ -2975,7 +2975,7 @@
       <c r="B39" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C39" s="30" t="s">
+      <c r="C39" s="22" t="s">
         <v>82</v>
       </c>
       <c r="D39" s="16" t="s">
@@ -2996,7 +2996,7 @@
       <c r="B40" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C40" s="30" t="s">
+      <c r="C40" s="22" t="s">
         <v>84</v>
       </c>
       <c r="D40" s="16" t="s">
@@ -3017,7 +3017,7 @@
       <c r="B41" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C41" s="30" t="s">
+      <c r="C41" s="22" t="s">
         <v>86</v>
       </c>
       <c r="D41" s="16" t="s">
@@ -3038,7 +3038,7 @@
       <c r="B42" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C42" s="30" t="s">
+      <c r="C42" s="22" t="s">
         <v>88</v>
       </c>
       <c r="D42" s="16" t="s">
@@ -3059,7 +3059,7 @@
       <c r="B43" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C43" s="30" t="s">
+      <c r="C43" s="22" t="s">
         <v>90</v>
       </c>
       <c r="D43" s="16" t="s">
@@ -3155,7 +3155,7 @@
       <c r="D47" s="16" t="s">
         <v>385</v>
       </c>
-      <c r="E47" s="31"/>
+      <c r="E47" s="23"/>
       <c r="F47" s="16" t="s">
         <v>390</v>
       </c>
@@ -5289,7 +5289,7 @@
       <c r="B141" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="C141" s="30" t="s">
+      <c r="C141" s="22" t="s">
         <v>289</v>
       </c>
       <c r="D141" s="16" t="s">
@@ -5310,7 +5310,7 @@
       <c r="B142" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="C142" s="30" t="s">
+      <c r="C142" s="22" t="s">
         <v>291</v>
       </c>
       <c r="D142" s="16" t="s">
@@ -5331,7 +5331,7 @@
       <c r="B143" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="C143" s="30" t="s">
+      <c r="C143" s="22" t="s">
         <v>293</v>
       </c>
       <c r="D143" s="16" t="s">
@@ -5352,7 +5352,7 @@
       <c r="B144" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="C144" s="30" t="s">
+      <c r="C144" s="22" t="s">
         <v>295</v>
       </c>
       <c r="D144" s="16" t="s">
@@ -6141,22 +6141,22 @@
     </row>
     <row r="180" spans="1:7">
       <c r="A180" s="10"/>
-      <c r="B180" s="22" t="s">
+      <c r="B180" s="24" t="s">
         <v>297</v>
       </c>
-      <c r="C180" s="24" t="s">
+      <c r="C180" s="26" t="s">
         <v>369</v>
       </c>
-      <c r="D180" s="28" t="s">
-        <v>385</v>
-      </c>
-      <c r="E180" s="28" t="s">
+      <c r="D180" s="30" t="s">
+        <v>385</v>
+      </c>
+      <c r="E180" s="30" t="s">
         <v>386</v>
       </c>
-      <c r="F180" s="28" t="s">
-        <v>390</v>
-      </c>
-      <c r="G180" s="26" t="s">
+      <c r="F180" s="30" t="s">
+        <v>390</v>
+      </c>
+      <c r="G180" s="28" t="s">
         <v>370</v>
       </c>
     </row>
@@ -6164,12 +6164,12 @@
       <c r="A181" s="3">
         <v>179</v>
       </c>
-      <c r="B181" s="23"/>
-      <c r="C181" s="25"/>
-      <c r="D181" s="29"/>
-      <c r="E181" s="29"/>
-      <c r="F181" s="29"/>
-      <c r="G181" s="27"/>
+      <c r="B181" s="25"/>
+      <c r="C181" s="27"/>
+      <c r="D181" s="31"/>
+      <c r="E181" s="31"/>
+      <c r="F181" s="31"/>
+      <c r="G181" s="29"/>
     </row>
     <row r="182" spans="1:7" ht="30.75" thickBot="1">
       <c r="A182" s="3">

--- a/Planificacion/PlanificacionTesis.xlsx
+++ b/Planificacion/PlanificacionTesis.xlsx
@@ -14,12 +14,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$G$185</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="396">
   <si>
     <t>Nº</t>
   </si>
@@ -1217,6 +1217,9 @@
   </si>
   <si>
     <t>Testeado con errores</t>
+  </si>
+  <si>
+    <t>Hay que refinar como se muestran las planificaciones anteriores (aparentemente las trae mal de la bd). Hay que validar millones de cosas (disp empleados, maquinas, etc). Prioridades (olvidalo)</t>
   </si>
 </sst>
 </file>
@@ -1296,15 +1299,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1438,11 +1447,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1531,11 +1558,58 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="35">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color auto="1"/>
@@ -2061,8 +2135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L185"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="119.42578125" defaultRowHeight="15"/>
@@ -2073,8 +2147,8 @@
     <col min="4" max="4" width="11.7109375" style="17" customWidth="1"/>
     <col min="5" max="5" width="14.28515625" style="17" customWidth="1"/>
     <col min="6" max="6" width="20.5703125" style="17" customWidth="1"/>
-    <col min="7" max="7" width="98" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" customWidth="1"/>
+    <col min="7" max="7" width="98.42578125" customWidth="1"/>
+    <col min="8" max="8" width="52.7109375" style="32" customWidth="1"/>
     <col min="9" max="9" width="19.7109375" customWidth="1"/>
     <col min="10" max="10" width="16" customWidth="1"/>
     <col min="11" max="11" width="13.85546875" customWidth="1"/>
@@ -2149,6 +2223,7 @@
       <c r="G3" s="8" t="s">
         <v>8</v>
       </c>
+      <c r="H3"/>
       <c r="L3" s="12" t="s">
         <v>382</v>
       </c>
@@ -2175,6 +2250,7 @@
       <c r="G4" s="7" t="s">
         <v>10</v>
       </c>
+      <c r="H4"/>
       <c r="L4" s="13" t="s">
         <v>383</v>
       </c>
@@ -2201,6 +2277,7 @@
       <c r="G5" s="8" t="s">
         <v>12</v>
       </c>
+      <c r="H5"/>
       <c r="L5" s="13" t="s">
         <v>384</v>
       </c>
@@ -2227,6 +2304,7 @@
       <c r="G6" s="7" t="s">
         <v>15</v>
       </c>
+      <c r="H6"/>
       <c r="L6" s="14" t="s">
         <v>385</v>
       </c>
@@ -2253,6 +2331,7 @@
       <c r="G7" s="7" t="s">
         <v>17</v>
       </c>
+      <c r="H7"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" thickBot="1">
       <c r="A8" s="3">
@@ -2326,6 +2405,7 @@
       <c r="G10" s="7" t="s">
         <v>24</v>
       </c>
+      <c r="H10"/>
       <c r="L10" s="13" t="s">
         <v>387</v>
       </c>
@@ -2451,6 +2531,7 @@
       <c r="G15" s="7" t="s">
         <v>34</v>
       </c>
+      <c r="H15"/>
       <c r="L15" s="19" t="s">
         <v>390</v>
       </c>
@@ -2475,6 +2556,7 @@
       <c r="G16" s="7" t="s">
         <v>36</v>
       </c>
+      <c r="H16"/>
       <c r="L16" s="19" t="s">
         <v>392</v>
       </c>
@@ -2623,6 +2705,7 @@
       <c r="G22" s="7" t="s">
         <v>48</v>
       </c>
+      <c r="H22"/>
     </row>
     <row r="23" spans="1:12" ht="30.75" thickBot="1">
       <c r="A23" s="3">
@@ -2644,6 +2727,7 @@
       <c r="G23" s="6" t="s">
         <v>50</v>
       </c>
+      <c r="H23"/>
     </row>
     <row r="24" spans="1:12" ht="30.75" thickBot="1">
       <c r="A24" s="3">
@@ -2665,6 +2749,7 @@
       <c r="G24" s="7" t="s">
         <v>52</v>
       </c>
+      <c r="H24"/>
     </row>
     <row r="25" spans="1:12" ht="30.75" thickBot="1">
       <c r="A25" s="3">
@@ -2686,6 +2771,7 @@
       <c r="G25" s="7" t="s">
         <v>54</v>
       </c>
+      <c r="H25"/>
     </row>
     <row r="26" spans="1:12" ht="30.75" thickBot="1">
       <c r="A26" s="3">
@@ -2707,6 +2793,7 @@
       <c r="G26" s="7" t="s">
         <v>56</v>
       </c>
+      <c r="H26"/>
     </row>
     <row r="27" spans="1:12" ht="15.75" thickBot="1">
       <c r="A27" s="3">
@@ -2728,6 +2815,7 @@
       <c r="G27" s="7" t="s">
         <v>58</v>
       </c>
+      <c r="H27"/>
     </row>
     <row r="28" spans="1:12" ht="15.75" thickBot="1">
       <c r="A28" s="3">
@@ -2751,6 +2839,7 @@
       <c r="G28" s="7" t="s">
         <v>60</v>
       </c>
+      <c r="H28"/>
     </row>
     <row r="29" spans="1:12" ht="15.75" thickBot="1">
       <c r="A29" s="3">
@@ -2772,6 +2861,7 @@
       <c r="G29" s="7" t="s">
         <v>62</v>
       </c>
+      <c r="H29"/>
     </row>
     <row r="30" spans="1:12" ht="30.75" thickBot="1">
       <c r="A30" s="3">
@@ -2793,6 +2883,7 @@
       <c r="G30" s="7" t="s">
         <v>64</v>
       </c>
+      <c r="H30"/>
     </row>
     <row r="31" spans="1:12" ht="15.75" thickBot="1">
       <c r="A31" s="3">
@@ -2837,8 +2928,9 @@
       <c r="G32" s="7" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" ht="30.75" thickBot="1">
+      <c r="H32"/>
+    </row>
+    <row r="33" spans="1:8" ht="30.75" thickBot="1">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -2858,8 +2950,9 @@
       <c r="G33" s="7" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" ht="15.75" thickBot="1">
+      <c r="H33"/>
+    </row>
+    <row r="34" spans="1:8" ht="15.75" thickBot="1">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -2882,7 +2975,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="30.75" thickBot="1">
+    <row r="35" spans="1:8" ht="30.75" thickBot="1">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -2904,8 +2997,9 @@
       <c r="G35" s="7" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" ht="15.75" thickBot="1">
+      <c r="H35"/>
+    </row>
+    <row r="36" spans="1:8" ht="15.75" thickBot="1">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -2925,8 +3019,9 @@
       <c r="G36" s="7" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" ht="15.75" thickBot="1">
+      <c r="H36"/>
+    </row>
+    <row r="37" spans="1:8" ht="15.75" thickBot="1">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -2946,8 +3041,9 @@
       <c r="G37" s="7" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" ht="15.75" thickBot="1">
+      <c r="H37"/>
+    </row>
+    <row r="38" spans="1:8" ht="15.75" thickBot="1">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -2967,8 +3063,9 @@
       <c r="G38" s="7" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" ht="15.75" thickBot="1">
+      <c r="H38"/>
+    </row>
+    <row r="39" spans="1:8" ht="15.75" thickBot="1">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -2988,8 +3085,9 @@
       <c r="G39" s="7" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" ht="15.75" thickBot="1">
+      <c r="H39"/>
+    </row>
+    <row r="40" spans="1:8" ht="15.75" thickBot="1">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -3009,8 +3107,9 @@
       <c r="G40" s="7" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" ht="15.75" thickBot="1">
+      <c r="H40"/>
+    </row>
+    <row r="41" spans="1:8" ht="15.75" thickBot="1">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -3030,8 +3129,9 @@
       <c r="G41" s="7" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" ht="15.75" thickBot="1">
+      <c r="H41"/>
+    </row>
+    <row r="42" spans="1:8" ht="15.75" thickBot="1">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -3051,8 +3151,9 @@
       <c r="G42" s="7" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" ht="15.75" thickBot="1">
+      <c r="H42"/>
+    </row>
+    <row r="43" spans="1:8" ht="15.75" thickBot="1">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -3072,8 +3173,9 @@
       <c r="G43" s="7" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" ht="15.75" thickBot="1">
+      <c r="H43"/>
+    </row>
+    <row r="44" spans="1:8" ht="15.75" thickBot="1">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -3095,8 +3197,9 @@
       <c r="G44" s="7" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" ht="15.75" thickBot="1">
+      <c r="H44"/>
+    </row>
+    <row r="45" spans="1:8" ht="15.75" thickBot="1">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -3119,7 +3222,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="15.75" thickBot="1">
+    <row r="46" spans="1:8" ht="15.75" thickBot="1">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -3141,8 +3244,9 @@
       <c r="G46" s="7" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" ht="30.75" thickBot="1">
+      <c r="H46"/>
+    </row>
+    <row r="47" spans="1:8" ht="30.75" thickBot="1">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -3162,8 +3266,9 @@
       <c r="G47" s="7" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" ht="30.75" thickBot="1">
+      <c r="H47"/>
+    </row>
+    <row r="48" spans="1:8" ht="30.75" thickBot="1">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -3185,8 +3290,9 @@
       <c r="G48" s="7" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" ht="15.75" thickBot="1">
+      <c r="H48"/>
+    </row>
+    <row r="49" spans="1:8" ht="15.75" thickBot="1">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -3208,8 +3314,9 @@
       <c r="G49" s="7" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" ht="15.75" thickBot="1">
+      <c r="H49"/>
+    </row>
+    <row r="50" spans="1:8" ht="15.75" thickBot="1">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -3231,8 +3338,9 @@
       <c r="G50" s="7" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" ht="30.75" thickBot="1">
+      <c r="H50"/>
+    </row>
+    <row r="51" spans="1:8" ht="30.75" thickBot="1">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -3252,8 +3360,9 @@
       <c r="G51" s="7" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" ht="15.75" thickBot="1">
+      <c r="H51"/>
+    </row>
+    <row r="52" spans="1:8" ht="15.75" thickBot="1">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -3275,8 +3384,9 @@
       <c r="G52" s="7" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" ht="15.75" thickBot="1">
+      <c r="H52"/>
+    </row>
+    <row r="53" spans="1:8" ht="15.75" thickBot="1">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -3298,8 +3408,9 @@
       <c r="G53" s="7" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" ht="15.75" thickBot="1">
+      <c r="H53"/>
+    </row>
+    <row r="54" spans="1:8" ht="15.75" thickBot="1">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -3321,8 +3432,9 @@
       <c r="G54" s="7" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" ht="15.75" thickBot="1">
+      <c r="H54"/>
+    </row>
+    <row r="55" spans="1:8" ht="15.75" thickBot="1">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -3344,8 +3456,9 @@
       <c r="G55" s="7" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" ht="15.75" thickBot="1">
+      <c r="H55"/>
+    </row>
+    <row r="56" spans="1:8" ht="15.75" thickBot="1">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -3367,8 +3480,9 @@
       <c r="G56" s="7" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" ht="15.75" thickBot="1">
+      <c r="H56"/>
+    </row>
+    <row r="57" spans="1:8" ht="15.75" thickBot="1">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -3390,8 +3504,9 @@
       <c r="G57" s="7" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" ht="15.75" thickBot="1">
+      <c r="H57"/>
+    </row>
+    <row r="58" spans="1:8" ht="15.75" thickBot="1">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -3413,8 +3528,9 @@
       <c r="G58" s="7" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" ht="15.75" thickBot="1">
+      <c r="H58"/>
+    </row>
+    <row r="59" spans="1:8" ht="15.75" thickBot="1">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -3436,8 +3552,9 @@
       <c r="G59" s="7" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" ht="15.75" thickBot="1">
+      <c r="H59"/>
+    </row>
+    <row r="60" spans="1:8" ht="15.75" thickBot="1">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -3459,8 +3576,9 @@
       <c r="G60" s="7" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" ht="15.75" thickBot="1">
+      <c r="H60"/>
+    </row>
+    <row r="61" spans="1:8" ht="15.75" thickBot="1">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -3482,8 +3600,9 @@
       <c r="G61" s="7" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" ht="15.75" thickBot="1">
+      <c r="H61"/>
+    </row>
+    <row r="62" spans="1:8" ht="15.75" thickBot="1">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -3505,8 +3624,9 @@
       <c r="G62" s="7" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" ht="30.75" thickBot="1">
+      <c r="H62"/>
+    </row>
+    <row r="63" spans="1:8" ht="60.75" thickBot="1">
       <c r="A63" s="3">
         <v>62</v>
       </c>
@@ -3523,13 +3643,16 @@
         <v>388</v>
       </c>
       <c r="F63" s="16" t="s">
-        <v>392</v>
-      </c>
-      <c r="G63" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="G63" s="33" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" ht="30.75" thickBot="1">
+      <c r="H63" s="34" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="30.75" thickBot="1">
       <c r="A64" s="3">
         <v>63</v>
       </c>
@@ -3552,7 +3675,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="30.75" thickBot="1">
+    <row r="65" spans="1:8" ht="30.75" thickBot="1">
       <c r="A65" s="3">
         <v>64</v>
       </c>
@@ -3574,8 +3697,9 @@
       <c r="G65" s="7" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" ht="15.75" thickBot="1">
+      <c r="H65"/>
+    </row>
+    <row r="66" spans="1:8" ht="15.75" thickBot="1">
       <c r="A66" s="3">
         <v>65</v>
       </c>
@@ -3597,8 +3721,9 @@
       <c r="G66" s="7" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" ht="15.75" thickBot="1">
+      <c r="H66"/>
+    </row>
+    <row r="67" spans="1:8" ht="15.75" thickBot="1">
       <c r="A67" s="3">
         <v>66</v>
       </c>
@@ -3620,8 +3745,9 @@
       <c r="G67" s="7" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" ht="15.75" thickBot="1">
+      <c r="H67"/>
+    </row>
+    <row r="68" spans="1:8" ht="15.75" thickBot="1">
       <c r="A68" s="3">
         <v>67</v>
       </c>
@@ -3643,8 +3769,9 @@
       <c r="G68" s="7" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" ht="30.75" thickBot="1">
+      <c r="H68"/>
+    </row>
+    <row r="69" spans="1:8" ht="30.75" thickBot="1">
       <c r="A69" s="3">
         <v>68</v>
       </c>
@@ -3667,7 +3794,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="15.75" thickBot="1">
+    <row r="70" spans="1:8" ht="15.75" thickBot="1">
       <c r="A70" s="3">
         <v>69</v>
       </c>
@@ -3684,13 +3811,13 @@
         <v>388</v>
       </c>
       <c r="F70" s="16" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="G70" s="7" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="30.75" thickBot="1">
+    <row r="71" spans="1:8" ht="30.75" thickBot="1">
       <c r="A71" s="3">
         <v>70</v>
       </c>
@@ -3713,7 +3840,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="15.75" thickBot="1">
+    <row r="72" spans="1:8" ht="15.75" thickBot="1">
       <c r="A72" s="3">
         <v>71</v>
       </c>
@@ -3736,7 +3863,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="30.75" thickBot="1">
+    <row r="73" spans="1:8" ht="30.75" thickBot="1">
       <c r="A73" s="3">
         <v>72</v>
       </c>
@@ -3759,7 +3886,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="15.75" thickBot="1">
+    <row r="74" spans="1:8" ht="15.75" thickBot="1">
       <c r="A74" s="3">
         <v>73</v>
       </c>
@@ -3781,8 +3908,9 @@
       <c r="G74" s="7" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" ht="15.75" thickBot="1">
+      <c r="H74"/>
+    </row>
+    <row r="75" spans="1:8" ht="15.75" thickBot="1">
       <c r="A75" s="3">
         <v>74</v>
       </c>
@@ -3802,8 +3930,9 @@
       <c r="G75" s="7" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" ht="30.75" thickBot="1">
+      <c r="H75"/>
+    </row>
+    <row r="76" spans="1:8" ht="30.75" thickBot="1">
       <c r="A76" s="3">
         <v>75</v>
       </c>
@@ -3823,8 +3952,9 @@
       <c r="G76" s="7" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" ht="30.75" thickBot="1">
+      <c r="H76"/>
+    </row>
+    <row r="77" spans="1:8" ht="30.75" thickBot="1">
       <c r="A77" s="3">
         <v>76</v>
       </c>
@@ -3846,8 +3976,9 @@
       <c r="G77" s="7" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" ht="15.75" thickBot="1">
+      <c r="H77"/>
+    </row>
+    <row r="78" spans="1:8" ht="15.75" thickBot="1">
       <c r="A78" s="3">
         <v>77</v>
       </c>
@@ -3870,7 +4001,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="15.75" thickBot="1">
+    <row r="79" spans="1:8" ht="15.75" thickBot="1">
       <c r="A79" s="3">
         <v>78</v>
       </c>
@@ -3893,7 +4024,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="15.75" thickBot="1">
+    <row r="80" spans="1:8" ht="15.75" thickBot="1">
       <c r="A80" s="3">
         <v>79</v>
       </c>
@@ -3916,7 +4047,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="15.75" thickBot="1">
+    <row r="81" spans="1:8" ht="15.75" thickBot="1">
       <c r="A81" s="3">
         <v>80</v>
       </c>
@@ -3939,7 +4070,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="15.75" thickBot="1">
+    <row r="82" spans="1:8" ht="15.75" thickBot="1">
       <c r="A82" s="3">
         <v>81</v>
       </c>
@@ -3962,7 +4093,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="15.75" thickBot="1">
+    <row r="83" spans="1:8" ht="15.75" thickBot="1">
       <c r="A83" s="3">
         <v>82</v>
       </c>
@@ -3985,7 +4116,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="15.75" thickBot="1">
+    <row r="84" spans="1:8" ht="15.75" thickBot="1">
       <c r="A84" s="3">
         <v>83</v>
       </c>
@@ -4008,7 +4139,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="15.75" thickBot="1">
+    <row r="85" spans="1:8" ht="15.75" thickBot="1">
       <c r="A85" s="3">
         <v>84</v>
       </c>
@@ -4031,7 +4162,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="15.75" thickBot="1">
+    <row r="86" spans="1:8" ht="15.75" thickBot="1">
       <c r="A86" s="3">
         <v>85</v>
       </c>
@@ -4053,8 +4184,9 @@
       <c r="G86" s="7" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" ht="15.75" thickBot="1">
+      <c r="H86"/>
+    </row>
+    <row r="87" spans="1:8" ht="15.75" thickBot="1">
       <c r="A87" s="3">
         <v>86</v>
       </c>
@@ -4076,8 +4208,9 @@
       <c r="G87" s="7" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" ht="15.75" thickBot="1">
+      <c r="H87"/>
+    </row>
+    <row r="88" spans="1:8" ht="15.75" thickBot="1">
       <c r="A88" s="3">
         <v>87</v>
       </c>
@@ -4099,8 +4232,9 @@
       <c r="G88" s="7" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" ht="15.75" thickBot="1">
+      <c r="H88"/>
+    </row>
+    <row r="89" spans="1:8" ht="15.75" thickBot="1">
       <c r="A89" s="3">
         <v>88</v>
       </c>
@@ -4122,8 +4256,9 @@
       <c r="G89" s="7" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" ht="15.75" thickBot="1">
+      <c r="H89"/>
+    </row>
+    <row r="90" spans="1:8" ht="15.75" thickBot="1">
       <c r="A90" s="3">
         <v>89</v>
       </c>
@@ -4146,7 +4281,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="15.75" thickBot="1">
+    <row r="91" spans="1:8" ht="15.75" thickBot="1">
       <c r="A91" s="3">
         <v>90</v>
       </c>
@@ -4169,7 +4304,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="15.75" thickBot="1">
+    <row r="92" spans="1:8" ht="15.75" thickBot="1">
       <c r="A92" s="3">
         <v>91</v>
       </c>
@@ -4192,7 +4327,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="15.75" thickBot="1">
+    <row r="93" spans="1:8" ht="15.75" thickBot="1">
       <c r="A93" s="3">
         <v>92</v>
       </c>
@@ -4215,7 +4350,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="30.75" thickBot="1">
+    <row r="94" spans="1:8" ht="30.75" thickBot="1">
       <c r="A94" s="3">
         <v>93</v>
       </c>
@@ -4237,8 +4372,9 @@
       <c r="G94" s="7" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" ht="15.75" thickBot="1">
+      <c r="H94"/>
+    </row>
+    <row r="95" spans="1:8" ht="15.75" thickBot="1">
       <c r="A95" s="3">
         <v>94</v>
       </c>
@@ -4260,8 +4396,9 @@
       <c r="G95" s="7" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" ht="30.75" thickBot="1">
+      <c r="H95"/>
+    </row>
+    <row r="96" spans="1:8" ht="30.75" thickBot="1">
       <c r="A96" s="3">
         <v>95</v>
       </c>
@@ -4283,8 +4420,9 @@
       <c r="G96" s="7" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" ht="30.75" thickBot="1">
+      <c r="H96"/>
+    </row>
+    <row r="97" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A97" s="3">
         <v>96</v>
       </c>
@@ -4307,7 +4445,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="30.75" thickBot="1">
+    <row r="98" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A98" s="3">
         <v>97</v>
       </c>
@@ -4330,7 +4468,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="15.75" thickBot="1">
+    <row r="99" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A99" s="3">
         <v>98</v>
       </c>
@@ -4353,7 +4491,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="45.75" thickBot="1">
+    <row r="100" spans="1:7" customFormat="1" ht="45.75" thickBot="1">
       <c r="A100" s="3">
         <v>99</v>
       </c>
@@ -4376,7 +4514,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="30.75" thickBot="1">
+    <row r="101" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A101" s="3">
         <v>100</v>
       </c>
@@ -4399,7 +4537,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="15.75" thickBot="1">
+    <row r="102" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A102" s="3">
         <v>101</v>
       </c>
@@ -4420,7 +4558,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="30.75" thickBot="1">
+    <row r="103" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A103" s="3">
         <v>102</v>
       </c>
@@ -4443,7 +4581,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="30.75" thickBot="1">
+    <row r="104" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A104" s="3">
         <v>103</v>
       </c>
@@ -4466,7 +4604,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="15.75" thickBot="1">
+    <row r="105" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A105" s="3">
         <v>104</v>
       </c>
@@ -4487,7 +4625,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="15.75" thickBot="1">
+    <row r="106" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A106" s="3">
         <v>105</v>
       </c>
@@ -4510,7 +4648,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="15.75" thickBot="1">
+    <row r="107" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A107" s="3">
         <v>106</v>
       </c>
@@ -4533,7 +4671,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="15.75" thickBot="1">
+    <row r="108" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A108" s="3">
         <v>107</v>
       </c>
@@ -4556,7 +4694,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="15.75" thickBot="1">
+    <row r="109" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A109" s="3">
         <v>108</v>
       </c>
@@ -4577,7 +4715,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="15.75" thickBot="1">
+    <row r="110" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A110" s="3">
         <v>109</v>
       </c>
@@ -4598,7 +4736,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="15.75" thickBot="1">
+    <row r="111" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A111" s="3">
         <v>110</v>
       </c>
@@ -4621,7 +4759,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="15.75" thickBot="1">
+    <row r="112" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A112" s="3">
         <v>111</v>
       </c>
@@ -4644,7 +4782,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="45.75" thickBot="1">
+    <row r="113" spans="1:8" ht="45.75" thickBot="1">
       <c r="A113" s="3">
         <v>112</v>
       </c>
@@ -4667,7 +4805,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="30.75" thickBot="1">
+    <row r="114" spans="1:8" ht="30.75" thickBot="1">
       <c r="A114" s="3">
         <v>113</v>
       </c>
@@ -4690,7 +4828,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="45.75" thickBot="1">
+    <row r="115" spans="1:8" ht="45.75" thickBot="1">
       <c r="A115" s="3">
         <v>114</v>
       </c>
@@ -4713,7 +4851,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="15.75" thickBot="1">
+    <row r="116" spans="1:8" ht="15.75" thickBot="1">
       <c r="A116" s="3">
         <v>115</v>
       </c>
@@ -4736,7 +4874,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="15.75" thickBot="1">
+    <row r="117" spans="1:8" ht="15.75" thickBot="1">
       <c r="A117" s="3">
         <v>116</v>
       </c>
@@ -4759,7 +4897,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="30.75" thickBot="1">
+    <row r="118" spans="1:8" ht="30.75" thickBot="1">
       <c r="A118" s="3">
         <v>117</v>
       </c>
@@ -4782,7 +4920,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="15.75" thickBot="1">
+    <row r="119" spans="1:8" ht="15.75" thickBot="1">
       <c r="A119" s="3">
         <v>118</v>
       </c>
@@ -4805,7 +4943,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="30.75" thickBot="1">
+    <row r="120" spans="1:8" ht="30.75" thickBot="1">
       <c r="A120" s="3">
         <v>119</v>
       </c>
@@ -4828,7 +4966,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="15.75" thickBot="1">
+    <row r="121" spans="1:8" ht="15.75" thickBot="1">
       <c r="A121" s="3">
         <v>120</v>
       </c>
@@ -4851,7 +4989,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="15.75" thickBot="1">
+    <row r="122" spans="1:8" ht="15.75" thickBot="1">
       <c r="A122" s="3">
         <v>121</v>
       </c>
@@ -4874,7 +5012,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="30.75" thickBot="1">
+    <row r="123" spans="1:8" ht="30.75" thickBot="1">
       <c r="A123" s="3">
         <v>122</v>
       </c>
@@ -4896,8 +5034,9 @@
       <c r="G123" s="7" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" ht="30.75" thickBot="1">
+      <c r="H123"/>
+    </row>
+    <row r="124" spans="1:8" ht="30.75" thickBot="1">
       <c r="A124" s="3">
         <v>123</v>
       </c>
@@ -4919,8 +5058,9 @@
       <c r="G124" s="7" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" ht="30.75" thickBot="1">
+      <c r="H124"/>
+    </row>
+    <row r="125" spans="1:8" ht="30.75" thickBot="1">
       <c r="A125" s="3">
         <v>124</v>
       </c>
@@ -4942,8 +5082,9 @@
       <c r="G125" s="7" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" ht="15.75" thickBot="1">
+      <c r="H125"/>
+    </row>
+    <row r="126" spans="1:8" ht="15.75" thickBot="1">
       <c r="A126" s="3">
         <v>125</v>
       </c>
@@ -4965,8 +5106,9 @@
       <c r="G126" s="7" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" ht="15.75" thickBot="1">
+      <c r="H126"/>
+    </row>
+    <row r="127" spans="1:8" ht="15.75" thickBot="1">
       <c r="A127" s="3">
         <v>126</v>
       </c>
@@ -4988,8 +5130,9 @@
       <c r="G127" s="7" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" ht="15.75" thickBot="1">
+      <c r="H127"/>
+    </row>
+    <row r="128" spans="1:8" ht="15.75" thickBot="1">
       <c r="A128" s="3">
         <v>127</v>
       </c>
@@ -5011,8 +5154,9 @@
       <c r="G128" s="7" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" ht="15.75" thickBot="1">
+      <c r="H128"/>
+    </row>
+    <row r="129" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A129" s="3">
         <v>128</v>
       </c>
@@ -5035,7 +5179,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="30.75" thickBot="1">
+    <row r="130" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A130" s="3">
         <v>129</v>
       </c>
@@ -5058,7 +5202,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="30.75" thickBot="1">
+    <row r="131" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A131" s="3">
         <v>130</v>
       </c>
@@ -5081,7 +5225,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="15.75" thickBot="1">
+    <row r="132" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A132" s="3">
         <v>131</v>
       </c>
@@ -5104,7 +5248,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="15.75" thickBot="1">
+    <row r="133" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A133" s="3">
         <v>132</v>
       </c>
@@ -5127,7 +5271,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="15.75" thickBot="1">
+    <row r="134" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A134" s="3">
         <v>133</v>
       </c>
@@ -5150,7 +5294,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="15.75" thickBot="1">
+    <row r="135" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A135" s="3">
         <v>134</v>
       </c>
@@ -5173,7 +5317,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="15.75" thickBot="1">
+    <row r="136" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A136" s="3">
         <v>135</v>
       </c>
@@ -5194,7 +5338,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="15.75" thickBot="1">
+    <row r="137" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A137" s="3">
         <v>136</v>
       </c>
@@ -5217,7 +5361,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="15.75" thickBot="1">
+    <row r="138" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A138" s="3">
         <v>137</v>
       </c>
@@ -5240,7 +5384,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="15.75" thickBot="1">
+    <row r="139" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A139" s="3">
         <v>138</v>
       </c>
@@ -5261,7 +5405,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="140" spans="1:7" ht="15.75" thickBot="1">
+    <row r="140" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A140" s="3">
         <v>139</v>
       </c>
@@ -5282,7 +5426,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="141" spans="1:7" ht="15.75" thickBot="1">
+    <row r="141" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A141" s="3">
         <v>140</v>
       </c>
@@ -5303,7 +5447,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="15.75" thickBot="1">
+    <row r="142" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A142" s="3">
         <v>141</v>
       </c>
@@ -5324,7 +5468,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="143" spans="1:7" ht="15.75" thickBot="1">
+    <row r="143" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A143" s="3">
         <v>142</v>
       </c>
@@ -5345,7 +5489,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="15.75" thickBot="1">
+    <row r="144" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A144" s="3">
         <v>143</v>
       </c>
@@ -5366,7 +5510,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="145" spans="1:7" ht="30.75" thickBot="1">
+    <row r="145" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A145" s="3">
         <v>144</v>
       </c>
@@ -5389,7 +5533,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="30.75" thickBot="1">
+    <row r="146" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A146" s="3">
         <v>145</v>
       </c>
@@ -5412,7 +5556,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="30.75" thickBot="1">
+    <row r="147" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A147" s="3">
         <v>146</v>
       </c>
@@ -5435,7 +5579,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="148" spans="1:7" ht="30.75" thickBot="1">
+    <row r="148" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A148" s="3">
         <v>147</v>
       </c>
@@ -5458,7 +5602,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="149" spans="1:7" ht="30.75" thickBot="1">
+    <row r="149" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A149" s="3">
         <v>148</v>
       </c>
@@ -5481,7 +5625,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="150" spans="1:7" ht="30.75" thickBot="1">
+    <row r="150" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A150" s="3">
         <v>149</v>
       </c>
@@ -5504,7 +5648,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="151" spans="1:7" ht="30.75" thickBot="1">
+    <row r="151" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A151" s="3">
         <v>150</v>
       </c>
@@ -5527,7 +5671,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="152" spans="1:7" ht="30.75" thickBot="1">
+    <row r="152" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A152" s="3">
         <v>151</v>
       </c>
@@ -5550,7 +5694,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="153" spans="1:7" ht="30.75" thickBot="1">
+    <row r="153" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A153" s="3">
         <v>152</v>
       </c>
@@ -5573,7 +5717,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="154" spans="1:7" ht="30.75" thickBot="1">
+    <row r="154" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A154" s="3">
         <v>153</v>
       </c>
@@ -5596,7 +5740,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="155" spans="1:7" ht="30.75" thickBot="1">
+    <row r="155" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A155" s="3">
         <v>154</v>
       </c>
@@ -5619,7 +5763,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="156" spans="1:7" ht="30.75" thickBot="1">
+    <row r="156" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A156" s="3">
         <v>155</v>
       </c>
@@ -5642,7 +5786,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="157" spans="1:7" ht="30.75" thickBot="1">
+    <row r="157" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A157" s="3">
         <v>156</v>
       </c>
@@ -5665,7 +5809,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="158" spans="1:7" ht="30.75" thickBot="1">
+    <row r="158" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A158" s="3">
         <v>157</v>
       </c>
@@ -5688,7 +5832,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="159" spans="1:7" ht="30.75" thickBot="1">
+    <row r="159" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A159" s="3">
         <v>158</v>
       </c>
@@ -5711,7 +5855,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="160" spans="1:7" ht="30.75" thickBot="1">
+    <row r="160" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A160" s="3">
         <v>159</v>
       </c>
@@ -5734,7 +5878,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="161" spans="1:7" ht="30.75" thickBot="1">
+    <row r="161" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A161" s="3">
         <v>160</v>
       </c>
@@ -5757,7 +5901,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="162" spans="1:7" ht="30.75" thickBot="1">
+    <row r="162" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A162" s="3">
         <v>161</v>
       </c>
@@ -5780,7 +5924,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="163" spans="1:7" ht="30.75" thickBot="1">
+    <row r="163" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A163" s="3">
         <v>162</v>
       </c>
@@ -5801,7 +5945,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="164" spans="1:7" ht="45.75" thickBot="1">
+    <row r="164" spans="1:7" customFormat="1" ht="45.75" thickBot="1">
       <c r="A164" s="3">
         <v>163</v>
       </c>
@@ -5822,7 +5966,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="165" spans="1:7" ht="30.75" thickBot="1">
+    <row r="165" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A165" s="3">
         <v>164</v>
       </c>
@@ -5843,7 +5987,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="166" spans="1:7" ht="30.75" thickBot="1">
+    <row r="166" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A166" s="3">
         <v>165</v>
       </c>
@@ -5864,7 +6008,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="167" spans="1:7" ht="30.75" thickBot="1">
+    <row r="167" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A167" s="3">
         <v>166</v>
       </c>
@@ -5885,7 +6029,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="168" spans="1:7" ht="30.75" thickBot="1">
+    <row r="168" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A168" s="3">
         <v>167</v>
       </c>
@@ -5906,7 +6050,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="169" spans="1:7" ht="30.75" thickBot="1">
+    <row r="169" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A169" s="3">
         <v>168</v>
       </c>
@@ -5927,7 +6071,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="170" spans="1:7" ht="30.75" thickBot="1">
+    <row r="170" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A170" s="3">
         <v>169</v>
       </c>
@@ -5948,7 +6092,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="171" spans="1:7" ht="30.75" thickBot="1">
+    <row r="171" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A171" s="3">
         <v>170</v>
       </c>
@@ -5969,7 +6113,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="172" spans="1:7" ht="30.75" thickBot="1">
+    <row r="172" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A172" s="3">
         <v>171</v>
       </c>
@@ -5990,7 +6134,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="173" spans="1:7" ht="30.75" thickBot="1">
+    <row r="173" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A173" s="3">
         <v>172</v>
       </c>
@@ -6011,7 +6155,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="174" spans="1:7" ht="30.75" thickBot="1">
+    <row r="174" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A174" s="3">
         <v>173</v>
       </c>
@@ -6032,7 +6176,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="175" spans="1:7" ht="30.75" thickBot="1">
+    <row r="175" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A175" s="3">
         <v>174</v>
       </c>
@@ -6053,7 +6197,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="176" spans="1:7" ht="30.75" thickBot="1">
+    <row r="176" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A176" s="3">
         <v>175</v>
       </c>
@@ -6074,7 +6218,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="177" spans="1:7" ht="60.75" thickBot="1">
+    <row r="177" spans="1:8" ht="60.75" thickBot="1">
       <c r="A177" s="3">
         <v>176</v>
       </c>
@@ -6094,8 +6238,9 @@
       <c r="G177" s="7" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="178" spans="1:7" ht="15.75" thickBot="1">
+      <c r="H177"/>
+    </row>
+    <row r="178" spans="1:8" ht="15.75" thickBot="1">
       <c r="A178" s="3">
         <v>177</v>
       </c>
@@ -6115,8 +6260,9 @@
       <c r="G178" s="7" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="179" spans="1:7" ht="30.75" thickBot="1">
+      <c r="H178"/>
+    </row>
+    <row r="179" spans="1:8" ht="30.75" thickBot="1">
       <c r="A179" s="3">
         <v>178</v>
       </c>
@@ -6138,8 +6284,9 @@
       <c r="G179" s="7" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="180" spans="1:7">
+      <c r="H179"/>
+    </row>
+    <row r="180" spans="1:8">
       <c r="A180" s="10"/>
       <c r="B180" s="24" t="s">
         <v>297</v>
@@ -6159,8 +6306,9 @@
       <c r="G180" s="28" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="181" spans="1:7" ht="15.75" thickBot="1">
+      <c r="H180"/>
+    </row>
+    <row r="181" spans="1:8" ht="15.75" thickBot="1">
       <c r="A181" s="3">
         <v>179</v>
       </c>
@@ -6170,8 +6318,9 @@
       <c r="E181" s="31"/>
       <c r="F181" s="31"/>
       <c r="G181" s="29"/>
-    </row>
-    <row r="182" spans="1:7" ht="30.75" thickBot="1">
+      <c r="H181"/>
+    </row>
+    <row r="182" spans="1:8" ht="30.75" thickBot="1">
       <c r="A182" s="3">
         <v>180</v>
       </c>
@@ -6193,8 +6342,9 @@
       <c r="G182" s="7" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="183" spans="1:7" ht="30.75" thickBot="1">
+      <c r="H182"/>
+    </row>
+    <row r="183" spans="1:8" ht="30.75" thickBot="1">
       <c r="A183" s="3">
         <v>181</v>
       </c>
@@ -6216,8 +6366,9 @@
       <c r="G183" s="7" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="184" spans="1:7" ht="30.75" thickBot="1">
+      <c r="H183"/>
+    </row>
+    <row r="184" spans="1:8" ht="30.75" thickBot="1">
       <c r="A184" s="3">
         <v>182</v>
       </c>
@@ -6240,7 +6391,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="185" spans="1:7" ht="30.75" thickBot="1">
+    <row r="185" spans="1:8" ht="30.75" thickBot="1">
       <c r="A185" s="3">
         <v>183</v>
       </c>
@@ -6262,6 +6413,7 @@
       <c r="G185" s="7" t="s">
         <v>378</v>
       </c>
+      <c r="H185"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G185"/>
@@ -6273,105 +6425,105 @@
     <mergeCell ref="E180:E181"/>
     <mergeCell ref="F180:F181"/>
   </mergeCells>
-  <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="containsText" dxfId="29" priority="30" operator="containsText" text="Sin Empezar">
+  <conditionalFormatting sqref="F1:F1048576 H63">
+    <cfRule type="containsText" dxfId="34" priority="30" operator="containsText" text="Sin Empezar">
       <formula>NOT(ISERROR(SEARCH("Sin Empezar",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="29" operator="containsText" text="Finalizado">
+    <cfRule type="containsText" dxfId="33" priority="29" operator="containsText" text="Finalizado">
       <formula>NOT(ISERROR(SEARCH("Finalizado",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="28" operator="containsText" text="En Progreso">
+    <cfRule type="containsText" dxfId="32" priority="28" operator="containsText" text="En Progreso">
       <formula>NOT(ISERROR(SEARCH("En Progreso",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="27" operator="containsText" text="Implementado">
+    <cfRule type="containsText" dxfId="31" priority="27" operator="containsText" text="Implementado">
       <formula>NOT(ISERROR(SEARCH("Implementado",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="26" operator="containsText" text="Testeado con errores">
+    <cfRule type="containsText" dxfId="30" priority="26" operator="containsText" text="Testeado con errores">
       <formula>NOT(ISERROR(SEARCH("Testeado con errores",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L15">
-    <cfRule type="containsText" dxfId="24" priority="21" operator="containsText" text="Testeado con errores">
+    <cfRule type="containsText" dxfId="29" priority="21" operator="containsText" text="Testeado con errores">
       <formula>NOT(ISERROR(SEARCH("Testeado con errores",L15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="22" operator="containsText" text="Implementado">
+    <cfRule type="containsText" dxfId="28" priority="22" operator="containsText" text="Implementado">
       <formula>NOT(ISERROR(SEARCH("Implementado",L15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="23" operator="containsText" text="En Progreso">
+    <cfRule type="containsText" dxfId="27" priority="23" operator="containsText" text="En Progreso">
       <formula>NOT(ISERROR(SEARCH("En Progreso",L15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="24" operator="containsText" text="Finalizado">
+    <cfRule type="containsText" dxfId="26" priority="24" operator="containsText" text="Finalizado">
       <formula>NOT(ISERROR(SEARCH("Finalizado",L15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="25" operator="containsText" text="Sin Empezar">
+    <cfRule type="containsText" dxfId="25" priority="25" operator="containsText" text="Sin Empezar">
       <formula>NOT(ISERROR(SEARCH("Sin Empezar",L15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L16">
-    <cfRule type="containsText" dxfId="19" priority="16" operator="containsText" text="Testeado con errores">
+    <cfRule type="containsText" dxfId="24" priority="16" operator="containsText" text="Testeado con errores">
       <formula>NOT(ISERROR(SEARCH("Testeado con errores",L16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="17" operator="containsText" text="Implementado">
+    <cfRule type="containsText" dxfId="23" priority="17" operator="containsText" text="Implementado">
       <formula>NOT(ISERROR(SEARCH("Implementado",L16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="18" operator="containsText" text="En Progreso">
+    <cfRule type="containsText" dxfId="22" priority="18" operator="containsText" text="En Progreso">
       <formula>NOT(ISERROR(SEARCH("En Progreso",L16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="19" operator="containsText" text="Finalizado">
+    <cfRule type="containsText" dxfId="21" priority="19" operator="containsText" text="Finalizado">
       <formula>NOT(ISERROR(SEARCH("Finalizado",L16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="20" operator="containsText" text="Sin Empezar">
+    <cfRule type="containsText" dxfId="20" priority="20" operator="containsText" text="Sin Empezar">
       <formula>NOT(ISERROR(SEARCH("Sin Empezar",L16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L17">
-    <cfRule type="containsText" dxfId="14" priority="11" operator="containsText" text="Testeado con errores">
+    <cfRule type="containsText" dxfId="19" priority="11" operator="containsText" text="Testeado con errores">
       <formula>NOT(ISERROR(SEARCH("Testeado con errores",L17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="12" operator="containsText" text="Implementado">
+    <cfRule type="containsText" dxfId="18" priority="12" operator="containsText" text="Implementado">
       <formula>NOT(ISERROR(SEARCH("Implementado",L17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="En Progreso">
+    <cfRule type="containsText" dxfId="17" priority="13" operator="containsText" text="En Progreso">
       <formula>NOT(ISERROR(SEARCH("En Progreso",L17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="14" operator="containsText" text="Finalizado">
+    <cfRule type="containsText" dxfId="16" priority="14" operator="containsText" text="Finalizado">
       <formula>NOT(ISERROR(SEARCH("Finalizado",L17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="15" operator="containsText" text="Sin Empezar">
+    <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="Sin Empezar">
       <formula>NOT(ISERROR(SEARCH("Sin Empezar",L17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L18">
-    <cfRule type="containsText" dxfId="9" priority="6" operator="containsText" text="Testeado con errores">
+    <cfRule type="containsText" dxfId="14" priority="6" operator="containsText" text="Testeado con errores">
       <formula>NOT(ISERROR(SEARCH("Testeado con errores",L18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="Implementado">
+    <cfRule type="containsText" dxfId="13" priority="7" operator="containsText" text="Implementado">
       <formula>NOT(ISERROR(SEARCH("Implementado",L18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="En Progreso">
+    <cfRule type="containsText" dxfId="12" priority="8" operator="containsText" text="En Progreso">
       <formula>NOT(ISERROR(SEARCH("En Progreso",L18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="Finalizado">
+    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="Finalizado">
       <formula>NOT(ISERROR(SEARCH("Finalizado",L18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="10" operator="containsText" text="Sin Empezar">
+    <cfRule type="containsText" dxfId="10" priority="10" operator="containsText" text="Sin Empezar">
       <formula>NOT(ISERROR(SEARCH("Sin Empezar",L18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L19">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="Testeado con errores">
+    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="Testeado con errores">
       <formula>NOT(ISERROR(SEARCH("Testeado con errores",L19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="Implementado">
+    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="Implementado">
       <formula>NOT(ISERROR(SEARCH("Implementado",L19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="En Progreso">
+    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="En Progreso">
       <formula>NOT(ISERROR(SEARCH("En Progreso",L19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="Finalizado">
+    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="Finalizado">
       <formula>NOT(ISERROR(SEARCH("Finalizado",L19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="5" operator="containsText" text="Sin Empezar">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="Sin Empezar">
       <formula>NOT(ISERROR(SEARCH("Sin Empezar",L19)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Planificacion/PlanificacionTesis.xlsx
+++ b/Planificacion/PlanificacionTesis.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="30" windowWidth="18915" windowHeight="8505"/>
@@ -14,7 +14,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$G$185</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -1534,6 +1534,15 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1558,58 +1567,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="35">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="30">
     <dxf>
       <font>
         <color auto="1"/>
@@ -2133,10 +2095,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:L185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="F70" sqref="F70"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F130" sqref="F130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="119.42578125" defaultRowHeight="15"/>
@@ -2148,7 +2111,7 @@
     <col min="5" max="5" width="14.28515625" style="17" customWidth="1"/>
     <col min="6" max="6" width="20.5703125" style="17" customWidth="1"/>
     <col min="7" max="7" width="98.42578125" customWidth="1"/>
-    <col min="8" max="8" width="52.7109375" style="32" customWidth="1"/>
+    <col min="8" max="8" width="52.7109375" style="24" customWidth="1"/>
     <col min="9" max="9" width="19.7109375" customWidth="1"/>
     <col min="10" max="10" width="16" customWidth="1"/>
     <col min="11" max="11" width="13.85546875" customWidth="1"/>
@@ -2178,7 +2141,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="30.75" thickBot="1">
+    <row r="2" spans="1:12" ht="30.75" hidden="1" thickBot="1">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2282,7 +2245,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" thickBot="1">
+    <row r="6" spans="1:12" ht="15.75" hidden="1" thickBot="1">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -2299,7 +2262,7 @@
         <v>389</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>15</v>
@@ -2333,7 +2296,7 @@
       </c>
       <c r="H7"/>
     </row>
-    <row r="8" spans="1:12" ht="15.75" thickBot="1">
+    <row r="8" spans="1:12" ht="15.75" hidden="1" thickBot="1">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -2359,7 +2322,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="30.75" thickBot="1">
+    <row r="9" spans="1:12" ht="30.75" hidden="1" thickBot="1">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -2385,7 +2348,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="30.75" thickBot="1">
+    <row r="10" spans="1:12" ht="30.75" hidden="1" thickBot="1">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -2410,7 +2373,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="30.75" thickBot="1">
+    <row r="11" spans="1:12" ht="30.75" hidden="1" thickBot="1">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -2436,7 +2399,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="30.75" thickBot="1">
+    <row r="12" spans="1:12" ht="30.75" hidden="1" thickBot="1">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -2462,7 +2425,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="30.75" thickBot="1">
+    <row r="13" spans="1:12" ht="30.75" hidden="1" thickBot="1">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -2485,7 +2448,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="30.75" thickBot="1">
+    <row r="14" spans="1:12" ht="30.75" hidden="1" thickBot="1">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -2511,7 +2474,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15.75" thickBot="1">
+    <row r="15" spans="1:12" ht="15.75" hidden="1" thickBot="1">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -2536,7 +2499,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="30.75" thickBot="1">
+    <row r="16" spans="1:12" ht="30.75" hidden="1" thickBot="1">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -2561,7 +2524,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15.75" thickBot="1">
+    <row r="17" spans="1:12" ht="15.75" hidden="1" thickBot="1">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -2587,7 +2550,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="30.75" thickBot="1">
+    <row r="18" spans="1:12" ht="30.75" hidden="1" thickBot="1">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -2613,7 +2576,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15.75" thickBot="1">
+    <row r="19" spans="1:12" ht="15.75" hidden="1" thickBot="1">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -2639,7 +2602,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15.75" thickBot="1">
+    <row r="20" spans="1:12" ht="15.75" hidden="1" thickBot="1">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -2662,7 +2625,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15.75" thickBot="1">
+    <row r="21" spans="1:12" ht="15.75" hidden="1" thickBot="1">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -2685,7 +2648,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15.75" thickBot="1">
+    <row r="22" spans="1:12" ht="15.75" hidden="1" thickBot="1">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -2707,7 +2670,7 @@
       </c>
       <c r="H22"/>
     </row>
-    <row r="23" spans="1:12" ht="30.75" thickBot="1">
+    <row r="23" spans="1:12" ht="30.75" hidden="1" thickBot="1">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -2729,7 +2692,7 @@
       </c>
       <c r="H23"/>
     </row>
-    <row r="24" spans="1:12" ht="30.75" thickBot="1">
+    <row r="24" spans="1:12" ht="30.75" hidden="1" thickBot="1">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -2751,7 +2714,7 @@
       </c>
       <c r="H24"/>
     </row>
-    <row r="25" spans="1:12" ht="30.75" thickBot="1">
+    <row r="25" spans="1:12" ht="30.75" hidden="1" thickBot="1">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -2773,7 +2736,7 @@
       </c>
       <c r="H25"/>
     </row>
-    <row r="26" spans="1:12" ht="30.75" thickBot="1">
+    <row r="26" spans="1:12" ht="30.75" hidden="1" thickBot="1">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -2795,7 +2758,7 @@
       </c>
       <c r="H26"/>
     </row>
-    <row r="27" spans="1:12" ht="15.75" thickBot="1">
+    <row r="27" spans="1:12" ht="15.75" hidden="1" thickBot="1">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -2841,7 +2804,7 @@
       </c>
       <c r="H28"/>
     </row>
-    <row r="29" spans="1:12" ht="15.75" thickBot="1">
+    <row r="29" spans="1:12" ht="15.75" hidden="1" thickBot="1">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -2863,7 +2826,7 @@
       </c>
       <c r="H29"/>
     </row>
-    <row r="30" spans="1:12" ht="30.75" thickBot="1">
+    <row r="30" spans="1:12" ht="30.75" hidden="1" thickBot="1">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -2885,7 +2848,7 @@
       </c>
       <c r="H30"/>
     </row>
-    <row r="31" spans="1:12" ht="15.75" thickBot="1">
+    <row r="31" spans="1:12" ht="15.75" hidden="1" thickBot="1">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -2908,7 +2871,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="15.75" thickBot="1">
+    <row r="32" spans="1:12" ht="15.75" hidden="1" thickBot="1">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -2930,7 +2893,7 @@
       </c>
       <c r="H32"/>
     </row>
-    <row r="33" spans="1:8" ht="30.75" thickBot="1">
+    <row r="33" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -2952,7 +2915,7 @@
       </c>
       <c r="H33"/>
     </row>
-    <row r="34" spans="1:8" ht="15.75" thickBot="1">
+    <row r="34" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -2975,7 +2938,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="30.75" thickBot="1">
+    <row r="35" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -2999,7 +2962,7 @@
       </c>
       <c r="H35"/>
     </row>
-    <row r="36" spans="1:8" ht="15.75" thickBot="1">
+    <row r="36" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -3021,7 +2984,7 @@
       </c>
       <c r="H36"/>
     </row>
-    <row r="37" spans="1:8" ht="15.75" thickBot="1">
+    <row r="37" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -3043,7 +3006,7 @@
       </c>
       <c r="H37"/>
     </row>
-    <row r="38" spans="1:8" ht="15.75" thickBot="1">
+    <row r="38" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -3065,7 +3028,7 @@
       </c>
       <c r="H38"/>
     </row>
-    <row r="39" spans="1:8" ht="15.75" thickBot="1">
+    <row r="39" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -3087,7 +3050,7 @@
       </c>
       <c r="H39"/>
     </row>
-    <row r="40" spans="1:8" ht="15.75" thickBot="1">
+    <row r="40" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -3109,7 +3072,7 @@
       </c>
       <c r="H40"/>
     </row>
-    <row r="41" spans="1:8" ht="15.75" thickBot="1">
+    <row r="41" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -3131,7 +3094,7 @@
       </c>
       <c r="H41"/>
     </row>
-    <row r="42" spans="1:8" ht="15.75" thickBot="1">
+    <row r="42" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -3153,7 +3116,7 @@
       </c>
       <c r="H42"/>
     </row>
-    <row r="43" spans="1:8" ht="15.75" thickBot="1">
+    <row r="43" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -3199,7 +3162,7 @@
       </c>
       <c r="H44"/>
     </row>
-    <row r="45" spans="1:8" ht="15.75" thickBot="1">
+    <row r="45" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -3246,7 +3209,7 @@
       </c>
       <c r="H46"/>
     </row>
-    <row r="47" spans="1:8" ht="30.75" thickBot="1">
+    <row r="47" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -3268,7 +3231,7 @@
       </c>
       <c r="H47"/>
     </row>
-    <row r="48" spans="1:8" ht="30.75" thickBot="1">
+    <row r="48" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -3292,7 +3255,7 @@
       </c>
       <c r="H48"/>
     </row>
-    <row r="49" spans="1:8" ht="15.75" thickBot="1">
+    <row r="49" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -3316,7 +3279,7 @@
       </c>
       <c r="H49"/>
     </row>
-    <row r="50" spans="1:8" ht="15.75" thickBot="1">
+    <row r="50" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -3340,7 +3303,7 @@
       </c>
       <c r="H50"/>
     </row>
-    <row r="51" spans="1:8" ht="30.75" thickBot="1">
+    <row r="51" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -3554,7 +3517,7 @@
       </c>
       <c r="H59"/>
     </row>
-    <row r="60" spans="1:8" ht="15.75" thickBot="1">
+    <row r="60" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -3578,7 +3541,7 @@
       </c>
       <c r="H60"/>
     </row>
-    <row r="61" spans="1:8" ht="15.75" thickBot="1">
+    <row r="61" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -3602,7 +3565,7 @@
       </c>
       <c r="H61"/>
     </row>
-    <row r="62" spans="1:8" ht="15.75" thickBot="1">
+    <row r="62" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -3626,7 +3589,7 @@
       </c>
       <c r="H62"/>
     </row>
-    <row r="63" spans="1:8" ht="60.75" thickBot="1">
+    <row r="63" spans="1:8" ht="60.75" hidden="1" thickBot="1">
       <c r="A63" s="3">
         <v>62</v>
       </c>
@@ -3645,14 +3608,14 @@
       <c r="F63" s="16" t="s">
         <v>393</v>
       </c>
-      <c r="G63" s="33" t="s">
+      <c r="G63" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="H63" s="34" t="s">
+      <c r="H63" s="26" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="30.75" thickBot="1">
+    <row r="64" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A64" s="3">
         <v>63</v>
       </c>
@@ -3771,7 +3734,7 @@
       </c>
       <c r="H68"/>
     </row>
-    <row r="69" spans="1:8" ht="30.75" thickBot="1">
+    <row r="69" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A69" s="3">
         <v>68</v>
       </c>
@@ -3794,7 +3757,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="15.75" thickBot="1">
+    <row r="70" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A70" s="3">
         <v>69</v>
       </c>
@@ -3817,7 +3780,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="30.75" thickBot="1">
+    <row r="71" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A71" s="3">
         <v>70</v>
       </c>
@@ -3840,7 +3803,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="15.75" thickBot="1">
+    <row r="72" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A72" s="3">
         <v>71</v>
       </c>
@@ -3863,7 +3826,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="30.75" thickBot="1">
+    <row r="73" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A73" s="3">
         <v>72</v>
       </c>
@@ -3910,7 +3873,7 @@
       </c>
       <c r="H74"/>
     </row>
-    <row r="75" spans="1:8" ht="15.75" thickBot="1">
+    <row r="75" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A75" s="3">
         <v>74</v>
       </c>
@@ -3932,7 +3895,7 @@
       </c>
       <c r="H75"/>
     </row>
-    <row r="76" spans="1:8" ht="30.75" thickBot="1">
+    <row r="76" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A76" s="3">
         <v>75</v>
       </c>
@@ -3978,7 +3941,7 @@
       </c>
       <c r="H77"/>
     </row>
-    <row r="78" spans="1:8" ht="15.75" thickBot="1">
+    <row r="78" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A78" s="3">
         <v>77</v>
       </c>
@@ -4001,7 +3964,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="15.75" thickBot="1">
+    <row r="79" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A79" s="3">
         <v>78</v>
       </c>
@@ -4024,7 +3987,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="15.75" thickBot="1">
+    <row r="80" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A80" s="3">
         <v>79</v>
       </c>
@@ -4047,7 +4010,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15.75" thickBot="1">
+    <row r="81" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A81" s="3">
         <v>80</v>
       </c>
@@ -4070,7 +4033,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="15.75" thickBot="1">
+    <row r="82" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A82" s="3">
         <v>81</v>
       </c>
@@ -4093,7 +4056,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="15.75" thickBot="1">
+    <row r="83" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A83" s="3">
         <v>82</v>
       </c>
@@ -4116,7 +4079,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="15.75" thickBot="1">
+    <row r="84" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A84" s="3">
         <v>83</v>
       </c>
@@ -4139,7 +4102,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15.75" thickBot="1">
+    <row r="85" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A85" s="3">
         <v>84</v>
       </c>
@@ -4258,7 +4221,7 @@
       </c>
       <c r="H89"/>
     </row>
-    <row r="90" spans="1:8" ht="15.75" thickBot="1">
+    <row r="90" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A90" s="3">
         <v>89</v>
       </c>
@@ -4281,7 +4244,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="15.75" thickBot="1">
+    <row r="91" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A91" s="3">
         <v>90</v>
       </c>
@@ -4304,7 +4267,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="15.75" thickBot="1">
+    <row r="92" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A92" s="3">
         <v>91</v>
       </c>
@@ -4327,7 +4290,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="15.75" thickBot="1">
+    <row r="93" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A93" s="3">
         <v>92</v>
       </c>
@@ -4350,7 +4313,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="30.75" thickBot="1">
+    <row r="94" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A94" s="3">
         <v>93</v>
       </c>
@@ -4374,7 +4337,7 @@
       </c>
       <c r="H94"/>
     </row>
-    <row r="95" spans="1:8" ht="15.75" thickBot="1">
+    <row r="95" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A95" s="3">
         <v>94</v>
       </c>
@@ -4398,7 +4361,7 @@
       </c>
       <c r="H95"/>
     </row>
-    <row r="96" spans="1:8" ht="30.75" thickBot="1">
+    <row r="96" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A96" s="3">
         <v>95</v>
       </c>
@@ -4422,7 +4385,7 @@
       </c>
       <c r="H96"/>
     </row>
-    <row r="97" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+    <row r="97" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
       <c r="A97" s="3">
         <v>96</v>
       </c>
@@ -4445,7 +4408,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="98" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+    <row r="98" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
       <c r="A98" s="3">
         <v>97</v>
       </c>
@@ -4468,7 +4431,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="99" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="99" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A99" s="3">
         <v>98</v>
       </c>
@@ -4491,7 +4454,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="100" spans="1:7" customFormat="1" ht="45.75" thickBot="1">
+    <row r="100" spans="1:7" customFormat="1" ht="45.75" hidden="1" thickBot="1">
       <c r="A100" s="3">
         <v>99</v>
       </c>
@@ -4514,7 +4477,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="101" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+    <row r="101" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
       <c r="A101" s="3">
         <v>100</v>
       </c>
@@ -4537,7 +4500,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="102" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="102" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A102" s="3">
         <v>101</v>
       </c>
@@ -4558,7 +4521,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="103" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+    <row r="103" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
       <c r="A103" s="3">
         <v>102</v>
       </c>
@@ -4581,7 +4544,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="104" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+    <row r="104" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
       <c r="A104" s="3">
         <v>103</v>
       </c>
@@ -4604,7 +4567,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="105" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="105" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A105" s="3">
         <v>104</v>
       </c>
@@ -4694,7 +4657,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="109" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="109" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A109" s="3">
         <v>108</v>
       </c>
@@ -4715,7 +4678,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="110" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="110" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A110" s="3">
         <v>109</v>
       </c>
@@ -4736,7 +4699,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="111" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="111" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A111" s="3">
         <v>110</v>
       </c>
@@ -4782,7 +4745,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="45.75" thickBot="1">
+    <row r="113" spans="1:8" ht="45.75" hidden="1" thickBot="1">
       <c r="A113" s="3">
         <v>112</v>
       </c>
@@ -4805,7 +4768,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="30.75" thickBot="1">
+    <row r="114" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A114" s="3">
         <v>113</v>
       </c>
@@ -4828,7 +4791,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="45.75" thickBot="1">
+    <row r="115" spans="1:8" ht="45.75" hidden="1" thickBot="1">
       <c r="A115" s="3">
         <v>114</v>
       </c>
@@ -4851,7 +4814,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="15.75" thickBot="1">
+    <row r="116" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A116" s="3">
         <v>115</v>
       </c>
@@ -4874,7 +4837,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="15.75" thickBot="1">
+    <row r="117" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A117" s="3">
         <v>116</v>
       </c>
@@ -4897,7 +4860,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="30.75" thickBot="1">
+    <row r="118" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A118" s="3">
         <v>117</v>
       </c>
@@ -4920,7 +4883,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="15.75" thickBot="1">
+    <row r="119" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A119" s="3">
         <v>118</v>
       </c>
@@ -4943,7 +4906,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="30.75" thickBot="1">
+    <row r="120" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A120" s="3">
         <v>119</v>
       </c>
@@ -4966,7 +4929,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="15.75" thickBot="1">
+    <row r="121" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A121" s="3">
         <v>120</v>
       </c>
@@ -4989,7 +4952,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="15.75" thickBot="1">
+    <row r="122" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A122" s="3">
         <v>121</v>
       </c>
@@ -5101,7 +5064,7 @@
         <v>387</v>
       </c>
       <c r="F126" s="16" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="G126" s="7" t="s">
         <v>260</v>
@@ -5125,7 +5088,7 @@
         <v>387</v>
       </c>
       <c r="F127" s="16" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="G127" s="7" t="s">
         <v>262</v>
@@ -5149,7 +5112,7 @@
         <v>387</v>
       </c>
       <c r="F128" s="16" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="G128" s="7" t="s">
         <v>264</v>
@@ -5173,7 +5136,7 @@
         <v>387</v>
       </c>
       <c r="F129" s="16" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="G129" s="7" t="s">
         <v>266</v>
@@ -5317,7 +5280,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="136" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="136" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A136" s="3">
         <v>135</v>
       </c>
@@ -5384,7 +5347,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="139" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="139" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A139" s="3">
         <v>138</v>
       </c>
@@ -5405,7 +5368,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="140" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="140" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A140" s="3">
         <v>139</v>
       </c>
@@ -5426,7 +5389,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="141" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="141" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A141" s="3">
         <v>140</v>
       </c>
@@ -5447,7 +5410,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="142" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="142" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A142" s="3">
         <v>141</v>
       </c>
@@ -5468,7 +5431,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="143" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="143" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A143" s="3">
         <v>142</v>
       </c>
@@ -5489,7 +5452,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="144" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="144" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A144" s="3">
         <v>143</v>
       </c>
@@ -5510,7 +5473,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="145" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+    <row r="145" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
       <c r="A145" s="3">
         <v>144</v>
       </c>
@@ -5533,7 +5496,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="146" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+    <row r="146" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
       <c r="A146" s="3">
         <v>145</v>
       </c>
@@ -5556,7 +5519,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="147" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+    <row r="147" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
       <c r="A147" s="3">
         <v>146</v>
       </c>
@@ -5579,7 +5542,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="148" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+    <row r="148" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
       <c r="A148" s="3">
         <v>147</v>
       </c>
@@ -5602,7 +5565,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="149" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+    <row r="149" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
       <c r="A149" s="3">
         <v>148</v>
       </c>
@@ -5625,7 +5588,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="150" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+    <row r="150" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
       <c r="A150" s="3">
         <v>149</v>
       </c>
@@ -5648,7 +5611,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="151" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+    <row r="151" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
       <c r="A151" s="3">
         <v>150</v>
       </c>
@@ -5671,7 +5634,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="152" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+    <row r="152" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
       <c r="A152" s="3">
         <v>151</v>
       </c>
@@ -5694,7 +5657,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="153" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+    <row r="153" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
       <c r="A153" s="3">
         <v>152</v>
       </c>
@@ -5717,7 +5680,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="154" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+    <row r="154" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
       <c r="A154" s="3">
         <v>153</v>
       </c>
@@ -5740,7 +5703,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="155" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+    <row r="155" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
       <c r="A155" s="3">
         <v>154</v>
       </c>
@@ -5763,7 +5726,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="156" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+    <row r="156" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
       <c r="A156" s="3">
         <v>155</v>
       </c>
@@ -5786,7 +5749,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="157" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+    <row r="157" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
       <c r="A157" s="3">
         <v>156</v>
       </c>
@@ -5809,7 +5772,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="158" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+    <row r="158" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
       <c r="A158" s="3">
         <v>157</v>
       </c>
@@ -5832,7 +5795,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="159" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+    <row r="159" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
       <c r="A159" s="3">
         <v>158</v>
       </c>
@@ -5855,7 +5818,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="160" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+    <row r="160" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
       <c r="A160" s="3">
         <v>159</v>
       </c>
@@ -5878,7 +5841,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="161" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+    <row r="161" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
       <c r="A161" s="3">
         <v>160</v>
       </c>
@@ -5901,7 +5864,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="162" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+    <row r="162" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
       <c r="A162" s="3">
         <v>161</v>
       </c>
@@ -5924,7 +5887,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="163" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+    <row r="163" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
       <c r="A163" s="3">
         <v>162</v>
       </c>
@@ -5945,7 +5908,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="164" spans="1:7" customFormat="1" ht="45.75" thickBot="1">
+    <row r="164" spans="1:7" customFormat="1" ht="45.75" hidden="1" thickBot="1">
       <c r="A164" s="3">
         <v>163</v>
       </c>
@@ -5966,7 +5929,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="165" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+    <row r="165" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
       <c r="A165" s="3">
         <v>164</v>
       </c>
@@ -5987,7 +5950,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="166" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+    <row r="166" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
       <c r="A166" s="3">
         <v>165</v>
       </c>
@@ -6008,7 +5971,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="167" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+    <row r="167" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
       <c r="A167" s="3">
         <v>166</v>
       </c>
@@ -6029,7 +5992,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="168" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+    <row r="168" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
       <c r="A168" s="3">
         <v>167</v>
       </c>
@@ -6050,7 +6013,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="169" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+    <row r="169" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
       <c r="A169" s="3">
         <v>168</v>
       </c>
@@ -6071,7 +6034,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="170" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+    <row r="170" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
       <c r="A170" s="3">
         <v>169</v>
       </c>
@@ -6092,7 +6055,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="171" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+    <row r="171" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
       <c r="A171" s="3">
         <v>170</v>
       </c>
@@ -6113,7 +6076,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="172" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+    <row r="172" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
       <c r="A172" s="3">
         <v>171</v>
       </c>
@@ -6134,7 +6097,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="173" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+    <row r="173" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
       <c r="A173" s="3">
         <v>172</v>
       </c>
@@ -6155,7 +6118,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="174" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+    <row r="174" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
       <c r="A174" s="3">
         <v>173</v>
       </c>
@@ -6176,7 +6139,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="175" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+    <row r="175" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
       <c r="A175" s="3">
         <v>174</v>
       </c>
@@ -6197,7 +6160,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="176" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+    <row r="176" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
       <c r="A176" s="3">
         <v>175</v>
       </c>
@@ -6218,7 +6181,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="177" spans="1:8" ht="60.75" thickBot="1">
+    <row r="177" spans="1:8" ht="60.75" hidden="1" thickBot="1">
       <c r="A177" s="3">
         <v>176</v>
       </c>
@@ -6240,7 +6203,7 @@
       </c>
       <c r="H177"/>
     </row>
-    <row r="178" spans="1:8" ht="15.75" thickBot="1">
+    <row r="178" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A178" s="3">
         <v>177</v>
       </c>
@@ -6286,41 +6249,41 @@
       </c>
       <c r="H179"/>
     </row>
-    <row r="180" spans="1:8">
+    <row r="180" spans="1:8" hidden="1">
       <c r="A180" s="10"/>
-      <c r="B180" s="24" t="s">
+      <c r="B180" s="27" t="s">
         <v>297</v>
       </c>
-      <c r="C180" s="26" t="s">
+      <c r="C180" s="29" t="s">
         <v>369</v>
       </c>
-      <c r="D180" s="30" t="s">
-        <v>385</v>
-      </c>
-      <c r="E180" s="30" t="s">
+      <c r="D180" s="33" t="s">
+        <v>385</v>
+      </c>
+      <c r="E180" s="33" t="s">
         <v>386</v>
       </c>
-      <c r="F180" s="30" t="s">
-        <v>390</v>
-      </c>
-      <c r="G180" s="28" t="s">
+      <c r="F180" s="33" t="s">
+        <v>390</v>
+      </c>
+      <c r="G180" s="31" t="s">
         <v>370</v>
       </c>
       <c r="H180"/>
     </row>
-    <row r="181" spans="1:8" ht="15.75" thickBot="1">
+    <row r="181" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A181" s="3">
         <v>179</v>
       </c>
-      <c r="B181" s="25"/>
-      <c r="C181" s="27"/>
-      <c r="D181" s="31"/>
-      <c r="E181" s="31"/>
-      <c r="F181" s="31"/>
-      <c r="G181" s="29"/>
+      <c r="B181" s="28"/>
+      <c r="C181" s="30"/>
+      <c r="D181" s="34"/>
+      <c r="E181" s="34"/>
+      <c r="F181" s="34"/>
+      <c r="G181" s="32"/>
       <c r="H181"/>
     </row>
-    <row r="182" spans="1:8" ht="30.75" thickBot="1">
+    <row r="182" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A182" s="3">
         <v>180</v>
       </c>
@@ -6344,7 +6307,7 @@
       </c>
       <c r="H182"/>
     </row>
-    <row r="183" spans="1:8" ht="30.75" thickBot="1">
+    <row r="183" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A183" s="3">
         <v>181</v>
       </c>
@@ -6368,7 +6331,7 @@
       </c>
       <c r="H183"/>
     </row>
-    <row r="184" spans="1:8" ht="30.75" thickBot="1">
+    <row r="184" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A184" s="3">
         <v>182</v>
       </c>
@@ -6391,7 +6354,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="185" spans="1:8" ht="30.75" thickBot="1">
+    <row r="185" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A185" s="3">
         <v>183</v>
       </c>
@@ -6416,7 +6379,13 @@
       <c r="H185"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G185"/>
+  <autoFilter ref="A1:G185">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="Vicky"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="6">
     <mergeCell ref="B180:B181"/>
     <mergeCell ref="C180:C181"/>
@@ -6426,104 +6395,104 @@
     <mergeCell ref="F180:F181"/>
   </mergeCells>
   <conditionalFormatting sqref="F1:F1048576 H63">
-    <cfRule type="containsText" dxfId="34" priority="30" operator="containsText" text="Sin Empezar">
+    <cfRule type="containsText" dxfId="29" priority="30" operator="containsText" text="Sin Empezar">
       <formula>NOT(ISERROR(SEARCH("Sin Empezar",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="29" operator="containsText" text="Finalizado">
+    <cfRule type="containsText" dxfId="28" priority="29" operator="containsText" text="Finalizado">
       <formula>NOT(ISERROR(SEARCH("Finalizado",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="28" operator="containsText" text="En Progreso">
+    <cfRule type="containsText" dxfId="27" priority="28" operator="containsText" text="En Progreso">
       <formula>NOT(ISERROR(SEARCH("En Progreso",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="27" operator="containsText" text="Implementado">
+    <cfRule type="containsText" dxfId="26" priority="27" operator="containsText" text="Implementado">
       <formula>NOT(ISERROR(SEARCH("Implementado",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="26" operator="containsText" text="Testeado con errores">
+    <cfRule type="containsText" dxfId="25" priority="26" operator="containsText" text="Testeado con errores">
       <formula>NOT(ISERROR(SEARCH("Testeado con errores",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L15">
-    <cfRule type="containsText" dxfId="29" priority="21" operator="containsText" text="Testeado con errores">
+    <cfRule type="containsText" dxfId="24" priority="21" operator="containsText" text="Testeado con errores">
       <formula>NOT(ISERROR(SEARCH("Testeado con errores",L15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="22" operator="containsText" text="Implementado">
+    <cfRule type="containsText" dxfId="23" priority="22" operator="containsText" text="Implementado">
       <formula>NOT(ISERROR(SEARCH("Implementado",L15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="23" operator="containsText" text="En Progreso">
+    <cfRule type="containsText" dxfId="22" priority="23" operator="containsText" text="En Progreso">
       <formula>NOT(ISERROR(SEARCH("En Progreso",L15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="24" operator="containsText" text="Finalizado">
+    <cfRule type="containsText" dxfId="21" priority="24" operator="containsText" text="Finalizado">
       <formula>NOT(ISERROR(SEARCH("Finalizado",L15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="25" operator="containsText" text="Sin Empezar">
+    <cfRule type="containsText" dxfId="20" priority="25" operator="containsText" text="Sin Empezar">
       <formula>NOT(ISERROR(SEARCH("Sin Empezar",L15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L16">
-    <cfRule type="containsText" dxfId="24" priority="16" operator="containsText" text="Testeado con errores">
+    <cfRule type="containsText" dxfId="19" priority="16" operator="containsText" text="Testeado con errores">
       <formula>NOT(ISERROR(SEARCH("Testeado con errores",L16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="17" operator="containsText" text="Implementado">
+    <cfRule type="containsText" dxfId="18" priority="17" operator="containsText" text="Implementado">
       <formula>NOT(ISERROR(SEARCH("Implementado",L16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="18" operator="containsText" text="En Progreso">
+    <cfRule type="containsText" dxfId="17" priority="18" operator="containsText" text="En Progreso">
       <formula>NOT(ISERROR(SEARCH("En Progreso",L16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="19" operator="containsText" text="Finalizado">
+    <cfRule type="containsText" dxfId="16" priority="19" operator="containsText" text="Finalizado">
       <formula>NOT(ISERROR(SEARCH("Finalizado",L16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="20" operator="containsText" text="Sin Empezar">
+    <cfRule type="containsText" dxfId="15" priority="20" operator="containsText" text="Sin Empezar">
       <formula>NOT(ISERROR(SEARCH("Sin Empezar",L16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L17">
-    <cfRule type="containsText" dxfId="19" priority="11" operator="containsText" text="Testeado con errores">
+    <cfRule type="containsText" dxfId="14" priority="11" operator="containsText" text="Testeado con errores">
       <formula>NOT(ISERROR(SEARCH("Testeado con errores",L17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="12" operator="containsText" text="Implementado">
+    <cfRule type="containsText" dxfId="13" priority="12" operator="containsText" text="Implementado">
       <formula>NOT(ISERROR(SEARCH("Implementado",L17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="13" operator="containsText" text="En Progreso">
+    <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="En Progreso">
       <formula>NOT(ISERROR(SEARCH("En Progreso",L17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="14" operator="containsText" text="Finalizado">
+    <cfRule type="containsText" dxfId="11" priority="14" operator="containsText" text="Finalizado">
       <formula>NOT(ISERROR(SEARCH("Finalizado",L17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="Sin Empezar">
+    <cfRule type="containsText" dxfId="10" priority="15" operator="containsText" text="Sin Empezar">
       <formula>NOT(ISERROR(SEARCH("Sin Empezar",L17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L18">
-    <cfRule type="containsText" dxfId="14" priority="6" operator="containsText" text="Testeado con errores">
+    <cfRule type="containsText" dxfId="9" priority="6" operator="containsText" text="Testeado con errores">
       <formula>NOT(ISERROR(SEARCH("Testeado con errores",L18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="7" operator="containsText" text="Implementado">
+    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="Implementado">
       <formula>NOT(ISERROR(SEARCH("Implementado",L18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="8" operator="containsText" text="En Progreso">
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="En Progreso">
       <formula>NOT(ISERROR(SEARCH("En Progreso",L18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="Finalizado">
+    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="Finalizado">
       <formula>NOT(ISERROR(SEARCH("Finalizado",L18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="10" operator="containsText" text="Sin Empezar">
+    <cfRule type="containsText" dxfId="5" priority="10" operator="containsText" text="Sin Empezar">
       <formula>NOT(ISERROR(SEARCH("Sin Empezar",L18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L19">
-    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="Testeado con errores">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="Testeado con errores">
       <formula>NOT(ISERROR(SEARCH("Testeado con errores",L19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="Implementado">
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="Implementado">
       <formula>NOT(ISERROR(SEARCH("Implementado",L19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="En Progreso">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="En Progreso">
       <formula>NOT(ISERROR(SEARCH("En Progreso",L19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="Finalizado">
+    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="Finalizado">
       <formula>NOT(ISERROR(SEARCH("Finalizado",L19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="Sin Empezar">
+    <cfRule type="containsText" dxfId="0" priority="5" operator="containsText" text="Sin Empezar">
       <formula>NOT(ISERROR(SEARCH("Sin Empezar",L19)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Planificacion/PlanificacionTesis.xlsx
+++ b/Planificacion/PlanificacionTesis.xlsx
@@ -2098,8 +2098,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:L185"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F130" sqref="F130"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="119.42578125" defaultRowHeight="15"/>
@@ -2164,7 +2164,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="30.75" thickBot="1">
+    <row r="3" spans="1:12" ht="30.75" hidden="1" thickBot="1">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -2191,7 +2191,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" thickBot="1">
+    <row r="4" spans="1:12" ht="15.75" hidden="1" thickBot="1">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -2218,7 +2218,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" thickBot="1">
+    <row r="5" spans="1:12" ht="15.75" hidden="1" thickBot="1">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -2245,7 +2245,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" hidden="1" thickBot="1">
+    <row r="6" spans="1:12" ht="15.75" thickBot="1">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -2262,7 +2262,7 @@
         <v>389</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>15</v>
@@ -2272,7 +2272,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75" thickBot="1">
+    <row r="7" spans="1:12" ht="15.75" hidden="1" thickBot="1">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -2780,7 +2780,7 @@
       </c>
       <c r="H27"/>
     </row>
-    <row r="28" spans="1:12" ht="15.75" thickBot="1">
+    <row r="28" spans="1:12" ht="15.75" hidden="1" thickBot="1">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -2938,7 +2938,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="35" spans="1:8" ht="30.75" thickBot="1">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -3138,7 +3138,7 @@
       </c>
       <c r="H43"/>
     </row>
-    <row r="44" spans="1:8" ht="15.75" thickBot="1">
+    <row r="44" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -3185,7 +3185,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="15.75" thickBot="1">
+    <row r="46" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -3231,7 +3231,7 @@
       </c>
       <c r="H47"/>
     </row>
-    <row r="48" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="48" spans="1:8" ht="30.75" thickBot="1">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -3255,7 +3255,7 @@
       </c>
       <c r="H48"/>
     </row>
-    <row r="49" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="49" spans="1:8" ht="15.75" thickBot="1">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -3279,7 +3279,7 @@
       </c>
       <c r="H49"/>
     </row>
-    <row r="50" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="50" spans="1:8" ht="15.75" thickBot="1">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -3325,7 +3325,7 @@
       </c>
       <c r="H51"/>
     </row>
-    <row r="52" spans="1:8" ht="15.75" thickBot="1">
+    <row r="52" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -3349,7 +3349,7 @@
       </c>
       <c r="H52"/>
     </row>
-    <row r="53" spans="1:8" ht="15.75" thickBot="1">
+    <row r="53" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -3373,7 +3373,7 @@
       </c>
       <c r="H53"/>
     </row>
-    <row r="54" spans="1:8" ht="15.75" thickBot="1">
+    <row r="54" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -3397,7 +3397,7 @@
       </c>
       <c r="H54"/>
     </row>
-    <row r="55" spans="1:8" ht="15.75" thickBot="1">
+    <row r="55" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -3421,7 +3421,7 @@
       </c>
       <c r="H55"/>
     </row>
-    <row r="56" spans="1:8" ht="15.75" thickBot="1">
+    <row r="56" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -3445,7 +3445,7 @@
       </c>
       <c r="H56"/>
     </row>
-    <row r="57" spans="1:8" ht="15.75" thickBot="1">
+    <row r="57" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -3469,7 +3469,7 @@
       </c>
       <c r="H57"/>
     </row>
-    <row r="58" spans="1:8" ht="15.75" thickBot="1">
+    <row r="58" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -3493,7 +3493,7 @@
       </c>
       <c r="H58"/>
     </row>
-    <row r="59" spans="1:8" ht="15.75" thickBot="1">
+    <row r="59" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -3517,7 +3517,7 @@
       </c>
       <c r="H59"/>
     </row>
-    <row r="60" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="60" spans="1:8" ht="15.75" thickBot="1">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -3541,7 +3541,7 @@
       </c>
       <c r="H60"/>
     </row>
-    <row r="61" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="61" spans="1:8" ht="15.75" thickBot="1">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -3565,7 +3565,7 @@
       </c>
       <c r="H61"/>
     </row>
-    <row r="62" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="62" spans="1:8" ht="15.75" thickBot="1">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -3638,7 +3638,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="30.75" thickBot="1">
+    <row r="65" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A65" s="3">
         <v>64</v>
       </c>
@@ -3662,7 +3662,7 @@
       </c>
       <c r="H65"/>
     </row>
-    <row r="66" spans="1:8" ht="15.75" thickBot="1">
+    <row r="66" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A66" s="3">
         <v>65</v>
       </c>
@@ -3686,7 +3686,7 @@
       </c>
       <c r="H66"/>
     </row>
-    <row r="67" spans="1:8" ht="15.75" thickBot="1">
+    <row r="67" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A67" s="3">
         <v>66</v>
       </c>
@@ -3710,7 +3710,7 @@
       </c>
       <c r="H67"/>
     </row>
-    <row r="68" spans="1:8" ht="15.75" thickBot="1">
+    <row r="68" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A68" s="3">
         <v>67</v>
       </c>
@@ -3849,7 +3849,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="15.75" thickBot="1">
+    <row r="74" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A74" s="3">
         <v>73</v>
       </c>
@@ -3917,7 +3917,7 @@
       </c>
       <c r="H76"/>
     </row>
-    <row r="77" spans="1:8" ht="30.75" thickBot="1">
+    <row r="77" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A77" s="3">
         <v>76</v>
       </c>
@@ -4125,7 +4125,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="15.75" thickBot="1">
+    <row r="86" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A86" s="3">
         <v>85</v>
       </c>
@@ -4149,7 +4149,7 @@
       </c>
       <c r="H86"/>
     </row>
-    <row r="87" spans="1:8" ht="15.75" thickBot="1">
+    <row r="87" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A87" s="3">
         <v>86</v>
       </c>
@@ -4173,7 +4173,7 @@
       </c>
       <c r="H87"/>
     </row>
-    <row r="88" spans="1:8" ht="15.75" thickBot="1">
+    <row r="88" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A88" s="3">
         <v>87</v>
       </c>
@@ -4197,7 +4197,7 @@
       </c>
       <c r="H88"/>
     </row>
-    <row r="89" spans="1:8" ht="15.75" thickBot="1">
+    <row r="89" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A89" s="3">
         <v>88</v>
       </c>
@@ -4313,7 +4313,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="94" spans="1:8" ht="30.75" thickBot="1">
       <c r="A94" s="3">
         <v>93</v>
       </c>
@@ -4337,7 +4337,7 @@
       </c>
       <c r="H94"/>
     </row>
-    <row r="95" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="95" spans="1:8" ht="15.75" thickBot="1">
       <c r="A95" s="3">
         <v>94</v>
       </c>
@@ -4361,7 +4361,7 @@
       </c>
       <c r="H95"/>
     </row>
-    <row r="96" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="96" spans="1:8" ht="30.75" thickBot="1">
       <c r="A96" s="3">
         <v>95</v>
       </c>
@@ -4385,7 +4385,7 @@
       </c>
       <c r="H96"/>
     </row>
-    <row r="97" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
+    <row r="97" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A97" s="3">
         <v>96</v>
       </c>
@@ -4408,7 +4408,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="98" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
+    <row r="98" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A98" s="3">
         <v>97</v>
       </c>
@@ -4431,7 +4431,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="99" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="99" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A99" s="3">
         <v>98</v>
       </c>
@@ -4454,7 +4454,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="100" spans="1:7" customFormat="1" ht="45.75" hidden="1" thickBot="1">
+    <row r="100" spans="1:7" customFormat="1" ht="45.75" thickBot="1">
       <c r="A100" s="3">
         <v>99</v>
       </c>
@@ -4477,7 +4477,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="101" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
+    <row r="101" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A101" s="3">
         <v>100</v>
       </c>
@@ -4521,7 +4521,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="103" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
+    <row r="103" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A103" s="3">
         <v>102</v>
       </c>
@@ -4544,7 +4544,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="104" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
+    <row r="104" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A104" s="3">
         <v>103</v>
       </c>
@@ -4588,7 +4588,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="106" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="106" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A106" s="3">
         <v>105</v>
       </c>
@@ -4611,7 +4611,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="107" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="107" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A107" s="3">
         <v>106</v>
       </c>
@@ -4634,7 +4634,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="108" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="108" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A108" s="3">
         <v>107</v>
       </c>
@@ -4699,7 +4699,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="111" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="111" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A111" s="3">
         <v>110</v>
       </c>
@@ -4722,7 +4722,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="112" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="112" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A112" s="3">
         <v>111</v>
       </c>
@@ -4975,7 +4975,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="30.75" thickBot="1">
+    <row r="123" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A123" s="3">
         <v>122</v>
       </c>
@@ -4999,7 +4999,7 @@
       </c>
       <c r="H123"/>
     </row>
-    <row r="124" spans="1:8" ht="30.75" thickBot="1">
+    <row r="124" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A124" s="3">
         <v>123</v>
       </c>
@@ -5023,7 +5023,7 @@
       </c>
       <c r="H124"/>
     </row>
-    <row r="125" spans="1:8" ht="30.75" thickBot="1">
+    <row r="125" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A125" s="3">
         <v>124</v>
       </c>
@@ -5047,7 +5047,7 @@
       </c>
       <c r="H125"/>
     </row>
-    <row r="126" spans="1:8" ht="15.75" thickBot="1">
+    <row r="126" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A126" s="3">
         <v>125</v>
       </c>
@@ -5071,7 +5071,7 @@
       </c>
       <c r="H126"/>
     </row>
-    <row r="127" spans="1:8" ht="15.75" thickBot="1">
+    <row r="127" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A127" s="3">
         <v>126</v>
       </c>
@@ -5095,7 +5095,7 @@
       </c>
       <c r="H127"/>
     </row>
-    <row r="128" spans="1:8" ht="15.75" thickBot="1">
+    <row r="128" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A128" s="3">
         <v>127</v>
       </c>
@@ -5119,7 +5119,7 @@
       </c>
       <c r="H128"/>
     </row>
-    <row r="129" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="129" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A129" s="3">
         <v>128</v>
       </c>
@@ -5142,7 +5142,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="130" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+    <row r="130" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
       <c r="A130" s="3">
         <v>129</v>
       </c>
@@ -5165,7 +5165,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="131" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+    <row r="131" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
       <c r="A131" s="3">
         <v>130</v>
       </c>
@@ -5188,7 +5188,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="132" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="132" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A132" s="3">
         <v>131</v>
       </c>
@@ -5211,7 +5211,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="133" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="133" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A133" s="3">
         <v>132</v>
       </c>
@@ -5234,7 +5234,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="134" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="134" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A134" s="3">
         <v>133</v>
       </c>
@@ -5257,7 +5257,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="135" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="135" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A135" s="3">
         <v>134</v>
       </c>
@@ -5301,7 +5301,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="137" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="137" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A137" s="3">
         <v>136</v>
       </c>
@@ -5324,7 +5324,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="138" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="138" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A138" s="3">
         <v>137</v>
       </c>
@@ -5772,7 +5772,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="158" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
+    <row r="158" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A158" s="3">
         <v>157</v>
       </c>
@@ -6225,7 +6225,7 @@
       </c>
       <c r="H178"/>
     </row>
-    <row r="179" spans="1:8" ht="30.75" thickBot="1">
+    <row r="179" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A179" s="3">
         <v>178</v>
       </c>
@@ -6382,7 +6382,7 @@
   <autoFilter ref="A1:G185">
     <filterColumn colId="4">
       <filters>
-        <filter val="Vicky"/>
+        <filter val="Mari"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/Planificacion/PlanificacionTesis.xlsx
+++ b/Planificacion/PlanificacionTesis.xlsx
@@ -2098,8 +2098,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:L185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F156" sqref="F156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="119.42578125" defaultRowHeight="15"/>
@@ -2245,7 +2245,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" thickBot="1">
+    <row r="6" spans="1:12" ht="15.75" hidden="1" thickBot="1">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -2938,7 +2938,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="30.75" thickBot="1">
+    <row r="35" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -3231,7 +3231,7 @@
       </c>
       <c r="H47"/>
     </row>
-    <row r="48" spans="1:8" ht="30.75" thickBot="1">
+    <row r="48" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -3255,7 +3255,7 @@
       </c>
       <c r="H48"/>
     </row>
-    <row r="49" spans="1:8" ht="15.75" thickBot="1">
+    <row r="49" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -3279,7 +3279,7 @@
       </c>
       <c r="H49"/>
     </row>
-    <row r="50" spans="1:8" ht="15.75" thickBot="1">
+    <row r="50" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -3517,7 +3517,7 @@
       </c>
       <c r="H59"/>
     </row>
-    <row r="60" spans="1:8" ht="15.75" thickBot="1">
+    <row r="60" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -3541,7 +3541,7 @@
       </c>
       <c r="H60"/>
     </row>
-    <row r="61" spans="1:8" ht="15.75" thickBot="1">
+    <row r="61" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -3565,7 +3565,7 @@
       </c>
       <c r="H61"/>
     </row>
-    <row r="62" spans="1:8" ht="15.75" thickBot="1">
+    <row r="62" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -4313,7 +4313,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="30.75" thickBot="1">
+    <row r="94" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A94" s="3">
         <v>93</v>
       </c>
@@ -4337,7 +4337,7 @@
       </c>
       <c r="H94"/>
     </row>
-    <row r="95" spans="1:8" ht="15.75" thickBot="1">
+    <row r="95" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A95" s="3">
         <v>94</v>
       </c>
@@ -4361,7 +4361,7 @@
       </c>
       <c r="H95"/>
     </row>
-    <row r="96" spans="1:8" ht="30.75" thickBot="1">
+    <row r="96" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A96" s="3">
         <v>95</v>
       </c>
@@ -4385,7 +4385,7 @@
       </c>
       <c r="H96"/>
     </row>
-    <row r="97" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+    <row r="97" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
       <c r="A97" s="3">
         <v>96</v>
       </c>
@@ -4408,7 +4408,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="98" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+    <row r="98" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
       <c r="A98" s="3">
         <v>97</v>
       </c>
@@ -4431,7 +4431,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="99" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="99" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A99" s="3">
         <v>98</v>
       </c>
@@ -4454,7 +4454,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="100" spans="1:7" customFormat="1" ht="45.75" thickBot="1">
+    <row r="100" spans="1:7" customFormat="1" ht="45.75" hidden="1" thickBot="1">
       <c r="A100" s="3">
         <v>99</v>
       </c>
@@ -4477,7 +4477,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="101" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+    <row r="101" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
       <c r="A101" s="3">
         <v>100</v>
       </c>
@@ -4521,7 +4521,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="103" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+    <row r="103" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
       <c r="A103" s="3">
         <v>102</v>
       </c>
@@ -4544,7 +4544,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="104" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+    <row r="104" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
       <c r="A104" s="3">
         <v>103</v>
       </c>
@@ -4699,7 +4699,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="111" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="111" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A111" s="3">
         <v>110</v>
       </c>
@@ -5473,7 +5473,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="145" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
+    <row r="145" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A145" s="3">
         <v>144</v>
       </c>
@@ -5496,7 +5496,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="146" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
+    <row r="146" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A146" s="3">
         <v>145</v>
       </c>
@@ -5519,7 +5519,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="147" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
+    <row r="147" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A147" s="3">
         <v>146</v>
       </c>
@@ -5542,7 +5542,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="148" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
+    <row r="148" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A148" s="3">
         <v>147</v>
       </c>
@@ -5565,7 +5565,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="149" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
+    <row r="149" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A149" s="3">
         <v>148</v>
       </c>
@@ -5588,7 +5588,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="150" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
+    <row r="150" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A150" s="3">
         <v>149</v>
       </c>
@@ -5611,7 +5611,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="151" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
+    <row r="151" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A151" s="3">
         <v>150</v>
       </c>
@@ -5634,7 +5634,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="152" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
+    <row r="152" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A152" s="3">
         <v>151</v>
       </c>
@@ -5657,7 +5657,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="153" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
+    <row r="153" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A153" s="3">
         <v>152</v>
       </c>
@@ -5680,7 +5680,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="154" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
+    <row r="154" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A154" s="3">
         <v>153</v>
       </c>
@@ -5697,13 +5697,13 @@
         <v>386</v>
       </c>
       <c r="F154" s="16" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="G154" s="7" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="155" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
+    <row r="155" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A155" s="3">
         <v>154</v>
       </c>
@@ -5720,13 +5720,13 @@
         <v>386</v>
       </c>
       <c r="F155" s="16" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="G155" s="7" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="156" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
+    <row r="156" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A156" s="3">
         <v>155</v>
       </c>
@@ -5743,13 +5743,13 @@
         <v>386</v>
       </c>
       <c r="F156" s="16" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="G156" s="7" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="157" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
+    <row r="157" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A157" s="3">
         <v>156</v>
       </c>
@@ -5766,13 +5766,13 @@
         <v>386</v>
       </c>
       <c r="F157" s="16" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="G157" s="7" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="158" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+    <row r="158" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
       <c r="A158" s="3">
         <v>157</v>
       </c>
@@ -5795,7 +5795,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="159" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
+    <row r="159" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A159" s="3">
         <v>158</v>
       </c>
@@ -5818,7 +5818,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="160" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
+    <row r="160" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A160" s="3">
         <v>159</v>
       </c>
@@ -5841,7 +5841,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="161" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
+    <row r="161" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A161" s="3">
         <v>160</v>
       </c>
@@ -5864,7 +5864,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="162" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
+    <row r="162" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A162" s="3">
         <v>161</v>
       </c>
@@ -6249,7 +6249,7 @@
       </c>
       <c r="H179"/>
     </row>
-    <row r="180" spans="1:8" hidden="1">
+    <row r="180" spans="1:8">
       <c r="A180" s="10"/>
       <c r="B180" s="27" t="s">
         <v>297</v>
@@ -6283,7 +6283,7 @@
       <c r="G181" s="32"/>
       <c r="H181"/>
     </row>
-    <row r="182" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="182" spans="1:8" ht="30.75" thickBot="1">
       <c r="A182" s="3">
         <v>180</v>
       </c>
@@ -6307,7 +6307,7 @@
       </c>
       <c r="H182"/>
     </row>
-    <row r="183" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="183" spans="1:8" ht="30.75" thickBot="1">
       <c r="A183" s="3">
         <v>181</v>
       </c>
@@ -6354,7 +6354,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="185" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="185" spans="1:8" ht="30.75" thickBot="1">
       <c r="A185" s="3">
         <v>183</v>
       </c>
@@ -6382,7 +6382,7 @@
   <autoFilter ref="A1:G185">
     <filterColumn colId="4">
       <filters>
-        <filter val="Mari"/>
+        <filter val="Lore"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/Planificacion/PlanificacionTesis.xlsx
+++ b/Planificacion/PlanificacionTesis.xlsx
@@ -2098,8 +2098,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:L185"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F156" sqref="F156"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="F158" sqref="F158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="119.42578125" defaultRowHeight="15"/>
@@ -2245,7 +2245,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" hidden="1" thickBot="1">
+    <row r="6" spans="1:12" ht="15.75" thickBot="1">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -2938,7 +2938,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="35" spans="1:8" ht="30.75" thickBot="1">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -3231,7 +3231,7 @@
       </c>
       <c r="H47"/>
     </row>
-    <row r="48" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="48" spans="1:8" ht="30.75" thickBot="1">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -3255,7 +3255,7 @@
       </c>
       <c r="H48"/>
     </row>
-    <row r="49" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="49" spans="1:8" ht="15.75" thickBot="1">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -3279,7 +3279,7 @@
       </c>
       <c r="H49"/>
     </row>
-    <row r="50" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="50" spans="1:8" ht="15.75" thickBot="1">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -3517,7 +3517,7 @@
       </c>
       <c r="H59"/>
     </row>
-    <row r="60" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="60" spans="1:8" ht="15.75" thickBot="1">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -3541,7 +3541,7 @@
       </c>
       <c r="H60"/>
     </row>
-    <row r="61" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="61" spans="1:8" ht="15.75" thickBot="1">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -3565,7 +3565,7 @@
       </c>
       <c r="H61"/>
     </row>
-    <row r="62" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="62" spans="1:8" ht="15.75" thickBot="1">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -4313,7 +4313,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="94" spans="1:8" ht="30.75" thickBot="1">
       <c r="A94" s="3">
         <v>93</v>
       </c>
@@ -4337,7 +4337,7 @@
       </c>
       <c r="H94"/>
     </row>
-    <row r="95" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="95" spans="1:8" ht="15.75" thickBot="1">
       <c r="A95" s="3">
         <v>94</v>
       </c>
@@ -4361,7 +4361,7 @@
       </c>
       <c r="H95"/>
     </row>
-    <row r="96" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="96" spans="1:8" ht="30.75" thickBot="1">
       <c r="A96" s="3">
         <v>95</v>
       </c>
@@ -4385,7 +4385,7 @@
       </c>
       <c r="H96"/>
     </row>
-    <row r="97" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
+    <row r="97" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A97" s="3">
         <v>96</v>
       </c>
@@ -4408,7 +4408,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="98" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
+    <row r="98" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A98" s="3">
         <v>97</v>
       </c>
@@ -4431,7 +4431,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="99" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="99" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A99" s="3">
         <v>98</v>
       </c>
@@ -4454,7 +4454,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="100" spans="1:7" customFormat="1" ht="45.75" hidden="1" thickBot="1">
+    <row r="100" spans="1:7" customFormat="1" ht="45.75" thickBot="1">
       <c r="A100" s="3">
         <v>99</v>
       </c>
@@ -4477,7 +4477,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="101" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
+    <row r="101" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A101" s="3">
         <v>100</v>
       </c>
@@ -4521,7 +4521,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="103" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
+    <row r="103" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A103" s="3">
         <v>102</v>
       </c>
@@ -4544,7 +4544,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="104" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
+    <row r="104" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A104" s="3">
         <v>103</v>
       </c>
@@ -4699,7 +4699,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="111" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="111" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A111" s="3">
         <v>110</v>
       </c>
@@ -5473,7 +5473,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="145" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+    <row r="145" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
       <c r="A145" s="3">
         <v>144</v>
       </c>
@@ -5496,7 +5496,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="146" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+    <row r="146" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
       <c r="A146" s="3">
         <v>145</v>
       </c>
@@ -5519,7 +5519,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="147" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+    <row r="147" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
       <c r="A147" s="3">
         <v>146</v>
       </c>
@@ -5542,7 +5542,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="148" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+    <row r="148" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
       <c r="A148" s="3">
         <v>147</v>
       </c>
@@ -5565,7 +5565,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="149" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+    <row r="149" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
       <c r="A149" s="3">
         <v>148</v>
       </c>
@@ -5588,7 +5588,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="150" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+    <row r="150" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
       <c r="A150" s="3">
         <v>149</v>
       </c>
@@ -5611,7 +5611,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="151" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+    <row r="151" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
       <c r="A151" s="3">
         <v>150</v>
       </c>
@@ -5634,7 +5634,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="152" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+    <row r="152" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
       <c r="A152" s="3">
         <v>151</v>
       </c>
@@ -5657,7 +5657,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="153" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+    <row r="153" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
       <c r="A153" s="3">
         <v>152</v>
       </c>
@@ -5680,7 +5680,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="154" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+    <row r="154" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
       <c r="A154" s="3">
         <v>153</v>
       </c>
@@ -5703,7 +5703,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="155" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+    <row r="155" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
       <c r="A155" s="3">
         <v>154</v>
       </c>
@@ -5726,7 +5726,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="156" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+    <row r="156" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
       <c r="A156" s="3">
         <v>155</v>
       </c>
@@ -5749,7 +5749,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="157" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+    <row r="157" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
       <c r="A157" s="3">
         <v>156</v>
       </c>
@@ -5772,7 +5772,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="158" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
+    <row r="158" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A158" s="3">
         <v>157</v>
       </c>
@@ -5786,16 +5786,16 @@
         <v>384</v>
       </c>
       <c r="E158" s="16" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F158" s="16" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="G158" s="7" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="159" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+    <row r="159" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
       <c r="A159" s="3">
         <v>158</v>
       </c>
@@ -5812,13 +5812,13 @@
         <v>386</v>
       </c>
       <c r="F159" s="16" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="G159" s="7" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="160" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+    <row r="160" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
       <c r="A160" s="3">
         <v>159</v>
       </c>
@@ -5835,13 +5835,13 @@
         <v>386</v>
       </c>
       <c r="F160" s="16" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="G160" s="7" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="161" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+    <row r="161" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
       <c r="A161" s="3">
         <v>160</v>
       </c>
@@ -5858,13 +5858,13 @@
         <v>386</v>
       </c>
       <c r="F161" s="16" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="G161" s="7" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="162" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+    <row r="162" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
       <c r="A162" s="3">
         <v>161</v>
       </c>
@@ -6249,7 +6249,7 @@
       </c>
       <c r="H179"/>
     </row>
-    <row r="180" spans="1:8">
+    <row r="180" spans="1:8" hidden="1">
       <c r="A180" s="10"/>
       <c r="B180" s="27" t="s">
         <v>297</v>
@@ -6283,7 +6283,7 @@
       <c r="G181" s="32"/>
       <c r="H181"/>
     </row>
-    <row r="182" spans="1:8" ht="30.75" thickBot="1">
+    <row r="182" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A182" s="3">
         <v>180</v>
       </c>
@@ -6307,7 +6307,7 @@
       </c>
       <c r="H182"/>
     </row>
-    <row r="183" spans="1:8" ht="30.75" thickBot="1">
+    <row r="183" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A183" s="3">
         <v>181</v>
       </c>
@@ -6354,7 +6354,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="185" spans="1:8" ht="30.75" thickBot="1">
+    <row r="185" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A185" s="3">
         <v>183</v>
       </c>
@@ -6382,7 +6382,7 @@
   <autoFilter ref="A1:G185">
     <filterColumn colId="4">
       <filters>
-        <filter val="Lore"/>
+        <filter val="Mari"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/Planificacion/PlanificacionTesis.xlsx
+++ b/Planificacion/PlanificacionTesis.xlsx
@@ -2098,8 +2098,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:L185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="F158" sqref="F158"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E145" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="119.42578125" defaultRowHeight="15"/>
@@ -2245,7 +2245,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" thickBot="1">
+    <row r="6" spans="1:12" ht="15.75" hidden="1" thickBot="1">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -2938,7 +2938,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="30.75" thickBot="1">
+    <row r="35" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -3231,7 +3231,7 @@
       </c>
       <c r="H47"/>
     </row>
-    <row r="48" spans="1:8" ht="30.75" thickBot="1">
+    <row r="48" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -3255,7 +3255,7 @@
       </c>
       <c r="H48"/>
     </row>
-    <row r="49" spans="1:8" ht="15.75" thickBot="1">
+    <row r="49" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -3279,7 +3279,7 @@
       </c>
       <c r="H49"/>
     </row>
-    <row r="50" spans="1:8" ht="15.75" thickBot="1">
+    <row r="50" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -3517,7 +3517,7 @@
       </c>
       <c r="H59"/>
     </row>
-    <row r="60" spans="1:8" ht="15.75" thickBot="1">
+    <row r="60" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -3541,7 +3541,7 @@
       </c>
       <c r="H60"/>
     </row>
-    <row r="61" spans="1:8" ht="15.75" thickBot="1">
+    <row r="61" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -3565,7 +3565,7 @@
       </c>
       <c r="H61"/>
     </row>
-    <row r="62" spans="1:8" ht="15.75" thickBot="1">
+    <row r="62" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -4313,7 +4313,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="30.75" thickBot="1">
+    <row r="94" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A94" s="3">
         <v>93</v>
       </c>
@@ -4337,7 +4337,7 @@
       </c>
       <c r="H94"/>
     </row>
-    <row r="95" spans="1:8" ht="15.75" thickBot="1">
+    <row r="95" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A95" s="3">
         <v>94</v>
       </c>
@@ -4361,7 +4361,7 @@
       </c>
       <c r="H95"/>
     </row>
-    <row r="96" spans="1:8" ht="30.75" thickBot="1">
+    <row r="96" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A96" s="3">
         <v>95</v>
       </c>
@@ -4385,7 +4385,7 @@
       </c>
       <c r="H96"/>
     </row>
-    <row r="97" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+    <row r="97" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
       <c r="A97" s="3">
         <v>96</v>
       </c>
@@ -4408,7 +4408,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="98" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+    <row r="98" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
       <c r="A98" s="3">
         <v>97</v>
       </c>
@@ -4431,7 +4431,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="99" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="99" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A99" s="3">
         <v>98</v>
       </c>
@@ -4454,7 +4454,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="100" spans="1:7" customFormat="1" ht="45.75" thickBot="1">
+    <row r="100" spans="1:7" customFormat="1" ht="45.75" hidden="1" thickBot="1">
       <c r="A100" s="3">
         <v>99</v>
       </c>
@@ -4477,7 +4477,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="101" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+    <row r="101" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
       <c r="A101" s="3">
         <v>100</v>
       </c>
@@ -4521,7 +4521,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="103" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+    <row r="103" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
       <c r="A103" s="3">
         <v>102</v>
       </c>
@@ -4544,7 +4544,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="104" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+    <row r="104" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
       <c r="A104" s="3">
         <v>103</v>
       </c>
@@ -4699,7 +4699,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="111" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="111" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A111" s="3">
         <v>110</v>
       </c>
@@ -5473,7 +5473,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="145" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
+    <row r="145" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A145" s="3">
         <v>144</v>
       </c>
@@ -5496,7 +5496,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="146" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
+    <row r="146" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A146" s="3">
         <v>145</v>
       </c>
@@ -5519,7 +5519,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="147" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
+    <row r="147" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A147" s="3">
         <v>146</v>
       </c>
@@ -5542,7 +5542,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="148" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
+    <row r="148" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A148" s="3">
         <v>147</v>
       </c>
@@ -5565,7 +5565,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="149" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
+    <row r="149" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A149" s="3">
         <v>148</v>
       </c>
@@ -5588,7 +5588,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="150" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
+    <row r="150" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A150" s="3">
         <v>149</v>
       </c>
@@ -5611,7 +5611,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="151" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
+    <row r="151" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A151" s="3">
         <v>150</v>
       </c>
@@ -5634,7 +5634,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="152" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
+    <row r="152" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A152" s="3">
         <v>151</v>
       </c>
@@ -5657,7 +5657,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="153" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
+    <row r="153" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A153" s="3">
         <v>152</v>
       </c>
@@ -5680,7 +5680,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="154" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
+    <row r="154" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A154" s="3">
         <v>153</v>
       </c>
@@ -5703,7 +5703,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="155" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
+    <row r="155" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A155" s="3">
         <v>154</v>
       </c>
@@ -5726,7 +5726,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="156" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
+    <row r="156" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A156" s="3">
         <v>155</v>
       </c>
@@ -5749,7 +5749,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="157" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
+    <row r="157" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A157" s="3">
         <v>156</v>
       </c>
@@ -5789,13 +5789,13 @@
         <v>386</v>
       </c>
       <c r="F158" s="16" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G158" s="7" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="159" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
+    <row r="159" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A159" s="3">
         <v>158</v>
       </c>
@@ -5812,13 +5812,13 @@
         <v>386</v>
       </c>
       <c r="F159" s="16" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G159" s="7" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="160" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
+    <row r="160" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A160" s="3">
         <v>159</v>
       </c>
@@ -5835,13 +5835,13 @@
         <v>386</v>
       </c>
       <c r="F160" s="16" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G160" s="7" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="161" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
+    <row r="161" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A161" s="3">
         <v>160</v>
       </c>
@@ -5858,13 +5858,13 @@
         <v>386</v>
       </c>
       <c r="F161" s="16" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G161" s="7" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="162" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
+    <row r="162" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A162" s="3">
         <v>161</v>
       </c>
@@ -6249,7 +6249,7 @@
       </c>
       <c r="H179"/>
     </row>
-    <row r="180" spans="1:8" hidden="1">
+    <row r="180" spans="1:8">
       <c r="A180" s="10"/>
       <c r="B180" s="27" t="s">
         <v>297</v>
@@ -6283,7 +6283,7 @@
       <c r="G181" s="32"/>
       <c r="H181"/>
     </row>
-    <row r="182" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="182" spans="1:8" ht="30.75" thickBot="1">
       <c r="A182" s="3">
         <v>180</v>
       </c>
@@ -6307,7 +6307,7 @@
       </c>
       <c r="H182"/>
     </row>
-    <row r="183" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="183" spans="1:8" ht="30.75" thickBot="1">
       <c r="A183" s="3">
         <v>181</v>
       </c>
@@ -6354,7 +6354,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="185" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="185" spans="1:8" ht="30.75" thickBot="1">
       <c r="A185" s="3">
         <v>183</v>
       </c>
@@ -6382,7 +6382,7 @@
   <autoFilter ref="A1:G185">
     <filterColumn colId="4">
       <filters>
-        <filter val="Mari"/>
+        <filter val="Lore"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/Planificacion/PlanificacionTesis.xlsx
+++ b/Planificacion/PlanificacionTesis.xlsx
@@ -2099,7 +2099,7 @@
   <dimension ref="A1:L185"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E145" sqref="E1:E1048576"/>
+      <selection activeCell="G94" sqref="G94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="119.42578125" defaultRowHeight="15"/>
@@ -2141,7 +2141,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="30.75" hidden="1" thickBot="1">
+    <row r="2" spans="1:12" ht="30.75" thickBot="1">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2164,7 +2164,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="30.75" hidden="1" thickBot="1">
+    <row r="3" spans="1:12" ht="30.75" thickBot="1">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -2191,7 +2191,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" hidden="1" thickBot="1">
+    <row r="4" spans="1:12" ht="15.75" thickBot="1">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -2218,7 +2218,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" hidden="1" thickBot="1">
+    <row r="5" spans="1:12" ht="15.75" thickBot="1">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -2245,7 +2245,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" hidden="1" thickBot="1">
+    <row r="6" spans="1:12" ht="15.75" thickBot="1">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -2272,7 +2272,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75" hidden="1" thickBot="1">
+    <row r="7" spans="1:12" ht="15.75" thickBot="1">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -2399,7 +2399,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="30.75" hidden="1" thickBot="1">
+    <row r="12" spans="1:12" ht="30.75" thickBot="1">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -2425,7 +2425,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="30.75" hidden="1" thickBot="1">
+    <row r="13" spans="1:12" ht="30.75" thickBot="1">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -2448,7 +2448,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="30.75" hidden="1" thickBot="1">
+    <row r="14" spans="1:12" ht="30.75" thickBot="1">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -2474,7 +2474,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15.75" hidden="1" thickBot="1">
+    <row r="15" spans="1:12" ht="15.75" thickBot="1">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -2499,7 +2499,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="30.75" hidden="1" thickBot="1">
+    <row r="16" spans="1:12" ht="30.75" thickBot="1">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -2602,7 +2602,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15.75" hidden="1" thickBot="1">
+    <row r="20" spans="1:12" ht="15.75" thickBot="1">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -2648,7 +2648,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15.75" hidden="1" thickBot="1">
+    <row r="22" spans="1:12" ht="15.75" thickBot="1">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -2670,7 +2670,7 @@
       </c>
       <c r="H22"/>
     </row>
-    <row r="23" spans="1:12" ht="30.75" hidden="1" thickBot="1">
+    <row r="23" spans="1:12" ht="30.75" thickBot="1">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -2692,7 +2692,7 @@
       </c>
       <c r="H23"/>
     </row>
-    <row r="24" spans="1:12" ht="30.75" hidden="1" thickBot="1">
+    <row r="24" spans="1:12" ht="30.75" thickBot="1">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -2804,7 +2804,7 @@
       </c>
       <c r="H28"/>
     </row>
-    <row r="29" spans="1:12" ht="15.75" hidden="1" thickBot="1">
+    <row r="29" spans="1:12" ht="15.75" thickBot="1">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -2893,7 +2893,7 @@
       </c>
       <c r="H32"/>
     </row>
-    <row r="33" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="33" spans="1:8" ht="30.75" thickBot="1">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -2915,7 +2915,7 @@
       </c>
       <c r="H33"/>
     </row>
-    <row r="34" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="34" spans="1:8" ht="15.75" thickBot="1">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -2938,7 +2938,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="35" spans="1:8" ht="30.75" thickBot="1">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -2962,7 +2962,7 @@
       </c>
       <c r="H35"/>
     </row>
-    <row r="36" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="36" spans="1:8" ht="15.75" thickBot="1">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -2984,7 +2984,7 @@
       </c>
       <c r="H36"/>
     </row>
-    <row r="37" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="37" spans="1:8" ht="15.75" thickBot="1">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -3006,7 +3006,7 @@
       </c>
       <c r="H37"/>
     </row>
-    <row r="38" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="38" spans="1:8" ht="15.75" thickBot="1">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -3028,7 +3028,7 @@
       </c>
       <c r="H38"/>
     </row>
-    <row r="39" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="39" spans="1:8" ht="15.75" thickBot="1">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -3050,7 +3050,7 @@
       </c>
       <c r="H39"/>
     </row>
-    <row r="40" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="40" spans="1:8" ht="15.75" thickBot="1">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -3072,7 +3072,7 @@
       </c>
       <c r="H40"/>
     </row>
-    <row r="41" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="41" spans="1:8" ht="15.75" thickBot="1">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -3094,7 +3094,7 @@
       </c>
       <c r="H41"/>
     </row>
-    <row r="42" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="42" spans="1:8" ht="15.75" thickBot="1">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -3116,7 +3116,7 @@
       </c>
       <c r="H42"/>
     </row>
-    <row r="43" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="43" spans="1:8" ht="15.75" thickBot="1">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -3138,7 +3138,7 @@
       </c>
       <c r="H43"/>
     </row>
-    <row r="44" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="44" spans="1:8" ht="15.75" thickBot="1">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -3162,7 +3162,7 @@
       </c>
       <c r="H44"/>
     </row>
-    <row r="45" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="45" spans="1:8" ht="15.75" thickBot="1">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -3185,7 +3185,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="46" spans="1:8" ht="15.75" thickBot="1">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -3209,7 +3209,7 @@
       </c>
       <c r="H46"/>
     </row>
-    <row r="47" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="47" spans="1:8" ht="30.75" thickBot="1">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -3272,14 +3272,14 @@
         <v>389</v>
       </c>
       <c r="F49" s="16" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="G49" s="7" t="s">
         <v>103</v>
       </c>
       <c r="H49"/>
     </row>
-    <row r="50" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="50" spans="1:8" ht="15.75" thickBot="1">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -3296,7 +3296,7 @@
         <v>389</v>
       </c>
       <c r="F50" s="16" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="G50" s="7" t="s">
         <v>105</v>
@@ -3373,7 +3373,7 @@
       </c>
       <c r="H53"/>
     </row>
-    <row r="54" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="54" spans="1:8" ht="15.75" thickBot="1">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -3397,7 +3397,7 @@
       </c>
       <c r="H54"/>
     </row>
-    <row r="55" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="55" spans="1:8" ht="15.75" thickBot="1">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -3469,7 +3469,7 @@
       </c>
       <c r="H57"/>
     </row>
-    <row r="58" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="58" spans="1:8" ht="15.75" thickBot="1">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -3493,7 +3493,7 @@
       </c>
       <c r="H58"/>
     </row>
-    <row r="59" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="59" spans="1:8" ht="15.75" thickBot="1">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -3517,7 +3517,7 @@
       </c>
       <c r="H59"/>
     </row>
-    <row r="60" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="60" spans="1:8" ht="15.75" thickBot="1">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -3558,7 +3558,7 @@
         <v>389</v>
       </c>
       <c r="F61" s="16" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="G61" s="7" t="s">
         <v>126</v>
@@ -3638,7 +3638,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="65" spans="1:8" ht="30.75" thickBot="1">
       <c r="A65" s="3">
         <v>64</v>
       </c>
@@ -3662,7 +3662,7 @@
       </c>
       <c r="H65"/>
     </row>
-    <row r="66" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="66" spans="1:8" ht="15.75" thickBot="1">
       <c r="A66" s="3">
         <v>65</v>
       </c>
@@ -3686,7 +3686,7 @@
       </c>
       <c r="H66"/>
     </row>
-    <row r="67" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="67" spans="1:8" ht="15.75" thickBot="1">
       <c r="A67" s="3">
         <v>66</v>
       </c>
@@ -3710,7 +3710,7 @@
       </c>
       <c r="H67"/>
     </row>
-    <row r="68" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="68" spans="1:8" ht="15.75" thickBot="1">
       <c r="A68" s="3">
         <v>67</v>
       </c>
@@ -3803,7 +3803,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="72" spans="1:8" ht="15.75" thickBot="1">
       <c r="A72" s="3">
         <v>71</v>
       </c>
@@ -3826,7 +3826,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="73" spans="1:8" ht="30.75" thickBot="1">
       <c r="A73" s="3">
         <v>72</v>
       </c>
@@ -3849,7 +3849,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="74" spans="1:8" ht="15.75" thickBot="1">
       <c r="A74" s="3">
         <v>73</v>
       </c>
@@ -3873,7 +3873,7 @@
       </c>
       <c r="H74"/>
     </row>
-    <row r="75" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="75" spans="1:8" ht="15.75" thickBot="1">
       <c r="A75" s="3">
         <v>74</v>
       </c>
@@ -3895,7 +3895,7 @@
       </c>
       <c r="H75"/>
     </row>
-    <row r="76" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="76" spans="1:8" ht="30.75" thickBot="1">
       <c r="A76" s="3">
         <v>75</v>
       </c>
@@ -3941,7 +3941,7 @@
       </c>
       <c r="H77"/>
     </row>
-    <row r="78" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="78" spans="1:8" ht="15.75" thickBot="1">
       <c r="A78" s="3">
         <v>77</v>
       </c>
@@ -3964,7 +3964,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="79" spans="1:8" ht="15.75" thickBot="1">
       <c r="A79" s="3">
         <v>78</v>
       </c>
@@ -3987,7 +3987,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="80" spans="1:8" ht="15.75" thickBot="1">
       <c r="A80" s="3">
         <v>79</v>
       </c>
@@ -4010,7 +4010,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="81" spans="1:8" ht="15.75" thickBot="1">
       <c r="A81" s="3">
         <v>80</v>
       </c>
@@ -4056,7 +4056,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="83" spans="1:8" ht="15.75" thickBot="1">
       <c r="A83" s="3">
         <v>82</v>
       </c>
@@ -4079,7 +4079,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="84" spans="1:8" ht="15.75" thickBot="1">
       <c r="A84" s="3">
         <v>83</v>
       </c>
@@ -4102,7 +4102,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="85" spans="1:8" ht="15.75" thickBot="1">
       <c r="A85" s="3">
         <v>84</v>
       </c>
@@ -4125,7 +4125,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="86" spans="1:8" ht="15.75" thickBot="1">
       <c r="A86" s="3">
         <v>85</v>
       </c>
@@ -4149,7 +4149,7 @@
       </c>
       <c r="H86"/>
     </row>
-    <row r="87" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="87" spans="1:8" ht="15.75" thickBot="1">
       <c r="A87" s="3">
         <v>86</v>
       </c>
@@ -4173,7 +4173,7 @@
       </c>
       <c r="H87"/>
     </row>
-    <row r="88" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="88" spans="1:8" ht="15.75" thickBot="1">
       <c r="A88" s="3">
         <v>87</v>
       </c>
@@ -4197,7 +4197,7 @@
       </c>
       <c r="H88"/>
     </row>
-    <row r="89" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="89" spans="1:8" ht="15.75" thickBot="1">
       <c r="A89" s="3">
         <v>88</v>
       </c>
@@ -4221,7 +4221,7 @@
       </c>
       <c r="H89"/>
     </row>
-    <row r="90" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="90" spans="1:8" ht="15.75" thickBot="1">
       <c r="A90" s="3">
         <v>89</v>
       </c>
@@ -4244,7 +4244,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="91" spans="1:8" ht="15.75" thickBot="1">
       <c r="A91" s="3">
         <v>90</v>
       </c>
@@ -4267,7 +4267,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="92" spans="1:8" ht="15.75" thickBot="1">
       <c r="A92" s="3">
         <v>91</v>
       </c>
@@ -4290,7 +4290,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="93" spans="1:8" ht="15.75" thickBot="1">
       <c r="A93" s="3">
         <v>92</v>
       </c>
@@ -4313,7 +4313,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="94" spans="1:8" ht="30.75" thickBot="1">
       <c r="A94" s="3">
         <v>93</v>
       </c>
@@ -4337,7 +4337,7 @@
       </c>
       <c r="H94"/>
     </row>
-    <row r="95" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="95" spans="1:8" ht="15.75" thickBot="1">
       <c r="A95" s="3">
         <v>94</v>
       </c>
@@ -4361,7 +4361,7 @@
       </c>
       <c r="H95"/>
     </row>
-    <row r="96" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="96" spans="1:8" ht="30.75" thickBot="1">
       <c r="A96" s="3">
         <v>95</v>
       </c>
@@ -4431,7 +4431,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="99" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="99" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A99" s="3">
         <v>98</v>
       </c>
@@ -4454,7 +4454,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="100" spans="1:7" customFormat="1" ht="45.75" hidden="1" thickBot="1">
+    <row r="100" spans="1:7" customFormat="1" ht="45.75" thickBot="1">
       <c r="A100" s="3">
         <v>99</v>
       </c>
@@ -4477,7 +4477,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="101" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
+    <row r="101" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A101" s="3">
         <v>100</v>
       </c>
@@ -4521,7 +4521,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="103" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
+    <row r="103" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A103" s="3">
         <v>102</v>
       </c>
@@ -4588,7 +4588,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="106" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="106" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A106" s="3">
         <v>105</v>
       </c>
@@ -4611,7 +4611,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="107" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="107" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A107" s="3">
         <v>106</v>
       </c>
@@ -4634,7 +4634,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="108" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="108" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A108" s="3">
         <v>107</v>
       </c>
@@ -4657,7 +4657,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="109" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="109" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A109" s="3">
         <v>108</v>
       </c>
@@ -4678,7 +4678,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="110" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="110" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A110" s="3">
         <v>109</v>
       </c>
@@ -4699,7 +4699,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="111" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="111" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A111" s="3">
         <v>110</v>
       </c>
@@ -4716,13 +4716,13 @@
         <v>389</v>
       </c>
       <c r="F111" s="16" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="G111" s="7" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="112" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="112" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A112" s="3">
         <v>111</v>
       </c>
@@ -4814,7 +4814,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="116" spans="1:8" ht="15.75" thickBot="1">
       <c r="A116" s="3">
         <v>115</v>
       </c>
@@ -4837,7 +4837,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="117" spans="1:8" ht="15.75" thickBot="1">
       <c r="A117" s="3">
         <v>116</v>
       </c>
@@ -4883,7 +4883,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="119" spans="1:8" ht="15.75" thickBot="1">
       <c r="A119" s="3">
         <v>118</v>
       </c>
@@ -4929,7 +4929,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="121" spans="1:8" ht="15.75" thickBot="1">
       <c r="A121" s="3">
         <v>120</v>
       </c>
@@ -4952,7 +4952,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="122" spans="1:8" ht="15.75" thickBot="1">
       <c r="A122" s="3">
         <v>121</v>
       </c>
@@ -4999,7 +4999,7 @@
       </c>
       <c r="H123"/>
     </row>
-    <row r="124" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="124" spans="1:8" ht="30.75" thickBot="1">
       <c r="A124" s="3">
         <v>123</v>
       </c>
@@ -5023,7 +5023,7 @@
       </c>
       <c r="H124"/>
     </row>
-    <row r="125" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="125" spans="1:8" ht="30.75" thickBot="1">
       <c r="A125" s="3">
         <v>124</v>
       </c>
@@ -5071,7 +5071,7 @@
       </c>
       <c r="H126"/>
     </row>
-    <row r="127" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="127" spans="1:8" ht="15.75" thickBot="1">
       <c r="A127" s="3">
         <v>126</v>
       </c>
@@ -5095,7 +5095,7 @@
       </c>
       <c r="H127"/>
     </row>
-    <row r="128" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="128" spans="1:8" ht="15.75" thickBot="1">
       <c r="A128" s="3">
         <v>127</v>
       </c>
@@ -5119,7 +5119,7 @@
       </c>
       <c r="H128"/>
     </row>
-    <row r="129" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="129" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A129" s="3">
         <v>128</v>
       </c>
@@ -5142,7 +5142,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="130" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
+    <row r="130" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A130" s="3">
         <v>129</v>
       </c>
@@ -5211,7 +5211,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="133" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="133" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A133" s="3">
         <v>132</v>
       </c>
@@ -5234,7 +5234,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="134" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="134" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A134" s="3">
         <v>133</v>
       </c>
@@ -5257,7 +5257,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="135" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="135" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A135" s="3">
         <v>134</v>
       </c>
@@ -5301,7 +5301,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="137" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="137" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A137" s="3">
         <v>136</v>
       </c>
@@ -5324,7 +5324,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="138" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="138" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A138" s="3">
         <v>137</v>
       </c>
@@ -5347,7 +5347,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="139" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="139" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A139" s="3">
         <v>138</v>
       </c>
@@ -5368,7 +5368,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="140" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="140" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A140" s="3">
         <v>139</v>
       </c>
@@ -5389,7 +5389,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="141" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="141" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A141" s="3">
         <v>140</v>
       </c>
@@ -5410,7 +5410,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="142" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="142" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A142" s="3">
         <v>141</v>
       </c>
@@ -5431,7 +5431,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="143" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="143" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A143" s="3">
         <v>142</v>
       </c>
@@ -5452,7 +5452,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="144" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="144" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A144" s="3">
         <v>143</v>
       </c>
@@ -5473,7 +5473,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="145" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+    <row r="145" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
       <c r="A145" s="3">
         <v>144</v>
       </c>
@@ -5496,7 +5496,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="146" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+    <row r="146" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
       <c r="A146" s="3">
         <v>145</v>
       </c>
@@ -5565,7 +5565,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="149" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+    <row r="149" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
       <c r="A149" s="3">
         <v>148</v>
       </c>
@@ -5657,7 +5657,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="153" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+    <row r="153" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
       <c r="A153" s="3">
         <v>152</v>
       </c>
@@ -5680,7 +5680,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="154" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+    <row r="154" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
       <c r="A154" s="3">
         <v>153</v>
       </c>
@@ -5772,7 +5772,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="158" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+    <row r="158" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
       <c r="A158" s="3">
         <v>157</v>
       </c>
@@ -5864,7 +5864,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="162" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+    <row r="162" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
       <c r="A162" s="3">
         <v>161</v>
       </c>
@@ -5887,7 +5887,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="163" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
+    <row r="163" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A163" s="3">
         <v>162</v>
       </c>
@@ -5908,7 +5908,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="164" spans="1:7" customFormat="1" ht="45.75" hidden="1" thickBot="1">
+    <row r="164" spans="1:7" customFormat="1" ht="45.75" thickBot="1">
       <c r="A164" s="3">
         <v>163</v>
       </c>
@@ -5929,7 +5929,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="165" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
+    <row r="165" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A165" s="3">
         <v>164</v>
       </c>
@@ -5950,7 +5950,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="166" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
+    <row r="166" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A166" s="3">
         <v>165</v>
       </c>
@@ -5971,7 +5971,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="167" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
+    <row r="167" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A167" s="3">
         <v>166</v>
       </c>
@@ -5992,7 +5992,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="168" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
+    <row r="168" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A168" s="3">
         <v>167</v>
       </c>
@@ -6013,7 +6013,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="169" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
+    <row r="169" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A169" s="3">
         <v>168</v>
       </c>
@@ -6034,7 +6034,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="170" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
+    <row r="170" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A170" s="3">
         <v>169</v>
       </c>
@@ -6055,7 +6055,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="171" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
+    <row r="171" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A171" s="3">
         <v>170</v>
       </c>
@@ -6076,7 +6076,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="172" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
+    <row r="172" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A172" s="3">
         <v>171</v>
       </c>
@@ -6097,7 +6097,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="173" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
+    <row r="173" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A173" s="3">
         <v>172</v>
       </c>
@@ -6118,7 +6118,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="174" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
+    <row r="174" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A174" s="3">
         <v>173</v>
       </c>
@@ -6139,7 +6139,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="175" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
+    <row r="175" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A175" s="3">
         <v>174</v>
       </c>
@@ -6160,7 +6160,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="176" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
+    <row r="176" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A176" s="3">
         <v>175</v>
       </c>
@@ -6181,7 +6181,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="177" spans="1:8" ht="60.75" hidden="1" thickBot="1">
+    <row r="177" spans="1:8" ht="60.75" thickBot="1">
       <c r="A177" s="3">
         <v>176</v>
       </c>
@@ -6203,7 +6203,7 @@
       </c>
       <c r="H177"/>
     </row>
-    <row r="178" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="178" spans="1:8" ht="15.75" thickBot="1">
       <c r="A178" s="3">
         <v>177</v>
       </c>
@@ -6354,7 +6354,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="185" spans="1:8" ht="30.75" thickBot="1">
+    <row r="185" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A185" s="3">
         <v>183</v>
       </c>
@@ -6380,11 +6380,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:G185">
-    <filterColumn colId="4">
+    <filterColumn colId="3">
       <filters>
-        <filter val="Lore"/>
+        <filter val="Baja"/>
       </filters>
     </filterColumn>
+    <filterColumn colId="4"/>
   </autoFilter>
   <mergeCells count="6">
     <mergeCell ref="B180:B181"/>

--- a/Planificacion/PlanificacionTesis.xlsx
+++ b/Planificacion/PlanificacionTesis.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$G$185</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$G$187</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="396">
   <si>
     <t>Nº</t>
   </si>
@@ -1469,7 +1469,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1543,6 +1543,9 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1571,7 +1574,83 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="50">
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color auto="1"/>
@@ -1763,9 +1842,26 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF5050"/>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1779,7 +1875,17 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1791,12 +1897,61 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color auto="1"/>
       </font>
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2096,10 +2251,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:L185"/>
+  <dimension ref="A1:L187"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G94" sqref="G94"/>
+    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
+      <selection activeCell="A155" sqref="A155:XFD155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="119.42578125" defaultRowHeight="15"/>
@@ -2141,7 +2296,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="30.75" thickBot="1">
+    <row r="2" spans="1:12" ht="30.75" hidden="1" thickBot="1">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2164,7 +2319,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="30.75" thickBot="1">
+    <row r="3" spans="1:12" ht="30.75" hidden="1" thickBot="1">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -2191,7 +2346,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" thickBot="1">
+    <row r="4" spans="1:12" ht="15.75" hidden="1" thickBot="1">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -2218,7 +2373,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" thickBot="1">
+    <row r="5" spans="1:12" ht="15.75" hidden="1" thickBot="1">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -2245,7 +2400,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" thickBot="1">
+    <row r="6" spans="1:12" ht="15.75" hidden="1" thickBot="1">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -2272,7 +2427,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75" thickBot="1">
+    <row r="7" spans="1:12" ht="15.75" hidden="1" thickBot="1">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -2399,7 +2554,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="30.75" thickBot="1">
+    <row r="12" spans="1:12" ht="30.75" hidden="1" thickBot="1">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -2425,7 +2580,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="30.75" thickBot="1">
+    <row r="13" spans="1:12" ht="30.75" hidden="1" thickBot="1">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -2448,7 +2603,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="30.75" thickBot="1">
+    <row r="14" spans="1:12" ht="30.75" hidden="1" thickBot="1">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -2474,7 +2629,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15.75" thickBot="1">
+    <row r="15" spans="1:12" ht="15.75" hidden="1" thickBot="1">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -2499,7 +2654,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="30.75" thickBot="1">
+    <row r="16" spans="1:12" ht="30.75" hidden="1" thickBot="1">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -2602,7 +2757,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15.75" thickBot="1">
+    <row r="20" spans="1:12" ht="15.75" hidden="1" thickBot="1">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -2648,7 +2803,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15.75" thickBot="1">
+    <row r="22" spans="1:12" ht="15.75" hidden="1" thickBot="1">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -2670,7 +2825,7 @@
       </c>
       <c r="H22"/>
     </row>
-    <row r="23" spans="1:12" ht="30.75" thickBot="1">
+    <row r="23" spans="1:12" ht="30.75" hidden="1" thickBot="1">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -2692,7 +2847,7 @@
       </c>
       <c r="H23"/>
     </row>
-    <row r="24" spans="1:12" ht="30.75" thickBot="1">
+    <row r="24" spans="1:12" ht="30.75" hidden="1" thickBot="1">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -2804,7 +2959,7 @@
       </c>
       <c r="H28"/>
     </row>
-    <row r="29" spans="1:12" ht="15.75" thickBot="1">
+    <row r="29" spans="1:12" ht="15.75" hidden="1" thickBot="1">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -2893,7 +3048,7 @@
       </c>
       <c r="H32"/>
     </row>
-    <row r="33" spans="1:8" ht="30.75" thickBot="1">
+    <row r="33" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -2915,7 +3070,7 @@
       </c>
       <c r="H33"/>
     </row>
-    <row r="34" spans="1:8" ht="15.75" thickBot="1">
+    <row r="34" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -2938,7 +3093,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="30.75" thickBot="1">
+    <row r="35" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -2962,7 +3117,7 @@
       </c>
       <c r="H35"/>
     </row>
-    <row r="36" spans="1:8" ht="15.75" thickBot="1">
+    <row r="36" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -2984,7 +3139,7 @@
       </c>
       <c r="H36"/>
     </row>
-    <row r="37" spans="1:8" ht="15.75" thickBot="1">
+    <row r="37" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -3006,7 +3161,7 @@
       </c>
       <c r="H37"/>
     </row>
-    <row r="38" spans="1:8" ht="15.75" thickBot="1">
+    <row r="38" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -3028,7 +3183,7 @@
       </c>
       <c r="H38"/>
     </row>
-    <row r="39" spans="1:8" ht="15.75" thickBot="1">
+    <row r="39" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -3050,7 +3205,7 @@
       </c>
       <c r="H39"/>
     </row>
-    <row r="40" spans="1:8" ht="15.75" thickBot="1">
+    <row r="40" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -3072,7 +3227,7 @@
       </c>
       <c r="H40"/>
     </row>
-    <row r="41" spans="1:8" ht="15.75" thickBot="1">
+    <row r="41" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -3094,7 +3249,7 @@
       </c>
       <c r="H41"/>
     </row>
-    <row r="42" spans="1:8" ht="15.75" thickBot="1">
+    <row r="42" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -3116,7 +3271,7 @@
       </c>
       <c r="H42"/>
     </row>
-    <row r="43" spans="1:8" ht="15.75" thickBot="1">
+    <row r="43" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -3138,7 +3293,7 @@
       </c>
       <c r="H43"/>
     </row>
-    <row r="44" spans="1:8" ht="15.75" thickBot="1">
+    <row r="44" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -3162,7 +3317,7 @@
       </c>
       <c r="H44"/>
     </row>
-    <row r="45" spans="1:8" ht="15.75" thickBot="1">
+    <row r="45" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -3185,7 +3340,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="15.75" thickBot="1">
+    <row r="46" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -3209,7 +3364,7 @@
       </c>
       <c r="H46"/>
     </row>
-    <row r="47" spans="1:8" ht="30.75" thickBot="1">
+    <row r="47" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -3279,7 +3434,7 @@
       </c>
       <c r="H49"/>
     </row>
-    <row r="50" spans="1:8" ht="15.75" thickBot="1">
+    <row r="50" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -3373,7 +3528,7 @@
       </c>
       <c r="H53"/>
     </row>
-    <row r="54" spans="1:8" ht="15.75" thickBot="1">
+    <row r="54" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -3397,7 +3552,7 @@
       </c>
       <c r="H54"/>
     </row>
-    <row r="55" spans="1:8" ht="15.75" thickBot="1">
+    <row r="55" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -3469,7 +3624,7 @@
       </c>
       <c r="H57"/>
     </row>
-    <row r="58" spans="1:8" ht="15.75" thickBot="1">
+    <row r="58" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -3493,7 +3648,7 @@
       </c>
       <c r="H58"/>
     </row>
-    <row r="59" spans="1:8" ht="15.75" thickBot="1">
+    <row r="59" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -3517,7 +3672,7 @@
       </c>
       <c r="H59"/>
     </row>
-    <row r="60" spans="1:8" ht="15.75" thickBot="1">
+    <row r="60" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -3638,7 +3793,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="30.75" thickBot="1">
+    <row r="65" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A65" s="3">
         <v>64</v>
       </c>
@@ -3662,7 +3817,7 @@
       </c>
       <c r="H65"/>
     </row>
-    <row r="66" spans="1:8" ht="15.75" thickBot="1">
+    <row r="66" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A66" s="3">
         <v>65</v>
       </c>
@@ -3686,7 +3841,7 @@
       </c>
       <c r="H66"/>
     </row>
-    <row r="67" spans="1:8" ht="15.75" thickBot="1">
+    <row r="67" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A67" s="3">
         <v>66</v>
       </c>
@@ -3710,7 +3865,7 @@
       </c>
       <c r="H67"/>
     </row>
-    <row r="68" spans="1:8" ht="15.75" thickBot="1">
+    <row r="68" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A68" s="3">
         <v>67</v>
       </c>
@@ -3803,7 +3958,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="15.75" thickBot="1">
+    <row r="72" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A72" s="3">
         <v>71</v>
       </c>
@@ -3826,7 +3981,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="30.75" thickBot="1">
+    <row r="73" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A73" s="3">
         <v>72</v>
       </c>
@@ -3849,7 +4004,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="15.75" thickBot="1">
+    <row r="74" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A74" s="3">
         <v>73</v>
       </c>
@@ -3873,7 +4028,7 @@
       </c>
       <c r="H74"/>
     </row>
-    <row r="75" spans="1:8" ht="15.75" thickBot="1">
+    <row r="75" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A75" s="3">
         <v>74</v>
       </c>
@@ -3895,7 +4050,7 @@
       </c>
       <c r="H75"/>
     </row>
-    <row r="76" spans="1:8" ht="30.75" thickBot="1">
+    <row r="76" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A76" s="3">
         <v>75</v>
       </c>
@@ -3941,7 +4096,7 @@
       </c>
       <c r="H77"/>
     </row>
-    <row r="78" spans="1:8" ht="15.75" thickBot="1">
+    <row r="78" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A78" s="3">
         <v>77</v>
       </c>
@@ -3964,7 +4119,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="15.75" thickBot="1">
+    <row r="79" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A79" s="3">
         <v>78</v>
       </c>
@@ -3987,7 +4142,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="15.75" thickBot="1">
+    <row r="80" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A80" s="3">
         <v>79</v>
       </c>
@@ -4010,7 +4165,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15.75" thickBot="1">
+    <row r="81" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A81" s="3">
         <v>80</v>
       </c>
@@ -4056,7 +4211,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="15.75" thickBot="1">
+    <row r="83" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A83" s="3">
         <v>82</v>
       </c>
@@ -4079,7 +4234,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="15.75" thickBot="1">
+    <row r="84" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A84" s="3">
         <v>83</v>
       </c>
@@ -4102,7 +4257,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15.75" thickBot="1">
+    <row r="85" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A85" s="3">
         <v>84</v>
       </c>
@@ -4125,7 +4280,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="15.75" thickBot="1">
+    <row r="86" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A86" s="3">
         <v>85</v>
       </c>
@@ -4149,7 +4304,7 @@
       </c>
       <c r="H86"/>
     </row>
-    <row r="87" spans="1:8" ht="15.75" thickBot="1">
+    <row r="87" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A87" s="3">
         <v>86</v>
       </c>
@@ -4173,7 +4328,7 @@
       </c>
       <c r="H87"/>
     </row>
-    <row r="88" spans="1:8" ht="15.75" thickBot="1">
+    <row r="88" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A88" s="3">
         <v>87</v>
       </c>
@@ -4197,7 +4352,7 @@
       </c>
       <c r="H88"/>
     </row>
-    <row r="89" spans="1:8" ht="15.75" thickBot="1">
+    <row r="89" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A89" s="3">
         <v>88</v>
       </c>
@@ -4221,7 +4376,7 @@
       </c>
       <c r="H89"/>
     </row>
-    <row r="90" spans="1:8" ht="15.75" thickBot="1">
+    <row r="90" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A90" s="3">
         <v>89</v>
       </c>
@@ -4244,7 +4399,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="15.75" thickBot="1">
+    <row r="91" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A91" s="3">
         <v>90</v>
       </c>
@@ -4267,7 +4422,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="15.75" thickBot="1">
+    <row r="92" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A92" s="3">
         <v>91</v>
       </c>
@@ -4290,7 +4445,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="15.75" thickBot="1">
+    <row r="93" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A93" s="3">
         <v>92</v>
       </c>
@@ -4313,7 +4468,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="30.75" thickBot="1">
+    <row r="94" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A94" s="3">
         <v>93</v>
       </c>
@@ -4337,7 +4492,7 @@
       </c>
       <c r="H94"/>
     </row>
-    <row r="95" spans="1:8" ht="15.75" thickBot="1">
+    <row r="95" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A95" s="3">
         <v>94</v>
       </c>
@@ -4361,7 +4516,7 @@
       </c>
       <c r="H95"/>
     </row>
-    <row r="96" spans="1:8" ht="30.75" thickBot="1">
+    <row r="96" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A96" s="3">
         <v>95</v>
       </c>
@@ -4431,7 +4586,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="99" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="99" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A99" s="3">
         <v>98</v>
       </c>
@@ -4454,7 +4609,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="100" spans="1:7" customFormat="1" ht="45.75" thickBot="1">
+    <row r="100" spans="1:7" customFormat="1" ht="45.75" hidden="1" thickBot="1">
       <c r="A100" s="3">
         <v>99</v>
       </c>
@@ -4477,7 +4632,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="101" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+    <row r="101" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
       <c r="A101" s="3">
         <v>100</v>
       </c>
@@ -4521,7 +4676,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="103" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+    <row r="103" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
       <c r="A103" s="3">
         <v>102</v>
       </c>
@@ -4588,7 +4743,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="106" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="106" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A106" s="3">
         <v>105</v>
       </c>
@@ -4611,7 +4766,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="107" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="107" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A107" s="3">
         <v>106</v>
       </c>
@@ -4634,7 +4789,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="108" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="108" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A108" s="3">
         <v>107</v>
       </c>
@@ -4657,7 +4812,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="109" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="109" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A109" s="3">
         <v>108</v>
       </c>
@@ -4678,7 +4833,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="110" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="110" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A110" s="3">
         <v>109</v>
       </c>
@@ -4699,7 +4854,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="111" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="111" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A111" s="3">
         <v>110</v>
       </c>
@@ -4722,7 +4877,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="112" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="112" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A112" s="3">
         <v>111</v>
       </c>
@@ -4814,7 +4969,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="15.75" thickBot="1">
+    <row r="116" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A116" s="3">
         <v>115</v>
       </c>
@@ -4837,7 +4992,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="15.75" thickBot="1">
+    <row r="117" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A117" s="3">
         <v>116</v>
       </c>
@@ -4883,7 +5038,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="15.75" thickBot="1">
+    <row r="119" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A119" s="3">
         <v>118</v>
       </c>
@@ -4929,7 +5084,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="15.75" thickBot="1">
+    <row r="121" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A121" s="3">
         <v>120</v>
       </c>
@@ -4952,7 +5107,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="15.75" thickBot="1">
+    <row r="122" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A122" s="3">
         <v>121</v>
       </c>
@@ -4999,7 +5154,7 @@
       </c>
       <c r="H123"/>
     </row>
-    <row r="124" spans="1:8" ht="30.75" thickBot="1">
+    <row r="124" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A124" s="3">
         <v>123</v>
       </c>
@@ -5023,7 +5178,7 @@
       </c>
       <c r="H124"/>
     </row>
-    <row r="125" spans="1:8" ht="30.75" thickBot="1">
+    <row r="125" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A125" s="3">
         <v>124</v>
       </c>
@@ -5071,7 +5226,7 @@
       </c>
       <c r="H126"/>
     </row>
-    <row r="127" spans="1:8" ht="15.75" thickBot="1">
+    <row r="127" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A127" s="3">
         <v>126</v>
       </c>
@@ -5095,7 +5250,7 @@
       </c>
       <c r="H127"/>
     </row>
-    <row r="128" spans="1:8" ht="15.75" thickBot="1">
+    <row r="128" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A128" s="3">
         <v>127</v>
       </c>
@@ -5119,7 +5274,7 @@
       </c>
       <c r="H128"/>
     </row>
-    <row r="129" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="129" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A129" s="3">
         <v>128</v>
       </c>
@@ -5142,7 +5297,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="130" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+    <row r="130" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
       <c r="A130" s="3">
         <v>129</v>
       </c>
@@ -5211,7 +5366,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="133" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="133" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A133" s="3">
         <v>132</v>
       </c>
@@ -5234,7 +5389,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="134" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="134" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A134" s="3">
         <v>133</v>
       </c>
@@ -5257,7 +5412,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="135" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="135" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A135" s="3">
         <v>134</v>
       </c>
@@ -5301,7 +5456,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="137" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="137" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A137" s="3">
         <v>136</v>
       </c>
@@ -5324,7 +5479,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="138" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="138" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A138" s="3">
         <v>137</v>
       </c>
@@ -5347,7 +5502,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="139" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="139" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A139" s="3">
         <v>138</v>
       </c>
@@ -5368,7 +5523,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="140" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="140" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A140" s="3">
         <v>139</v>
       </c>
@@ -5389,7 +5544,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="141" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="141" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A141" s="3">
         <v>140</v>
       </c>
@@ -5410,7 +5565,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="142" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="142" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A142" s="3">
         <v>141</v>
       </c>
@@ -5431,7 +5586,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="143" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="143" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A143" s="3">
         <v>142</v>
       </c>
@@ -5452,7 +5607,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="144" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="144" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A144" s="3">
         <v>143</v>
       </c>
@@ -5473,7 +5628,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="145" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
+    <row r="145" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A145" s="3">
         <v>144</v>
       </c>
@@ -5495,8 +5650,9 @@
       <c r="G145" s="7" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="146" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
+      <c r="H145"/>
+    </row>
+    <row r="146" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A146" s="3">
         <v>145</v>
       </c>
@@ -5518,8 +5674,9 @@
       <c r="G146" s="7" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="147" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+      <c r="H146"/>
+    </row>
+    <row r="147" spans="1:8" ht="30.75" thickBot="1">
       <c r="A147" s="3">
         <v>146</v>
       </c>
@@ -5541,8 +5698,9 @@
       <c r="G147" s="7" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="148" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+      <c r="H147"/>
+    </row>
+    <row r="148" spans="1:8" ht="30.75" thickBot="1">
       <c r="A148" s="3">
         <v>147</v>
       </c>
@@ -5564,8 +5722,9 @@
       <c r="G148" s="7" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="149" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
+      <c r="H148"/>
+    </row>
+    <row r="149" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A149" s="3">
         <v>148</v>
       </c>
@@ -5587,8 +5746,9 @@
       <c r="G149" s="7" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="150" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+      <c r="H149"/>
+    </row>
+    <row r="150" spans="1:8" ht="30.75" thickBot="1">
       <c r="A150" s="3">
         <v>149</v>
       </c>
@@ -5610,8 +5770,9 @@
       <c r="G150" s="7" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="151" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+      <c r="H150"/>
+    </row>
+    <row r="151" spans="1:8" ht="30.75" thickBot="1">
       <c r="A151" s="3">
         <v>150</v>
       </c>
@@ -5633,8 +5794,9 @@
       <c r="G151" s="7" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="152" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+      <c r="H151"/>
+    </row>
+    <row r="152" spans="1:8" ht="30.75" thickBot="1">
       <c r="A152" s="3">
         <v>151</v>
       </c>
@@ -5656,8 +5818,9 @@
       <c r="G152" s="7" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="153" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
+      <c r="H152"/>
+    </row>
+    <row r="153" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A153" s="3">
         <v>152</v>
       </c>
@@ -5679,8 +5842,9 @@
       <c r="G153" s="7" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="154" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
+      <c r="H153"/>
+    </row>
+    <row r="154" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A154" s="3">
         <v>153</v>
       </c>
@@ -5702,39 +5866,41 @@
       <c r="G154" s="7" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="155" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
-      <c r="A155" s="3">
-        <v>154</v>
+      <c r="H154"/>
+    </row>
+    <row r="155" spans="1:8" ht="30.75" thickBot="1">
+      <c r="A155" s="27">
+        <v>152</v>
       </c>
       <c r="B155" s="4" t="s">
         <v>297</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D155" s="16" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E155" s="16" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F155" s="16" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="G155" s="7" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+        <v>315</v>
+      </c>
+      <c r="H155"/>
+    </row>
+    <row r="156" spans="1:8" ht="30.75" thickBot="1">
       <c r="A156" s="3">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B156" s="4" t="s">
         <v>297</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D156" s="16" t="s">
         <v>385</v>
@@ -5746,18 +5912,19 @@
         <v>393</v>
       </c>
       <c r="G156" s="7" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+        <v>319</v>
+      </c>
+      <c r="H156"/>
+    </row>
+    <row r="157" spans="1:8" ht="30.75" thickBot="1">
       <c r="A157" s="3">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B157" s="4" t="s">
         <v>297</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D157" s="16" t="s">
         <v>385</v>
@@ -5769,21 +5936,22 @@
         <v>393</v>
       </c>
       <c r="G157" s="7" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
+        <v>321</v>
+      </c>
+      <c r="H157"/>
+    </row>
+    <row r="158" spans="1:8" ht="30.75" thickBot="1">
       <c r="A158" s="3">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B158" s="4" t="s">
         <v>297</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D158" s="16" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E158" s="16" t="s">
         <v>386</v>
@@ -5792,21 +5960,22 @@
         <v>393</v>
       </c>
       <c r="G158" s="7" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+        <v>323</v>
+      </c>
+      <c r="H158"/>
+    </row>
+    <row r="159" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A159" s="3">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B159" s="4" t="s">
         <v>297</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D159" s="16" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E159" s="16" t="s">
         <v>386</v>
@@ -5815,18 +5984,19 @@
         <v>393</v>
       </c>
       <c r="G159" s="7" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+        <v>325</v>
+      </c>
+      <c r="H159"/>
+    </row>
+    <row r="160" spans="1:8" ht="30.75" thickBot="1">
       <c r="A160" s="3">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B160" s="4" t="s">
         <v>297</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D160" s="16" t="s">
         <v>385</v>
@@ -5838,18 +6008,19 @@
         <v>393</v>
       </c>
       <c r="G160" s="7" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+        <v>327</v>
+      </c>
+      <c r="H160"/>
+    </row>
+    <row r="161" spans="1:8" ht="30.75" thickBot="1">
       <c r="A161" s="3">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B161" s="4" t="s">
         <v>297</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D161" s="16" t="s">
         <v>385</v>
@@ -5861,62 +6032,67 @@
         <v>393</v>
       </c>
       <c r="G161" s="7" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
+        <v>329</v>
+      </c>
+      <c r="H161"/>
+    </row>
+    <row r="162" spans="1:8" ht="30.75" thickBot="1">
       <c r="A162" s="3">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B162" s="4" t="s">
         <v>297</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D162" s="16" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E162" s="16" t="s">
         <v>386</v>
       </c>
       <c r="F162" s="16" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="G162" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="H162"/>
+    </row>
+    <row r="163" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+      <c r="A163" s="3">
+        <v>161</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="C163" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="D163" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="E163" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="F163" s="16" t="s">
+        <v>390</v>
+      </c>
+      <c r="G163" s="7" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="163" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
-      <c r="A163" s="3">
+      <c r="H163"/>
+    </row>
+    <row r="164" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+      <c r="A164" s="3">
         <v>162</v>
-      </c>
-      <c r="B163" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="C163" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="D163" s="16" t="s">
-        <v>385</v>
-      </c>
-      <c r="E163" s="16"/>
-      <c r="F163" s="16" t="s">
-        <v>390</v>
-      </c>
-      <c r="G163" s="7" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" customFormat="1" ht="45.75" thickBot="1">
-      <c r="A164" s="3">
-        <v>163</v>
       </c>
       <c r="B164" s="4" t="s">
         <v>334</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D164" s="16" t="s">
         <v>385</v>
@@ -5926,18 +6102,19 @@
         <v>390</v>
       </c>
       <c r="G164" s="7" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+        <v>336</v>
+      </c>
+      <c r="H164"/>
+    </row>
+    <row r="165" spans="1:8" ht="45.75" hidden="1" thickBot="1">
       <c r="A165" s="3">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B165" s="4" t="s">
         <v>334</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D165" s="16" t="s">
         <v>385</v>
@@ -5947,18 +6124,19 @@
         <v>390</v>
       </c>
       <c r="G165" s="7" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+        <v>338</v>
+      </c>
+      <c r="H165"/>
+    </row>
+    <row r="166" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A166" s="3">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B166" s="4" t="s">
         <v>334</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D166" s="16" t="s">
         <v>385</v>
@@ -5968,18 +6146,19 @@
         <v>390</v>
       </c>
       <c r="G166" s="7" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+        <v>340</v>
+      </c>
+      <c r="H166"/>
+    </row>
+    <row r="167" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A167" s="3">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B167" s="4" t="s">
         <v>334</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D167" s="16" t="s">
         <v>385</v>
@@ -5989,18 +6168,19 @@
         <v>390</v>
       </c>
       <c r="G167" s="7" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+        <v>342</v>
+      </c>
+      <c r="H167"/>
+    </row>
+    <row r="168" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A168" s="3">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B168" s="4" t="s">
         <v>334</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D168" s="16" t="s">
         <v>385</v>
@@ -6010,18 +6190,19 @@
         <v>390</v>
       </c>
       <c r="G168" s="7" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+        <v>344</v>
+      </c>
+      <c r="H168"/>
+    </row>
+    <row r="169" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A169" s="3">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B169" s="4" t="s">
         <v>334</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D169" s="16" t="s">
         <v>385</v>
@@ -6031,18 +6212,19 @@
         <v>390</v>
       </c>
       <c r="G169" s="7" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+        <v>346</v>
+      </c>
+      <c r="H169"/>
+    </row>
+    <row r="170" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A170" s="3">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B170" s="4" t="s">
         <v>334</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D170" s="16" t="s">
         <v>385</v>
@@ -6052,18 +6234,19 @@
         <v>390</v>
       </c>
       <c r="G170" s="7" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+        <v>348</v>
+      </c>
+      <c r="H170"/>
+    </row>
+    <row r="171" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A171" s="3">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B171" s="4" t="s">
         <v>334</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D171" s="16" t="s">
         <v>385</v>
@@ -6073,18 +6256,19 @@
         <v>390</v>
       </c>
       <c r="G171" s="7" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+        <v>350</v>
+      </c>
+      <c r="H171"/>
+    </row>
+    <row r="172" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A172" s="3">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B172" s="4" t="s">
         <v>334</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D172" s="16" t="s">
         <v>385</v>
@@ -6094,18 +6278,19 @@
         <v>390</v>
       </c>
       <c r="G172" s="7" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+        <v>352</v>
+      </c>
+      <c r="H172"/>
+    </row>
+    <row r="173" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A173" s="3">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B173" s="4" t="s">
         <v>334</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D173" s="16" t="s">
         <v>385</v>
@@ -6115,18 +6300,19 @@
         <v>390</v>
       </c>
       <c r="G173" s="7" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+        <v>354</v>
+      </c>
+      <c r="H173"/>
+    </row>
+    <row r="174" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A174" s="3">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B174" s="4" t="s">
         <v>334</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D174" s="16" t="s">
         <v>385</v>
@@ -6136,18 +6322,19 @@
         <v>390</v>
       </c>
       <c r="G174" s="7" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+        <v>356</v>
+      </c>
+      <c r="H174"/>
+    </row>
+    <row r="175" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A175" s="3">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B175" s="4" t="s">
         <v>334</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D175" s="16" t="s">
         <v>385</v>
@@ -6157,18 +6344,19 @@
         <v>390</v>
       </c>
       <c r="G175" s="7" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+        <v>358</v>
+      </c>
+      <c r="H175"/>
+    </row>
+    <row r="176" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A176" s="3">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B176" s="4" t="s">
         <v>334</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D176" s="16" t="s">
         <v>385</v>
@@ -6178,18 +6366,19 @@
         <v>390</v>
       </c>
       <c r="G176" s="7" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" ht="60.75" thickBot="1">
+        <v>360</v>
+      </c>
+      <c r="H176"/>
+    </row>
+    <row r="177" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A177" s="3">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B177" s="4" t="s">
         <v>334</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D177" s="16" t="s">
         <v>385</v>
@@ -6199,19 +6388,19 @@
         <v>390</v>
       </c>
       <c r="G177" s="7" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="H177"/>
     </row>
-    <row r="178" spans="1:8" ht="15.75" thickBot="1">
+    <row r="178" spans="1:8" ht="60.75" hidden="1" thickBot="1">
       <c r="A178" s="3">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>271</v>
+        <v>334</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D178" s="16" t="s">
         <v>385</v>
@@ -6221,151 +6410,150 @@
         <v>390</v>
       </c>
       <c r="G178" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="H178"/>
+    </row>
+    <row r="179" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+      <c r="A179" s="3">
+        <v>177</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C179" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="D179" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E179" s="16"/>
+      <c r="F179" s="16" t="s">
+        <v>390</v>
+      </c>
+      <c r="G179" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="H178"/>
-    </row>
-    <row r="179" spans="1:8" ht="30.75" hidden="1" thickBot="1">
-      <c r="A179" s="3">
+      <c r="H179"/>
+    </row>
+    <row r="180" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+      <c r="A180" s="3">
         <v>178</v>
       </c>
-      <c r="B179" s="4" t="s">
+      <c r="B180" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="C179" s="5" t="s">
+      <c r="C180" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="D179" s="16" t="s">
+      <c r="D180" s="16" t="s">
         <v>384</v>
       </c>
-      <c r="E179" s="16" t="s">
+      <c r="E180" s="16" t="s">
         <v>387</v>
       </c>
-      <c r="F179" s="16" t="s">
-        <v>390</v>
-      </c>
-      <c r="G179" s="7" t="s">
+      <c r="F180" s="16" t="s">
+        <v>390</v>
+      </c>
+      <c r="G180" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="H179"/>
-    </row>
-    <row r="180" spans="1:8">
-      <c r="A180" s="10"/>
-      <c r="B180" s="27" t="s">
+      <c r="H180"/>
+    </row>
+    <row r="181" spans="1:8" ht="30.75" thickBot="1">
+      <c r="A181" s="27">
+        <v>178</v>
+      </c>
+      <c r="B181" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="C180" s="29" t="s">
+      <c r="C181" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="D181" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="E181" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="F181" s="16" t="s">
+        <v>390</v>
+      </c>
+      <c r="G181" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="H181"/>
+    </row>
+    <row r="182" spans="1:8">
+      <c r="A182" s="10"/>
+      <c r="B182" s="28" t="s">
+        <v>297</v>
+      </c>
+      <c r="C182" s="30" t="s">
         <v>369</v>
       </c>
-      <c r="D180" s="33" t="s">
-        <v>385</v>
-      </c>
-      <c r="E180" s="33" t="s">
+      <c r="D182" s="34" t="s">
+        <v>385</v>
+      </c>
+      <c r="E182" s="34" t="s">
         <v>386</v>
       </c>
-      <c r="F180" s="33" t="s">
-        <v>390</v>
-      </c>
-      <c r="G180" s="31" t="s">
+      <c r="F182" s="34" t="s">
+        <v>390</v>
+      </c>
+      <c r="G182" s="32" t="s">
         <v>370</v>
       </c>
-      <c r="H180"/>
-    </row>
-    <row r="181" spans="1:8" ht="15.75" hidden="1" thickBot="1">
-      <c r="A181" s="3">
+      <c r="H182"/>
+    </row>
+    <row r="183" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+      <c r="A183" s="3">
         <v>179</v>
       </c>
-      <c r="B181" s="28"/>
-      <c r="C181" s="30"/>
-      <c r="D181" s="34"/>
-      <c r="E181" s="34"/>
-      <c r="F181" s="34"/>
-      <c r="G181" s="32"/>
-      <c r="H181"/>
-    </row>
-    <row r="182" spans="1:8" ht="30.75" thickBot="1">
-      <c r="A182" s="3">
+      <c r="B183" s="29"/>
+      <c r="C183" s="31"/>
+      <c r="D183" s="35"/>
+      <c r="E183" s="35"/>
+      <c r="F183" s="35"/>
+      <c r="G183" s="33"/>
+      <c r="H183"/>
+    </row>
+    <row r="184" spans="1:8" ht="30.75" thickBot="1">
+      <c r="A184" s="3">
         <v>180</v>
       </c>
-      <c r="B182" s="4" t="s">
+      <c r="B184" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="C182" s="5" t="s">
+      <c r="C184" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="D182" s="16" t="s">
-        <v>385</v>
-      </c>
-      <c r="E182" s="16" t="s">
+      <c r="D184" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E184" s="16" t="s">
         <v>386</v>
       </c>
-      <c r="F182" s="16" t="s">
-        <v>390</v>
-      </c>
-      <c r="G182" s="7" t="s">
+      <c r="F184" s="16" t="s">
+        <v>390</v>
+      </c>
+      <c r="G184" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="H182"/>
-    </row>
-    <row r="183" spans="1:8" ht="30.75" thickBot="1">
-      <c r="A183" s="3">
+      <c r="H184"/>
+    </row>
+    <row r="185" spans="1:8" ht="30.75" thickBot="1">
+      <c r="A185" s="3">
         <v>181</v>
-      </c>
-      <c r="B183" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="C183" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="D183" s="16" t="s">
-        <v>385</v>
-      </c>
-      <c r="E183" s="16" t="s">
-        <v>386</v>
-      </c>
-      <c r="F183" s="16" t="s">
-        <v>390</v>
-      </c>
-      <c r="G183" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="H183"/>
-    </row>
-    <row r="184" spans="1:8" ht="30.75" hidden="1" thickBot="1">
-      <c r="A184" s="3">
-        <v>182</v>
-      </c>
-      <c r="B184" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="C184" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="D184" s="16" t="s">
-        <v>383</v>
-      </c>
-      <c r="E184" s="16" t="s">
-        <v>388</v>
-      </c>
-      <c r="F184" s="16" t="s">
-        <v>390</v>
-      </c>
-      <c r="G184" s="7" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" ht="30.75" hidden="1" thickBot="1">
-      <c r="A185" s="3">
-        <v>183</v>
       </c>
       <c r="B185" s="4" t="s">
         <v>297</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="D185" s="16" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E185" s="16" t="s">
         <v>386</v>
@@ -6374,137 +6562,222 @@
         <v>390</v>
       </c>
       <c r="G185" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="H185"/>
+    </row>
+    <row r="186" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+      <c r="A186" s="3">
+        <v>182</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C186" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="D186" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="E186" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="F186" s="16" t="s">
+        <v>390</v>
+      </c>
+      <c r="G186" s="7" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+      <c r="A187" s="3">
+        <v>183</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="C187" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="D187" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="E187" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="F187" s="16" t="s">
+        <v>390</v>
+      </c>
+      <c r="G187" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="H185"/>
+      <c r="H187"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G185">
+  <autoFilter ref="A1:G187">
     <filterColumn colId="3">
       <filters>
         <filter val="Baja"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="4"/>
+    <filterColumn colId="4">
+      <filters>
+        <filter val="Lore"/>
+      </filters>
+    </filterColumn>
   </autoFilter>
   <mergeCells count="6">
-    <mergeCell ref="B180:B181"/>
-    <mergeCell ref="C180:C181"/>
-    <mergeCell ref="G180:G181"/>
-    <mergeCell ref="D180:D181"/>
-    <mergeCell ref="E180:E181"/>
-    <mergeCell ref="F180:F181"/>
+    <mergeCell ref="B182:B183"/>
+    <mergeCell ref="C182:C183"/>
+    <mergeCell ref="G182:G183"/>
+    <mergeCell ref="D182:D183"/>
+    <mergeCell ref="E182:E183"/>
+    <mergeCell ref="F182:F183"/>
   </mergeCells>
   <conditionalFormatting sqref="F1:F1048576 H63">
-    <cfRule type="containsText" dxfId="29" priority="30" operator="containsText" text="Sin Empezar">
-      <formula>NOT(ISERROR(SEARCH("Sin Empezar",F1)))</formula>
+    <cfRule type="containsText" dxfId="44" priority="36" operator="containsText" text="Testeado con errores">
+      <formula>NOT(ISERROR(SEARCH("Testeado con errores",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="29" operator="containsText" text="Finalizado">
+    <cfRule type="containsText" dxfId="43" priority="37" operator="containsText" text="Implementado">
+      <formula>NOT(ISERROR(SEARCH("Implementado",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="42" priority="38" operator="containsText" text="En Progreso">
+      <formula>NOT(ISERROR(SEARCH("En Progreso",F1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="41" priority="39" operator="containsText" text="Finalizado">
       <formula>NOT(ISERROR(SEARCH("Finalizado",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="28" operator="containsText" text="En Progreso">
-      <formula>NOT(ISERROR(SEARCH("En Progreso",F1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="27" operator="containsText" text="Implementado">
-      <formula>NOT(ISERROR(SEARCH("Implementado",F1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="26" operator="containsText" text="Testeado con errores">
-      <formula>NOT(ISERROR(SEARCH("Testeado con errores",F1)))</formula>
+    <cfRule type="containsText" dxfId="40" priority="40" operator="containsText" text="Sin Empezar">
+      <formula>NOT(ISERROR(SEARCH("Sin Empezar",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L15">
-    <cfRule type="containsText" dxfId="24" priority="21" operator="containsText" text="Testeado con errores">
+    <cfRule type="containsText" dxfId="39" priority="31" operator="containsText" text="Testeado con errores">
       <formula>NOT(ISERROR(SEARCH("Testeado con errores",L15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="22" operator="containsText" text="Implementado">
+    <cfRule type="containsText" dxfId="38" priority="32" operator="containsText" text="Implementado">
       <formula>NOT(ISERROR(SEARCH("Implementado",L15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="23" operator="containsText" text="En Progreso">
+    <cfRule type="containsText" dxfId="37" priority="33" operator="containsText" text="En Progreso">
       <formula>NOT(ISERROR(SEARCH("En Progreso",L15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="24" operator="containsText" text="Finalizado">
+    <cfRule type="containsText" dxfId="36" priority="34" operator="containsText" text="Finalizado">
       <formula>NOT(ISERROR(SEARCH("Finalizado",L15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="25" operator="containsText" text="Sin Empezar">
+    <cfRule type="containsText" dxfId="35" priority="35" operator="containsText" text="Sin Empezar">
       <formula>NOT(ISERROR(SEARCH("Sin Empezar",L15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L16">
-    <cfRule type="containsText" dxfId="19" priority="16" operator="containsText" text="Testeado con errores">
+    <cfRule type="containsText" dxfId="34" priority="26" operator="containsText" text="Testeado con errores">
       <formula>NOT(ISERROR(SEARCH("Testeado con errores",L16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="17" operator="containsText" text="Implementado">
+    <cfRule type="containsText" dxfId="33" priority="27" operator="containsText" text="Implementado">
       <formula>NOT(ISERROR(SEARCH("Implementado",L16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="18" operator="containsText" text="En Progreso">
+    <cfRule type="containsText" dxfId="32" priority="28" operator="containsText" text="En Progreso">
       <formula>NOT(ISERROR(SEARCH("En Progreso",L16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="19" operator="containsText" text="Finalizado">
+    <cfRule type="containsText" dxfId="31" priority="29" operator="containsText" text="Finalizado">
       <formula>NOT(ISERROR(SEARCH("Finalizado",L16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="20" operator="containsText" text="Sin Empezar">
+    <cfRule type="containsText" dxfId="30" priority="30" operator="containsText" text="Sin Empezar">
       <formula>NOT(ISERROR(SEARCH("Sin Empezar",L16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L17">
-    <cfRule type="containsText" dxfId="14" priority="11" operator="containsText" text="Testeado con errores">
+    <cfRule type="containsText" dxfId="29" priority="21" operator="containsText" text="Testeado con errores">
       <formula>NOT(ISERROR(SEARCH("Testeado con errores",L17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="12" operator="containsText" text="Implementado">
+    <cfRule type="containsText" dxfId="28" priority="22" operator="containsText" text="Implementado">
       <formula>NOT(ISERROR(SEARCH("Implementado",L17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="En Progreso">
+    <cfRule type="containsText" dxfId="27" priority="23" operator="containsText" text="En Progreso">
       <formula>NOT(ISERROR(SEARCH("En Progreso",L17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="14" operator="containsText" text="Finalizado">
+    <cfRule type="containsText" dxfId="26" priority="24" operator="containsText" text="Finalizado">
       <formula>NOT(ISERROR(SEARCH("Finalizado",L17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="15" operator="containsText" text="Sin Empezar">
+    <cfRule type="containsText" dxfId="25" priority="25" operator="containsText" text="Sin Empezar">
       <formula>NOT(ISERROR(SEARCH("Sin Empezar",L17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L18">
-    <cfRule type="containsText" dxfId="9" priority="6" operator="containsText" text="Testeado con errores">
+    <cfRule type="containsText" dxfId="24" priority="16" operator="containsText" text="Testeado con errores">
       <formula>NOT(ISERROR(SEARCH("Testeado con errores",L18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="Implementado">
+    <cfRule type="containsText" dxfId="23" priority="17" operator="containsText" text="Implementado">
       <formula>NOT(ISERROR(SEARCH("Implementado",L18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="En Progreso">
+    <cfRule type="containsText" dxfId="22" priority="18" operator="containsText" text="En Progreso">
       <formula>NOT(ISERROR(SEARCH("En Progreso",L18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="Finalizado">
+    <cfRule type="containsText" dxfId="21" priority="19" operator="containsText" text="Finalizado">
       <formula>NOT(ISERROR(SEARCH("Finalizado",L18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="10" operator="containsText" text="Sin Empezar">
+    <cfRule type="containsText" dxfId="20" priority="20" operator="containsText" text="Sin Empezar">
       <formula>NOT(ISERROR(SEARCH("Sin Empezar",L18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L19">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="Testeado con errores">
+    <cfRule type="containsText" dxfId="19" priority="11" operator="containsText" text="Testeado con errores">
       <formula>NOT(ISERROR(SEARCH("Testeado con errores",L19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="Implementado">
+    <cfRule type="containsText" dxfId="18" priority="12" operator="containsText" text="Implementado">
       <formula>NOT(ISERROR(SEARCH("Implementado",L19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="En Progreso">
+    <cfRule type="containsText" dxfId="17" priority="13" operator="containsText" text="En Progreso">
       <formula>NOT(ISERROR(SEARCH("En Progreso",L19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="Finalizado">
+    <cfRule type="containsText" dxfId="16" priority="14" operator="containsText" text="Finalizado">
       <formula>NOT(ISERROR(SEARCH("Finalizado",L19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="5" operator="containsText" text="Sin Empezar">
+    <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="Sin Empezar">
       <formula>NOT(ISERROR(SEARCH("Sin Empezar",L19)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F181">
+    <cfRule type="containsText" dxfId="14" priority="6" operator="containsText" text="Testeado con errores">
+      <formula>NOT(ISERROR(SEARCH("Testeado con errores",F181)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="7" operator="containsText" text="Implementado">
+      <formula>NOT(ISERROR(SEARCH("Implementado",F181)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="8" operator="containsText" text="En Progreso">
+      <formula>NOT(ISERROR(SEARCH("En Progreso",F181)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="Finalizado">
+      <formula>NOT(ISERROR(SEARCH("Finalizado",F181)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="10" operator="containsText" text="Sin Empezar">
+      <formula>NOT(ISERROR(SEARCH("Sin Empezar",F181)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F155">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Testeado con errores">
+      <formula>NOT(ISERROR(SEARCH("Testeado con errores",F155)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="Implementado">
+      <formula>NOT(ISERROR(SEARCH("Implementado",F155)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="En Progreso">
+      <formula>NOT(ISERROR(SEARCH("En Progreso",F155)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="Finalizado">
+      <formula>NOT(ISERROR(SEARCH("Finalizado",F155)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="5" operator="containsText" text="Sin Empezar">
+      <formula>NOT(ISERROR(SEARCH("Sin Empezar",F155)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D185">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D187">
       <formula1>$L$4:$L$6</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E185">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E187">
       <formula1>$L$9:$L$12</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F185">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F187">
       <formula1>$L$15:$L$19</formula1>
     </dataValidation>
   </dataValidations>

--- a/Planificacion/PlanificacionTesis.xlsx
+++ b/Planificacion/PlanificacionTesis.xlsx
@@ -1574,83 +1574,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="50">
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="40">
     <dxf>
       <font>
         <color auto="1"/>
@@ -2253,8 +2177,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:L187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
-      <selection activeCell="A155" sqref="A155:XFD155"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="119.42578125" defaultRowHeight="15"/>
@@ -2319,7 +2243,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="30.75" hidden="1" thickBot="1">
+    <row r="3" spans="1:12" ht="30.75" thickBot="1">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -2346,7 +2270,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" hidden="1" thickBot="1">
+    <row r="4" spans="1:12" ht="15.75" thickBot="1">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -2373,7 +2297,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" hidden="1" thickBot="1">
+    <row r="5" spans="1:12" ht="15.75" thickBot="1">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -2400,7 +2324,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" hidden="1" thickBot="1">
+    <row r="6" spans="1:12" ht="15.75" thickBot="1">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -2427,7 +2351,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75" hidden="1" thickBot="1">
+    <row r="7" spans="1:12" ht="15.75" thickBot="1">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -2935,7 +2859,7 @@
       </c>
       <c r="H27"/>
     </row>
-    <row r="28" spans="1:12" ht="15.75" hidden="1" thickBot="1">
+    <row r="28" spans="1:12" ht="15.75" thickBot="1">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -3093,7 +3017,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="35" spans="1:8" ht="30.75" thickBot="1">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -3293,7 +3217,7 @@
       </c>
       <c r="H43"/>
     </row>
-    <row r="44" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="44" spans="1:8" ht="15.75" thickBot="1">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -3340,7 +3264,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="46" spans="1:8" ht="15.75" thickBot="1">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -3386,7 +3310,7 @@
       </c>
       <c r="H47"/>
     </row>
-    <row r="48" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="48" spans="1:8" ht="30.75" thickBot="1">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -3400,7 +3324,7 @@
         <v>384</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F48" s="16" t="s">
         <v>390</v>
@@ -3410,7 +3334,7 @@
       </c>
       <c r="H48"/>
     </row>
-    <row r="49" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="49" spans="1:8" ht="15.75" thickBot="1">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -3434,7 +3358,7 @@
       </c>
       <c r="H49"/>
     </row>
-    <row r="50" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="50" spans="1:8" ht="15.75" thickBot="1">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -3480,7 +3404,7 @@
       </c>
       <c r="H51"/>
     </row>
-    <row r="52" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="52" spans="1:8" ht="15.75" thickBot="1">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -3504,7 +3428,7 @@
       </c>
       <c r="H52"/>
     </row>
-    <row r="53" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="53" spans="1:8" ht="15.75" thickBot="1">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -3528,7 +3452,7 @@
       </c>
       <c r="H53"/>
     </row>
-    <row r="54" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="54" spans="1:8" ht="15.75" thickBot="1">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -3552,7 +3476,7 @@
       </c>
       <c r="H54"/>
     </row>
-    <row r="55" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="55" spans="1:8" ht="15.75" thickBot="1">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -3576,7 +3500,7 @@
       </c>
       <c r="H55"/>
     </row>
-    <row r="56" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="56" spans="1:8" ht="15.75" thickBot="1">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -3600,7 +3524,7 @@
       </c>
       <c r="H56"/>
     </row>
-    <row r="57" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="57" spans="1:8" ht="15.75" thickBot="1">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -3624,7 +3548,7 @@
       </c>
       <c r="H57"/>
     </row>
-    <row r="58" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="58" spans="1:8" ht="15.75" thickBot="1">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -3648,7 +3572,7 @@
       </c>
       <c r="H58"/>
     </row>
-    <row r="59" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="59" spans="1:8" ht="15.75" thickBot="1">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -3672,7 +3596,7 @@
       </c>
       <c r="H59"/>
     </row>
-    <row r="60" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="60" spans="1:8" ht="15.75" thickBot="1">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -3696,7 +3620,7 @@
       </c>
       <c r="H60"/>
     </row>
-    <row r="61" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="61" spans="1:8" ht="15.75" thickBot="1">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -3720,7 +3644,7 @@
       </c>
       <c r="H61"/>
     </row>
-    <row r="62" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="62" spans="1:8" ht="15.75" thickBot="1">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -3793,7 +3717,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="65" spans="1:8" ht="30.75" thickBot="1">
       <c r="A65" s="3">
         <v>64</v>
       </c>
@@ -3817,7 +3741,7 @@
       </c>
       <c r="H65"/>
     </row>
-    <row r="66" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="66" spans="1:8" ht="15.75" thickBot="1">
       <c r="A66" s="3">
         <v>65</v>
       </c>
@@ -3841,7 +3765,7 @@
       </c>
       <c r="H66"/>
     </row>
-    <row r="67" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="67" spans="1:8" ht="15.75" thickBot="1">
       <c r="A67" s="3">
         <v>66</v>
       </c>
@@ -3865,7 +3789,7 @@
       </c>
       <c r="H67"/>
     </row>
-    <row r="68" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="68" spans="1:8" ht="15.75" thickBot="1">
       <c r="A68" s="3">
         <v>67</v>
       </c>
@@ -4004,7 +3928,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="74" spans="1:8" ht="15.75" thickBot="1">
       <c r="A74" s="3">
         <v>73</v>
       </c>
@@ -4072,7 +3996,7 @@
       </c>
       <c r="H76"/>
     </row>
-    <row r="77" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="77" spans="1:8" ht="30.75" thickBot="1">
       <c r="A77" s="3">
         <v>76</v>
       </c>
@@ -4280,7 +4204,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="86" spans="1:8" ht="15.75" thickBot="1">
       <c r="A86" s="3">
         <v>85</v>
       </c>
@@ -4304,7 +4228,7 @@
       </c>
       <c r="H86"/>
     </row>
-    <row r="87" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="87" spans="1:8" ht="15.75" thickBot="1">
       <c r="A87" s="3">
         <v>86</v>
       </c>
@@ -4328,7 +4252,7 @@
       </c>
       <c r="H87"/>
     </row>
-    <row r="88" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="88" spans="1:8" ht="15.75" thickBot="1">
       <c r="A88" s="3">
         <v>87</v>
       </c>
@@ -4352,7 +4276,7 @@
       </c>
       <c r="H88"/>
     </row>
-    <row r="89" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="89" spans="1:8" ht="15.75" thickBot="1">
       <c r="A89" s="3">
         <v>88</v>
       </c>
@@ -4468,7 +4392,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="94" spans="1:8" ht="30.75" thickBot="1">
       <c r="A94" s="3">
         <v>93</v>
       </c>
@@ -4492,7 +4416,7 @@
       </c>
       <c r="H94"/>
     </row>
-    <row r="95" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="95" spans="1:8" ht="15.75" thickBot="1">
       <c r="A95" s="3">
         <v>94</v>
       </c>
@@ -4516,7 +4440,7 @@
       </c>
       <c r="H95"/>
     </row>
-    <row r="96" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="96" spans="1:8" ht="30.75" thickBot="1">
       <c r="A96" s="3">
         <v>95</v>
       </c>
@@ -4540,7 +4464,7 @@
       </c>
       <c r="H96"/>
     </row>
-    <row r="97" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
+    <row r="97" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A97" s="3">
         <v>96</v>
       </c>
@@ -4563,7 +4487,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="98" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
+    <row r="98" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A98" s="3">
         <v>97</v>
       </c>
@@ -4586,7 +4510,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="99" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="99" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A99" s="3">
         <v>98</v>
       </c>
@@ -4609,7 +4533,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="100" spans="1:7" customFormat="1" ht="45.75" hidden="1" thickBot="1">
+    <row r="100" spans="1:7" customFormat="1" ht="45.75" thickBot="1">
       <c r="A100" s="3">
         <v>99</v>
       </c>
@@ -4632,7 +4556,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="101" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
+    <row r="101" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A101" s="3">
         <v>100</v>
       </c>
@@ -4676,7 +4600,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="103" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
+    <row r="103" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A103" s="3">
         <v>102</v>
       </c>
@@ -4699,7 +4623,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="104" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
+    <row r="104" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A104" s="3">
         <v>103</v>
       </c>
@@ -4743,7 +4667,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="106" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="106" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A106" s="3">
         <v>105</v>
       </c>
@@ -4766,7 +4690,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="107" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="107" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A107" s="3">
         <v>106</v>
       </c>
@@ -4789,7 +4713,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="108" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="108" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A108" s="3">
         <v>107</v>
       </c>
@@ -4854,7 +4778,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="111" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="111" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A111" s="3">
         <v>110</v>
       </c>
@@ -4877,7 +4801,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="112" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="112" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A112" s="3">
         <v>111</v>
       </c>
@@ -5130,7 +5054,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="123" spans="1:8" ht="30.75" thickBot="1">
       <c r="A123" s="3">
         <v>122</v>
       </c>
@@ -5154,7 +5078,7 @@
       </c>
       <c r="H123"/>
     </row>
-    <row r="124" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="124" spans="1:8" ht="30.75" thickBot="1">
       <c r="A124" s="3">
         <v>123</v>
       </c>
@@ -5178,7 +5102,7 @@
       </c>
       <c r="H124"/>
     </row>
-    <row r="125" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="125" spans="1:8" ht="30.75" thickBot="1">
       <c r="A125" s="3">
         <v>124</v>
       </c>
@@ -5202,7 +5126,7 @@
       </c>
       <c r="H125"/>
     </row>
-    <row r="126" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="126" spans="1:8" ht="15.75" thickBot="1">
       <c r="A126" s="3">
         <v>125</v>
       </c>
@@ -5226,7 +5150,7 @@
       </c>
       <c r="H126"/>
     </row>
-    <row r="127" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="127" spans="1:8" ht="15.75" thickBot="1">
       <c r="A127" s="3">
         <v>126</v>
       </c>
@@ -5250,7 +5174,7 @@
       </c>
       <c r="H127"/>
     </row>
-    <row r="128" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="128" spans="1:8" ht="15.75" thickBot="1">
       <c r="A128" s="3">
         <v>127</v>
       </c>
@@ -5274,7 +5198,7 @@
       </c>
       <c r="H128"/>
     </row>
-    <row r="129" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="129" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A129" s="3">
         <v>128</v>
       </c>
@@ -5297,7 +5221,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="130" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
+    <row r="130" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A130" s="3">
         <v>129</v>
       </c>
@@ -5320,7 +5244,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="131" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
+    <row r="131" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A131" s="3">
         <v>130</v>
       </c>
@@ -5334,7 +5258,7 @@
         <v>384</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="F131" s="16" t="s">
         <v>390</v>
@@ -5343,7 +5267,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="132" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="132" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A132" s="3">
         <v>131</v>
       </c>
@@ -5366,7 +5290,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="133" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="133" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A133" s="3">
         <v>132</v>
       </c>
@@ -5389,7 +5313,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="134" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="134" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A134" s="3">
         <v>133</v>
       </c>
@@ -5412,7 +5336,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="135" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="135" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A135" s="3">
         <v>134</v>
       </c>
@@ -5456,7 +5380,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="137" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="137" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A137" s="3">
         <v>136</v>
       </c>
@@ -5479,7 +5403,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="138" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="138" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A138" s="3">
         <v>137</v>
       </c>
@@ -5676,7 +5600,7 @@
       </c>
       <c r="H146"/>
     </row>
-    <row r="147" spans="1:8" ht="30.75" thickBot="1">
+    <row r="147" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A147" s="3">
         <v>146</v>
       </c>
@@ -5700,7 +5624,7 @@
       </c>
       <c r="H147"/>
     </row>
-    <row r="148" spans="1:8" ht="30.75" thickBot="1">
+    <row r="148" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A148" s="3">
         <v>147</v>
       </c>
@@ -5748,7 +5672,7 @@
       </c>
       <c r="H149"/>
     </row>
-    <row r="150" spans="1:8" ht="30.75" thickBot="1">
+    <row r="150" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A150" s="3">
         <v>149</v>
       </c>
@@ -5772,7 +5696,7 @@
       </c>
       <c r="H150"/>
     </row>
-    <row r="151" spans="1:8" ht="30.75" thickBot="1">
+    <row r="151" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A151" s="3">
         <v>150</v>
       </c>
@@ -5796,7 +5720,7 @@
       </c>
       <c r="H151"/>
     </row>
-    <row r="152" spans="1:8" ht="30.75" thickBot="1">
+    <row r="152" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A152" s="3">
         <v>151</v>
       </c>
@@ -5892,7 +5816,7 @@
       </c>
       <c r="H155"/>
     </row>
-    <row r="156" spans="1:8" ht="30.75" thickBot="1">
+    <row r="156" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A156" s="3">
         <v>154</v>
       </c>
@@ -5916,7 +5840,7 @@
       </c>
       <c r="H156"/>
     </row>
-    <row r="157" spans="1:8" ht="30.75" thickBot="1">
+    <row r="157" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A157" s="3">
         <v>155</v>
       </c>
@@ -5940,7 +5864,7 @@
       </c>
       <c r="H157"/>
     </row>
-    <row r="158" spans="1:8" ht="30.75" thickBot="1">
+    <row r="158" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A158" s="3">
         <v>156</v>
       </c>
@@ -5988,7 +5912,7 @@
       </c>
       <c r="H159"/>
     </row>
-    <row r="160" spans="1:8" ht="30.75" thickBot="1">
+    <row r="160" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A160" s="3">
         <v>158</v>
       </c>
@@ -6012,7 +5936,7 @@
       </c>
       <c r="H160"/>
     </row>
-    <row r="161" spans="1:8" ht="30.75" thickBot="1">
+    <row r="161" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A161" s="3">
         <v>159</v>
       </c>
@@ -6036,7 +5960,7 @@
       </c>
       <c r="H161"/>
     </row>
-    <row r="162" spans="1:8" ht="30.75" thickBot="1">
+    <row r="162" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A162" s="3">
         <v>160</v>
       </c>
@@ -6436,7 +6360,7 @@
       </c>
       <c r="H179"/>
     </row>
-    <row r="180" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="180" spans="1:8" ht="30.75" thickBot="1">
       <c r="A180" s="3">
         <v>178</v>
       </c>
@@ -6460,7 +6384,7 @@
       </c>
       <c r="H180"/>
     </row>
-    <row r="181" spans="1:8" ht="30.75" thickBot="1">
+    <row r="181" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A181" s="27">
         <v>178</v>
       </c>
@@ -6484,7 +6408,7 @@
       </c>
       <c r="H181"/>
     </row>
-    <row r="182" spans="1:8">
+    <row r="182" spans="1:8" hidden="1">
       <c r="A182" s="10"/>
       <c r="B182" s="28" t="s">
         <v>297</v>
@@ -6518,7 +6442,7 @@
       <c r="G183" s="33"/>
       <c r="H183"/>
     </row>
-    <row r="184" spans="1:8" ht="30.75" thickBot="1">
+    <row r="184" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A184" s="3">
         <v>180</v>
       </c>
@@ -6542,7 +6466,7 @@
       </c>
       <c r="H184"/>
     </row>
-    <row r="185" spans="1:8" ht="30.75" thickBot="1">
+    <row r="185" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A185" s="3">
         <v>181</v>
       </c>
@@ -6615,14 +6539,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:G187">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="Baja"/>
-      </filters>
-    </filterColumn>
+    <filterColumn colId="3"/>
     <filterColumn colId="4">
       <filters>
-        <filter val="Lore"/>
+        <filter val="Mari"/>
+        <filter val="Vicky"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -6635,138 +6556,138 @@
     <mergeCell ref="F182:F183"/>
   </mergeCells>
   <conditionalFormatting sqref="F1:F1048576 H63">
-    <cfRule type="containsText" dxfId="44" priority="36" operator="containsText" text="Testeado con errores">
+    <cfRule type="containsText" dxfId="39" priority="36" operator="containsText" text="Testeado con errores">
       <formula>NOT(ISERROR(SEARCH("Testeado con errores",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="37" operator="containsText" text="Implementado">
+    <cfRule type="containsText" dxfId="38" priority="37" operator="containsText" text="Implementado">
       <formula>NOT(ISERROR(SEARCH("Implementado",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="38" operator="containsText" text="En Progreso">
+    <cfRule type="containsText" dxfId="37" priority="38" operator="containsText" text="En Progreso">
       <formula>NOT(ISERROR(SEARCH("En Progreso",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="39" operator="containsText" text="Finalizado">
+    <cfRule type="containsText" dxfId="36" priority="39" operator="containsText" text="Finalizado">
       <formula>NOT(ISERROR(SEARCH("Finalizado",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="40" operator="containsText" text="Sin Empezar">
+    <cfRule type="containsText" dxfId="35" priority="40" operator="containsText" text="Sin Empezar">
       <formula>NOT(ISERROR(SEARCH("Sin Empezar",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L15">
-    <cfRule type="containsText" dxfId="39" priority="31" operator="containsText" text="Testeado con errores">
+    <cfRule type="containsText" dxfId="34" priority="31" operator="containsText" text="Testeado con errores">
       <formula>NOT(ISERROR(SEARCH("Testeado con errores",L15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="32" operator="containsText" text="Implementado">
+    <cfRule type="containsText" dxfId="33" priority="32" operator="containsText" text="Implementado">
       <formula>NOT(ISERROR(SEARCH("Implementado",L15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="33" operator="containsText" text="En Progreso">
+    <cfRule type="containsText" dxfId="32" priority="33" operator="containsText" text="En Progreso">
       <formula>NOT(ISERROR(SEARCH("En Progreso",L15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="34" operator="containsText" text="Finalizado">
+    <cfRule type="containsText" dxfId="31" priority="34" operator="containsText" text="Finalizado">
       <formula>NOT(ISERROR(SEARCH("Finalizado",L15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="35" operator="containsText" text="Sin Empezar">
+    <cfRule type="containsText" dxfId="30" priority="35" operator="containsText" text="Sin Empezar">
       <formula>NOT(ISERROR(SEARCH("Sin Empezar",L15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L16">
-    <cfRule type="containsText" dxfId="34" priority="26" operator="containsText" text="Testeado con errores">
+    <cfRule type="containsText" dxfId="29" priority="26" operator="containsText" text="Testeado con errores">
       <formula>NOT(ISERROR(SEARCH("Testeado con errores",L16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="27" operator="containsText" text="Implementado">
+    <cfRule type="containsText" dxfId="28" priority="27" operator="containsText" text="Implementado">
       <formula>NOT(ISERROR(SEARCH("Implementado",L16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="28" operator="containsText" text="En Progreso">
+    <cfRule type="containsText" dxfId="27" priority="28" operator="containsText" text="En Progreso">
       <formula>NOT(ISERROR(SEARCH("En Progreso",L16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="29" operator="containsText" text="Finalizado">
+    <cfRule type="containsText" dxfId="26" priority="29" operator="containsText" text="Finalizado">
       <formula>NOT(ISERROR(SEARCH("Finalizado",L16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="30" operator="containsText" text="Sin Empezar">
+    <cfRule type="containsText" dxfId="25" priority="30" operator="containsText" text="Sin Empezar">
       <formula>NOT(ISERROR(SEARCH("Sin Empezar",L16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L17">
-    <cfRule type="containsText" dxfId="29" priority="21" operator="containsText" text="Testeado con errores">
+    <cfRule type="containsText" dxfId="24" priority="21" operator="containsText" text="Testeado con errores">
       <formula>NOT(ISERROR(SEARCH("Testeado con errores",L17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="22" operator="containsText" text="Implementado">
+    <cfRule type="containsText" dxfId="23" priority="22" operator="containsText" text="Implementado">
       <formula>NOT(ISERROR(SEARCH("Implementado",L17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="23" operator="containsText" text="En Progreso">
+    <cfRule type="containsText" dxfId="22" priority="23" operator="containsText" text="En Progreso">
       <formula>NOT(ISERROR(SEARCH("En Progreso",L17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="24" operator="containsText" text="Finalizado">
+    <cfRule type="containsText" dxfId="21" priority="24" operator="containsText" text="Finalizado">
       <formula>NOT(ISERROR(SEARCH("Finalizado",L17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="25" operator="containsText" text="Sin Empezar">
+    <cfRule type="containsText" dxfId="20" priority="25" operator="containsText" text="Sin Empezar">
       <formula>NOT(ISERROR(SEARCH("Sin Empezar",L17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L18">
-    <cfRule type="containsText" dxfId="24" priority="16" operator="containsText" text="Testeado con errores">
+    <cfRule type="containsText" dxfId="19" priority="16" operator="containsText" text="Testeado con errores">
       <formula>NOT(ISERROR(SEARCH("Testeado con errores",L18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="17" operator="containsText" text="Implementado">
+    <cfRule type="containsText" dxfId="18" priority="17" operator="containsText" text="Implementado">
       <formula>NOT(ISERROR(SEARCH("Implementado",L18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="18" operator="containsText" text="En Progreso">
+    <cfRule type="containsText" dxfId="17" priority="18" operator="containsText" text="En Progreso">
       <formula>NOT(ISERROR(SEARCH("En Progreso",L18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="19" operator="containsText" text="Finalizado">
+    <cfRule type="containsText" dxfId="16" priority="19" operator="containsText" text="Finalizado">
       <formula>NOT(ISERROR(SEARCH("Finalizado",L18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="20" operator="containsText" text="Sin Empezar">
+    <cfRule type="containsText" dxfId="15" priority="20" operator="containsText" text="Sin Empezar">
       <formula>NOT(ISERROR(SEARCH("Sin Empezar",L18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L19">
-    <cfRule type="containsText" dxfId="19" priority="11" operator="containsText" text="Testeado con errores">
+    <cfRule type="containsText" dxfId="14" priority="11" operator="containsText" text="Testeado con errores">
       <formula>NOT(ISERROR(SEARCH("Testeado con errores",L19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="12" operator="containsText" text="Implementado">
+    <cfRule type="containsText" dxfId="13" priority="12" operator="containsText" text="Implementado">
       <formula>NOT(ISERROR(SEARCH("Implementado",L19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="13" operator="containsText" text="En Progreso">
+    <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="En Progreso">
       <formula>NOT(ISERROR(SEARCH("En Progreso",L19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="14" operator="containsText" text="Finalizado">
+    <cfRule type="containsText" dxfId="11" priority="14" operator="containsText" text="Finalizado">
       <formula>NOT(ISERROR(SEARCH("Finalizado",L19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="Sin Empezar">
+    <cfRule type="containsText" dxfId="10" priority="15" operator="containsText" text="Sin Empezar">
       <formula>NOT(ISERROR(SEARCH("Sin Empezar",L19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F181">
-    <cfRule type="containsText" dxfId="14" priority="6" operator="containsText" text="Testeado con errores">
+    <cfRule type="containsText" dxfId="9" priority="6" operator="containsText" text="Testeado con errores">
       <formula>NOT(ISERROR(SEARCH("Testeado con errores",F181)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="7" operator="containsText" text="Implementado">
+    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="Implementado">
       <formula>NOT(ISERROR(SEARCH("Implementado",F181)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="8" operator="containsText" text="En Progreso">
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="En Progreso">
       <formula>NOT(ISERROR(SEARCH("En Progreso",F181)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="Finalizado">
+    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="Finalizado">
       <formula>NOT(ISERROR(SEARCH("Finalizado",F181)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="10" operator="containsText" text="Sin Empezar">
+    <cfRule type="containsText" dxfId="5" priority="10" operator="containsText" text="Sin Empezar">
       <formula>NOT(ISERROR(SEARCH("Sin Empezar",F181)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F155">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Testeado con errores">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="Testeado con errores">
       <formula>NOT(ISERROR(SEARCH("Testeado con errores",F155)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="Implementado">
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="Implementado">
       <formula>NOT(ISERROR(SEARCH("Implementado",F155)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="En Progreso">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="En Progreso">
       <formula>NOT(ISERROR(SEARCH("En Progreso",F155)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="Finalizado">
+    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="Finalizado">
       <formula>NOT(ISERROR(SEARCH("Finalizado",F155)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="5" operator="containsText" text="Sin Empezar">
+    <cfRule type="containsText" dxfId="0" priority="5" operator="containsText" text="Sin Empezar">
       <formula>NOT(ISERROR(SEARCH("Sin Empezar",F155)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Planificacion/PlanificacionTesis.xlsx
+++ b/Planificacion/PlanificacionTesis.xlsx
@@ -2174,11 +2174,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:L187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F126" sqref="F126:F129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="119.42578125" defaultRowHeight="15"/>
@@ -2220,7 +2219,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="30.75" hidden="1" thickBot="1">
+    <row r="2" spans="1:12" ht="30.75" thickBot="1">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2375,7 +2374,7 @@
       </c>
       <c r="H7"/>
     </row>
-    <row r="8" spans="1:12" ht="15.75" hidden="1" thickBot="1">
+    <row r="8" spans="1:12" ht="15.75" thickBot="1">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -2401,7 +2400,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="30.75" hidden="1" thickBot="1">
+    <row r="9" spans="1:12" ht="30.75" thickBot="1">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -2427,7 +2426,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="30.75" hidden="1" thickBot="1">
+    <row r="10" spans="1:12" ht="30.75" thickBot="1">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -2452,7 +2451,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="30.75" hidden="1" thickBot="1">
+    <row r="11" spans="1:12" ht="30.75" thickBot="1">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -2478,7 +2477,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="30.75" hidden="1" thickBot="1">
+    <row r="12" spans="1:12" ht="30.75" thickBot="1">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -2504,7 +2503,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="30.75" hidden="1" thickBot="1">
+    <row r="13" spans="1:12" ht="30.75" thickBot="1">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -2527,7 +2526,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="30.75" hidden="1" thickBot="1">
+    <row r="14" spans="1:12" ht="30.75" thickBot="1">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -2553,7 +2552,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15.75" hidden="1" thickBot="1">
+    <row r="15" spans="1:12" ht="15.75" thickBot="1">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -2578,7 +2577,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="30.75" hidden="1" thickBot="1">
+    <row r="16" spans="1:12" ht="30.75" thickBot="1">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -2603,7 +2602,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15.75" hidden="1" thickBot="1">
+    <row r="17" spans="1:12" ht="15.75" thickBot="1">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -2629,7 +2628,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="30.75" hidden="1" thickBot="1">
+    <row r="18" spans="1:12" ht="30.75" thickBot="1">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -2655,7 +2654,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15.75" hidden="1" thickBot="1">
+    <row r="19" spans="1:12" ht="15.75" thickBot="1">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -2681,7 +2680,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15.75" hidden="1" thickBot="1">
+    <row r="20" spans="1:12" ht="15.75" thickBot="1">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -2704,7 +2703,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15.75" hidden="1" thickBot="1">
+    <row r="21" spans="1:12" ht="15.75" thickBot="1">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -2727,7 +2726,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15.75" hidden="1" thickBot="1">
+    <row r="22" spans="1:12" ht="15.75" thickBot="1">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -2749,7 +2748,7 @@
       </c>
       <c r="H22"/>
     </row>
-    <row r="23" spans="1:12" ht="30.75" hidden="1" thickBot="1">
+    <row r="23" spans="1:12" ht="30.75" thickBot="1">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -2771,7 +2770,7 @@
       </c>
       <c r="H23"/>
     </row>
-    <row r="24" spans="1:12" ht="30.75" hidden="1" thickBot="1">
+    <row r="24" spans="1:12" ht="30.75" thickBot="1">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -2793,7 +2792,7 @@
       </c>
       <c r="H24"/>
     </row>
-    <row r="25" spans="1:12" ht="30.75" hidden="1" thickBot="1">
+    <row r="25" spans="1:12" ht="30.75" thickBot="1">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -2815,7 +2814,7 @@
       </c>
       <c r="H25"/>
     </row>
-    <row r="26" spans="1:12" ht="30.75" hidden="1" thickBot="1">
+    <row r="26" spans="1:12" ht="30.75" thickBot="1">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -2837,7 +2836,7 @@
       </c>
       <c r="H26"/>
     </row>
-    <row r="27" spans="1:12" ht="15.75" hidden="1" thickBot="1">
+    <row r="27" spans="1:12" ht="15.75" thickBot="1">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -2883,7 +2882,7 @@
       </c>
       <c r="H28"/>
     </row>
-    <row r="29" spans="1:12" ht="15.75" hidden="1" thickBot="1">
+    <row r="29" spans="1:12" ht="15.75" thickBot="1">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -2905,7 +2904,7 @@
       </c>
       <c r="H29"/>
     </row>
-    <row r="30" spans="1:12" ht="30.75" hidden="1" thickBot="1">
+    <row r="30" spans="1:12" ht="30.75" thickBot="1">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -2927,7 +2926,7 @@
       </c>
       <c r="H30"/>
     </row>
-    <row r="31" spans="1:12" ht="15.75" hidden="1" thickBot="1">
+    <row r="31" spans="1:12" ht="15.75" thickBot="1">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -2950,7 +2949,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="15.75" hidden="1" thickBot="1">
+    <row r="32" spans="1:12" ht="15.75" thickBot="1">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -2972,7 +2971,7 @@
       </c>
       <c r="H32"/>
     </row>
-    <row r="33" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="33" spans="1:8" ht="30.75" thickBot="1">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -2994,7 +2993,7 @@
       </c>
       <c r="H33"/>
     </row>
-    <row r="34" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="34" spans="1:8" ht="15.75" thickBot="1">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -3041,7 +3040,7 @@
       </c>
       <c r="H35"/>
     </row>
-    <row r="36" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="36" spans="1:8" ht="15.75" thickBot="1">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -3063,7 +3062,7 @@
       </c>
       <c r="H36"/>
     </row>
-    <row r="37" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="37" spans="1:8" ht="15.75" thickBot="1">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -3085,7 +3084,7 @@
       </c>
       <c r="H37"/>
     </row>
-    <row r="38" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="38" spans="1:8" ht="15.75" thickBot="1">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -3107,7 +3106,7 @@
       </c>
       <c r="H38"/>
     </row>
-    <row r="39" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="39" spans="1:8" ht="15.75" thickBot="1">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -3129,7 +3128,7 @@
       </c>
       <c r="H39"/>
     </row>
-    <row r="40" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="40" spans="1:8" ht="15.75" thickBot="1">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -3151,7 +3150,7 @@
       </c>
       <c r="H40"/>
     </row>
-    <row r="41" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="41" spans="1:8" ht="15.75" thickBot="1">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -3173,7 +3172,7 @@
       </c>
       <c r="H41"/>
     </row>
-    <row r="42" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="42" spans="1:8" ht="15.75" thickBot="1">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -3195,7 +3194,7 @@
       </c>
       <c r="H42"/>
     </row>
-    <row r="43" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="43" spans="1:8" ht="15.75" thickBot="1">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -3241,7 +3240,7 @@
       </c>
       <c r="H44"/>
     </row>
-    <row r="45" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="45" spans="1:8" ht="15.75" thickBot="1">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -3288,7 +3287,7 @@
       </c>
       <c r="H46"/>
     </row>
-    <row r="47" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="47" spans="1:8" ht="30.75" thickBot="1">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -3382,7 +3381,7 @@
       </c>
       <c r="H50"/>
     </row>
-    <row r="51" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="51" spans="1:8" ht="30.75" thickBot="1">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -3668,7 +3667,7 @@
       </c>
       <c r="H62"/>
     </row>
-    <row r="63" spans="1:8" ht="60.75" hidden="1" thickBot="1">
+    <row r="63" spans="1:8" ht="60.75" thickBot="1">
       <c r="A63" s="3">
         <v>62</v>
       </c>
@@ -3694,7 +3693,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="64" spans="1:8" ht="30.75" thickBot="1">
       <c r="A64" s="3">
         <v>63</v>
       </c>
@@ -3813,7 +3812,7 @@
       </c>
       <c r="H68"/>
     </row>
-    <row r="69" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="69" spans="1:8" ht="30.75" thickBot="1">
       <c r="A69" s="3">
         <v>68</v>
       </c>
@@ -3836,7 +3835,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="70" spans="1:8" ht="15.75" thickBot="1">
       <c r="A70" s="3">
         <v>69</v>
       </c>
@@ -3859,7 +3858,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="71" spans="1:8" ht="30.75" thickBot="1">
       <c r="A71" s="3">
         <v>70</v>
       </c>
@@ -3882,7 +3881,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="72" spans="1:8" ht="15.75" thickBot="1">
       <c r="A72" s="3">
         <v>71</v>
       </c>
@@ -3905,7 +3904,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="73" spans="1:8" ht="30.75" thickBot="1">
       <c r="A73" s="3">
         <v>72</v>
       </c>
@@ -3952,7 +3951,7 @@
       </c>
       <c r="H74"/>
     </row>
-    <row r="75" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="75" spans="1:8" ht="15.75" thickBot="1">
       <c r="A75" s="3">
         <v>74</v>
       </c>
@@ -3974,7 +3973,7 @@
       </c>
       <c r="H75"/>
     </row>
-    <row r="76" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="76" spans="1:8" ht="30.75" thickBot="1">
       <c r="A76" s="3">
         <v>75</v>
       </c>
@@ -4020,7 +4019,7 @@
       </c>
       <c r="H77"/>
     </row>
-    <row r="78" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="78" spans="1:8" ht="15.75" thickBot="1">
       <c r="A78" s="3">
         <v>77</v>
       </c>
@@ -4043,7 +4042,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="79" spans="1:8" ht="15.75" thickBot="1">
       <c r="A79" s="3">
         <v>78</v>
       </c>
@@ -4066,7 +4065,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="80" spans="1:8" ht="15.75" thickBot="1">
       <c r="A80" s="3">
         <v>79</v>
       </c>
@@ -4089,7 +4088,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="81" spans="1:8" ht="15.75" thickBot="1">
       <c r="A81" s="3">
         <v>80</v>
       </c>
@@ -4112,7 +4111,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="82" spans="1:8" ht="15.75" thickBot="1">
       <c r="A82" s="3">
         <v>81</v>
       </c>
@@ -4135,7 +4134,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="83" spans="1:8" ht="15.75" thickBot="1">
       <c r="A83" s="3">
         <v>82</v>
       </c>
@@ -4158,7 +4157,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="84" spans="1:8" ht="15.75" thickBot="1">
       <c r="A84" s="3">
         <v>83</v>
       </c>
@@ -4181,7 +4180,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="85" spans="1:8" ht="15.75" thickBot="1">
       <c r="A85" s="3">
         <v>84</v>
       </c>
@@ -4300,7 +4299,7 @@
       </c>
       <c r="H89"/>
     </row>
-    <row r="90" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="90" spans="1:8" ht="15.75" thickBot="1">
       <c r="A90" s="3">
         <v>89</v>
       </c>
@@ -4323,7 +4322,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="91" spans="1:8" ht="15.75" thickBot="1">
       <c r="A91" s="3">
         <v>90</v>
       </c>
@@ -4346,7 +4345,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="92" spans="1:8" ht="15.75" thickBot="1">
       <c r="A92" s="3">
         <v>91</v>
       </c>
@@ -4369,7 +4368,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="93" spans="1:8" ht="15.75" thickBot="1">
       <c r="A93" s="3">
         <v>92</v>
       </c>
@@ -4579,7 +4578,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="102" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="102" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A102" s="3">
         <v>101</v>
       </c>
@@ -4646,7 +4645,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="105" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="105" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A105" s="3">
         <v>104</v>
       </c>
@@ -4736,7 +4735,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="109" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="109" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A109" s="3">
         <v>108</v>
       </c>
@@ -4757,7 +4756,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="110" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="110" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A110" s="3">
         <v>109</v>
       </c>
@@ -4824,7 +4823,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="45.75" hidden="1" thickBot="1">
+    <row r="113" spans="1:8" ht="45.75" thickBot="1">
       <c r="A113" s="3">
         <v>112</v>
       </c>
@@ -4847,7 +4846,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="114" spans="1:8" ht="30.75" thickBot="1">
       <c r="A114" s="3">
         <v>113</v>
       </c>
@@ -4870,7 +4869,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="45.75" hidden="1" thickBot="1">
+    <row r="115" spans="1:8" ht="45.75" thickBot="1">
       <c r="A115" s="3">
         <v>114</v>
       </c>
@@ -4893,7 +4892,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="116" spans="1:8" ht="15.75" thickBot="1">
       <c r="A116" s="3">
         <v>115</v>
       </c>
@@ -4916,7 +4915,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="117" spans="1:8" ht="15.75" thickBot="1">
       <c r="A117" s="3">
         <v>116</v>
       </c>
@@ -4939,7 +4938,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="118" spans="1:8" ht="30.75" thickBot="1">
       <c r="A118" s="3">
         <v>117</v>
       </c>
@@ -4962,7 +4961,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="119" spans="1:8" ht="15.75" thickBot="1">
       <c r="A119" s="3">
         <v>118</v>
       </c>
@@ -4985,7 +4984,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="120" spans="1:8" ht="30.75" thickBot="1">
       <c r="A120" s="3">
         <v>119</v>
       </c>
@@ -5008,7 +5007,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="121" spans="1:8" ht="15.75" thickBot="1">
       <c r="A121" s="3">
         <v>120</v>
       </c>
@@ -5031,7 +5030,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="122" spans="1:8" ht="15.75" thickBot="1">
       <c r="A122" s="3">
         <v>121</v>
       </c>
@@ -5143,7 +5142,7 @@
         <v>387</v>
       </c>
       <c r="F126" s="16" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G126" s="7" t="s">
         <v>260</v>
@@ -5167,7 +5166,7 @@
         <v>387</v>
       </c>
       <c r="F127" s="16" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G127" s="7" t="s">
         <v>262</v>
@@ -5191,7 +5190,7 @@
         <v>387</v>
       </c>
       <c r="F128" s="16" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G128" s="7" t="s">
         <v>264</v>
@@ -5215,7 +5214,7 @@
         <v>387</v>
       </c>
       <c r="F129" s="16" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G129" s="7" t="s">
         <v>266</v>
@@ -5359,7 +5358,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="136" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="136" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A136" s="3">
         <v>135</v>
       </c>
@@ -5426,7 +5425,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="139" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="139" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A139" s="3">
         <v>138</v>
       </c>
@@ -5447,7 +5446,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="140" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="140" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A140" s="3">
         <v>139</v>
       </c>
@@ -5468,7 +5467,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="141" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="141" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A141" s="3">
         <v>140</v>
       </c>
@@ -5489,7 +5488,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="142" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="142" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A142" s="3">
         <v>141</v>
       </c>
@@ -5510,7 +5509,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="143" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="143" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A143" s="3">
         <v>142</v>
       </c>
@@ -5531,7 +5530,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="144" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="144" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A144" s="3">
         <v>143</v>
       </c>
@@ -5552,7 +5551,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="145" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="145" spans="1:8" ht="30.75" thickBot="1">
       <c r="A145" s="3">
         <v>144</v>
       </c>
@@ -5576,7 +5575,7 @@
       </c>
       <c r="H145"/>
     </row>
-    <row r="146" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="146" spans="1:8" ht="30.75" thickBot="1">
       <c r="A146" s="3">
         <v>145</v>
       </c>
@@ -5600,7 +5599,7 @@
       </c>
       <c r="H146"/>
     </row>
-    <row r="147" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="147" spans="1:8" ht="30.75" thickBot="1">
       <c r="A147" s="3">
         <v>146</v>
       </c>
@@ -5624,7 +5623,7 @@
       </c>
       <c r="H147"/>
     </row>
-    <row r="148" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="148" spans="1:8" ht="30.75" thickBot="1">
       <c r="A148" s="3">
         <v>147</v>
       </c>
@@ -5648,7 +5647,7 @@
       </c>
       <c r="H148"/>
     </row>
-    <row r="149" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="149" spans="1:8" ht="30.75" thickBot="1">
       <c r="A149" s="3">
         <v>148</v>
       </c>
@@ -5672,7 +5671,7 @@
       </c>
       <c r="H149"/>
     </row>
-    <row r="150" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="150" spans="1:8" ht="30.75" thickBot="1">
       <c r="A150" s="3">
         <v>149</v>
       </c>
@@ -5696,7 +5695,7 @@
       </c>
       <c r="H150"/>
     </row>
-    <row r="151" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="151" spans="1:8" ht="30.75" thickBot="1">
       <c r="A151" s="3">
         <v>150</v>
       </c>
@@ -5720,7 +5719,7 @@
       </c>
       <c r="H151"/>
     </row>
-    <row r="152" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="152" spans="1:8" ht="30.75" thickBot="1">
       <c r="A152" s="3">
         <v>151</v>
       </c>
@@ -5744,7 +5743,7 @@
       </c>
       <c r="H152"/>
     </row>
-    <row r="153" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="153" spans="1:8" ht="30.75" thickBot="1">
       <c r="A153" s="3">
         <v>152</v>
       </c>
@@ -5768,7 +5767,7 @@
       </c>
       <c r="H153"/>
     </row>
-    <row r="154" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="154" spans="1:8" ht="30.75" thickBot="1">
       <c r="A154" s="3">
         <v>153</v>
       </c>
@@ -5816,7 +5815,7 @@
       </c>
       <c r="H155"/>
     </row>
-    <row r="156" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="156" spans="1:8" ht="30.75" thickBot="1">
       <c r="A156" s="3">
         <v>154</v>
       </c>
@@ -5840,7 +5839,7 @@
       </c>
       <c r="H156"/>
     </row>
-    <row r="157" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="157" spans="1:8" ht="30.75" thickBot="1">
       <c r="A157" s="3">
         <v>155</v>
       </c>
@@ -5864,7 +5863,7 @@
       </c>
       <c r="H157"/>
     </row>
-    <row r="158" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="158" spans="1:8" ht="30.75" thickBot="1">
       <c r="A158" s="3">
         <v>156</v>
       </c>
@@ -5888,7 +5887,7 @@
       </c>
       <c r="H158"/>
     </row>
-    <row r="159" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="159" spans="1:8" ht="30.75" thickBot="1">
       <c r="A159" s="3">
         <v>157</v>
       </c>
@@ -5912,7 +5911,7 @@
       </c>
       <c r="H159"/>
     </row>
-    <row r="160" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="160" spans="1:8" ht="30.75" thickBot="1">
       <c r="A160" s="3">
         <v>158</v>
       </c>
@@ -5936,7 +5935,7 @@
       </c>
       <c r="H160"/>
     </row>
-    <row r="161" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="161" spans="1:8" ht="30.75" thickBot="1">
       <c r="A161" s="3">
         <v>159</v>
       </c>
@@ -5960,7 +5959,7 @@
       </c>
       <c r="H161"/>
     </row>
-    <row r="162" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="162" spans="1:8" ht="30.75" thickBot="1">
       <c r="A162" s="3">
         <v>160</v>
       </c>
@@ -5984,7 +5983,7 @@
       </c>
       <c r="H162"/>
     </row>
-    <row r="163" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="163" spans="1:8" ht="30.75" thickBot="1">
       <c r="A163" s="3">
         <v>161</v>
       </c>
@@ -6008,7 +6007,7 @@
       </c>
       <c r="H163"/>
     </row>
-    <row r="164" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="164" spans="1:8" ht="30.75" thickBot="1">
       <c r="A164" s="3">
         <v>162</v>
       </c>
@@ -6030,7 +6029,7 @@
       </c>
       <c r="H164"/>
     </row>
-    <row r="165" spans="1:8" ht="45.75" hidden="1" thickBot="1">
+    <row r="165" spans="1:8" ht="45.75" thickBot="1">
       <c r="A165" s="3">
         <v>163</v>
       </c>
@@ -6052,7 +6051,7 @@
       </c>
       <c r="H165"/>
     </row>
-    <row r="166" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="166" spans="1:8" ht="30.75" thickBot="1">
       <c r="A166" s="3">
         <v>164</v>
       </c>
@@ -6074,7 +6073,7 @@
       </c>
       <c r="H166"/>
     </row>
-    <row r="167" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="167" spans="1:8" ht="30.75" thickBot="1">
       <c r="A167" s="3">
         <v>165</v>
       </c>
@@ -6096,7 +6095,7 @@
       </c>
       <c r="H167"/>
     </row>
-    <row r="168" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="168" spans="1:8" ht="30.75" thickBot="1">
       <c r="A168" s="3">
         <v>166</v>
       </c>
@@ -6118,7 +6117,7 @@
       </c>
       <c r="H168"/>
     </row>
-    <row r="169" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="169" spans="1:8" ht="30.75" thickBot="1">
       <c r="A169" s="3">
         <v>167</v>
       </c>
@@ -6140,7 +6139,7 @@
       </c>
       <c r="H169"/>
     </row>
-    <row r="170" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="170" spans="1:8" ht="30.75" thickBot="1">
       <c r="A170" s="3">
         <v>168</v>
       </c>
@@ -6162,7 +6161,7 @@
       </c>
       <c r="H170"/>
     </row>
-    <row r="171" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="171" spans="1:8" ht="30.75" thickBot="1">
       <c r="A171" s="3">
         <v>169</v>
       </c>
@@ -6184,7 +6183,7 @@
       </c>
       <c r="H171"/>
     </row>
-    <row r="172" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="172" spans="1:8" ht="30.75" thickBot="1">
       <c r="A172" s="3">
         <v>170</v>
       </c>
@@ -6206,7 +6205,7 @@
       </c>
       <c r="H172"/>
     </row>
-    <row r="173" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="173" spans="1:8" ht="30.75" thickBot="1">
       <c r="A173" s="3">
         <v>171</v>
       </c>
@@ -6228,7 +6227,7 @@
       </c>
       <c r="H173"/>
     </row>
-    <row r="174" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="174" spans="1:8" ht="30.75" thickBot="1">
       <c r="A174" s="3">
         <v>172</v>
       </c>
@@ -6250,7 +6249,7 @@
       </c>
       <c r="H174"/>
     </row>
-    <row r="175" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="175" spans="1:8" ht="30.75" thickBot="1">
       <c r="A175" s="3">
         <v>173</v>
       </c>
@@ -6272,7 +6271,7 @@
       </c>
       <c r="H175"/>
     </row>
-    <row r="176" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="176" spans="1:8" ht="30.75" thickBot="1">
       <c r="A176" s="3">
         <v>174</v>
       </c>
@@ -6294,7 +6293,7 @@
       </c>
       <c r="H176"/>
     </row>
-    <row r="177" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="177" spans="1:8" ht="30.75" thickBot="1">
       <c r="A177" s="3">
         <v>175</v>
       </c>
@@ -6316,7 +6315,7 @@
       </c>
       <c r="H177"/>
     </row>
-    <row r="178" spans="1:8" ht="60.75" hidden="1" thickBot="1">
+    <row r="178" spans="1:8" ht="60.75" thickBot="1">
       <c r="A178" s="3">
         <v>176</v>
       </c>
@@ -6338,7 +6337,7 @@
       </c>
       <c r="H178"/>
     </row>
-    <row r="179" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="179" spans="1:8" ht="15.75" thickBot="1">
       <c r="A179" s="3">
         <v>177</v>
       </c>
@@ -6384,7 +6383,7 @@
       </c>
       <c r="H180"/>
     </row>
-    <row r="181" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="181" spans="1:8" ht="30.75" thickBot="1">
       <c r="A181" s="27">
         <v>178</v>
       </c>
@@ -6408,7 +6407,7 @@
       </c>
       <c r="H181"/>
     </row>
-    <row r="182" spans="1:8" hidden="1">
+    <row r="182" spans="1:8">
       <c r="A182" s="10"/>
       <c r="B182" s="28" t="s">
         <v>297</v>
@@ -6430,7 +6429,7 @@
       </c>
       <c r="H182"/>
     </row>
-    <row r="183" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="183" spans="1:8" ht="15.75" thickBot="1">
       <c r="A183" s="3">
         <v>179</v>
       </c>
@@ -6442,7 +6441,7 @@
       <c r="G183" s="33"/>
       <c r="H183"/>
     </row>
-    <row r="184" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="184" spans="1:8" ht="30.75" thickBot="1">
       <c r="A184" s="3">
         <v>180</v>
       </c>
@@ -6466,7 +6465,7 @@
       </c>
       <c r="H184"/>
     </row>
-    <row r="185" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="185" spans="1:8" ht="30.75" thickBot="1">
       <c r="A185" s="3">
         <v>181</v>
       </c>
@@ -6490,7 +6489,7 @@
       </c>
       <c r="H185"/>
     </row>
-    <row r="186" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="186" spans="1:8" ht="30.75" thickBot="1">
       <c r="A186" s="3">
         <v>182</v>
       </c>
@@ -6513,7 +6512,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="187" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="187" spans="1:8" ht="30.75" thickBot="1">
       <c r="A187" s="3">
         <v>183</v>
       </c>
@@ -6540,12 +6539,7 @@
   </sheetData>
   <autoFilter ref="A1:G187">
     <filterColumn colId="3"/>
-    <filterColumn colId="4">
-      <filters>
-        <filter val="Mari"/>
-        <filter val="Vicky"/>
-      </filters>
-    </filterColumn>
+    <filterColumn colId="4"/>
   </autoFilter>
   <mergeCells count="6">
     <mergeCell ref="B182:B183"/>
@@ -6555,7 +6549,7 @@
     <mergeCell ref="E182:E183"/>
     <mergeCell ref="F182:F183"/>
   </mergeCells>
-  <conditionalFormatting sqref="F1:F1048576 H63">
+  <conditionalFormatting sqref="H63 F1:F1048576">
     <cfRule type="containsText" dxfId="39" priority="36" operator="containsText" text="Testeado con errores">
       <formula>NOT(ISERROR(SEARCH("Testeado con errores",F1)))</formula>
     </cfRule>

--- a/Planificacion/PlanificacionTesis.xlsx
+++ b/Planificacion/PlanificacionTesis.xlsx
@@ -2174,10 +2174,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:L187"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F126" sqref="F126:F129"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="G94" sqref="G94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="119.42578125" defaultRowHeight="15"/>
@@ -2219,7 +2220,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="30.75" thickBot="1">
+    <row r="2" spans="1:12" ht="30.75" hidden="1" thickBot="1">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2242,7 +2243,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="30.75" thickBot="1">
+    <row r="3" spans="1:12" ht="30.75" hidden="1" thickBot="1">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -2269,7 +2270,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" thickBot="1">
+    <row r="4" spans="1:12" ht="15.75" hidden="1" thickBot="1">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -2296,7 +2297,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" thickBot="1">
+    <row r="5" spans="1:12" ht="15.75" hidden="1" thickBot="1">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -2350,7 +2351,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75" thickBot="1">
+    <row r="7" spans="1:12" ht="15.75" hidden="1" thickBot="1">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -2374,7 +2375,7 @@
       </c>
       <c r="H7"/>
     </row>
-    <row r="8" spans="1:12" ht="15.75" thickBot="1">
+    <row r="8" spans="1:12" ht="15.75" hidden="1" thickBot="1">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -2400,7 +2401,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="30.75" thickBot="1">
+    <row r="9" spans="1:12" ht="30.75" hidden="1" thickBot="1">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -2426,7 +2427,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="30.75" thickBot="1">
+    <row r="10" spans="1:12" ht="30.75" hidden="1" thickBot="1">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -2451,7 +2452,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="30.75" thickBot="1">
+    <row r="11" spans="1:12" ht="30.75" hidden="1" thickBot="1">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -2477,7 +2478,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="30.75" thickBot="1">
+    <row r="12" spans="1:12" ht="30.75" hidden="1" thickBot="1">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -2503,7 +2504,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="30.75" thickBot="1">
+    <row r="13" spans="1:12" ht="30.75" hidden="1" thickBot="1">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -2526,7 +2527,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="30.75" thickBot="1">
+    <row r="14" spans="1:12" ht="30.75" hidden="1" thickBot="1">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -2552,7 +2553,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15.75" thickBot="1">
+    <row r="15" spans="1:12" ht="15.75" hidden="1" thickBot="1">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -2577,7 +2578,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="30.75" thickBot="1">
+    <row r="16" spans="1:12" ht="30.75" hidden="1" thickBot="1">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -2602,7 +2603,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15.75" thickBot="1">
+    <row r="17" spans="1:12" ht="15.75" hidden="1" thickBot="1">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -2628,7 +2629,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="30.75" thickBot="1">
+    <row r="18" spans="1:12" ht="30.75" hidden="1" thickBot="1">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -2654,7 +2655,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15.75" thickBot="1">
+    <row r="19" spans="1:12" ht="15.75" hidden="1" thickBot="1">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -2680,7 +2681,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15.75" thickBot="1">
+    <row r="20" spans="1:12" ht="15.75" hidden="1" thickBot="1">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -2703,7 +2704,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15.75" thickBot="1">
+    <row r="21" spans="1:12" ht="15.75" hidden="1" thickBot="1">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -2726,7 +2727,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15.75" thickBot="1">
+    <row r="22" spans="1:12" ht="15.75" hidden="1" thickBot="1">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -2748,7 +2749,7 @@
       </c>
       <c r="H22"/>
     </row>
-    <row r="23" spans="1:12" ht="30.75" thickBot="1">
+    <row r="23" spans="1:12" ht="30.75" hidden="1" thickBot="1">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -2770,7 +2771,7 @@
       </c>
       <c r="H23"/>
     </row>
-    <row r="24" spans="1:12" ht="30.75" thickBot="1">
+    <row r="24" spans="1:12" ht="30.75" hidden="1" thickBot="1">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -2792,7 +2793,7 @@
       </c>
       <c r="H24"/>
     </row>
-    <row r="25" spans="1:12" ht="30.75" thickBot="1">
+    <row r="25" spans="1:12" ht="30.75" hidden="1" thickBot="1">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -2814,7 +2815,7 @@
       </c>
       <c r="H25"/>
     </row>
-    <row r="26" spans="1:12" ht="30.75" thickBot="1">
+    <row r="26" spans="1:12" ht="30.75" hidden="1" thickBot="1">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -2836,7 +2837,7 @@
       </c>
       <c r="H26"/>
     </row>
-    <row r="27" spans="1:12" ht="15.75" thickBot="1">
+    <row r="27" spans="1:12" ht="15.75" hidden="1" thickBot="1">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -2858,7 +2859,7 @@
       </c>
       <c r="H27"/>
     </row>
-    <row r="28" spans="1:12" ht="15.75" thickBot="1">
+    <row r="28" spans="1:12" ht="15.75" hidden="1" thickBot="1">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -2882,7 +2883,7 @@
       </c>
       <c r="H28"/>
     </row>
-    <row r="29" spans="1:12" ht="15.75" thickBot="1">
+    <row r="29" spans="1:12" ht="15.75" hidden="1" thickBot="1">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -2904,7 +2905,7 @@
       </c>
       <c r="H29"/>
     </row>
-    <row r="30" spans="1:12" ht="30.75" thickBot="1">
+    <row r="30" spans="1:12" ht="30.75" hidden="1" thickBot="1">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -2926,7 +2927,7 @@
       </c>
       <c r="H30"/>
     </row>
-    <row r="31" spans="1:12" ht="15.75" thickBot="1">
+    <row r="31" spans="1:12" ht="15.75" hidden="1" thickBot="1">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -2949,7 +2950,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="15.75" thickBot="1">
+    <row r="32" spans="1:12" ht="15.75" hidden="1" thickBot="1">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -2971,7 +2972,7 @@
       </c>
       <c r="H32"/>
     </row>
-    <row r="33" spans="1:8" ht="30.75" thickBot="1">
+    <row r="33" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -2993,7 +2994,7 @@
       </c>
       <c r="H33"/>
     </row>
-    <row r="34" spans="1:8" ht="15.75" thickBot="1">
+    <row r="34" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -3040,7 +3041,7 @@
       </c>
       <c r="H35"/>
     </row>
-    <row r="36" spans="1:8" ht="15.75" thickBot="1">
+    <row r="36" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -3062,7 +3063,7 @@
       </c>
       <c r="H36"/>
     </row>
-    <row r="37" spans="1:8" ht="15.75" thickBot="1">
+    <row r="37" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -3084,7 +3085,7 @@
       </c>
       <c r="H37"/>
     </row>
-    <row r="38" spans="1:8" ht="15.75" thickBot="1">
+    <row r="38" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -3106,7 +3107,7 @@
       </c>
       <c r="H38"/>
     </row>
-    <row r="39" spans="1:8" ht="15.75" thickBot="1">
+    <row r="39" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -3128,7 +3129,7 @@
       </c>
       <c r="H39"/>
     </row>
-    <row r="40" spans="1:8" ht="15.75" thickBot="1">
+    <row r="40" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -3150,7 +3151,7 @@
       </c>
       <c r="H40"/>
     </row>
-    <row r="41" spans="1:8" ht="15.75" thickBot="1">
+    <row r="41" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -3172,7 +3173,7 @@
       </c>
       <c r="H41"/>
     </row>
-    <row r="42" spans="1:8" ht="15.75" thickBot="1">
+    <row r="42" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -3194,7 +3195,7 @@
       </c>
       <c r="H42"/>
     </row>
-    <row r="43" spans="1:8" ht="15.75" thickBot="1">
+    <row r="43" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -3216,7 +3217,7 @@
       </c>
       <c r="H43"/>
     </row>
-    <row r="44" spans="1:8" ht="15.75" thickBot="1">
+    <row r="44" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -3240,7 +3241,7 @@
       </c>
       <c r="H44"/>
     </row>
-    <row r="45" spans="1:8" ht="15.75" thickBot="1">
+    <row r="45" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -3263,7 +3264,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="15.75" thickBot="1">
+    <row r="46" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -3287,7 +3288,7 @@
       </c>
       <c r="H46"/>
     </row>
-    <row r="47" spans="1:8" ht="30.75" thickBot="1">
+    <row r="47" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -3309,7 +3310,7 @@
       </c>
       <c r="H47"/>
     </row>
-    <row r="48" spans="1:8" ht="30.75" thickBot="1">
+    <row r="48" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -3350,7 +3351,7 @@
         <v>389</v>
       </c>
       <c r="F49" s="16" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G49" s="7" t="s">
         <v>103</v>
@@ -3374,14 +3375,14 @@
         <v>389</v>
       </c>
       <c r="F50" s="16" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G50" s="7" t="s">
         <v>105</v>
       </c>
       <c r="H50"/>
     </row>
-    <row r="51" spans="1:8" ht="30.75" thickBot="1">
+    <row r="51" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -3403,7 +3404,7 @@
       </c>
       <c r="H51"/>
     </row>
-    <row r="52" spans="1:8" ht="15.75" thickBot="1">
+    <row r="52" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -3427,7 +3428,7 @@
       </c>
       <c r="H52"/>
     </row>
-    <row r="53" spans="1:8" ht="15.75" thickBot="1">
+    <row r="53" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -3451,7 +3452,7 @@
       </c>
       <c r="H53"/>
     </row>
-    <row r="54" spans="1:8" ht="15.75" thickBot="1">
+    <row r="54" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -3475,7 +3476,7 @@
       </c>
       <c r="H54"/>
     </row>
-    <row r="55" spans="1:8" ht="15.75" thickBot="1">
+    <row r="55" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -3499,7 +3500,7 @@
       </c>
       <c r="H55"/>
     </row>
-    <row r="56" spans="1:8" ht="15.75" thickBot="1">
+    <row r="56" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -3523,7 +3524,7 @@
       </c>
       <c r="H56"/>
     </row>
-    <row r="57" spans="1:8" ht="15.75" thickBot="1">
+    <row r="57" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -3547,7 +3548,7 @@
       </c>
       <c r="H57"/>
     </row>
-    <row r="58" spans="1:8" ht="15.75" thickBot="1">
+    <row r="58" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -3571,7 +3572,7 @@
       </c>
       <c r="H58"/>
     </row>
-    <row r="59" spans="1:8" ht="15.75" thickBot="1">
+    <row r="59" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -3636,7 +3637,7 @@
         <v>389</v>
       </c>
       <c r="F61" s="16" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G61" s="7" t="s">
         <v>126</v>
@@ -3667,7 +3668,7 @@
       </c>
       <c r="H62"/>
     </row>
-    <row r="63" spans="1:8" ht="60.75" thickBot="1">
+    <row r="63" spans="1:8" ht="60.75" hidden="1" thickBot="1">
       <c r="A63" s="3">
         <v>62</v>
       </c>
@@ -3693,7 +3694,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="30.75" thickBot="1">
+    <row r="64" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A64" s="3">
         <v>63</v>
       </c>
@@ -3716,7 +3717,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="30.75" thickBot="1">
+    <row r="65" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A65" s="3">
         <v>64</v>
       </c>
@@ -3740,7 +3741,7 @@
       </c>
       <c r="H65"/>
     </row>
-    <row r="66" spans="1:8" ht="15.75" thickBot="1">
+    <row r="66" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A66" s="3">
         <v>65</v>
       </c>
@@ -3764,7 +3765,7 @@
       </c>
       <c r="H66"/>
     </row>
-    <row r="67" spans="1:8" ht="15.75" thickBot="1">
+    <row r="67" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A67" s="3">
         <v>66</v>
       </c>
@@ -3788,7 +3789,7 @@
       </c>
       <c r="H67"/>
     </row>
-    <row r="68" spans="1:8" ht="15.75" thickBot="1">
+    <row r="68" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A68" s="3">
         <v>67</v>
       </c>
@@ -3812,7 +3813,7 @@
       </c>
       <c r="H68"/>
     </row>
-    <row r="69" spans="1:8" ht="30.75" thickBot="1">
+    <row r="69" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A69" s="3">
         <v>68</v>
       </c>
@@ -3835,7 +3836,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="15.75" thickBot="1">
+    <row r="70" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A70" s="3">
         <v>69</v>
       </c>
@@ -3858,7 +3859,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="30.75" thickBot="1">
+    <row r="71" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A71" s="3">
         <v>70</v>
       </c>
@@ -3881,7 +3882,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="15.75" thickBot="1">
+    <row r="72" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A72" s="3">
         <v>71</v>
       </c>
@@ -3904,7 +3905,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="30.75" thickBot="1">
+    <row r="73" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A73" s="3">
         <v>72</v>
       </c>
@@ -3927,7 +3928,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="15.75" thickBot="1">
+    <row r="74" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A74" s="3">
         <v>73</v>
       </c>
@@ -3951,7 +3952,7 @@
       </c>
       <c r="H74"/>
     </row>
-    <row r="75" spans="1:8" ht="15.75" thickBot="1">
+    <row r="75" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A75" s="3">
         <v>74</v>
       </c>
@@ -3973,7 +3974,7 @@
       </c>
       <c r="H75"/>
     </row>
-    <row r="76" spans="1:8" ht="30.75" thickBot="1">
+    <row r="76" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A76" s="3">
         <v>75</v>
       </c>
@@ -3995,7 +3996,7 @@
       </c>
       <c r="H76"/>
     </row>
-    <row r="77" spans="1:8" ht="30.75" thickBot="1">
+    <row r="77" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A77" s="3">
         <v>76</v>
       </c>
@@ -4019,7 +4020,7 @@
       </c>
       <c r="H77"/>
     </row>
-    <row r="78" spans="1:8" ht="15.75" thickBot="1">
+    <row r="78" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A78" s="3">
         <v>77</v>
       </c>
@@ -4042,7 +4043,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="15.75" thickBot="1">
+    <row r="79" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A79" s="3">
         <v>78</v>
       </c>
@@ -4065,7 +4066,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="15.75" thickBot="1">
+    <row r="80" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A80" s="3">
         <v>79</v>
       </c>
@@ -4088,7 +4089,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15.75" thickBot="1">
+    <row r="81" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A81" s="3">
         <v>80</v>
       </c>
@@ -4111,7 +4112,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="15.75" thickBot="1">
+    <row r="82" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A82" s="3">
         <v>81</v>
       </c>
@@ -4134,7 +4135,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="15.75" thickBot="1">
+    <row r="83" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A83" s="3">
         <v>82</v>
       </c>
@@ -4157,7 +4158,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="15.75" thickBot="1">
+    <row r="84" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A84" s="3">
         <v>83</v>
       </c>
@@ -4180,7 +4181,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15.75" thickBot="1">
+    <row r="85" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A85" s="3">
         <v>84</v>
       </c>
@@ -4203,7 +4204,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="15.75" thickBot="1">
+    <row r="86" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A86" s="3">
         <v>85</v>
       </c>
@@ -4227,7 +4228,7 @@
       </c>
       <c r="H86"/>
     </row>
-    <row r="87" spans="1:8" ht="15.75" thickBot="1">
+    <row r="87" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A87" s="3">
         <v>86</v>
       </c>
@@ -4251,7 +4252,7 @@
       </c>
       <c r="H87"/>
     </row>
-    <row r="88" spans="1:8" ht="15.75" thickBot="1">
+    <row r="88" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A88" s="3">
         <v>87</v>
       </c>
@@ -4275,7 +4276,7 @@
       </c>
       <c r="H88"/>
     </row>
-    <row r="89" spans="1:8" ht="15.75" thickBot="1">
+    <row r="89" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A89" s="3">
         <v>88</v>
       </c>
@@ -4299,7 +4300,7 @@
       </c>
       <c r="H89"/>
     </row>
-    <row r="90" spans="1:8" ht="15.75" thickBot="1">
+    <row r="90" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A90" s="3">
         <v>89</v>
       </c>
@@ -4322,7 +4323,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="15.75" thickBot="1">
+    <row r="91" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A91" s="3">
         <v>90</v>
       </c>
@@ -4345,7 +4346,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="15.75" thickBot="1">
+    <row r="92" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A92" s="3">
         <v>91</v>
       </c>
@@ -4368,7 +4369,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="15.75" thickBot="1">
+    <row r="93" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A93" s="3">
         <v>92</v>
       </c>
@@ -4578,7 +4579,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="102" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="102" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A102" s="3">
         <v>101</v>
       </c>
@@ -4616,9 +4617,9 @@
         <v>389</v>
       </c>
       <c r="F103" s="16" t="s">
-        <v>390</v>
-      </c>
-      <c r="G103" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="G103" s="6" t="s">
         <v>212</v>
       </c>
     </row>
@@ -4645,7 +4646,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="105" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="105" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A105" s="3">
         <v>104</v>
       </c>
@@ -4666,7 +4667,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="106" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="106" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A106" s="3">
         <v>105</v>
       </c>
@@ -4689,7 +4690,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="107" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="107" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A107" s="3">
         <v>106</v>
       </c>
@@ -4712,7 +4713,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="108" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="108" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A108" s="3">
         <v>107</v>
       </c>
@@ -4735,7 +4736,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="109" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="109" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A109" s="3">
         <v>108</v>
       </c>
@@ -4756,7 +4757,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="110" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="110" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A110" s="3">
         <v>109</v>
       </c>
@@ -4794,13 +4795,13 @@
         <v>389</v>
       </c>
       <c r="F111" s="16" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G111" s="7" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="112" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="112" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A112" s="3">
         <v>111</v>
       </c>
@@ -4823,7 +4824,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="45.75" thickBot="1">
+    <row r="113" spans="1:8" ht="45.75" hidden="1" thickBot="1">
       <c r="A113" s="3">
         <v>112</v>
       </c>
@@ -4846,7 +4847,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="30.75" thickBot="1">
+    <row r="114" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A114" s="3">
         <v>113</v>
       </c>
@@ -4869,7 +4870,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="45.75" thickBot="1">
+    <row r="115" spans="1:8" ht="45.75" hidden="1" thickBot="1">
       <c r="A115" s="3">
         <v>114</v>
       </c>
@@ -4892,7 +4893,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="15.75" thickBot="1">
+    <row r="116" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A116" s="3">
         <v>115</v>
       </c>
@@ -4915,7 +4916,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="15.75" thickBot="1">
+    <row r="117" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A117" s="3">
         <v>116</v>
       </c>
@@ -4938,7 +4939,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="30.75" thickBot="1">
+    <row r="118" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A118" s="3">
         <v>117</v>
       </c>
@@ -4961,7 +4962,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="15.75" thickBot="1">
+    <row r="119" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A119" s="3">
         <v>118</v>
       </c>
@@ -4984,7 +4985,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="30.75" thickBot="1">
+    <row r="120" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A120" s="3">
         <v>119</v>
       </c>
@@ -5007,7 +5008,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="15.75" thickBot="1">
+    <row r="121" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A121" s="3">
         <v>120</v>
       </c>
@@ -5030,7 +5031,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="15.75" thickBot="1">
+    <row r="122" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A122" s="3">
         <v>121</v>
       </c>
@@ -5053,7 +5054,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="30.75" thickBot="1">
+    <row r="123" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A123" s="3">
         <v>122</v>
       </c>
@@ -5077,7 +5078,7 @@
       </c>
       <c r="H123"/>
     </row>
-    <row r="124" spans="1:8" ht="30.75" thickBot="1">
+    <row r="124" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A124" s="3">
         <v>123</v>
       </c>
@@ -5101,7 +5102,7 @@
       </c>
       <c r="H124"/>
     </row>
-    <row r="125" spans="1:8" ht="30.75" thickBot="1">
+    <row r="125" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A125" s="3">
         <v>124</v>
       </c>
@@ -5125,7 +5126,7 @@
       </c>
       <c r="H125"/>
     </row>
-    <row r="126" spans="1:8" ht="15.75" thickBot="1">
+    <row r="126" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A126" s="3">
         <v>125</v>
       </c>
@@ -5149,7 +5150,7 @@
       </c>
       <c r="H126"/>
     </row>
-    <row r="127" spans="1:8" ht="15.75" thickBot="1">
+    <row r="127" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A127" s="3">
         <v>126</v>
       </c>
@@ -5173,7 +5174,7 @@
       </c>
       <c r="H127"/>
     </row>
-    <row r="128" spans="1:8" ht="15.75" thickBot="1">
+    <row r="128" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A128" s="3">
         <v>127</v>
       </c>
@@ -5197,7 +5198,7 @@
       </c>
       <c r="H128"/>
     </row>
-    <row r="129" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="129" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A129" s="3">
         <v>128</v>
       </c>
@@ -5220,7 +5221,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="130" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+    <row r="130" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
       <c r="A130" s="3">
         <v>129</v>
       </c>
@@ -5266,7 +5267,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="132" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="132" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A132" s="3">
         <v>131</v>
       </c>
@@ -5289,7 +5290,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="133" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="133" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A133" s="3">
         <v>132</v>
       </c>
@@ -5312,7 +5313,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="134" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="134" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A134" s="3">
         <v>133</v>
       </c>
@@ -5335,7 +5336,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="135" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="135" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A135" s="3">
         <v>134</v>
       </c>
@@ -5358,7 +5359,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="136" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="136" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A136" s="3">
         <v>135</v>
       </c>
@@ -5379,7 +5380,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="137" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="137" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A137" s="3">
         <v>136</v>
       </c>
@@ -5402,7 +5403,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="138" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="138" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A138" s="3">
         <v>137</v>
       </c>
@@ -5425,7 +5426,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="139" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="139" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A139" s="3">
         <v>138</v>
       </c>
@@ -5446,7 +5447,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="140" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="140" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A140" s="3">
         <v>139</v>
       </c>
@@ -5467,7 +5468,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="141" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="141" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A141" s="3">
         <v>140</v>
       </c>
@@ -5488,7 +5489,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="142" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="142" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A142" s="3">
         <v>141</v>
       </c>
@@ -5509,7 +5510,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="143" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="143" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A143" s="3">
         <v>142</v>
       </c>
@@ -5530,7 +5531,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="144" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="144" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A144" s="3">
         <v>143</v>
       </c>
@@ -5551,7 +5552,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="145" spans="1:8" ht="30.75" thickBot="1">
+    <row r="145" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A145" s="3">
         <v>144</v>
       </c>
@@ -5575,7 +5576,7 @@
       </c>
       <c r="H145"/>
     </row>
-    <row r="146" spans="1:8" ht="30.75" thickBot="1">
+    <row r="146" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A146" s="3">
         <v>145</v>
       </c>
@@ -5599,7 +5600,7 @@
       </c>
       <c r="H146"/>
     </row>
-    <row r="147" spans="1:8" ht="30.75" thickBot="1">
+    <row r="147" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A147" s="3">
         <v>146</v>
       </c>
@@ -5623,7 +5624,7 @@
       </c>
       <c r="H147"/>
     </row>
-    <row r="148" spans="1:8" ht="30.75" thickBot="1">
+    <row r="148" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A148" s="3">
         <v>147</v>
       </c>
@@ -5647,7 +5648,7 @@
       </c>
       <c r="H148"/>
     </row>
-    <row r="149" spans="1:8" ht="30.75" thickBot="1">
+    <row r="149" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A149" s="3">
         <v>148</v>
       </c>
@@ -5671,7 +5672,7 @@
       </c>
       <c r="H149"/>
     </row>
-    <row r="150" spans="1:8" ht="30.75" thickBot="1">
+    <row r="150" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A150" s="3">
         <v>149</v>
       </c>
@@ -5695,7 +5696,7 @@
       </c>
       <c r="H150"/>
     </row>
-    <row r="151" spans="1:8" ht="30.75" thickBot="1">
+    <row r="151" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A151" s="3">
         <v>150</v>
       </c>
@@ -5719,7 +5720,7 @@
       </c>
       <c r="H151"/>
     </row>
-    <row r="152" spans="1:8" ht="30.75" thickBot="1">
+    <row r="152" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A152" s="3">
         <v>151</v>
       </c>
@@ -5743,7 +5744,7 @@
       </c>
       <c r="H152"/>
     </row>
-    <row r="153" spans="1:8" ht="30.75" thickBot="1">
+    <row r="153" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A153" s="3">
         <v>152</v>
       </c>
@@ -5767,7 +5768,7 @@
       </c>
       <c r="H153"/>
     </row>
-    <row r="154" spans="1:8" ht="30.75" thickBot="1">
+    <row r="154" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A154" s="3">
         <v>153</v>
       </c>
@@ -5791,7 +5792,7 @@
       </c>
       <c r="H154"/>
     </row>
-    <row r="155" spans="1:8" ht="30.75" thickBot="1">
+    <row r="155" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A155" s="27">
         <v>152</v>
       </c>
@@ -5815,7 +5816,7 @@
       </c>
       <c r="H155"/>
     </row>
-    <row r="156" spans="1:8" ht="30.75" thickBot="1">
+    <row r="156" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A156" s="3">
         <v>154</v>
       </c>
@@ -5839,7 +5840,7 @@
       </c>
       <c r="H156"/>
     </row>
-    <row r="157" spans="1:8" ht="30.75" thickBot="1">
+    <row r="157" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A157" s="3">
         <v>155</v>
       </c>
@@ -5863,7 +5864,7 @@
       </c>
       <c r="H157"/>
     </row>
-    <row r="158" spans="1:8" ht="30.75" thickBot="1">
+    <row r="158" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A158" s="3">
         <v>156</v>
       </c>
@@ -5887,7 +5888,7 @@
       </c>
       <c r="H158"/>
     </row>
-    <row r="159" spans="1:8" ht="30.75" thickBot="1">
+    <row r="159" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A159" s="3">
         <v>157</v>
       </c>
@@ -5911,7 +5912,7 @@
       </c>
       <c r="H159"/>
     </row>
-    <row r="160" spans="1:8" ht="30.75" thickBot="1">
+    <row r="160" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A160" s="3">
         <v>158</v>
       </c>
@@ -5935,7 +5936,7 @@
       </c>
       <c r="H160"/>
     </row>
-    <row r="161" spans="1:8" ht="30.75" thickBot="1">
+    <row r="161" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A161" s="3">
         <v>159</v>
       </c>
@@ -5959,7 +5960,7 @@
       </c>
       <c r="H161"/>
     </row>
-    <row r="162" spans="1:8" ht="30.75" thickBot="1">
+    <row r="162" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A162" s="3">
         <v>160</v>
       </c>
@@ -5983,7 +5984,7 @@
       </c>
       <c r="H162"/>
     </row>
-    <row r="163" spans="1:8" ht="30.75" thickBot="1">
+    <row r="163" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A163" s="3">
         <v>161</v>
       </c>
@@ -6007,7 +6008,7 @@
       </c>
       <c r="H163"/>
     </row>
-    <row r="164" spans="1:8" ht="30.75" thickBot="1">
+    <row r="164" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A164" s="3">
         <v>162</v>
       </c>
@@ -6029,7 +6030,7 @@
       </c>
       <c r="H164"/>
     </row>
-    <row r="165" spans="1:8" ht="45.75" thickBot="1">
+    <row r="165" spans="1:8" ht="45.75" hidden="1" thickBot="1">
       <c r="A165" s="3">
         <v>163</v>
       </c>
@@ -6051,7 +6052,7 @@
       </c>
       <c r="H165"/>
     </row>
-    <row r="166" spans="1:8" ht="30.75" thickBot="1">
+    <row r="166" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A166" s="3">
         <v>164</v>
       </c>
@@ -6073,7 +6074,7 @@
       </c>
       <c r="H166"/>
     </row>
-    <row r="167" spans="1:8" ht="30.75" thickBot="1">
+    <row r="167" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A167" s="3">
         <v>165</v>
       </c>
@@ -6095,7 +6096,7 @@
       </c>
       <c r="H167"/>
     </row>
-    <row r="168" spans="1:8" ht="30.75" thickBot="1">
+    <row r="168" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A168" s="3">
         <v>166</v>
       </c>
@@ -6117,7 +6118,7 @@
       </c>
       <c r="H168"/>
     </row>
-    <row r="169" spans="1:8" ht="30.75" thickBot="1">
+    <row r="169" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A169" s="3">
         <v>167</v>
       </c>
@@ -6139,7 +6140,7 @@
       </c>
       <c r="H169"/>
     </row>
-    <row r="170" spans="1:8" ht="30.75" thickBot="1">
+    <row r="170" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A170" s="3">
         <v>168</v>
       </c>
@@ -6161,7 +6162,7 @@
       </c>
       <c r="H170"/>
     </row>
-    <row r="171" spans="1:8" ht="30.75" thickBot="1">
+    <row r="171" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A171" s="3">
         <v>169</v>
       </c>
@@ -6183,7 +6184,7 @@
       </c>
       <c r="H171"/>
     </row>
-    <row r="172" spans="1:8" ht="30.75" thickBot="1">
+    <row r="172" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A172" s="3">
         <v>170</v>
       </c>
@@ -6205,7 +6206,7 @@
       </c>
       <c r="H172"/>
     </row>
-    <row r="173" spans="1:8" ht="30.75" thickBot="1">
+    <row r="173" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A173" s="3">
         <v>171</v>
       </c>
@@ -6227,7 +6228,7 @@
       </c>
       <c r="H173"/>
     </row>
-    <row r="174" spans="1:8" ht="30.75" thickBot="1">
+    <row r="174" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A174" s="3">
         <v>172</v>
       </c>
@@ -6249,7 +6250,7 @@
       </c>
       <c r="H174"/>
     </row>
-    <row r="175" spans="1:8" ht="30.75" thickBot="1">
+    <row r="175" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A175" s="3">
         <v>173</v>
       </c>
@@ -6271,7 +6272,7 @@
       </c>
       <c r="H175"/>
     </row>
-    <row r="176" spans="1:8" ht="30.75" thickBot="1">
+    <row r="176" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A176" s="3">
         <v>174</v>
       </c>
@@ -6293,7 +6294,7 @@
       </c>
       <c r="H176"/>
     </row>
-    <row r="177" spans="1:8" ht="30.75" thickBot="1">
+    <row r="177" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A177" s="3">
         <v>175</v>
       </c>
@@ -6315,7 +6316,7 @@
       </c>
       <c r="H177"/>
     </row>
-    <row r="178" spans="1:8" ht="60.75" thickBot="1">
+    <row r="178" spans="1:8" ht="60.75" hidden="1" thickBot="1">
       <c r="A178" s="3">
         <v>176</v>
       </c>
@@ -6337,7 +6338,7 @@
       </c>
       <c r="H178"/>
     </row>
-    <row r="179" spans="1:8" ht="15.75" thickBot="1">
+    <row r="179" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A179" s="3">
         <v>177</v>
       </c>
@@ -6359,7 +6360,7 @@
       </c>
       <c r="H179"/>
     </row>
-    <row r="180" spans="1:8" ht="30.75" thickBot="1">
+    <row r="180" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A180" s="3">
         <v>178</v>
       </c>
@@ -6383,7 +6384,7 @@
       </c>
       <c r="H180"/>
     </row>
-    <row r="181" spans="1:8" ht="30.75" thickBot="1">
+    <row r="181" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A181" s="27">
         <v>178</v>
       </c>
@@ -6407,7 +6408,7 @@
       </c>
       <c r="H181"/>
     </row>
-    <row r="182" spans="1:8">
+    <row r="182" spans="1:8" hidden="1">
       <c r="A182" s="10"/>
       <c r="B182" s="28" t="s">
         <v>297</v>
@@ -6429,7 +6430,7 @@
       </c>
       <c r="H182"/>
     </row>
-    <row r="183" spans="1:8" ht="15.75" thickBot="1">
+    <row r="183" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A183" s="3">
         <v>179</v>
       </c>
@@ -6441,7 +6442,7 @@
       <c r="G183" s="33"/>
       <c r="H183"/>
     </row>
-    <row r="184" spans="1:8" ht="30.75" thickBot="1">
+    <row r="184" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A184" s="3">
         <v>180</v>
       </c>
@@ -6465,7 +6466,7 @@
       </c>
       <c r="H184"/>
     </row>
-    <row r="185" spans="1:8" ht="30.75" thickBot="1">
+    <row r="185" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A185" s="3">
         <v>181</v>
       </c>
@@ -6489,7 +6490,7 @@
       </c>
       <c r="H185"/>
     </row>
-    <row r="186" spans="1:8" ht="30.75" thickBot="1">
+    <row r="186" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A186" s="3">
         <v>182</v>
       </c>
@@ -6512,7 +6513,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="187" spans="1:8" ht="30.75" thickBot="1">
+    <row r="187" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A187" s="3">
         <v>183</v>
       </c>
@@ -6539,7 +6540,11 @@
   </sheetData>
   <autoFilter ref="A1:G187">
     <filterColumn colId="3"/>
-    <filterColumn colId="4"/>
+    <filterColumn colId="4">
+      <filters>
+        <filter val="Mari"/>
+      </filters>
+    </filterColumn>
   </autoFilter>
   <mergeCells count="6">
     <mergeCell ref="B182:B183"/>

--- a/Planificacion/PlanificacionTesis.xlsx
+++ b/Planificacion/PlanificacionTesis.xlsx
@@ -2177,8 +2177,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:L187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="G94" sqref="G94"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F185" sqref="F185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="119.42578125" defaultRowHeight="15"/>
@@ -2324,7 +2324,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" thickBot="1">
+    <row r="6" spans="1:12" ht="15.75" hidden="1" thickBot="1">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -3017,7 +3017,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="30.75" thickBot="1">
+    <row r="35" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -3334,7 +3334,7 @@
       </c>
       <c r="H48"/>
     </row>
-    <row r="49" spans="1:8" ht="15.75" thickBot="1">
+    <row r="49" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -3358,7 +3358,7 @@
       </c>
       <c r="H49"/>
     </row>
-    <row r="50" spans="1:8" ht="15.75" thickBot="1">
+    <row r="50" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -3596,7 +3596,7 @@
       </c>
       <c r="H59"/>
     </row>
-    <row r="60" spans="1:8" ht="15.75" thickBot="1">
+    <row r="60" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -3620,7 +3620,7 @@
       </c>
       <c r="H60"/>
     </row>
-    <row r="61" spans="1:8" ht="15.75" thickBot="1">
+    <row r="61" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -3644,7 +3644,7 @@
       </c>
       <c r="H61"/>
     </row>
-    <row r="62" spans="1:8" ht="15.75" thickBot="1">
+    <row r="62" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -4392,7 +4392,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="30.75" thickBot="1">
+    <row r="94" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A94" s="3">
         <v>93</v>
       </c>
@@ -4416,7 +4416,7 @@
       </c>
       <c r="H94"/>
     </row>
-    <row r="95" spans="1:8" ht="15.75" thickBot="1">
+    <row r="95" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A95" s="3">
         <v>94</v>
       </c>
@@ -4440,7 +4440,7 @@
       </c>
       <c r="H95"/>
     </row>
-    <row r="96" spans="1:8" ht="30.75" thickBot="1">
+    <row r="96" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A96" s="3">
         <v>95</v>
       </c>
@@ -4464,7 +4464,7 @@
       </c>
       <c r="H96"/>
     </row>
-    <row r="97" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+    <row r="97" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
       <c r="A97" s="3">
         <v>96</v>
       </c>
@@ -4487,7 +4487,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="98" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+    <row r="98" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
       <c r="A98" s="3">
         <v>97</v>
       </c>
@@ -4510,7 +4510,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="99" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="99" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A99" s="3">
         <v>98</v>
       </c>
@@ -4533,7 +4533,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="100" spans="1:7" customFormat="1" ht="45.75" thickBot="1">
+    <row r="100" spans="1:7" customFormat="1" ht="45.75" hidden="1" thickBot="1">
       <c r="A100" s="3">
         <v>99</v>
       </c>
@@ -4556,7 +4556,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="101" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+    <row r="101" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
       <c r="A101" s="3">
         <v>100</v>
       </c>
@@ -4600,7 +4600,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="103" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+    <row r="103" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
       <c r="A103" s="3">
         <v>102</v>
       </c>
@@ -4623,7 +4623,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="104" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+    <row r="104" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
       <c r="A104" s="3">
         <v>103</v>
       </c>
@@ -4778,7 +4778,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="111" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="111" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A111" s="3">
         <v>110</v>
       </c>
@@ -5244,7 +5244,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="131" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+    <row r="131" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
       <c r="A131" s="3">
         <v>130</v>
       </c>
@@ -5552,7 +5552,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="145" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="145" spans="1:8" ht="30.75" thickBot="1">
       <c r="A145" s="3">
         <v>144</v>
       </c>
@@ -5576,7 +5576,7 @@
       </c>
       <c r="H145"/>
     </row>
-    <row r="146" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="146" spans="1:8" ht="30.75" thickBot="1">
       <c r="A146" s="3">
         <v>145</v>
       </c>
@@ -5600,7 +5600,7 @@
       </c>
       <c r="H146"/>
     </row>
-    <row r="147" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="147" spans="1:8" ht="30.75" thickBot="1">
       <c r="A147" s="3">
         <v>146</v>
       </c>
@@ -5624,7 +5624,7 @@
       </c>
       <c r="H147"/>
     </row>
-    <row r="148" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="148" spans="1:8" ht="30.75" thickBot="1">
       <c r="A148" s="3">
         <v>147</v>
       </c>
@@ -5648,7 +5648,7 @@
       </c>
       <c r="H148"/>
     </row>
-    <row r="149" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="149" spans="1:8" ht="30.75" thickBot="1">
       <c r="A149" s="3">
         <v>148</v>
       </c>
@@ -5672,7 +5672,7 @@
       </c>
       <c r="H149"/>
     </row>
-    <row r="150" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="150" spans="1:8" ht="30.75" thickBot="1">
       <c r="A150" s="3">
         <v>149</v>
       </c>
@@ -5696,7 +5696,7 @@
       </c>
       <c r="H150"/>
     </row>
-    <row r="151" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="151" spans="1:8" ht="30.75" thickBot="1">
       <c r="A151" s="3">
         <v>150</v>
       </c>
@@ -5720,7 +5720,7 @@
       </c>
       <c r="H151"/>
     </row>
-    <row r="152" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="152" spans="1:8" ht="30.75" thickBot="1">
       <c r="A152" s="3">
         <v>151</v>
       </c>
@@ -5744,7 +5744,7 @@
       </c>
       <c r="H152"/>
     </row>
-    <row r="153" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="153" spans="1:8" ht="30.75" thickBot="1">
       <c r="A153" s="3">
         <v>152</v>
       </c>
@@ -5768,7 +5768,7 @@
       </c>
       <c r="H153"/>
     </row>
-    <row r="154" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="154" spans="1:8" ht="30.75" thickBot="1">
       <c r="A154" s="3">
         <v>153</v>
       </c>
@@ -5816,7 +5816,7 @@
       </c>
       <c r="H155"/>
     </row>
-    <row r="156" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="156" spans="1:8" ht="30.75" thickBot="1">
       <c r="A156" s="3">
         <v>154</v>
       </c>
@@ -5840,7 +5840,7 @@
       </c>
       <c r="H156"/>
     </row>
-    <row r="157" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="157" spans="1:8" ht="30.75" thickBot="1">
       <c r="A157" s="3">
         <v>155</v>
       </c>
@@ -5864,7 +5864,7 @@
       </c>
       <c r="H157"/>
     </row>
-    <row r="158" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="158" spans="1:8" ht="30.75" thickBot="1">
       <c r="A158" s="3">
         <v>156</v>
       </c>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="H158"/>
     </row>
-    <row r="159" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="159" spans="1:8" ht="30.75" thickBot="1">
       <c r="A159" s="3">
         <v>157</v>
       </c>
@@ -5912,7 +5912,7 @@
       </c>
       <c r="H159"/>
     </row>
-    <row r="160" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="160" spans="1:8" ht="30.75" thickBot="1">
       <c r="A160" s="3">
         <v>158</v>
       </c>
@@ -5936,7 +5936,7 @@
       </c>
       <c r="H160"/>
     </row>
-    <row r="161" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="161" spans="1:8" ht="30.75" thickBot="1">
       <c r="A161" s="3">
         <v>159</v>
       </c>
@@ -5960,7 +5960,7 @@
       </c>
       <c r="H161"/>
     </row>
-    <row r="162" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="162" spans="1:8" ht="30.75" thickBot="1">
       <c r="A162" s="3">
         <v>160</v>
       </c>
@@ -5984,7 +5984,7 @@
       </c>
       <c r="H162"/>
     </row>
-    <row r="163" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="163" spans="1:8" ht="30.75" thickBot="1">
       <c r="A163" s="3">
         <v>161</v>
       </c>
@@ -6384,7 +6384,7 @@
       </c>
       <c r="H180"/>
     </row>
-    <row r="181" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="181" spans="1:8" ht="30.75" thickBot="1">
       <c r="A181" s="27">
         <v>178</v>
       </c>
@@ -6401,14 +6401,14 @@
         <v>386</v>
       </c>
       <c r="F181" s="16" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="G181" s="7" t="s">
         <v>368</v>
       </c>
       <c r="H181"/>
     </row>
-    <row r="182" spans="1:8" hidden="1">
+    <row r="182" spans="1:8">
       <c r="A182" s="10"/>
       <c r="B182" s="28" t="s">
         <v>297</v>
@@ -6423,7 +6423,7 @@
         <v>386</v>
       </c>
       <c r="F182" s="34" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="G182" s="32" t="s">
         <v>370</v>
@@ -6442,7 +6442,7 @@
       <c r="G183" s="33"/>
       <c r="H183"/>
     </row>
-    <row r="184" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="184" spans="1:8" ht="30.75" thickBot="1">
       <c r="A184" s="3">
         <v>180</v>
       </c>
@@ -6459,14 +6459,14 @@
         <v>386</v>
       </c>
       <c r="F184" s="16" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="G184" s="7" t="s">
         <v>372</v>
       </c>
       <c r="H184"/>
     </row>
-    <row r="185" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="185" spans="1:8" ht="30.75" thickBot="1">
       <c r="A185" s="3">
         <v>181</v>
       </c>
@@ -6483,7 +6483,7 @@
         <v>386</v>
       </c>
       <c r="F185" s="16" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="G185" s="7" t="s">
         <v>374</v>
@@ -6513,7 +6513,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="187" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="187" spans="1:8" ht="30.75" thickBot="1">
       <c r="A187" s="3">
         <v>183</v>
       </c>
@@ -6542,7 +6542,7 @@
     <filterColumn colId="3"/>
     <filterColumn colId="4">
       <filters>
-        <filter val="Mari"/>
+        <filter val="Lore"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/Planificacion/PlanificacionTesis.xlsx
+++ b/Planificacion/PlanificacionTesis.xlsx
@@ -1469,7 +1469,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1546,6 +1546,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1569,6 +1572,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2178,7 +2184,7 @@
   <dimension ref="A1:L187"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F185" sqref="F185"/>
+      <selection activeCell="F183" sqref="F183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="119.42578125" defaultRowHeight="15"/>
@@ -2578,7 +2584,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="30.75" hidden="1" thickBot="1">
+    <row r="16" spans="1:12" ht="30.75" thickBot="1">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -2793,7 +2799,7 @@
       </c>
       <c r="H24"/>
     </row>
-    <row r="25" spans="1:12" ht="30.75" hidden="1" thickBot="1">
+    <row r="25" spans="1:12" ht="30.75" thickBot="1">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -2815,7 +2821,7 @@
       </c>
       <c r="H25"/>
     </row>
-    <row r="26" spans="1:12" ht="30.75" hidden="1" thickBot="1">
+    <row r="26" spans="1:12" ht="30.75" thickBot="1">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -2905,7 +2911,7 @@
       </c>
       <c r="H29"/>
     </row>
-    <row r="30" spans="1:12" ht="30.75" hidden="1" thickBot="1">
+    <row r="30" spans="1:12" ht="30.75" thickBot="1">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -2950,7 +2956,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="15.75" hidden="1" thickBot="1">
+    <row r="32" spans="1:12" ht="15.75" thickBot="1">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -2972,7 +2978,7 @@
       </c>
       <c r="H32"/>
     </row>
-    <row r="33" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="33" spans="1:8" ht="30.75" thickBot="1">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -3041,7 +3047,7 @@
       </c>
       <c r="H35"/>
     </row>
-    <row r="36" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="36" spans="1:8" ht="15.75" thickBot="1">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -3063,7 +3069,7 @@
       </c>
       <c r="H36"/>
     </row>
-    <row r="37" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="37" spans="1:8" ht="15.75" thickBot="1">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -3085,7 +3091,7 @@
       </c>
       <c r="H37"/>
     </row>
-    <row r="38" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="38" spans="1:8" ht="15.75" thickBot="1">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -3107,7 +3113,7 @@
       </c>
       <c r="H38"/>
     </row>
-    <row r="39" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="39" spans="1:8" ht="15.75" thickBot="1">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -3129,7 +3135,7 @@
       </c>
       <c r="H39"/>
     </row>
-    <row r="40" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="40" spans="1:8" ht="15.75" thickBot="1">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -3151,7 +3157,7 @@
       </c>
       <c r="H40"/>
     </row>
-    <row r="41" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="41" spans="1:8" ht="15.75" thickBot="1">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -3173,7 +3179,7 @@
       </c>
       <c r="H41"/>
     </row>
-    <row r="42" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="42" spans="1:8" ht="15.75" thickBot="1">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -3195,7 +3201,7 @@
       </c>
       <c r="H42"/>
     </row>
-    <row r="43" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="43" spans="1:8" ht="15.75" thickBot="1">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -3288,7 +3294,7 @@
       </c>
       <c r="H46"/>
     </row>
-    <row r="47" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="47" spans="1:8" ht="30.75" thickBot="1">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -3382,7 +3388,7 @@
       </c>
       <c r="H50"/>
     </row>
-    <row r="51" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="51" spans="1:8" ht="30.75" thickBot="1">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -3952,7 +3958,7 @@
       </c>
       <c r="H74"/>
     </row>
-    <row r="75" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="75" spans="1:8" ht="15.75" thickBot="1">
       <c r="A75" s="3">
         <v>74</v>
       </c>
@@ -3974,7 +3980,7 @@
       </c>
       <c r="H75"/>
     </row>
-    <row r="76" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="76" spans="1:8" ht="30.75" thickBot="1">
       <c r="A76" s="3">
         <v>75</v>
       </c>
@@ -4646,7 +4652,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="105" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="105" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A105" s="3">
         <v>104</v>
       </c>
@@ -4736,7 +4742,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="109" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="109" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A109" s="3">
         <v>108</v>
       </c>
@@ -4757,7 +4763,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="110" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="110" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A110" s="3">
         <v>109</v>
       </c>
@@ -5426,7 +5432,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="139" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="139" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A139" s="3">
         <v>138</v>
       </c>
@@ -5447,7 +5453,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="140" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="140" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A140" s="3">
         <v>139</v>
       </c>
@@ -5468,7 +5474,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="141" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="141" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A141" s="3">
         <v>140</v>
       </c>
@@ -5489,7 +5495,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="142" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="142" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A142" s="3">
         <v>141</v>
       </c>
@@ -5510,7 +5516,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="143" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="143" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A143" s="3">
         <v>142</v>
       </c>
@@ -5531,7 +5537,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="144" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="144" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A144" s="3">
         <v>143</v>
       </c>
@@ -5552,7 +5558,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="145" spans="1:8" ht="30.75" thickBot="1">
+    <row r="145" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A145" s="3">
         <v>144</v>
       </c>
@@ -5576,7 +5582,7 @@
       </c>
       <c r="H145"/>
     </row>
-    <row r="146" spans="1:8" ht="30.75" thickBot="1">
+    <row r="146" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A146" s="3">
         <v>145</v>
       </c>
@@ -5600,7 +5606,7 @@
       </c>
       <c r="H146"/>
     </row>
-    <row r="147" spans="1:8" ht="30.75" thickBot="1">
+    <row r="147" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A147" s="3">
         <v>146</v>
       </c>
@@ -5624,7 +5630,7 @@
       </c>
       <c r="H147"/>
     </row>
-    <row r="148" spans="1:8" ht="30.75" thickBot="1">
+    <row r="148" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A148" s="3">
         <v>147</v>
       </c>
@@ -5648,7 +5654,7 @@
       </c>
       <c r="H148"/>
     </row>
-    <row r="149" spans="1:8" ht="30.75" thickBot="1">
+    <row r="149" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A149" s="3">
         <v>148</v>
       </c>
@@ -5672,7 +5678,7 @@
       </c>
       <c r="H149"/>
     </row>
-    <row r="150" spans="1:8" ht="30.75" thickBot="1">
+    <row r="150" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A150" s="3">
         <v>149</v>
       </c>
@@ -5696,7 +5702,7 @@
       </c>
       <c r="H150"/>
     </row>
-    <row r="151" spans="1:8" ht="30.75" thickBot="1">
+    <row r="151" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A151" s="3">
         <v>150</v>
       </c>
@@ -5720,7 +5726,7 @@
       </c>
       <c r="H151"/>
     </row>
-    <row r="152" spans="1:8" ht="30.75" thickBot="1">
+    <row r="152" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A152" s="3">
         <v>151</v>
       </c>
@@ -5744,7 +5750,7 @@
       </c>
       <c r="H152"/>
     </row>
-    <row r="153" spans="1:8" ht="30.75" thickBot="1">
+    <row r="153" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A153" s="3">
         <v>152</v>
       </c>
@@ -5768,7 +5774,7 @@
       </c>
       <c r="H153"/>
     </row>
-    <row r="154" spans="1:8" ht="30.75" thickBot="1">
+    <row r="154" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A154" s="3">
         <v>153</v>
       </c>
@@ -5816,7 +5822,7 @@
       </c>
       <c r="H155"/>
     </row>
-    <row r="156" spans="1:8" ht="30.75" thickBot="1">
+    <row r="156" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A156" s="3">
         <v>154</v>
       </c>
@@ -5840,7 +5846,7 @@
       </c>
       <c r="H156"/>
     </row>
-    <row r="157" spans="1:8" ht="30.75" thickBot="1">
+    <row r="157" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A157" s="3">
         <v>155</v>
       </c>
@@ -5864,7 +5870,7 @@
       </c>
       <c r="H157"/>
     </row>
-    <row r="158" spans="1:8" ht="30.75" thickBot="1">
+    <row r="158" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A158" s="3">
         <v>156</v>
       </c>
@@ -5888,7 +5894,7 @@
       </c>
       <c r="H158"/>
     </row>
-    <row r="159" spans="1:8" ht="30.75" thickBot="1">
+    <row r="159" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A159" s="3">
         <v>157</v>
       </c>
@@ -5912,7 +5918,7 @@
       </c>
       <c r="H159"/>
     </row>
-    <row r="160" spans="1:8" ht="30.75" thickBot="1">
+    <row r="160" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A160" s="3">
         <v>158</v>
       </c>
@@ -5936,7 +5942,7 @@
       </c>
       <c r="H160"/>
     </row>
-    <row r="161" spans="1:8" ht="30.75" thickBot="1">
+    <row r="161" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A161" s="3">
         <v>159</v>
       </c>
@@ -5960,7 +5966,7 @@
       </c>
       <c r="H161"/>
     </row>
-    <row r="162" spans="1:8" ht="30.75" thickBot="1">
+    <row r="162" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A162" s="3">
         <v>160</v>
       </c>
@@ -5984,7 +5990,7 @@
       </c>
       <c r="H162"/>
     </row>
-    <row r="163" spans="1:8" ht="30.75" thickBot="1">
+    <row r="163" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A163" s="3">
         <v>161</v>
       </c>
@@ -6008,7 +6014,7 @@
       </c>
       <c r="H163"/>
     </row>
-    <row r="164" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="164" spans="1:8" ht="30.75" thickBot="1">
       <c r="A164" s="3">
         <v>162</v>
       </c>
@@ -6030,7 +6036,7 @@
       </c>
       <c r="H164"/>
     </row>
-    <row r="165" spans="1:8" ht="45.75" hidden="1" thickBot="1">
+    <row r="165" spans="1:8" ht="45.75" thickBot="1">
       <c r="A165" s="3">
         <v>163</v>
       </c>
@@ -6052,7 +6058,7 @@
       </c>
       <c r="H165"/>
     </row>
-    <row r="166" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="166" spans="1:8" ht="30.75" thickBot="1">
       <c r="A166" s="3">
         <v>164</v>
       </c>
@@ -6074,7 +6080,7 @@
       </c>
       <c r="H166"/>
     </row>
-    <row r="167" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="167" spans="1:8" ht="30.75" thickBot="1">
       <c r="A167" s="3">
         <v>165</v>
       </c>
@@ -6096,7 +6102,7 @@
       </c>
       <c r="H167"/>
     </row>
-    <row r="168" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="168" spans="1:8" ht="30.75" thickBot="1">
       <c r="A168" s="3">
         <v>166</v>
       </c>
@@ -6118,7 +6124,7 @@
       </c>
       <c r="H168"/>
     </row>
-    <row r="169" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="169" spans="1:8" ht="30.75" thickBot="1">
       <c r="A169" s="3">
         <v>167</v>
       </c>
@@ -6140,7 +6146,7 @@
       </c>
       <c r="H169"/>
     </row>
-    <row r="170" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="170" spans="1:8" ht="30.75" thickBot="1">
       <c r="A170" s="3">
         <v>168</v>
       </c>
@@ -6162,7 +6168,7 @@
       </c>
       <c r="H170"/>
     </row>
-    <row r="171" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="171" spans="1:8" ht="30.75" thickBot="1">
       <c r="A171" s="3">
         <v>169</v>
       </c>
@@ -6184,7 +6190,7 @@
       </c>
       <c r="H171"/>
     </row>
-    <row r="172" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="172" spans="1:8" ht="30.75" thickBot="1">
       <c r="A172" s="3">
         <v>170</v>
       </c>
@@ -6206,7 +6212,7 @@
       </c>
       <c r="H172"/>
     </row>
-    <row r="173" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="173" spans="1:8" ht="30.75" thickBot="1">
       <c r="A173" s="3">
         <v>171</v>
       </c>
@@ -6228,7 +6234,7 @@
       </c>
       <c r="H173"/>
     </row>
-    <row r="174" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="174" spans="1:8" ht="30.75" thickBot="1">
       <c r="A174" s="3">
         <v>172</v>
       </c>
@@ -6250,7 +6256,7 @@
       </c>
       <c r="H174"/>
     </row>
-    <row r="175" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="175" spans="1:8" ht="30.75" thickBot="1">
       <c r="A175" s="3">
         <v>173</v>
       </c>
@@ -6272,7 +6278,7 @@
       </c>
       <c r="H175"/>
     </row>
-    <row r="176" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="176" spans="1:8" ht="30.75" thickBot="1">
       <c r="A176" s="3">
         <v>174</v>
       </c>
@@ -6294,7 +6300,7 @@
       </c>
       <c r="H176"/>
     </row>
-    <row r="177" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="177" spans="1:8" ht="30.75" thickBot="1">
       <c r="A177" s="3">
         <v>175</v>
       </c>
@@ -6316,7 +6322,7 @@
       </c>
       <c r="H177"/>
     </row>
-    <row r="178" spans="1:8" ht="60.75" hidden="1" thickBot="1">
+    <row r="178" spans="1:8" ht="60.75" thickBot="1">
       <c r="A178" s="3">
         <v>176</v>
       </c>
@@ -6338,7 +6344,7 @@
       </c>
       <c r="H178"/>
     </row>
-    <row r="179" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="179" spans="1:8" ht="15.75" thickBot="1">
       <c r="A179" s="3">
         <v>177</v>
       </c>
@@ -6384,7 +6390,7 @@
       </c>
       <c r="H180"/>
     </row>
-    <row r="181" spans="1:8" ht="30.75" thickBot="1">
+    <row r="181" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A181" s="27">
         <v>178</v>
       </c>
@@ -6408,24 +6414,22 @@
       </c>
       <c r="H181"/>
     </row>
-    <row r="182" spans="1:8">
+    <row r="182" spans="1:8" ht="15" hidden="1" customHeight="1">
       <c r="A182" s="10"/>
-      <c r="B182" s="28" t="s">
+      <c r="B182" s="29" t="s">
         <v>297</v>
       </c>
-      <c r="C182" s="30" t="s">
+      <c r="C182" s="31" t="s">
         <v>369</v>
       </c>
-      <c r="D182" s="34" t="s">
-        <v>385</v>
-      </c>
-      <c r="E182" s="34" t="s">
+      <c r="D182" s="35" t="s">
+        <v>385</v>
+      </c>
+      <c r="E182" s="35" t="s">
         <v>386</v>
       </c>
-      <c r="F182" s="34" t="s">
-        <v>392</v>
-      </c>
-      <c r="G182" s="32" t="s">
+      <c r="F182" s="37"/>
+      <c r="G182" s="33" t="s">
         <v>370</v>
       </c>
       <c r="H182"/>
@@ -6434,15 +6438,17 @@
       <c r="A183" s="3">
         <v>179</v>
       </c>
-      <c r="B183" s="29"/>
-      <c r="C183" s="31"/>
-      <c r="D183" s="35"/>
-      <c r="E183" s="35"/>
-      <c r="F183" s="35"/>
-      <c r="G183" s="33"/>
+      <c r="B183" s="30"/>
+      <c r="C183" s="32"/>
+      <c r="D183" s="36"/>
+      <c r="E183" s="36"/>
+      <c r="F183" s="28" t="s">
+        <v>392</v>
+      </c>
+      <c r="G183" s="34"/>
       <c r="H183"/>
     </row>
-    <row r="184" spans="1:8" ht="30.75" thickBot="1">
+    <row r="184" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A184" s="3">
         <v>180</v>
       </c>
@@ -6466,7 +6472,7 @@
       </c>
       <c r="H184"/>
     </row>
-    <row r="185" spans="1:8" ht="30.75" thickBot="1">
+    <row r="185" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A185" s="3">
         <v>181</v>
       </c>
@@ -6513,7 +6519,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="187" spans="1:8" ht="30.75" thickBot="1">
+    <row r="187" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A187" s="3">
         <v>183</v>
       </c>
@@ -6541,18 +6547,20 @@
   <autoFilter ref="A1:G187">
     <filterColumn colId="3"/>
     <filterColumn colId="4">
+      <filters blank="1"/>
+    </filterColumn>
+    <filterColumn colId="5">
       <filters>
-        <filter val="Lore"/>
+        <filter val="Sin Empezar"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <mergeCells count="6">
+  <mergeCells count="5">
     <mergeCell ref="B182:B183"/>
     <mergeCell ref="C182:C183"/>
     <mergeCell ref="G182:G183"/>
     <mergeCell ref="D182:D183"/>
     <mergeCell ref="E182:E183"/>
-    <mergeCell ref="F182:F183"/>
   </mergeCells>
   <conditionalFormatting sqref="H63 F1:F1048576">
     <cfRule type="containsText" dxfId="39" priority="36" operator="containsText" text="Testeado con errores">

--- a/Planificacion/PlanificacionTesis.xlsx
+++ b/Planificacion/PlanificacionTesis.xlsx
@@ -13,13 +13,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$G$187</definedName>
+    <definedName name="Sin_Empezar">Hoja1!$L$15:$L$20</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="398">
   <si>
     <t>Nº</t>
   </si>
@@ -1220,6 +1221,12 @@
   </si>
   <si>
     <t>Hay que refinar como se muestran las planificaciones anteriores (aparentemente las trae mal de la bd). Hay que validar millones de cosas (disp empleados, maquinas, etc). Prioridades (olvidalo)</t>
+  </si>
+  <si>
+    <t>Suspendido</t>
+  </si>
+  <si>
+    <t>Integrar con pedido de cliente. Diferenciar entre pedido externo e interno. Crear tipoPedido</t>
   </si>
 </sst>
 </file>
@@ -1299,7 +1306,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1309,6 +1316,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1546,9 +1559,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1573,14 +1583,169 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="40">
+  <dxfs count="60">
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color auto="1"/>
@@ -2180,11 +2345,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:L187"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F183" sqref="F183"/>
+    <sheetView tabSelected="1" topLeftCell="C175" workbookViewId="0">
+      <selection activeCell="G181" sqref="G181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="119.42578125" defaultRowHeight="15"/>
@@ -2226,7 +2390,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="30.75" hidden="1" thickBot="1">
+    <row r="2" spans="1:12" ht="30.75" thickBot="1">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2249,7 +2413,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="30.75" hidden="1" thickBot="1">
+    <row r="3" spans="1:12" ht="30.75" thickBot="1">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -2276,7 +2440,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" hidden="1" thickBot="1">
+    <row r="4" spans="1:12" ht="15.75" thickBot="1">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -2303,7 +2467,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" hidden="1" thickBot="1">
+    <row r="5" spans="1:12" ht="15.75" thickBot="1">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -2330,7 +2494,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" hidden="1" thickBot="1">
+    <row r="6" spans="1:12" ht="15.75" thickBot="1">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -2357,7 +2521,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75" hidden="1" thickBot="1">
+    <row r="7" spans="1:12" ht="15.75" thickBot="1">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -2381,7 +2545,7 @@
       </c>
       <c r="H7"/>
     </row>
-    <row r="8" spans="1:12" ht="15.75" hidden="1" thickBot="1">
+    <row r="8" spans="1:12" ht="15.75" thickBot="1">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -2407,7 +2571,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="30.75" hidden="1" thickBot="1">
+    <row r="9" spans="1:12" ht="30.75" thickBot="1">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -2433,7 +2597,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="30.75" hidden="1" thickBot="1">
+    <row r="10" spans="1:12" ht="30.75" thickBot="1">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -2458,7 +2622,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="30.75" hidden="1" thickBot="1">
+    <row r="11" spans="1:12" ht="30.75" thickBot="1">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -2484,7 +2648,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="30.75" hidden="1" thickBot="1">
+    <row r="12" spans="1:12" ht="30.75" thickBot="1">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -2510,7 +2674,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="30.75" hidden="1" thickBot="1">
+    <row r="13" spans="1:12" ht="30.75" thickBot="1">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -2533,7 +2697,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="30.75" hidden="1" thickBot="1">
+    <row r="14" spans="1:12" ht="30.75" thickBot="1">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -2559,7 +2723,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15.75" hidden="1" thickBot="1">
+    <row r="15" spans="1:12" ht="15.75" thickBot="1">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -2609,7 +2773,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15.75" hidden="1" thickBot="1">
+    <row r="17" spans="1:12" ht="15.75" thickBot="1">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -2635,7 +2799,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="30.75" hidden="1" thickBot="1">
+    <row r="18" spans="1:12" ht="30.75" thickBot="1">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -2661,7 +2825,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15.75" hidden="1" thickBot="1">
+    <row r="19" spans="1:12" ht="15.75" thickBot="1">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -2687,7 +2851,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15.75" hidden="1" thickBot="1">
+    <row r="20" spans="1:12" ht="15.75" thickBot="1">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -2709,8 +2873,11 @@
       <c r="G20" s="7" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" ht="15.75" hidden="1" thickBot="1">
+      <c r="L20" s="36" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="15.75" thickBot="1">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -2733,7 +2900,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15.75" hidden="1" thickBot="1">
+    <row r="22" spans="1:12" ht="15.75" thickBot="1">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -2755,7 +2922,7 @@
       </c>
       <c r="H22"/>
     </row>
-    <row r="23" spans="1:12" ht="30.75" hidden="1" thickBot="1">
+    <row r="23" spans="1:12" ht="30.75" thickBot="1">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -2777,7 +2944,7 @@
       </c>
       <c r="H23"/>
     </row>
-    <row r="24" spans="1:12" ht="30.75" hidden="1" thickBot="1">
+    <row r="24" spans="1:12" ht="30.75" thickBot="1">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -2843,7 +3010,7 @@
       </c>
       <c r="H26"/>
     </row>
-    <row r="27" spans="1:12" ht="15.75" hidden="1" thickBot="1">
+    <row r="27" spans="1:12" ht="15.75" thickBot="1">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -2865,7 +3032,7 @@
       </c>
       <c r="H27"/>
     </row>
-    <row r="28" spans="1:12" ht="15.75" hidden="1" thickBot="1">
+    <row r="28" spans="1:12" ht="15.75" thickBot="1">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -2889,7 +3056,7 @@
       </c>
       <c r="H28"/>
     </row>
-    <row r="29" spans="1:12" ht="15.75" hidden="1" thickBot="1">
+    <row r="29" spans="1:12" ht="15.75" thickBot="1">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -2933,7 +3100,7 @@
       </c>
       <c r="H30"/>
     </row>
-    <row r="31" spans="1:12" ht="15.75" hidden="1" thickBot="1">
+    <row r="31" spans="1:12" ht="15.75" thickBot="1">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -3000,7 +3167,7 @@
       </c>
       <c r="H33"/>
     </row>
-    <row r="34" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="34" spans="1:8" ht="15.75" thickBot="1">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -3023,7 +3190,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="35" spans="1:8" ht="30.75" thickBot="1">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -3223,7 +3390,7 @@
       </c>
       <c r="H43"/>
     </row>
-    <row r="44" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="44" spans="1:8" ht="15.75" thickBot="1">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -3247,7 +3414,7 @@
       </c>
       <c r="H44"/>
     </row>
-    <row r="45" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="45" spans="1:8" ht="15.75" thickBot="1">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -3270,7 +3437,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="46" spans="1:8" ht="15.75" thickBot="1">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -3316,7 +3483,7 @@
       </c>
       <c r="H47"/>
     </row>
-    <row r="48" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="48" spans="1:8" ht="30.75" thickBot="1">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -3340,7 +3507,7 @@
       </c>
       <c r="H48"/>
     </row>
-    <row r="49" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="49" spans="1:8" ht="15.75" thickBot="1">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -3364,7 +3531,7 @@
       </c>
       <c r="H49"/>
     </row>
-    <row r="50" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="50" spans="1:8" ht="15.75" thickBot="1">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -3410,7 +3577,7 @@
       </c>
       <c r="H51"/>
     </row>
-    <row r="52" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="52" spans="1:8" ht="15.75" thickBot="1">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -3434,7 +3601,7 @@
       </c>
       <c r="H52"/>
     </row>
-    <row r="53" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="53" spans="1:8" ht="15.75" thickBot="1">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -3458,7 +3625,7 @@
       </c>
       <c r="H53"/>
     </row>
-    <row r="54" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="54" spans="1:8" ht="15.75" thickBot="1">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -3482,7 +3649,7 @@
       </c>
       <c r="H54"/>
     </row>
-    <row r="55" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="55" spans="1:8" ht="15.75" thickBot="1">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -3506,7 +3673,7 @@
       </c>
       <c r="H55"/>
     </row>
-    <row r="56" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="56" spans="1:8" ht="15.75" thickBot="1">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -3530,7 +3697,7 @@
       </c>
       <c r="H56"/>
     </row>
-    <row r="57" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="57" spans="1:8" ht="15.75" thickBot="1">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -3554,7 +3721,7 @@
       </c>
       <c r="H57"/>
     </row>
-    <row r="58" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="58" spans="1:8" ht="15.75" thickBot="1">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -3578,7 +3745,7 @@
       </c>
       <c r="H58"/>
     </row>
-    <row r="59" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="59" spans="1:8" ht="15.75" thickBot="1">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -3602,7 +3769,7 @@
       </c>
       <c r="H59"/>
     </row>
-    <row r="60" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="60" spans="1:8" ht="15.75" thickBot="1">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -3626,7 +3793,7 @@
       </c>
       <c r="H60"/>
     </row>
-    <row r="61" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="61" spans="1:8" ht="15.75" thickBot="1">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -3650,7 +3817,7 @@
       </c>
       <c r="H61"/>
     </row>
-    <row r="62" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="62" spans="1:8" ht="15.75" thickBot="1">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -3674,7 +3841,7 @@
       </c>
       <c r="H62"/>
     </row>
-    <row r="63" spans="1:8" ht="60.75" hidden="1" thickBot="1">
+    <row r="63" spans="1:8" ht="60.75" thickBot="1">
       <c r="A63" s="3">
         <v>62</v>
       </c>
@@ -3700,7 +3867,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="64" spans="1:8" ht="30.75" thickBot="1">
       <c r="A64" s="3">
         <v>63</v>
       </c>
@@ -3723,7 +3890,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="65" spans="1:8" ht="30.75" thickBot="1">
       <c r="A65" s="3">
         <v>64</v>
       </c>
@@ -3747,7 +3914,7 @@
       </c>
       <c r="H65"/>
     </row>
-    <row r="66" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="66" spans="1:8" ht="15.75" thickBot="1">
       <c r="A66" s="3">
         <v>65</v>
       </c>
@@ -3771,7 +3938,7 @@
       </c>
       <c r="H66"/>
     </row>
-    <row r="67" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="67" spans="1:8" ht="15.75" thickBot="1">
       <c r="A67" s="3">
         <v>66</v>
       </c>
@@ -3795,7 +3962,7 @@
       </c>
       <c r="H67"/>
     </row>
-    <row r="68" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="68" spans="1:8" ht="15.75" thickBot="1">
       <c r="A68" s="3">
         <v>67</v>
       </c>
@@ -3819,7 +3986,7 @@
       </c>
       <c r="H68"/>
     </row>
-    <row r="69" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="69" spans="1:8" ht="30.75" thickBot="1">
       <c r="A69" s="3">
         <v>68</v>
       </c>
@@ -3842,7 +4009,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="70" spans="1:8" ht="15.75" thickBot="1">
       <c r="A70" s="3">
         <v>69</v>
       </c>
@@ -3865,7 +4032,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="71" spans="1:8" ht="30.75" thickBot="1">
       <c r="A71" s="3">
         <v>70</v>
       </c>
@@ -3888,7 +4055,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="72" spans="1:8" ht="15.75" thickBot="1">
       <c r="A72" s="3">
         <v>71</v>
       </c>
@@ -3911,7 +4078,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="73" spans="1:8" ht="30.75" thickBot="1">
       <c r="A73" s="3">
         <v>72</v>
       </c>
@@ -3934,7 +4101,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="74" spans="1:8" ht="15.75" thickBot="1">
       <c r="A74" s="3">
         <v>73</v>
       </c>
@@ -4002,7 +4169,7 @@
       </c>
       <c r="H76"/>
     </row>
-    <row r="77" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="77" spans="1:8" ht="30.75" thickBot="1">
       <c r="A77" s="3">
         <v>76</v>
       </c>
@@ -4018,15 +4185,17 @@
       <c r="E77" s="16" t="s">
         <v>387</v>
       </c>
-      <c r="F77" s="16" t="s">
-        <v>390</v>
+      <c r="F77" s="36" t="s">
+        <v>396</v>
       </c>
       <c r="G77" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="H77"/>
-    </row>
-    <row r="78" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+      <c r="H77" s="37" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="15.75" thickBot="1">
       <c r="A78" s="3">
         <v>77</v>
       </c>
@@ -4049,7 +4218,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="79" spans="1:8" ht="15.75" thickBot="1">
       <c r="A79" s="3">
         <v>78</v>
       </c>
@@ -4072,7 +4241,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="80" spans="1:8" ht="15.75" thickBot="1">
       <c r="A80" s="3">
         <v>79</v>
       </c>
@@ -4095,7 +4264,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="81" spans="1:8" ht="15.75" thickBot="1">
       <c r="A81" s="3">
         <v>80</v>
       </c>
@@ -4118,7 +4287,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="82" spans="1:8" ht="15.75" thickBot="1">
       <c r="A82" s="3">
         <v>81</v>
       </c>
@@ -4141,7 +4310,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="83" spans="1:8" ht="15.75" thickBot="1">
       <c r="A83" s="3">
         <v>82</v>
       </c>
@@ -4164,7 +4333,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="84" spans="1:8" ht="15.75" thickBot="1">
       <c r="A84" s="3">
         <v>83</v>
       </c>
@@ -4187,7 +4356,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="85" spans="1:8" ht="15.75" thickBot="1">
       <c r="A85" s="3">
         <v>84</v>
       </c>
@@ -4210,7 +4379,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="86" spans="1:8" ht="15.75" thickBot="1">
       <c r="A86" s="3">
         <v>85</v>
       </c>
@@ -4234,7 +4403,7 @@
       </c>
       <c r="H86"/>
     </row>
-    <row r="87" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="87" spans="1:8" ht="15.75" thickBot="1">
       <c r="A87" s="3">
         <v>86</v>
       </c>
@@ -4258,7 +4427,7 @@
       </c>
       <c r="H87"/>
     </row>
-    <row r="88" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="88" spans="1:8" ht="15.75" thickBot="1">
       <c r="A88" s="3">
         <v>87</v>
       </c>
@@ -4282,7 +4451,7 @@
       </c>
       <c r="H88"/>
     </row>
-    <row r="89" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="89" spans="1:8" ht="15.75" thickBot="1">
       <c r="A89" s="3">
         <v>88</v>
       </c>
@@ -4306,7 +4475,7 @@
       </c>
       <c r="H89"/>
     </row>
-    <row r="90" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="90" spans="1:8" ht="15.75" thickBot="1">
       <c r="A90" s="3">
         <v>89</v>
       </c>
@@ -4329,7 +4498,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="91" spans="1:8" ht="15.75" thickBot="1">
       <c r="A91" s="3">
         <v>90</v>
       </c>
@@ -4352,7 +4521,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="92" spans="1:8" ht="15.75" thickBot="1">
       <c r="A92" s="3">
         <v>91</v>
       </c>
@@ -4375,7 +4544,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="93" spans="1:8" ht="15.75" thickBot="1">
       <c r="A93" s="3">
         <v>92</v>
       </c>
@@ -4398,7 +4567,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="94" spans="1:8" ht="30.75" thickBot="1">
       <c r="A94" s="3">
         <v>93</v>
       </c>
@@ -4422,7 +4591,7 @@
       </c>
       <c r="H94"/>
     </row>
-    <row r="95" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="95" spans="1:8" ht="15.75" thickBot="1">
       <c r="A95" s="3">
         <v>94</v>
       </c>
@@ -4446,7 +4615,7 @@
       </c>
       <c r="H95"/>
     </row>
-    <row r="96" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="96" spans="1:8" ht="30.75" thickBot="1">
       <c r="A96" s="3">
         <v>95</v>
       </c>
@@ -4470,7 +4639,7 @@
       </c>
       <c r="H96"/>
     </row>
-    <row r="97" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
+    <row r="97" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A97" s="3">
         <v>96</v>
       </c>
@@ -4493,7 +4662,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="98" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
+    <row r="98" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A98" s="3">
         <v>97</v>
       </c>
@@ -4516,7 +4685,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="99" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="99" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A99" s="3">
         <v>98</v>
       </c>
@@ -4539,7 +4708,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="100" spans="1:7" customFormat="1" ht="45.75" hidden="1" thickBot="1">
+    <row r="100" spans="1:7" customFormat="1" ht="45.75" thickBot="1">
       <c r="A100" s="3">
         <v>99</v>
       </c>
@@ -4562,7 +4731,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="101" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
+    <row r="101" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A101" s="3">
         <v>100</v>
       </c>
@@ -4585,7 +4754,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="102" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="102" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A102" s="3">
         <v>101</v>
       </c>
@@ -4606,7 +4775,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="103" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
+    <row r="103" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A103" s="3">
         <v>102</v>
       </c>
@@ -4629,7 +4798,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="104" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
+    <row r="104" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A104" s="3">
         <v>103</v>
       </c>
@@ -4673,7 +4842,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="106" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="106" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A106" s="3">
         <v>105</v>
       </c>
@@ -4690,13 +4859,13 @@
         <v>387</v>
       </c>
       <c r="F106" s="16" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="G106" s="7" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="107" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="107" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A107" s="3">
         <v>106</v>
       </c>
@@ -4713,13 +4882,13 @@
         <v>387</v>
       </c>
       <c r="F107" s="16" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="G107" s="7" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="108" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="108" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A108" s="3">
         <v>107</v>
       </c>
@@ -4736,7 +4905,7 @@
         <v>387</v>
       </c>
       <c r="F108" s="16" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="G108" s="7" t="s">
         <v>222</v>
@@ -4784,7 +4953,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="111" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="111" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A111" s="3">
         <v>110</v>
       </c>
@@ -4807,7 +4976,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="112" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="112" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A112" s="3">
         <v>111</v>
       </c>
@@ -4830,7 +4999,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="45.75" hidden="1" thickBot="1">
+    <row r="113" spans="1:8" ht="45.75" thickBot="1">
       <c r="A113" s="3">
         <v>112</v>
       </c>
@@ -4853,7 +5022,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="114" spans="1:8" ht="30.75" thickBot="1">
       <c r="A114" s="3">
         <v>113</v>
       </c>
@@ -4876,7 +5045,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="45.75" hidden="1" thickBot="1">
+    <row r="115" spans="1:8" ht="45.75" thickBot="1">
       <c r="A115" s="3">
         <v>114</v>
       </c>
@@ -4899,7 +5068,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="116" spans="1:8" ht="15.75" thickBot="1">
       <c r="A116" s="3">
         <v>115</v>
       </c>
@@ -4922,7 +5091,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="117" spans="1:8" ht="15.75" thickBot="1">
       <c r="A117" s="3">
         <v>116</v>
       </c>
@@ -4945,7 +5114,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="118" spans="1:8" ht="30.75" thickBot="1">
       <c r="A118" s="3">
         <v>117</v>
       </c>
@@ -4968,7 +5137,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="119" spans="1:8" ht="15.75" thickBot="1">
       <c r="A119" s="3">
         <v>118</v>
       </c>
@@ -4991,7 +5160,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="120" spans="1:8" ht="30.75" thickBot="1">
       <c r="A120" s="3">
         <v>119</v>
       </c>
@@ -5014,7 +5183,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="121" spans="1:8" ht="15.75" thickBot="1">
       <c r="A121" s="3">
         <v>120</v>
       </c>
@@ -5037,7 +5206,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="122" spans="1:8" ht="15.75" thickBot="1">
       <c r="A122" s="3">
         <v>121</v>
       </c>
@@ -5060,7 +5229,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="123" spans="1:8" ht="30.75" thickBot="1">
       <c r="A123" s="3">
         <v>122</v>
       </c>
@@ -5084,7 +5253,7 @@
       </c>
       <c r="H123"/>
     </row>
-    <row r="124" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="124" spans="1:8" ht="30.75" thickBot="1">
       <c r="A124" s="3">
         <v>123</v>
       </c>
@@ -5108,7 +5277,7 @@
       </c>
       <c r="H124"/>
     </row>
-    <row r="125" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="125" spans="1:8" ht="30.75" thickBot="1">
       <c r="A125" s="3">
         <v>124</v>
       </c>
@@ -5132,7 +5301,7 @@
       </c>
       <c r="H125"/>
     </row>
-    <row r="126" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="126" spans="1:8" ht="15.75" thickBot="1">
       <c r="A126" s="3">
         <v>125</v>
       </c>
@@ -5156,7 +5325,7 @@
       </c>
       <c r="H126"/>
     </row>
-    <row r="127" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="127" spans="1:8" ht="15.75" thickBot="1">
       <c r="A127" s="3">
         <v>126</v>
       </c>
@@ -5180,7 +5349,7 @@
       </c>
       <c r="H127"/>
     </row>
-    <row r="128" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="128" spans="1:8" ht="15.75" thickBot="1">
       <c r="A128" s="3">
         <v>127</v>
       </c>
@@ -5204,7 +5373,7 @@
       </c>
       <c r="H128"/>
     </row>
-    <row r="129" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="129" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A129" s="3">
         <v>128</v>
       </c>
@@ -5227,7 +5396,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="130" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
+    <row r="130" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A130" s="3">
         <v>129</v>
       </c>
@@ -5250,7 +5419,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="131" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
+    <row r="131" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A131" s="3">
         <v>130</v>
       </c>
@@ -5273,7 +5442,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="132" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="132" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A132" s="3">
         <v>131</v>
       </c>
@@ -5296,7 +5465,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="133" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="133" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A133" s="3">
         <v>132</v>
       </c>
@@ -5319,7 +5488,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="134" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="134" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A134" s="3">
         <v>133</v>
       </c>
@@ -5342,7 +5511,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="135" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="135" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A135" s="3">
         <v>134</v>
       </c>
@@ -5365,7 +5534,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="136" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="136" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A136" s="3">
         <v>135</v>
       </c>
@@ -5386,7 +5555,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="137" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="137" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A137" s="3">
         <v>136</v>
       </c>
@@ -5409,7 +5578,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="138" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="138" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A138" s="3">
         <v>137</v>
       </c>
@@ -5558,7 +5727,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="145" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="145" spans="1:8" ht="30.75" thickBot="1">
       <c r="A145" s="3">
         <v>144</v>
       </c>
@@ -5582,7 +5751,7 @@
       </c>
       <c r="H145"/>
     </row>
-    <row r="146" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="146" spans="1:8" ht="30.75" thickBot="1">
       <c r="A146" s="3">
         <v>145</v>
       </c>
@@ -5606,7 +5775,7 @@
       </c>
       <c r="H146"/>
     </row>
-    <row r="147" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="147" spans="1:8" ht="30.75" thickBot="1">
       <c r="A147" s="3">
         <v>146</v>
       </c>
@@ -5630,7 +5799,7 @@
       </c>
       <c r="H147"/>
     </row>
-    <row r="148" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="148" spans="1:8" ht="30.75" thickBot="1">
       <c r="A148" s="3">
         <v>147</v>
       </c>
@@ -5654,7 +5823,7 @@
       </c>
       <c r="H148"/>
     </row>
-    <row r="149" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="149" spans="1:8" ht="30.75" thickBot="1">
       <c r="A149" s="3">
         <v>148</v>
       </c>
@@ -5678,7 +5847,7 @@
       </c>
       <c r="H149"/>
     </row>
-    <row r="150" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="150" spans="1:8" ht="30.75" thickBot="1">
       <c r="A150" s="3">
         <v>149</v>
       </c>
@@ -5702,7 +5871,7 @@
       </c>
       <c r="H150"/>
     </row>
-    <row r="151" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="151" spans="1:8" ht="30.75" thickBot="1">
       <c r="A151" s="3">
         <v>150</v>
       </c>
@@ -5726,7 +5895,7 @@
       </c>
       <c r="H151"/>
     </row>
-    <row r="152" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="152" spans="1:8" ht="30.75" thickBot="1">
       <c r="A152" s="3">
         <v>151</v>
       </c>
@@ -5750,7 +5919,7 @@
       </c>
       <c r="H152"/>
     </row>
-    <row r="153" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="153" spans="1:8" ht="30.75" thickBot="1">
       <c r="A153" s="3">
         <v>152</v>
       </c>
@@ -5774,7 +5943,7 @@
       </c>
       <c r="H153"/>
     </row>
-    <row r="154" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="154" spans="1:8" ht="30.75" thickBot="1">
       <c r="A154" s="3">
         <v>153</v>
       </c>
@@ -5798,7 +5967,7 @@
       </c>
       <c r="H154"/>
     </row>
-    <row r="155" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="155" spans="1:8" ht="30.75" thickBot="1">
       <c r="A155" s="27">
         <v>152</v>
       </c>
@@ -5822,7 +5991,7 @@
       </c>
       <c r="H155"/>
     </row>
-    <row r="156" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="156" spans="1:8" ht="30.75" thickBot="1">
       <c r="A156" s="3">
         <v>154</v>
       </c>
@@ -5846,7 +6015,7 @@
       </c>
       <c r="H156"/>
     </row>
-    <row r="157" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="157" spans="1:8" ht="30.75" thickBot="1">
       <c r="A157" s="3">
         <v>155</v>
       </c>
@@ -5870,7 +6039,7 @@
       </c>
       <c r="H157"/>
     </row>
-    <row r="158" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="158" spans="1:8" ht="30.75" thickBot="1">
       <c r="A158" s="3">
         <v>156</v>
       </c>
@@ -5894,7 +6063,7 @@
       </c>
       <c r="H158"/>
     </row>
-    <row r="159" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="159" spans="1:8" ht="30.75" thickBot="1">
       <c r="A159" s="3">
         <v>157</v>
       </c>
@@ -5918,7 +6087,7 @@
       </c>
       <c r="H159"/>
     </row>
-    <row r="160" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="160" spans="1:8" ht="30.75" thickBot="1">
       <c r="A160" s="3">
         <v>158</v>
       </c>
@@ -5942,7 +6111,7 @@
       </c>
       <c r="H160"/>
     </row>
-    <row r="161" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="161" spans="1:8" ht="30.75" thickBot="1">
       <c r="A161" s="3">
         <v>159</v>
       </c>
@@ -5966,7 +6135,7 @@
       </c>
       <c r="H161"/>
     </row>
-    <row r="162" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="162" spans="1:8" ht="30.75" thickBot="1">
       <c r="A162" s="3">
         <v>160</v>
       </c>
@@ -5990,7 +6159,7 @@
       </c>
       <c r="H162"/>
     </row>
-    <row r="163" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="163" spans="1:8" ht="30.75" thickBot="1">
       <c r="A163" s="3">
         <v>161</v>
       </c>
@@ -6366,7 +6535,7 @@
       </c>
       <c r="H179"/>
     </row>
-    <row r="180" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="180" spans="1:8" ht="30.75" thickBot="1">
       <c r="A180" s="3">
         <v>178</v>
       </c>
@@ -6383,14 +6552,14 @@
         <v>387</v>
       </c>
       <c r="F180" s="16" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="G180" s="7" t="s">
         <v>368</v>
       </c>
       <c r="H180"/>
     </row>
-    <row r="181" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="181" spans="1:8" ht="30.75" thickBot="1">
       <c r="A181" s="27">
         <v>178</v>
       </c>
@@ -6407,48 +6576,48 @@
         <v>386</v>
       </c>
       <c r="F181" s="16" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G181" s="7" t="s">
         <v>368</v>
       </c>
       <c r="H181"/>
     </row>
-    <row r="182" spans="1:8" ht="15" hidden="1" customHeight="1">
+    <row r="182" spans="1:8">
       <c r="A182" s="10"/>
-      <c r="B182" s="29" t="s">
+      <c r="B182" s="28" t="s">
         <v>297</v>
       </c>
-      <c r="C182" s="31" t="s">
+      <c r="C182" s="30" t="s">
         <v>369</v>
       </c>
-      <c r="D182" s="35" t="s">
-        <v>385</v>
-      </c>
-      <c r="E182" s="35" t="s">
+      <c r="D182" s="34" t="s">
+        <v>385</v>
+      </c>
+      <c r="E182" s="34" t="s">
         <v>386</v>
       </c>
-      <c r="F182" s="37"/>
-      <c r="G182" s="33" t="s">
+      <c r="F182" s="34" t="s">
+        <v>390</v>
+      </c>
+      <c r="G182" s="32" t="s">
         <v>370</v>
       </c>
       <c r="H182"/>
     </row>
-    <row r="183" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="183" spans="1:8" ht="15.75" thickBot="1">
       <c r="A183" s="3">
         <v>179</v>
       </c>
-      <c r="B183" s="30"/>
-      <c r="C183" s="32"/>
-      <c r="D183" s="36"/>
-      <c r="E183" s="36"/>
-      <c r="F183" s="28" t="s">
-        <v>392</v>
-      </c>
-      <c r="G183" s="34"/>
+      <c r="B183" s="29"/>
+      <c r="C183" s="31"/>
+      <c r="D183" s="35"/>
+      <c r="E183" s="35"/>
+      <c r="F183" s="35"/>
+      <c r="G183" s="33"/>
       <c r="H183"/>
     </row>
-    <row r="184" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="184" spans="1:8" ht="30.75" thickBot="1">
       <c r="A184" s="3">
         <v>180</v>
       </c>
@@ -6465,14 +6634,14 @@
         <v>386</v>
       </c>
       <c r="F184" s="16" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G184" s="7" t="s">
         <v>372</v>
       </c>
       <c r="H184"/>
     </row>
-    <row r="185" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="185" spans="1:8" ht="30.75" thickBot="1">
       <c r="A185" s="3">
         <v>181</v>
       </c>
@@ -6489,14 +6658,14 @@
         <v>386</v>
       </c>
       <c r="F185" s="16" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G185" s="7" t="s">
         <v>374</v>
       </c>
       <c r="H185"/>
     </row>
-    <row r="186" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="186" spans="1:8" ht="30.75" thickBot="1">
       <c r="A186" s="3">
         <v>182</v>
       </c>
@@ -6519,7 +6688,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="187" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="187" spans="1:8" ht="30.75" thickBot="1">
       <c r="A187" s="3">
         <v>183</v>
       </c>
@@ -6546,156 +6715,184 @@
   </sheetData>
   <autoFilter ref="A1:G187">
     <filterColumn colId="3"/>
-    <filterColumn colId="4">
-      <filters blank="1"/>
-    </filterColumn>
-    <filterColumn colId="5">
-      <filters>
-        <filter val="Sin Empezar"/>
-      </filters>
-    </filterColumn>
+    <filterColumn colId="4"/>
   </autoFilter>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="B182:B183"/>
     <mergeCell ref="C182:C183"/>
     <mergeCell ref="G182:G183"/>
     <mergeCell ref="D182:D183"/>
     <mergeCell ref="E182:E183"/>
+    <mergeCell ref="F182:F183"/>
   </mergeCells>
   <conditionalFormatting sqref="H63 F1:F1048576">
-    <cfRule type="containsText" dxfId="39" priority="36" operator="containsText" text="Testeado con errores">
+    <cfRule type="containsText" dxfId="59" priority="46" operator="containsText" text="Testeado con errores">
       <formula>NOT(ISERROR(SEARCH("Testeado con errores",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="37" operator="containsText" text="Implementado">
+    <cfRule type="containsText" dxfId="58" priority="47" operator="containsText" text="Implementado">
       <formula>NOT(ISERROR(SEARCH("Implementado",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="38" operator="containsText" text="En Progreso">
+    <cfRule type="containsText" dxfId="57" priority="48" operator="containsText" text="En Progreso">
       <formula>NOT(ISERROR(SEARCH("En Progreso",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="39" operator="containsText" text="Finalizado">
+    <cfRule type="containsText" dxfId="56" priority="49" operator="containsText" text="Finalizado">
       <formula>NOT(ISERROR(SEARCH("Finalizado",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="40" operator="containsText" text="Sin Empezar">
+    <cfRule type="containsText" dxfId="55" priority="50" operator="containsText" text="Sin Empezar">
       <formula>NOT(ISERROR(SEARCH("Sin Empezar",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L15">
-    <cfRule type="containsText" dxfId="34" priority="31" operator="containsText" text="Testeado con errores">
+    <cfRule type="containsText" dxfId="54" priority="41" operator="containsText" text="Testeado con errores">
       <formula>NOT(ISERROR(SEARCH("Testeado con errores",L15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="32" operator="containsText" text="Implementado">
+    <cfRule type="containsText" dxfId="53" priority="42" operator="containsText" text="Implementado">
       <formula>NOT(ISERROR(SEARCH("Implementado",L15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="33" operator="containsText" text="En Progreso">
+    <cfRule type="containsText" dxfId="52" priority="43" operator="containsText" text="En Progreso">
       <formula>NOT(ISERROR(SEARCH("En Progreso",L15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="34" operator="containsText" text="Finalizado">
+    <cfRule type="containsText" dxfId="51" priority="44" operator="containsText" text="Finalizado">
       <formula>NOT(ISERROR(SEARCH("Finalizado",L15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="35" operator="containsText" text="Sin Empezar">
+    <cfRule type="containsText" dxfId="50" priority="45" operator="containsText" text="Sin Empezar">
       <formula>NOT(ISERROR(SEARCH("Sin Empezar",L15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L16">
-    <cfRule type="containsText" dxfId="29" priority="26" operator="containsText" text="Testeado con errores">
+    <cfRule type="containsText" dxfId="49" priority="36" operator="containsText" text="Testeado con errores">
       <formula>NOT(ISERROR(SEARCH("Testeado con errores",L16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="27" operator="containsText" text="Implementado">
+    <cfRule type="containsText" dxfId="48" priority="37" operator="containsText" text="Implementado">
       <formula>NOT(ISERROR(SEARCH("Implementado",L16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="28" operator="containsText" text="En Progreso">
+    <cfRule type="containsText" dxfId="47" priority="38" operator="containsText" text="En Progreso">
       <formula>NOT(ISERROR(SEARCH("En Progreso",L16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="29" operator="containsText" text="Finalizado">
+    <cfRule type="containsText" dxfId="46" priority="39" operator="containsText" text="Finalizado">
       <formula>NOT(ISERROR(SEARCH("Finalizado",L16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="30" operator="containsText" text="Sin Empezar">
+    <cfRule type="containsText" dxfId="45" priority="40" operator="containsText" text="Sin Empezar">
       <formula>NOT(ISERROR(SEARCH("Sin Empezar",L16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L17">
-    <cfRule type="containsText" dxfId="24" priority="21" operator="containsText" text="Testeado con errores">
+    <cfRule type="containsText" dxfId="44" priority="31" operator="containsText" text="Testeado con errores">
       <formula>NOT(ISERROR(SEARCH("Testeado con errores",L17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="22" operator="containsText" text="Implementado">
+    <cfRule type="containsText" dxfId="43" priority="32" operator="containsText" text="Implementado">
       <formula>NOT(ISERROR(SEARCH("Implementado",L17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="23" operator="containsText" text="En Progreso">
+    <cfRule type="containsText" dxfId="42" priority="33" operator="containsText" text="En Progreso">
       <formula>NOT(ISERROR(SEARCH("En Progreso",L17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="24" operator="containsText" text="Finalizado">
+    <cfRule type="containsText" dxfId="41" priority="34" operator="containsText" text="Finalizado">
       <formula>NOT(ISERROR(SEARCH("Finalizado",L17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="25" operator="containsText" text="Sin Empezar">
+    <cfRule type="containsText" dxfId="40" priority="35" operator="containsText" text="Sin Empezar">
       <formula>NOT(ISERROR(SEARCH("Sin Empezar",L17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L18">
-    <cfRule type="containsText" dxfId="19" priority="16" operator="containsText" text="Testeado con errores">
+    <cfRule type="containsText" dxfId="39" priority="26" operator="containsText" text="Testeado con errores">
       <formula>NOT(ISERROR(SEARCH("Testeado con errores",L18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="17" operator="containsText" text="Implementado">
+    <cfRule type="containsText" dxfId="38" priority="27" operator="containsText" text="Implementado">
       <formula>NOT(ISERROR(SEARCH("Implementado",L18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="18" operator="containsText" text="En Progreso">
+    <cfRule type="containsText" dxfId="37" priority="28" operator="containsText" text="En Progreso">
       <formula>NOT(ISERROR(SEARCH("En Progreso",L18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="19" operator="containsText" text="Finalizado">
+    <cfRule type="containsText" dxfId="36" priority="29" operator="containsText" text="Finalizado">
       <formula>NOT(ISERROR(SEARCH("Finalizado",L18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="20" operator="containsText" text="Sin Empezar">
+    <cfRule type="containsText" dxfId="35" priority="30" operator="containsText" text="Sin Empezar">
       <formula>NOT(ISERROR(SEARCH("Sin Empezar",L18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L19">
-    <cfRule type="containsText" dxfId="14" priority="11" operator="containsText" text="Testeado con errores">
+    <cfRule type="containsText" dxfId="34" priority="21" operator="containsText" text="Testeado con errores">
       <formula>NOT(ISERROR(SEARCH("Testeado con errores",L19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="12" operator="containsText" text="Implementado">
+    <cfRule type="containsText" dxfId="33" priority="22" operator="containsText" text="Implementado">
       <formula>NOT(ISERROR(SEARCH("Implementado",L19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="En Progreso">
+    <cfRule type="containsText" dxfId="32" priority="23" operator="containsText" text="En Progreso">
       <formula>NOT(ISERROR(SEARCH("En Progreso",L19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="14" operator="containsText" text="Finalizado">
+    <cfRule type="containsText" dxfId="31" priority="24" operator="containsText" text="Finalizado">
       <formula>NOT(ISERROR(SEARCH("Finalizado",L19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="15" operator="containsText" text="Sin Empezar">
+    <cfRule type="containsText" dxfId="30" priority="25" operator="containsText" text="Sin Empezar">
       <formula>NOT(ISERROR(SEARCH("Sin Empezar",L19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F181">
-    <cfRule type="containsText" dxfId="9" priority="6" operator="containsText" text="Testeado con errores">
+    <cfRule type="containsText" dxfId="29" priority="16" operator="containsText" text="Testeado con errores">
       <formula>NOT(ISERROR(SEARCH("Testeado con errores",F181)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="Implementado">
+    <cfRule type="containsText" dxfId="28" priority="17" operator="containsText" text="Implementado">
       <formula>NOT(ISERROR(SEARCH("Implementado",F181)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="En Progreso">
+    <cfRule type="containsText" dxfId="27" priority="18" operator="containsText" text="En Progreso">
       <formula>NOT(ISERROR(SEARCH("En Progreso",F181)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="Finalizado">
+    <cfRule type="containsText" dxfId="26" priority="19" operator="containsText" text="Finalizado">
       <formula>NOT(ISERROR(SEARCH("Finalizado",F181)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="10" operator="containsText" text="Sin Empezar">
+    <cfRule type="containsText" dxfId="25" priority="20" operator="containsText" text="Sin Empezar">
       <formula>NOT(ISERROR(SEARCH("Sin Empezar",F181)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F155">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="Testeado con errores">
+    <cfRule type="containsText" dxfId="24" priority="11" operator="containsText" text="Testeado con errores">
       <formula>NOT(ISERROR(SEARCH("Testeado con errores",F155)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="Implementado">
+    <cfRule type="containsText" dxfId="23" priority="12" operator="containsText" text="Implementado">
       <formula>NOT(ISERROR(SEARCH("Implementado",F155)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="En Progreso">
+    <cfRule type="containsText" dxfId="22" priority="13" operator="containsText" text="En Progreso">
       <formula>NOT(ISERROR(SEARCH("En Progreso",F155)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="Finalizado">
+    <cfRule type="containsText" dxfId="21" priority="14" operator="containsText" text="Finalizado">
       <formula>NOT(ISERROR(SEARCH("Finalizado",F155)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="5" operator="containsText" text="Sin Empezar">
+    <cfRule type="containsText" dxfId="20" priority="15" operator="containsText" text="Sin Empezar">
       <formula>NOT(ISERROR(SEARCH("Sin Empezar",F155)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L20">
+    <cfRule type="containsText" dxfId="19" priority="6" operator="containsText" text="Testeado con errores">
+      <formula>NOT(ISERROR(SEARCH("Testeado con errores",L20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="7" operator="containsText" text="Implementado">
+      <formula>NOT(ISERROR(SEARCH("Implementado",L20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="17" priority="8" operator="containsText" text="En Progreso">
+      <formula>NOT(ISERROR(SEARCH("En Progreso",L20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="9" operator="containsText" text="Finalizado">
+      <formula>NOT(ISERROR(SEARCH("Finalizado",L20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="15" priority="10" operator="containsText" text="Sin Empezar">
+      <formula>NOT(ISERROR(SEARCH("Sin Empezar",L20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F77">
+    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="Testeado con errores">
+      <formula>NOT(ISERROR(SEARCH("Testeado con errores",F77)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="Implementado">
+      <formula>NOT(ISERROR(SEARCH("Implementado",F77)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="En Progreso">
+      <formula>NOT(ISERROR(SEARCH("En Progreso",F77)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="Finalizado">
+      <formula>NOT(ISERROR(SEARCH("Finalizado",F77)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="Sin Empezar">
+      <formula>NOT(ISERROR(SEARCH("Sin Empezar",F77)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
@@ -6706,7 +6903,7 @@
       <formula1>$L$9:$L$12</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F187">
-      <formula1>$L$15:$L$19</formula1>
+      <formula1>Sin_Empezar</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Planificacion/PlanificacionTesis.xlsx
+++ b/Planificacion/PlanificacionTesis.xlsx
@@ -1559,6 +1559,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1583,93 +1589,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="60">
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="50">
     <dxf>
       <font>
         <color auto="1"/>
@@ -2345,10 +2269,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:L187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C175" workbookViewId="0">
-      <selection activeCell="G181" sqref="G181"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F185" sqref="F185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="119.42578125" defaultRowHeight="15"/>
@@ -2390,7 +2315,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="30.75" thickBot="1">
+    <row r="2" spans="1:12" ht="30.75" hidden="1" thickBot="1">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2413,7 +2338,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="30.75" thickBot="1">
+    <row r="3" spans="1:12" ht="30.75" hidden="1" thickBot="1">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -2440,7 +2365,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" thickBot="1">
+    <row r="4" spans="1:12" ht="15.75" hidden="1" thickBot="1">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -2467,7 +2392,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" thickBot="1">
+    <row r="5" spans="1:12" ht="15.75" hidden="1" thickBot="1">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -2494,7 +2419,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" thickBot="1">
+    <row r="6" spans="1:12" ht="15.75" hidden="1" thickBot="1">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -2521,7 +2446,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75" thickBot="1">
+    <row r="7" spans="1:12" ht="15.75" hidden="1" thickBot="1">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -2545,7 +2470,7 @@
       </c>
       <c r="H7"/>
     </row>
-    <row r="8" spans="1:12" ht="15.75" thickBot="1">
+    <row r="8" spans="1:12" ht="15.75" hidden="1" thickBot="1">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -2571,7 +2496,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="30.75" thickBot="1">
+    <row r="9" spans="1:12" ht="30.75" hidden="1" thickBot="1">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -2597,7 +2522,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="30.75" thickBot="1">
+    <row r="10" spans="1:12" ht="30.75" hidden="1" thickBot="1">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -2622,7 +2547,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="30.75" thickBot="1">
+    <row r="11" spans="1:12" ht="30.75" hidden="1" thickBot="1">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -2648,7 +2573,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="30.75" thickBot="1">
+    <row r="12" spans="1:12" ht="30.75" hidden="1" thickBot="1">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -2674,7 +2599,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="30.75" thickBot="1">
+    <row r="13" spans="1:12" ht="30.75" hidden="1" thickBot="1">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -2697,7 +2622,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="30.75" thickBot="1">
+    <row r="14" spans="1:12" ht="30.75" hidden="1" thickBot="1">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -2723,7 +2648,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15.75" thickBot="1">
+    <row r="15" spans="1:12" ht="15.75" hidden="1" thickBot="1">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -2748,7 +2673,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="30.75" thickBot="1">
+    <row r="16" spans="1:12" ht="30.75" hidden="1" thickBot="1">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -2773,7 +2698,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15.75" thickBot="1">
+    <row r="17" spans="1:12" ht="15.75" hidden="1" thickBot="1">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -2799,7 +2724,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="30.75" thickBot="1">
+    <row r="18" spans="1:12" ht="30.75" hidden="1" thickBot="1">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -2825,7 +2750,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15.75" thickBot="1">
+    <row r="19" spans="1:12" ht="15.75" hidden="1" thickBot="1">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -2851,7 +2776,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15.75" thickBot="1">
+    <row r="20" spans="1:12" ht="15.75" hidden="1" thickBot="1">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -2873,11 +2798,11 @@
       <c r="G20" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="L20" s="36" t="s">
+      <c r="L20" s="28" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15.75" thickBot="1">
+    <row r="21" spans="1:12" ht="15.75" hidden="1" thickBot="1">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -2900,7 +2825,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15.75" thickBot="1">
+    <row r="22" spans="1:12" ht="15.75" hidden="1" thickBot="1">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -2922,7 +2847,7 @@
       </c>
       <c r="H22"/>
     </row>
-    <row r="23" spans="1:12" ht="30.75" thickBot="1">
+    <row r="23" spans="1:12" ht="30.75" hidden="1" thickBot="1">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -2944,7 +2869,7 @@
       </c>
       <c r="H23"/>
     </row>
-    <row r="24" spans="1:12" ht="30.75" thickBot="1">
+    <row r="24" spans="1:12" ht="30.75" hidden="1" thickBot="1">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -2966,7 +2891,7 @@
       </c>
       <c r="H24"/>
     </row>
-    <row r="25" spans="1:12" ht="30.75" thickBot="1">
+    <row r="25" spans="1:12" ht="30.75" hidden="1" thickBot="1">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -2988,7 +2913,7 @@
       </c>
       <c r="H25"/>
     </row>
-    <row r="26" spans="1:12" ht="30.75" thickBot="1">
+    <row r="26" spans="1:12" ht="30.75" hidden="1" thickBot="1">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -3010,7 +2935,7 @@
       </c>
       <c r="H26"/>
     </row>
-    <row r="27" spans="1:12" ht="15.75" thickBot="1">
+    <row r="27" spans="1:12" ht="15.75" hidden="1" thickBot="1">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -3032,7 +2957,7 @@
       </c>
       <c r="H27"/>
     </row>
-    <row r="28" spans="1:12" ht="15.75" thickBot="1">
+    <row r="28" spans="1:12" ht="15.75" hidden="1" thickBot="1">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -3056,7 +2981,7 @@
       </c>
       <c r="H28"/>
     </row>
-    <row r="29" spans="1:12" ht="15.75" thickBot="1">
+    <row r="29" spans="1:12" ht="15.75" hidden="1" thickBot="1">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -3078,7 +3003,7 @@
       </c>
       <c r="H29"/>
     </row>
-    <row r="30" spans="1:12" ht="30.75" thickBot="1">
+    <row r="30" spans="1:12" ht="30.75" hidden="1" thickBot="1">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -3100,7 +3025,7 @@
       </c>
       <c r="H30"/>
     </row>
-    <row r="31" spans="1:12" ht="15.75" thickBot="1">
+    <row r="31" spans="1:12" ht="15.75" hidden="1" thickBot="1">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -3123,7 +3048,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="15.75" thickBot="1">
+    <row r="32" spans="1:12" ht="15.75" hidden="1" thickBot="1">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -3145,7 +3070,7 @@
       </c>
       <c r="H32"/>
     </row>
-    <row r="33" spans="1:8" ht="30.75" thickBot="1">
+    <row r="33" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -3167,7 +3092,7 @@
       </c>
       <c r="H33"/>
     </row>
-    <row r="34" spans="1:8" ht="15.75" thickBot="1">
+    <row r="34" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -3190,7 +3115,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="30.75" thickBot="1">
+    <row r="35" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -3214,7 +3139,7 @@
       </c>
       <c r="H35"/>
     </row>
-    <row r="36" spans="1:8" ht="15.75" thickBot="1">
+    <row r="36" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -3236,7 +3161,7 @@
       </c>
       <c r="H36"/>
     </row>
-    <row r="37" spans="1:8" ht="15.75" thickBot="1">
+    <row r="37" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -3258,7 +3183,7 @@
       </c>
       <c r="H37"/>
     </row>
-    <row r="38" spans="1:8" ht="15.75" thickBot="1">
+    <row r="38" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -3280,7 +3205,7 @@
       </c>
       <c r="H38"/>
     </row>
-    <row r="39" spans="1:8" ht="15.75" thickBot="1">
+    <row r="39" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -3302,7 +3227,7 @@
       </c>
       <c r="H39"/>
     </row>
-    <row r="40" spans="1:8" ht="15.75" thickBot="1">
+    <row r="40" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -3324,7 +3249,7 @@
       </c>
       <c r="H40"/>
     </row>
-    <row r="41" spans="1:8" ht="15.75" thickBot="1">
+    <row r="41" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -3346,7 +3271,7 @@
       </c>
       <c r="H41"/>
     </row>
-    <row r="42" spans="1:8" ht="15.75" thickBot="1">
+    <row r="42" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -3368,7 +3293,7 @@
       </c>
       <c r="H42"/>
     </row>
-    <row r="43" spans="1:8" ht="15.75" thickBot="1">
+    <row r="43" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -3390,7 +3315,7 @@
       </c>
       <c r="H43"/>
     </row>
-    <row r="44" spans="1:8" ht="15.75" thickBot="1">
+    <row r="44" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -3414,7 +3339,7 @@
       </c>
       <c r="H44"/>
     </row>
-    <row r="45" spans="1:8" ht="15.75" thickBot="1">
+    <row r="45" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -3437,7 +3362,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="15.75" thickBot="1">
+    <row r="46" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -3461,7 +3386,7 @@
       </c>
       <c r="H46"/>
     </row>
-    <row r="47" spans="1:8" ht="30.75" thickBot="1">
+    <row r="47" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -3483,7 +3408,7 @@
       </c>
       <c r="H47"/>
     </row>
-    <row r="48" spans="1:8" ht="30.75" thickBot="1">
+    <row r="48" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -3507,7 +3432,7 @@
       </c>
       <c r="H48"/>
     </row>
-    <row r="49" spans="1:8" ht="15.75" thickBot="1">
+    <row r="49" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -3531,7 +3456,7 @@
       </c>
       <c r="H49"/>
     </row>
-    <row r="50" spans="1:8" ht="15.75" thickBot="1">
+    <row r="50" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -3555,7 +3480,7 @@
       </c>
       <c r="H50"/>
     </row>
-    <row r="51" spans="1:8" ht="30.75" thickBot="1">
+    <row r="51" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -3577,7 +3502,7 @@
       </c>
       <c r="H51"/>
     </row>
-    <row r="52" spans="1:8" ht="15.75" thickBot="1">
+    <row r="52" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -3601,7 +3526,7 @@
       </c>
       <c r="H52"/>
     </row>
-    <row r="53" spans="1:8" ht="15.75" thickBot="1">
+    <row r="53" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -3625,7 +3550,7 @@
       </c>
       <c r="H53"/>
     </row>
-    <row r="54" spans="1:8" ht="15.75" thickBot="1">
+    <row r="54" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -3649,7 +3574,7 @@
       </c>
       <c r="H54"/>
     </row>
-    <row r="55" spans="1:8" ht="15.75" thickBot="1">
+    <row r="55" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -3673,7 +3598,7 @@
       </c>
       <c r="H55"/>
     </row>
-    <row r="56" spans="1:8" ht="15.75" thickBot="1">
+    <row r="56" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -3697,7 +3622,7 @@
       </c>
       <c r="H56"/>
     </row>
-    <row r="57" spans="1:8" ht="15.75" thickBot="1">
+    <row r="57" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -3721,7 +3646,7 @@
       </c>
       <c r="H57"/>
     </row>
-    <row r="58" spans="1:8" ht="15.75" thickBot="1">
+    <row r="58" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -3745,7 +3670,7 @@
       </c>
       <c r="H58"/>
     </row>
-    <row r="59" spans="1:8" ht="15.75" thickBot="1">
+    <row r="59" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -3769,7 +3694,7 @@
       </c>
       <c r="H59"/>
     </row>
-    <row r="60" spans="1:8" ht="15.75" thickBot="1">
+    <row r="60" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -3793,7 +3718,7 @@
       </c>
       <c r="H60"/>
     </row>
-    <row r="61" spans="1:8" ht="15.75" thickBot="1">
+    <row r="61" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -3817,7 +3742,7 @@
       </c>
       <c r="H61"/>
     </row>
-    <row r="62" spans="1:8" ht="15.75" thickBot="1">
+    <row r="62" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -3841,7 +3766,7 @@
       </c>
       <c r="H62"/>
     </row>
-    <row r="63" spans="1:8" ht="60.75" thickBot="1">
+    <row r="63" spans="1:8" ht="60.75" hidden="1" thickBot="1">
       <c r="A63" s="3">
         <v>62</v>
       </c>
@@ -3867,7 +3792,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="30.75" thickBot="1">
+    <row r="64" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A64" s="3">
         <v>63</v>
       </c>
@@ -3890,7 +3815,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="30.75" thickBot="1">
+    <row r="65" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A65" s="3">
         <v>64</v>
       </c>
@@ -3914,7 +3839,7 @@
       </c>
       <c r="H65"/>
     </row>
-    <row r="66" spans="1:8" ht="15.75" thickBot="1">
+    <row r="66" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A66" s="3">
         <v>65</v>
       </c>
@@ -3938,7 +3863,7 @@
       </c>
       <c r="H66"/>
     </row>
-    <row r="67" spans="1:8" ht="15.75" thickBot="1">
+    <row r="67" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A67" s="3">
         <v>66</v>
       </c>
@@ -3962,7 +3887,7 @@
       </c>
       <c r="H67"/>
     </row>
-    <row r="68" spans="1:8" ht="15.75" thickBot="1">
+    <row r="68" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A68" s="3">
         <v>67</v>
       </c>
@@ -3986,7 +3911,7 @@
       </c>
       <c r="H68"/>
     </row>
-    <row r="69" spans="1:8" ht="30.75" thickBot="1">
+    <row r="69" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A69" s="3">
         <v>68</v>
       </c>
@@ -4009,7 +3934,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="15.75" thickBot="1">
+    <row r="70" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A70" s="3">
         <v>69</v>
       </c>
@@ -4032,7 +3957,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="30.75" thickBot="1">
+    <row r="71" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A71" s="3">
         <v>70</v>
       </c>
@@ -4055,7 +3980,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="15.75" thickBot="1">
+    <row r="72" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A72" s="3">
         <v>71</v>
       </c>
@@ -4078,7 +4003,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="30.75" thickBot="1">
+    <row r="73" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A73" s="3">
         <v>72</v>
       </c>
@@ -4101,7 +4026,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="15.75" thickBot="1">
+    <row r="74" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A74" s="3">
         <v>73</v>
       </c>
@@ -4125,7 +4050,7 @@
       </c>
       <c r="H74"/>
     </row>
-    <row r="75" spans="1:8" ht="15.75" thickBot="1">
+    <row r="75" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A75" s="3">
         <v>74</v>
       </c>
@@ -4147,7 +4072,7 @@
       </c>
       <c r="H75"/>
     </row>
-    <row r="76" spans="1:8" ht="30.75" thickBot="1">
+    <row r="76" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A76" s="3">
         <v>75</v>
       </c>
@@ -4169,7 +4094,7 @@
       </c>
       <c r="H76"/>
     </row>
-    <row r="77" spans="1:8" ht="30.75" thickBot="1">
+    <row r="77" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A77" s="3">
         <v>76</v>
       </c>
@@ -4185,17 +4110,17 @@
       <c r="E77" s="16" t="s">
         <v>387</v>
       </c>
-      <c r="F77" s="36" t="s">
+      <c r="F77" s="28" t="s">
         <v>396</v>
       </c>
       <c r="G77" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="H77" s="37" t="s">
+      <c r="H77" s="29" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="15.75" thickBot="1">
+    <row r="78" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A78" s="3">
         <v>77</v>
       </c>
@@ -4218,7 +4143,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="15.75" thickBot="1">
+    <row r="79" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A79" s="3">
         <v>78</v>
       </c>
@@ -4241,7 +4166,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="15.75" thickBot="1">
+    <row r="80" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A80" s="3">
         <v>79</v>
       </c>
@@ -4264,7 +4189,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15.75" thickBot="1">
+    <row r="81" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A81" s="3">
         <v>80</v>
       </c>
@@ -4287,7 +4212,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="15.75" thickBot="1">
+    <row r="82" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A82" s="3">
         <v>81</v>
       </c>
@@ -4310,7 +4235,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="15.75" thickBot="1">
+    <row r="83" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A83" s="3">
         <v>82</v>
       </c>
@@ -4333,7 +4258,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="15.75" thickBot="1">
+    <row r="84" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A84" s="3">
         <v>83</v>
       </c>
@@ -4356,7 +4281,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15.75" thickBot="1">
+    <row r="85" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A85" s="3">
         <v>84</v>
       </c>
@@ -4379,7 +4304,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="15.75" thickBot="1">
+    <row r="86" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A86" s="3">
         <v>85</v>
       </c>
@@ -4403,7 +4328,7 @@
       </c>
       <c r="H86"/>
     </row>
-    <row r="87" spans="1:8" ht="15.75" thickBot="1">
+    <row r="87" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A87" s="3">
         <v>86</v>
       </c>
@@ -4427,7 +4352,7 @@
       </c>
       <c r="H87"/>
     </row>
-    <row r="88" spans="1:8" ht="15.75" thickBot="1">
+    <row r="88" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A88" s="3">
         <v>87</v>
       </c>
@@ -4451,7 +4376,7 @@
       </c>
       <c r="H88"/>
     </row>
-    <row r="89" spans="1:8" ht="15.75" thickBot="1">
+    <row r="89" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A89" s="3">
         <v>88</v>
       </c>
@@ -4475,7 +4400,7 @@
       </c>
       <c r="H89"/>
     </row>
-    <row r="90" spans="1:8" ht="15.75" thickBot="1">
+    <row r="90" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A90" s="3">
         <v>89</v>
       </c>
@@ -4498,7 +4423,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="15.75" thickBot="1">
+    <row r="91" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A91" s="3">
         <v>90</v>
       </c>
@@ -4521,7 +4446,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="15.75" thickBot="1">
+    <row r="92" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A92" s="3">
         <v>91</v>
       </c>
@@ -4544,7 +4469,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="15.75" thickBot="1">
+    <row r="93" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A93" s="3">
         <v>92</v>
       </c>
@@ -4567,7 +4492,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="30.75" thickBot="1">
+    <row r="94" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A94" s="3">
         <v>93</v>
       </c>
@@ -4591,7 +4516,7 @@
       </c>
       <c r="H94"/>
     </row>
-    <row r="95" spans="1:8" ht="15.75" thickBot="1">
+    <row r="95" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A95" s="3">
         <v>94</v>
       </c>
@@ -4615,7 +4540,7 @@
       </c>
       <c r="H95"/>
     </row>
-    <row r="96" spans="1:8" ht="30.75" thickBot="1">
+    <row r="96" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A96" s="3">
         <v>95</v>
       </c>
@@ -4639,7 +4564,7 @@
       </c>
       <c r="H96"/>
     </row>
-    <row r="97" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+    <row r="97" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
       <c r="A97" s="3">
         <v>96</v>
       </c>
@@ -4662,7 +4587,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="98" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+    <row r="98" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
       <c r="A98" s="3">
         <v>97</v>
       </c>
@@ -4685,7 +4610,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="99" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="99" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A99" s="3">
         <v>98</v>
       </c>
@@ -4708,7 +4633,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="100" spans="1:7" customFormat="1" ht="45.75" thickBot="1">
+    <row r="100" spans="1:7" customFormat="1" ht="45.75" hidden="1" thickBot="1">
       <c r="A100" s="3">
         <v>99</v>
       </c>
@@ -4731,7 +4656,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="101" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+    <row r="101" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
       <c r="A101" s="3">
         <v>100</v>
       </c>
@@ -4754,7 +4679,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="102" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="102" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A102" s="3">
         <v>101</v>
       </c>
@@ -4775,7 +4700,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="103" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+    <row r="103" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
       <c r="A103" s="3">
         <v>102</v>
       </c>
@@ -4798,7 +4723,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="104" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+    <row r="104" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
       <c r="A104" s="3">
         <v>103</v>
       </c>
@@ -4821,7 +4746,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="105" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="105" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A105" s="3">
         <v>104</v>
       </c>
@@ -4842,7 +4767,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="106" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="106" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A106" s="3">
         <v>105</v>
       </c>
@@ -4865,7 +4790,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="107" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="107" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A107" s="3">
         <v>106</v>
       </c>
@@ -4888,7 +4813,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="108" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="108" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A108" s="3">
         <v>107</v>
       </c>
@@ -4911,7 +4836,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="109" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="109" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A109" s="3">
         <v>108</v>
       </c>
@@ -4932,7 +4857,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="110" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="110" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A110" s="3">
         <v>109</v>
       </c>
@@ -4953,7 +4878,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="111" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="111" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A111" s="3">
         <v>110</v>
       </c>
@@ -4976,7 +4901,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="112" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="112" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A112" s="3">
         <v>111</v>
       </c>
@@ -4999,7 +4924,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="45.75" thickBot="1">
+    <row r="113" spans="1:8" ht="45.75" hidden="1" thickBot="1">
       <c r="A113" s="3">
         <v>112</v>
       </c>
@@ -5022,7 +4947,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="30.75" thickBot="1">
+    <row r="114" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A114" s="3">
         <v>113</v>
       </c>
@@ -5045,7 +4970,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="45.75" thickBot="1">
+    <row r="115" spans="1:8" ht="45.75" hidden="1" thickBot="1">
       <c r="A115" s="3">
         <v>114</v>
       </c>
@@ -5068,7 +4993,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="15.75" thickBot="1">
+    <row r="116" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A116" s="3">
         <v>115</v>
       </c>
@@ -5091,7 +5016,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="15.75" thickBot="1">
+    <row r="117" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A117" s="3">
         <v>116</v>
       </c>
@@ -5114,7 +5039,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="30.75" thickBot="1">
+    <row r="118" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A118" s="3">
         <v>117</v>
       </c>
@@ -5137,7 +5062,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="15.75" thickBot="1">
+    <row r="119" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A119" s="3">
         <v>118</v>
       </c>
@@ -5160,7 +5085,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="30.75" thickBot="1">
+    <row r="120" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A120" s="3">
         <v>119</v>
       </c>
@@ -5183,7 +5108,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="15.75" thickBot="1">
+    <row r="121" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A121" s="3">
         <v>120</v>
       </c>
@@ -5206,7 +5131,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="15.75" thickBot="1">
+    <row r="122" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A122" s="3">
         <v>121</v>
       </c>
@@ -5229,7 +5154,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="30.75" thickBot="1">
+    <row r="123" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A123" s="3">
         <v>122</v>
       </c>
@@ -5253,7 +5178,7 @@
       </c>
       <c r="H123"/>
     </row>
-    <row r="124" spans="1:8" ht="30.75" thickBot="1">
+    <row r="124" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A124" s="3">
         <v>123</v>
       </c>
@@ -5277,7 +5202,7 @@
       </c>
       <c r="H124"/>
     </row>
-    <row r="125" spans="1:8" ht="30.75" thickBot="1">
+    <row r="125" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A125" s="3">
         <v>124</v>
       </c>
@@ -5301,7 +5226,7 @@
       </c>
       <c r="H125"/>
     </row>
-    <row r="126" spans="1:8" ht="15.75" thickBot="1">
+    <row r="126" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A126" s="3">
         <v>125</v>
       </c>
@@ -5325,7 +5250,7 @@
       </c>
       <c r="H126"/>
     </row>
-    <row r="127" spans="1:8" ht="15.75" thickBot="1">
+    <row r="127" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A127" s="3">
         <v>126</v>
       </c>
@@ -5349,7 +5274,7 @@
       </c>
       <c r="H127"/>
     </row>
-    <row r="128" spans="1:8" ht="15.75" thickBot="1">
+    <row r="128" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A128" s="3">
         <v>127</v>
       </c>
@@ -5373,7 +5298,7 @@
       </c>
       <c r="H128"/>
     </row>
-    <row r="129" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="129" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A129" s="3">
         <v>128</v>
       </c>
@@ -5396,7 +5321,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="130" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+    <row r="130" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
       <c r="A130" s="3">
         <v>129</v>
       </c>
@@ -5419,7 +5344,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="131" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+    <row r="131" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
       <c r="A131" s="3">
         <v>130</v>
       </c>
@@ -5442,7 +5367,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="132" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="132" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A132" s="3">
         <v>131</v>
       </c>
@@ -5465,7 +5390,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="133" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="133" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A133" s="3">
         <v>132</v>
       </c>
@@ -5488,7 +5413,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="134" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="134" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A134" s="3">
         <v>133</v>
       </c>
@@ -5511,7 +5436,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="135" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="135" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A135" s="3">
         <v>134</v>
       </c>
@@ -5534,7 +5459,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="136" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="136" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A136" s="3">
         <v>135</v>
       </c>
@@ -5555,7 +5480,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="137" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="137" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A137" s="3">
         <v>136</v>
       </c>
@@ -5578,7 +5503,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="138" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="138" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A138" s="3">
         <v>137</v>
       </c>
@@ -5601,7 +5526,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="139" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="139" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A139" s="3">
         <v>138</v>
       </c>
@@ -5622,7 +5547,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="140" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="140" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A140" s="3">
         <v>139</v>
       </c>
@@ -5643,7 +5568,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="141" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="141" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A141" s="3">
         <v>140</v>
       </c>
@@ -5664,7 +5589,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="142" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="142" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A142" s="3">
         <v>141</v>
       </c>
@@ -5685,7 +5610,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="143" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="143" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A143" s="3">
         <v>142</v>
       </c>
@@ -5706,7 +5631,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="144" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="144" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A144" s="3">
         <v>143</v>
       </c>
@@ -5967,7 +5892,7 @@
       </c>
       <c r="H154"/>
     </row>
-    <row r="155" spans="1:8" ht="30.75" thickBot="1">
+    <row r="155" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A155" s="27">
         <v>152</v>
       </c>
@@ -6183,7 +6108,7 @@
       </c>
       <c r="H163"/>
     </row>
-    <row r="164" spans="1:8" ht="30.75" thickBot="1">
+    <row r="164" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A164" s="3">
         <v>162</v>
       </c>
@@ -6205,7 +6130,7 @@
       </c>
       <c r="H164"/>
     </row>
-    <row r="165" spans="1:8" ht="45.75" thickBot="1">
+    <row r="165" spans="1:8" ht="45.75" hidden="1" thickBot="1">
       <c r="A165" s="3">
         <v>163</v>
       </c>
@@ -6227,7 +6152,7 @@
       </c>
       <c r="H165"/>
     </row>
-    <row r="166" spans="1:8" ht="30.75" thickBot="1">
+    <row r="166" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A166" s="3">
         <v>164</v>
       </c>
@@ -6249,7 +6174,7 @@
       </c>
       <c r="H166"/>
     </row>
-    <row r="167" spans="1:8" ht="30.75" thickBot="1">
+    <row r="167" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A167" s="3">
         <v>165</v>
       </c>
@@ -6271,7 +6196,7 @@
       </c>
       <c r="H167"/>
     </row>
-    <row r="168" spans="1:8" ht="30.75" thickBot="1">
+    <row r="168" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A168" s="3">
         <v>166</v>
       </c>
@@ -6293,7 +6218,7 @@
       </c>
       <c r="H168"/>
     </row>
-    <row r="169" spans="1:8" ht="30.75" thickBot="1">
+    <row r="169" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A169" s="3">
         <v>167</v>
       </c>
@@ -6315,7 +6240,7 @@
       </c>
       <c r="H169"/>
     </row>
-    <row r="170" spans="1:8" ht="30.75" thickBot="1">
+    <row r="170" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A170" s="3">
         <v>168</v>
       </c>
@@ -6337,7 +6262,7 @@
       </c>
       <c r="H170"/>
     </row>
-    <row r="171" spans="1:8" ht="30.75" thickBot="1">
+    <row r="171" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A171" s="3">
         <v>169</v>
       </c>
@@ -6359,7 +6284,7 @@
       </c>
       <c r="H171"/>
     </row>
-    <row r="172" spans="1:8" ht="30.75" thickBot="1">
+    <row r="172" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A172" s="3">
         <v>170</v>
       </c>
@@ -6381,7 +6306,7 @@
       </c>
       <c r="H172"/>
     </row>
-    <row r="173" spans="1:8" ht="30.75" thickBot="1">
+    <row r="173" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A173" s="3">
         <v>171</v>
       </c>
@@ -6403,7 +6328,7 @@
       </c>
       <c r="H173"/>
     </row>
-    <row r="174" spans="1:8" ht="30.75" thickBot="1">
+    <row r="174" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A174" s="3">
         <v>172</v>
       </c>
@@ -6425,7 +6350,7 @@
       </c>
       <c r="H174"/>
     </row>
-    <row r="175" spans="1:8" ht="30.75" thickBot="1">
+    <row r="175" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A175" s="3">
         <v>173</v>
       </c>
@@ -6447,7 +6372,7 @@
       </c>
       <c r="H175"/>
     </row>
-    <row r="176" spans="1:8" ht="30.75" thickBot="1">
+    <row r="176" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A176" s="3">
         <v>174</v>
       </c>
@@ -6469,7 +6394,7 @@
       </c>
       <c r="H176"/>
     </row>
-    <row r="177" spans="1:8" ht="30.75" thickBot="1">
+    <row r="177" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A177" s="3">
         <v>175</v>
       </c>
@@ -6491,7 +6416,7 @@
       </c>
       <c r="H177"/>
     </row>
-    <row r="178" spans="1:8" ht="60.75" thickBot="1">
+    <row r="178" spans="1:8" ht="60.75" hidden="1" thickBot="1">
       <c r="A178" s="3">
         <v>176</v>
       </c>
@@ -6513,7 +6438,7 @@
       </c>
       <c r="H178"/>
     </row>
-    <row r="179" spans="1:8" ht="15.75" thickBot="1">
+    <row r="179" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A179" s="3">
         <v>177</v>
       </c>
@@ -6535,7 +6460,7 @@
       </c>
       <c r="H179"/>
     </row>
-    <row r="180" spans="1:8" ht="30.75" thickBot="1">
+    <row r="180" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A180" s="3">
         <v>178</v>
       </c>
@@ -6576,7 +6501,7 @@
         <v>386</v>
       </c>
       <c r="F181" s="16" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="G181" s="7" t="s">
         <v>368</v>
@@ -6585,36 +6510,36 @@
     </row>
     <row r="182" spans="1:8">
       <c r="A182" s="10"/>
-      <c r="B182" s="28" t="s">
+      <c r="B182" s="30" t="s">
         <v>297</v>
       </c>
-      <c r="C182" s="30" t="s">
+      <c r="C182" s="32" t="s">
         <v>369</v>
       </c>
-      <c r="D182" s="34" t="s">
-        <v>385</v>
-      </c>
-      <c r="E182" s="34" t="s">
+      <c r="D182" s="36" t="s">
+        <v>385</v>
+      </c>
+      <c r="E182" s="36" t="s">
         <v>386</v>
       </c>
-      <c r="F182" s="34" t="s">
-        <v>390</v>
-      </c>
-      <c r="G182" s="32" t="s">
+      <c r="F182" s="36" t="s">
+        <v>392</v>
+      </c>
+      <c r="G182" s="34" t="s">
         <v>370</v>
       </c>
       <c r="H182"/>
     </row>
-    <row r="183" spans="1:8" ht="15.75" thickBot="1">
+    <row r="183" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A183" s="3">
         <v>179</v>
       </c>
-      <c r="B183" s="29"/>
-      <c r="C183" s="31"/>
-      <c r="D183" s="35"/>
-      <c r="E183" s="35"/>
-      <c r="F183" s="35"/>
-      <c r="G183" s="33"/>
+      <c r="B183" s="31"/>
+      <c r="C183" s="33"/>
+      <c r="D183" s="37"/>
+      <c r="E183" s="37"/>
+      <c r="F183" s="37"/>
+      <c r="G183" s="35"/>
       <c r="H183"/>
     </row>
     <row r="184" spans="1:8" ht="30.75" thickBot="1">
@@ -6634,7 +6559,7 @@
         <v>386</v>
       </c>
       <c r="F184" s="16" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="G184" s="7" t="s">
         <v>372</v>
@@ -6658,14 +6583,14 @@
         <v>386</v>
       </c>
       <c r="F185" s="16" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="G185" s="7" t="s">
         <v>374</v>
       </c>
       <c r="H185"/>
     </row>
-    <row r="186" spans="1:8" ht="30.75" thickBot="1">
+    <row r="186" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A186" s="3">
         <v>182</v>
       </c>
@@ -6715,7 +6640,11 @@
   </sheetData>
   <autoFilter ref="A1:G187">
     <filterColumn colId="3"/>
-    <filterColumn colId="4"/>
+    <filterColumn colId="4">
+      <filters>
+        <filter val="Lore"/>
+      </filters>
+    </filterColumn>
   </autoFilter>
   <mergeCells count="6">
     <mergeCell ref="B182:B183"/>
@@ -6726,172 +6655,172 @@
     <mergeCell ref="F182:F183"/>
   </mergeCells>
   <conditionalFormatting sqref="H63 F1:F1048576">
-    <cfRule type="containsText" dxfId="59" priority="46" operator="containsText" text="Testeado con errores">
+    <cfRule type="containsText" dxfId="49" priority="46" operator="containsText" text="Testeado con errores">
       <formula>NOT(ISERROR(SEARCH("Testeado con errores",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="47" operator="containsText" text="Implementado">
+    <cfRule type="containsText" dxfId="48" priority="47" operator="containsText" text="Implementado">
       <formula>NOT(ISERROR(SEARCH("Implementado",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="48" operator="containsText" text="En Progreso">
+    <cfRule type="containsText" dxfId="47" priority="48" operator="containsText" text="En Progreso">
       <formula>NOT(ISERROR(SEARCH("En Progreso",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="49" operator="containsText" text="Finalizado">
+    <cfRule type="containsText" dxfId="46" priority="49" operator="containsText" text="Finalizado">
       <formula>NOT(ISERROR(SEARCH("Finalizado",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="50" operator="containsText" text="Sin Empezar">
+    <cfRule type="containsText" dxfId="45" priority="50" operator="containsText" text="Sin Empezar">
       <formula>NOT(ISERROR(SEARCH("Sin Empezar",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L15">
-    <cfRule type="containsText" dxfId="54" priority="41" operator="containsText" text="Testeado con errores">
+    <cfRule type="containsText" dxfId="44" priority="41" operator="containsText" text="Testeado con errores">
       <formula>NOT(ISERROR(SEARCH("Testeado con errores",L15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="42" operator="containsText" text="Implementado">
+    <cfRule type="containsText" dxfId="43" priority="42" operator="containsText" text="Implementado">
       <formula>NOT(ISERROR(SEARCH("Implementado",L15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="43" operator="containsText" text="En Progreso">
+    <cfRule type="containsText" dxfId="42" priority="43" operator="containsText" text="En Progreso">
       <formula>NOT(ISERROR(SEARCH("En Progreso",L15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="44" operator="containsText" text="Finalizado">
+    <cfRule type="containsText" dxfId="41" priority="44" operator="containsText" text="Finalizado">
       <formula>NOT(ISERROR(SEARCH("Finalizado",L15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="45" operator="containsText" text="Sin Empezar">
+    <cfRule type="containsText" dxfId="40" priority="45" operator="containsText" text="Sin Empezar">
       <formula>NOT(ISERROR(SEARCH("Sin Empezar",L15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L16">
-    <cfRule type="containsText" dxfId="49" priority="36" operator="containsText" text="Testeado con errores">
+    <cfRule type="containsText" dxfId="39" priority="36" operator="containsText" text="Testeado con errores">
       <formula>NOT(ISERROR(SEARCH("Testeado con errores",L16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="37" operator="containsText" text="Implementado">
+    <cfRule type="containsText" dxfId="38" priority="37" operator="containsText" text="Implementado">
       <formula>NOT(ISERROR(SEARCH("Implementado",L16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="47" priority="38" operator="containsText" text="En Progreso">
+    <cfRule type="containsText" dxfId="37" priority="38" operator="containsText" text="En Progreso">
       <formula>NOT(ISERROR(SEARCH("En Progreso",L16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="39" operator="containsText" text="Finalizado">
+    <cfRule type="containsText" dxfId="36" priority="39" operator="containsText" text="Finalizado">
       <formula>NOT(ISERROR(SEARCH("Finalizado",L16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="40" operator="containsText" text="Sin Empezar">
+    <cfRule type="containsText" dxfId="35" priority="40" operator="containsText" text="Sin Empezar">
       <formula>NOT(ISERROR(SEARCH("Sin Empezar",L16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L17">
-    <cfRule type="containsText" dxfId="44" priority="31" operator="containsText" text="Testeado con errores">
+    <cfRule type="containsText" dxfId="34" priority="31" operator="containsText" text="Testeado con errores">
       <formula>NOT(ISERROR(SEARCH("Testeado con errores",L17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="32" operator="containsText" text="Implementado">
+    <cfRule type="containsText" dxfId="33" priority="32" operator="containsText" text="Implementado">
       <formula>NOT(ISERROR(SEARCH("Implementado",L17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="33" operator="containsText" text="En Progreso">
+    <cfRule type="containsText" dxfId="32" priority="33" operator="containsText" text="En Progreso">
       <formula>NOT(ISERROR(SEARCH("En Progreso",L17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="34" operator="containsText" text="Finalizado">
+    <cfRule type="containsText" dxfId="31" priority="34" operator="containsText" text="Finalizado">
       <formula>NOT(ISERROR(SEARCH("Finalizado",L17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="35" operator="containsText" text="Sin Empezar">
+    <cfRule type="containsText" dxfId="30" priority="35" operator="containsText" text="Sin Empezar">
       <formula>NOT(ISERROR(SEARCH("Sin Empezar",L17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L18">
-    <cfRule type="containsText" dxfId="39" priority="26" operator="containsText" text="Testeado con errores">
+    <cfRule type="containsText" dxfId="29" priority="26" operator="containsText" text="Testeado con errores">
       <formula>NOT(ISERROR(SEARCH("Testeado con errores",L18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="27" operator="containsText" text="Implementado">
+    <cfRule type="containsText" dxfId="28" priority="27" operator="containsText" text="Implementado">
       <formula>NOT(ISERROR(SEARCH("Implementado",L18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="28" operator="containsText" text="En Progreso">
+    <cfRule type="containsText" dxfId="27" priority="28" operator="containsText" text="En Progreso">
       <formula>NOT(ISERROR(SEARCH("En Progreso",L18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="29" operator="containsText" text="Finalizado">
+    <cfRule type="containsText" dxfId="26" priority="29" operator="containsText" text="Finalizado">
       <formula>NOT(ISERROR(SEARCH("Finalizado",L18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="30" operator="containsText" text="Sin Empezar">
+    <cfRule type="containsText" dxfId="25" priority="30" operator="containsText" text="Sin Empezar">
       <formula>NOT(ISERROR(SEARCH("Sin Empezar",L18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L19">
-    <cfRule type="containsText" dxfId="34" priority="21" operator="containsText" text="Testeado con errores">
+    <cfRule type="containsText" dxfId="24" priority="21" operator="containsText" text="Testeado con errores">
       <formula>NOT(ISERROR(SEARCH("Testeado con errores",L19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="22" operator="containsText" text="Implementado">
+    <cfRule type="containsText" dxfId="23" priority="22" operator="containsText" text="Implementado">
       <formula>NOT(ISERROR(SEARCH("Implementado",L19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="23" operator="containsText" text="En Progreso">
+    <cfRule type="containsText" dxfId="22" priority="23" operator="containsText" text="En Progreso">
       <formula>NOT(ISERROR(SEARCH("En Progreso",L19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="24" operator="containsText" text="Finalizado">
+    <cfRule type="containsText" dxfId="21" priority="24" operator="containsText" text="Finalizado">
       <formula>NOT(ISERROR(SEARCH("Finalizado",L19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="25" operator="containsText" text="Sin Empezar">
+    <cfRule type="containsText" dxfId="20" priority="25" operator="containsText" text="Sin Empezar">
       <formula>NOT(ISERROR(SEARCH("Sin Empezar",L19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F181">
-    <cfRule type="containsText" dxfId="29" priority="16" operator="containsText" text="Testeado con errores">
+    <cfRule type="containsText" dxfId="19" priority="16" operator="containsText" text="Testeado con errores">
       <formula>NOT(ISERROR(SEARCH("Testeado con errores",F181)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="17" operator="containsText" text="Implementado">
+    <cfRule type="containsText" dxfId="18" priority="17" operator="containsText" text="Implementado">
       <formula>NOT(ISERROR(SEARCH("Implementado",F181)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="18" operator="containsText" text="En Progreso">
+    <cfRule type="containsText" dxfId="17" priority="18" operator="containsText" text="En Progreso">
       <formula>NOT(ISERROR(SEARCH("En Progreso",F181)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="19" operator="containsText" text="Finalizado">
+    <cfRule type="containsText" dxfId="16" priority="19" operator="containsText" text="Finalizado">
       <formula>NOT(ISERROR(SEARCH("Finalizado",F181)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="20" operator="containsText" text="Sin Empezar">
+    <cfRule type="containsText" dxfId="15" priority="20" operator="containsText" text="Sin Empezar">
       <formula>NOT(ISERROR(SEARCH("Sin Empezar",F181)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F155">
-    <cfRule type="containsText" dxfId="24" priority="11" operator="containsText" text="Testeado con errores">
+    <cfRule type="containsText" dxfId="14" priority="11" operator="containsText" text="Testeado con errores">
       <formula>NOT(ISERROR(SEARCH("Testeado con errores",F155)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="12" operator="containsText" text="Implementado">
+    <cfRule type="containsText" dxfId="13" priority="12" operator="containsText" text="Implementado">
       <formula>NOT(ISERROR(SEARCH("Implementado",F155)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="13" operator="containsText" text="En Progreso">
+    <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="En Progreso">
       <formula>NOT(ISERROR(SEARCH("En Progreso",F155)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="14" operator="containsText" text="Finalizado">
+    <cfRule type="containsText" dxfId="11" priority="14" operator="containsText" text="Finalizado">
       <formula>NOT(ISERROR(SEARCH("Finalizado",F155)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="15" operator="containsText" text="Sin Empezar">
+    <cfRule type="containsText" dxfId="10" priority="15" operator="containsText" text="Sin Empezar">
       <formula>NOT(ISERROR(SEARCH("Sin Empezar",F155)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L20">
-    <cfRule type="containsText" dxfId="19" priority="6" operator="containsText" text="Testeado con errores">
+    <cfRule type="containsText" dxfId="9" priority="6" operator="containsText" text="Testeado con errores">
       <formula>NOT(ISERROR(SEARCH("Testeado con errores",L20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="7" operator="containsText" text="Implementado">
+    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="Implementado">
       <formula>NOT(ISERROR(SEARCH("Implementado",L20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="8" operator="containsText" text="En Progreso">
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="En Progreso">
       <formula>NOT(ISERROR(SEARCH("En Progreso",L20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="9" operator="containsText" text="Finalizado">
+    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="Finalizado">
       <formula>NOT(ISERROR(SEARCH("Finalizado",L20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="10" operator="containsText" text="Sin Empezar">
+    <cfRule type="containsText" dxfId="5" priority="10" operator="containsText" text="Sin Empezar">
       <formula>NOT(ISERROR(SEARCH("Sin Empezar",L20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F77">
-    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="Testeado con errores">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="Testeado con errores">
       <formula>NOT(ISERROR(SEARCH("Testeado con errores",F77)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="Implementado">
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="Implementado">
       <formula>NOT(ISERROR(SEARCH("Implementado",F77)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="En Progreso">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="En Progreso">
       <formula>NOT(ISERROR(SEARCH("En Progreso",F77)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="Finalizado">
+    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="Finalizado">
       <formula>NOT(ISERROR(SEARCH("Finalizado",F77)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="Sin Empezar">
+    <cfRule type="containsText" dxfId="0" priority="5" operator="containsText" text="Sin Empezar">
       <formula>NOT(ISERROR(SEARCH("Sin Empezar",F77)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Planificacion/PlanificacionTesis.xlsx
+++ b/Planificacion/PlanificacionTesis.xlsx
@@ -2273,7 +2273,7 @@
   <dimension ref="A1:L187"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F185" sqref="F185"/>
+      <selection activeCell="F149" sqref="F149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="119.42578125" defaultRowHeight="15"/>
@@ -5868,7 +5868,7 @@
       </c>
       <c r="H153"/>
     </row>
-    <row r="154" spans="1:8" ht="30.75" thickBot="1">
+    <row r="154" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A154" s="3">
         <v>153</v>
       </c>
@@ -5916,7 +5916,7 @@
       </c>
       <c r="H155"/>
     </row>
-    <row r="156" spans="1:8" ht="30.75" thickBot="1">
+    <row r="156" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A156" s="3">
         <v>154</v>
       </c>
@@ -5940,7 +5940,7 @@
       </c>
       <c r="H156"/>
     </row>
-    <row r="157" spans="1:8" ht="30.75" thickBot="1">
+    <row r="157" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A157" s="3">
         <v>155</v>
       </c>
@@ -5964,7 +5964,7 @@
       </c>
       <c r="H157"/>
     </row>
-    <row r="158" spans="1:8" ht="30.75" thickBot="1">
+    <row r="158" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A158" s="3">
         <v>156</v>
       </c>
@@ -5988,7 +5988,7 @@
       </c>
       <c r="H158"/>
     </row>
-    <row r="159" spans="1:8" ht="30.75" thickBot="1">
+    <row r="159" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A159" s="3">
         <v>157</v>
       </c>
@@ -6012,7 +6012,7 @@
       </c>
       <c r="H159"/>
     </row>
-    <row r="160" spans="1:8" ht="30.75" thickBot="1">
+    <row r="160" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A160" s="3">
         <v>158</v>
       </c>
@@ -6036,7 +6036,7 @@
       </c>
       <c r="H160"/>
     </row>
-    <row r="161" spans="1:8" ht="30.75" thickBot="1">
+    <row r="161" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A161" s="3">
         <v>159</v>
       </c>
@@ -6060,7 +6060,7 @@
       </c>
       <c r="H161"/>
     </row>
-    <row r="162" spans="1:8" ht="30.75" thickBot="1">
+    <row r="162" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A162" s="3">
         <v>160</v>
       </c>
@@ -6484,7 +6484,7 @@
       </c>
       <c r="H180"/>
     </row>
-    <row r="181" spans="1:8" ht="30.75" thickBot="1">
+    <row r="181" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A181" s="27">
         <v>178</v>
       </c>
@@ -6501,14 +6501,14 @@
         <v>386</v>
       </c>
       <c r="F181" s="16" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G181" s="7" t="s">
         <v>368</v>
       </c>
       <c r="H181"/>
     </row>
-    <row r="182" spans="1:8">
+    <row r="182" spans="1:8" hidden="1">
       <c r="A182" s="10"/>
       <c r="B182" s="30" t="s">
         <v>297</v>
@@ -6523,7 +6523,7 @@
         <v>386</v>
       </c>
       <c r="F182" s="36" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G182" s="34" t="s">
         <v>370</v>
@@ -6542,7 +6542,7 @@
       <c r="G183" s="35"/>
       <c r="H183"/>
     </row>
-    <row r="184" spans="1:8" ht="30.75" thickBot="1">
+    <row r="184" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A184" s="3">
         <v>180</v>
       </c>
@@ -6559,14 +6559,14 @@
         <v>386</v>
       </c>
       <c r="F184" s="16" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G184" s="7" t="s">
         <v>372</v>
       </c>
       <c r="H184"/>
     </row>
-    <row r="185" spans="1:8" ht="30.75" thickBot="1">
+    <row r="185" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A185" s="3">
         <v>181</v>
       </c>
@@ -6583,7 +6583,7 @@
         <v>386</v>
       </c>
       <c r="F185" s="16" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G185" s="7" t="s">
         <v>374</v>
@@ -6643,6 +6643,11 @@
     <filterColumn colId="4">
       <filters>
         <filter val="Lore"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="5">
+      <filters>
+        <filter val="Sin Empezar"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/Planificacion/PlanificacionTesis.xlsx
+++ b/Planificacion/PlanificacionTesis.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="399">
   <si>
     <t>Nº</t>
   </si>
@@ -1227,6 +1227,9 @@
   </si>
   <si>
     <t>Integrar con pedido de cliente. Diferenciar entre pedido externo e interno. Crear tipoPedido</t>
+  </si>
+  <si>
+    <t>en Progreso</t>
   </si>
 </sst>
 </file>
@@ -2269,11 +2272,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:L187"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F149" sqref="F149"/>
+    <sheetView tabSelected="1" topLeftCell="C180" workbookViewId="0">
+      <selection activeCell="E189" sqref="E189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="119.42578125" defaultRowHeight="15"/>
@@ -2315,7 +2317,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="30.75" hidden="1" thickBot="1">
+    <row r="2" spans="1:12" ht="30.75" thickBot="1">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2338,7 +2340,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="30.75" hidden="1" thickBot="1">
+    <row r="3" spans="1:12" ht="30.75" thickBot="1">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -2365,7 +2367,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" hidden="1" thickBot="1">
+    <row r="4" spans="1:12" ht="15.75" thickBot="1">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -2392,7 +2394,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" hidden="1" thickBot="1">
+    <row r="5" spans="1:12" ht="15.75" thickBot="1">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -2419,7 +2421,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" hidden="1" thickBot="1">
+    <row r="6" spans="1:12" ht="15.75" thickBot="1">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -2446,7 +2448,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75" hidden="1" thickBot="1">
+    <row r="7" spans="1:12" ht="15.75" thickBot="1">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -2470,7 +2472,7 @@
       </c>
       <c r="H7"/>
     </row>
-    <row r="8" spans="1:12" ht="15.75" hidden="1" thickBot="1">
+    <row r="8" spans="1:12" ht="15.75" thickBot="1">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -2496,7 +2498,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="30.75" hidden="1" thickBot="1">
+    <row r="9" spans="1:12" ht="30.75" thickBot="1">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -2522,7 +2524,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="30.75" hidden="1" thickBot="1">
+    <row r="10" spans="1:12" ht="30.75" thickBot="1">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -2547,7 +2549,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="30.75" hidden="1" thickBot="1">
+    <row r="11" spans="1:12" ht="30.75" thickBot="1">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -2573,7 +2575,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="30.75" hidden="1" thickBot="1">
+    <row r="12" spans="1:12" ht="30.75" thickBot="1">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -2599,7 +2601,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="30.75" hidden="1" thickBot="1">
+    <row r="13" spans="1:12" ht="30.75" thickBot="1">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -2622,7 +2624,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="30.75" hidden="1" thickBot="1">
+    <row r="14" spans="1:12" ht="30.75" thickBot="1">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -2648,7 +2650,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15.75" hidden="1" thickBot="1">
+    <row r="15" spans="1:12" ht="15.75" thickBot="1">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -2673,7 +2675,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="30.75" hidden="1" thickBot="1">
+    <row r="16" spans="1:12" ht="30.75" thickBot="1">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -2698,7 +2700,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15.75" hidden="1" thickBot="1">
+    <row r="17" spans="1:12" ht="15.75" thickBot="1">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -2724,7 +2726,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="30.75" hidden="1" thickBot="1">
+    <row r="18" spans="1:12" ht="30.75" thickBot="1">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -2750,7 +2752,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15.75" hidden="1" thickBot="1">
+    <row r="19" spans="1:12" ht="15.75" thickBot="1">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -2776,7 +2778,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15.75" hidden="1" thickBot="1">
+    <row r="20" spans="1:12" ht="15.75" thickBot="1">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -2802,7 +2804,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15.75" hidden="1" thickBot="1">
+    <row r="21" spans="1:12" ht="15.75" thickBot="1">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -2825,7 +2827,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15.75" hidden="1" thickBot="1">
+    <row r="22" spans="1:12" ht="15.75" thickBot="1">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -2847,7 +2849,7 @@
       </c>
       <c r="H22"/>
     </row>
-    <row r="23" spans="1:12" ht="30.75" hidden="1" thickBot="1">
+    <row r="23" spans="1:12" ht="30.75" thickBot="1">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -2869,7 +2871,7 @@
       </c>
       <c r="H23"/>
     </row>
-    <row r="24" spans="1:12" ht="30.75" hidden="1" thickBot="1">
+    <row r="24" spans="1:12" ht="30.75" thickBot="1">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -2891,7 +2893,7 @@
       </c>
       <c r="H24"/>
     </row>
-    <row r="25" spans="1:12" ht="30.75" hidden="1" thickBot="1">
+    <row r="25" spans="1:12" ht="30.75" thickBot="1">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -2913,7 +2915,7 @@
       </c>
       <c r="H25"/>
     </row>
-    <row r="26" spans="1:12" ht="30.75" hidden="1" thickBot="1">
+    <row r="26" spans="1:12" ht="30.75" thickBot="1">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -2935,7 +2937,7 @@
       </c>
       <c r="H26"/>
     </row>
-    <row r="27" spans="1:12" ht="15.75" hidden="1" thickBot="1">
+    <row r="27" spans="1:12" ht="15.75" thickBot="1">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -2957,7 +2959,7 @@
       </c>
       <c r="H27"/>
     </row>
-    <row r="28" spans="1:12" ht="15.75" hidden="1" thickBot="1">
+    <row r="28" spans="1:12" ht="15.75" thickBot="1">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -2981,7 +2983,7 @@
       </c>
       <c r="H28"/>
     </row>
-    <row r="29" spans="1:12" ht="15.75" hidden="1" thickBot="1">
+    <row r="29" spans="1:12" ht="15.75" thickBot="1">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -3003,7 +3005,7 @@
       </c>
       <c r="H29"/>
     </row>
-    <row r="30" spans="1:12" ht="30.75" hidden="1" thickBot="1">
+    <row r="30" spans="1:12" ht="30.75" thickBot="1">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -3025,7 +3027,7 @@
       </c>
       <c r="H30"/>
     </row>
-    <row r="31" spans="1:12" ht="15.75" hidden="1" thickBot="1">
+    <row r="31" spans="1:12" ht="15.75" thickBot="1">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -3048,7 +3050,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="15.75" hidden="1" thickBot="1">
+    <row r="32" spans="1:12" ht="15.75" thickBot="1">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -3070,7 +3072,7 @@
       </c>
       <c r="H32"/>
     </row>
-    <row r="33" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="33" spans="1:8" ht="30.75" thickBot="1">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -3092,7 +3094,7 @@
       </c>
       <c r="H33"/>
     </row>
-    <row r="34" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="34" spans="1:8" ht="15.75" thickBot="1">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -3115,7 +3117,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="35" spans="1:8" ht="30.75" thickBot="1">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -3139,7 +3141,7 @@
       </c>
       <c r="H35"/>
     </row>
-    <row r="36" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="36" spans="1:8" ht="15.75" thickBot="1">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -3161,7 +3163,7 @@
       </c>
       <c r="H36"/>
     </row>
-    <row r="37" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="37" spans="1:8" ht="15.75" thickBot="1">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -3183,7 +3185,7 @@
       </c>
       <c r="H37"/>
     </row>
-    <row r="38" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="38" spans="1:8" ht="15.75" thickBot="1">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -3205,7 +3207,7 @@
       </c>
       <c r="H38"/>
     </row>
-    <row r="39" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="39" spans="1:8" ht="15.75" thickBot="1">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -3227,7 +3229,7 @@
       </c>
       <c r="H39"/>
     </row>
-    <row r="40" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="40" spans="1:8" ht="15.75" thickBot="1">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -3249,7 +3251,7 @@
       </c>
       <c r="H40"/>
     </row>
-    <row r="41" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="41" spans="1:8" ht="15.75" thickBot="1">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -3271,7 +3273,7 @@
       </c>
       <c r="H41"/>
     </row>
-    <row r="42" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="42" spans="1:8" ht="15.75" thickBot="1">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -3293,7 +3295,7 @@
       </c>
       <c r="H42"/>
     </row>
-    <row r="43" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="43" spans="1:8" ht="15.75" thickBot="1">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -3315,7 +3317,7 @@
       </c>
       <c r="H43"/>
     </row>
-    <row r="44" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="44" spans="1:8" ht="15.75" thickBot="1">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -3339,7 +3341,7 @@
       </c>
       <c r="H44"/>
     </row>
-    <row r="45" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="45" spans="1:8" ht="15.75" thickBot="1">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -3362,7 +3364,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="46" spans="1:8" ht="15.75" thickBot="1">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -3386,7 +3388,7 @@
       </c>
       <c r="H46"/>
     </row>
-    <row r="47" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="47" spans="1:8" ht="30.75" thickBot="1">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -3408,7 +3410,7 @@
       </c>
       <c r="H47"/>
     </row>
-    <row r="48" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="48" spans="1:8" ht="30.75" thickBot="1">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -3432,7 +3434,7 @@
       </c>
       <c r="H48"/>
     </row>
-    <row r="49" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="49" spans="1:8" ht="15.75" thickBot="1">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -3456,7 +3458,7 @@
       </c>
       <c r="H49"/>
     </row>
-    <row r="50" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="50" spans="1:8" ht="15.75" thickBot="1">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -3480,7 +3482,7 @@
       </c>
       <c r="H50"/>
     </row>
-    <row r="51" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="51" spans="1:8" ht="30.75" thickBot="1">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -3502,7 +3504,7 @@
       </c>
       <c r="H51"/>
     </row>
-    <row r="52" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="52" spans="1:8" ht="15.75" thickBot="1">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -3526,7 +3528,7 @@
       </c>
       <c r="H52"/>
     </row>
-    <row r="53" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="53" spans="1:8" ht="15.75" thickBot="1">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -3550,7 +3552,7 @@
       </c>
       <c r="H53"/>
     </row>
-    <row r="54" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="54" spans="1:8" ht="15.75" thickBot="1">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -3574,7 +3576,7 @@
       </c>
       <c r="H54"/>
     </row>
-    <row r="55" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="55" spans="1:8" ht="15.75" thickBot="1">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -3598,7 +3600,7 @@
       </c>
       <c r="H55"/>
     </row>
-    <row r="56" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="56" spans="1:8" ht="15.75" thickBot="1">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -3622,7 +3624,7 @@
       </c>
       <c r="H56"/>
     </row>
-    <row r="57" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="57" spans="1:8" ht="15.75" thickBot="1">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -3646,7 +3648,7 @@
       </c>
       <c r="H57"/>
     </row>
-    <row r="58" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="58" spans="1:8" ht="15.75" thickBot="1">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -3670,7 +3672,7 @@
       </c>
       <c r="H58"/>
     </row>
-    <row r="59" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="59" spans="1:8" ht="15.75" thickBot="1">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -3694,7 +3696,7 @@
       </c>
       <c r="H59"/>
     </row>
-    <row r="60" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="60" spans="1:8" ht="15.75" thickBot="1">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -3718,7 +3720,7 @@
       </c>
       <c r="H60"/>
     </row>
-    <row r="61" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="61" spans="1:8" ht="15.75" thickBot="1">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -3742,7 +3744,7 @@
       </c>
       <c r="H61"/>
     </row>
-    <row r="62" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="62" spans="1:8" ht="15.75" thickBot="1">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -3766,7 +3768,7 @@
       </c>
       <c r="H62"/>
     </row>
-    <row r="63" spans="1:8" ht="60.75" hidden="1" thickBot="1">
+    <row r="63" spans="1:8" ht="60.75" thickBot="1">
       <c r="A63" s="3">
         <v>62</v>
       </c>
@@ -3792,7 +3794,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="64" spans="1:8" ht="30.75" thickBot="1">
       <c r="A64" s="3">
         <v>63</v>
       </c>
@@ -3815,7 +3817,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="65" spans="1:8" ht="30.75" thickBot="1">
       <c r="A65" s="3">
         <v>64</v>
       </c>
@@ -3839,7 +3841,7 @@
       </c>
       <c r="H65"/>
     </row>
-    <row r="66" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="66" spans="1:8" ht="15.75" thickBot="1">
       <c r="A66" s="3">
         <v>65</v>
       </c>
@@ -3863,7 +3865,7 @@
       </c>
       <c r="H66"/>
     </row>
-    <row r="67" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="67" spans="1:8" ht="15.75" thickBot="1">
       <c r="A67" s="3">
         <v>66</v>
       </c>
@@ -3887,7 +3889,7 @@
       </c>
       <c r="H67"/>
     </row>
-    <row r="68" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="68" spans="1:8" ht="15.75" thickBot="1">
       <c r="A68" s="3">
         <v>67</v>
       </c>
@@ -3911,7 +3913,7 @@
       </c>
       <c r="H68"/>
     </row>
-    <row r="69" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="69" spans="1:8" ht="30.75" thickBot="1">
       <c r="A69" s="3">
         <v>68</v>
       </c>
@@ -3934,7 +3936,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="70" spans="1:8" ht="15.75" thickBot="1">
       <c r="A70" s="3">
         <v>69</v>
       </c>
@@ -3957,7 +3959,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="71" spans="1:8" ht="30.75" thickBot="1">
       <c r="A71" s="3">
         <v>70</v>
       </c>
@@ -3980,7 +3982,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="72" spans="1:8" ht="15.75" thickBot="1">
       <c r="A72" s="3">
         <v>71</v>
       </c>
@@ -4003,7 +4005,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="73" spans="1:8" ht="30.75" thickBot="1">
       <c r="A73" s="3">
         <v>72</v>
       </c>
@@ -4026,7 +4028,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="74" spans="1:8" ht="15.75" thickBot="1">
       <c r="A74" s="3">
         <v>73</v>
       </c>
@@ -4050,7 +4052,7 @@
       </c>
       <c r="H74"/>
     </row>
-    <row r="75" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="75" spans="1:8" ht="15.75" thickBot="1">
       <c r="A75" s="3">
         <v>74</v>
       </c>
@@ -4072,7 +4074,7 @@
       </c>
       <c r="H75"/>
     </row>
-    <row r="76" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="76" spans="1:8" ht="30.75" thickBot="1">
       <c r="A76" s="3">
         <v>75</v>
       </c>
@@ -4094,7 +4096,7 @@
       </c>
       <c r="H76"/>
     </row>
-    <row r="77" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="77" spans="1:8" ht="30.75" thickBot="1">
       <c r="A77" s="3">
         <v>76</v>
       </c>
@@ -4120,7 +4122,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="78" spans="1:8" ht="15.75" thickBot="1">
       <c r="A78" s="3">
         <v>77</v>
       </c>
@@ -4143,7 +4145,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="79" spans="1:8" ht="15.75" thickBot="1">
       <c r="A79" s="3">
         <v>78</v>
       </c>
@@ -4166,7 +4168,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="80" spans="1:8" ht="15.75" thickBot="1">
       <c r="A80" s="3">
         <v>79</v>
       </c>
@@ -4189,7 +4191,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="81" spans="1:8" ht="15.75" thickBot="1">
       <c r="A81" s="3">
         <v>80</v>
       </c>
@@ -4212,7 +4214,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="82" spans="1:8" ht="15.75" thickBot="1">
       <c r="A82" s="3">
         <v>81</v>
       </c>
@@ -4235,7 +4237,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="83" spans="1:8" ht="15.75" thickBot="1">
       <c r="A83" s="3">
         <v>82</v>
       </c>
@@ -4258,7 +4260,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="84" spans="1:8" ht="15.75" thickBot="1">
       <c r="A84" s="3">
         <v>83</v>
       </c>
@@ -4281,7 +4283,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="85" spans="1:8" ht="15.75" thickBot="1">
       <c r="A85" s="3">
         <v>84</v>
       </c>
@@ -4304,7 +4306,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="86" spans="1:8" ht="15.75" thickBot="1">
       <c r="A86" s="3">
         <v>85</v>
       </c>
@@ -4328,7 +4330,7 @@
       </c>
       <c r="H86"/>
     </row>
-    <row r="87" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="87" spans="1:8" ht="15.75" thickBot="1">
       <c r="A87" s="3">
         <v>86</v>
       </c>
@@ -4352,7 +4354,7 @@
       </c>
       <c r="H87"/>
     </row>
-    <row r="88" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="88" spans="1:8" ht="15.75" thickBot="1">
       <c r="A88" s="3">
         <v>87</v>
       </c>
@@ -4376,7 +4378,7 @@
       </c>
       <c r="H88"/>
     </row>
-    <row r="89" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="89" spans="1:8" ht="15.75" thickBot="1">
       <c r="A89" s="3">
         <v>88</v>
       </c>
@@ -4400,7 +4402,7 @@
       </c>
       <c r="H89"/>
     </row>
-    <row r="90" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="90" spans="1:8" ht="15.75" thickBot="1">
       <c r="A90" s="3">
         <v>89</v>
       </c>
@@ -4423,7 +4425,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="91" spans="1:8" ht="15.75" thickBot="1">
       <c r="A91" s="3">
         <v>90</v>
       </c>
@@ -4446,7 +4448,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="92" spans="1:8" ht="15.75" thickBot="1">
       <c r="A92" s="3">
         <v>91</v>
       </c>
@@ -4469,7 +4471,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="93" spans="1:8" ht="15.75" thickBot="1">
       <c r="A93" s="3">
         <v>92</v>
       </c>
@@ -4492,7 +4494,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="94" spans="1:8" ht="30.75" thickBot="1">
       <c r="A94" s="3">
         <v>93</v>
       </c>
@@ -4516,7 +4518,7 @@
       </c>
       <c r="H94"/>
     </row>
-    <row r="95" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="95" spans="1:8" ht="15.75" thickBot="1">
       <c r="A95" s="3">
         <v>94</v>
       </c>
@@ -4540,7 +4542,7 @@
       </c>
       <c r="H95"/>
     </row>
-    <row r="96" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="96" spans="1:8" ht="30.75" thickBot="1">
       <c r="A96" s="3">
         <v>95</v>
       </c>
@@ -4564,7 +4566,7 @@
       </c>
       <c r="H96"/>
     </row>
-    <row r="97" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
+    <row r="97" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A97" s="3">
         <v>96</v>
       </c>
@@ -4587,7 +4589,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="98" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
+    <row r="98" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A98" s="3">
         <v>97</v>
       </c>
@@ -4610,7 +4612,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="99" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="99" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A99" s="3">
         <v>98</v>
       </c>
@@ -4633,7 +4635,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="100" spans="1:7" customFormat="1" ht="45.75" hidden="1" thickBot="1">
+    <row r="100" spans="1:7" customFormat="1" ht="45.75" thickBot="1">
       <c r="A100" s="3">
         <v>99</v>
       </c>
@@ -4656,7 +4658,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="101" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
+    <row r="101" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A101" s="3">
         <v>100</v>
       </c>
@@ -4679,7 +4681,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="102" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="102" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A102" s="3">
         <v>101</v>
       </c>
@@ -4700,7 +4702,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="103" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
+    <row r="103" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A103" s="3">
         <v>102</v>
       </c>
@@ -4723,7 +4725,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="104" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
+    <row r="104" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A104" s="3">
         <v>103</v>
       </c>
@@ -4746,7 +4748,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="105" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="105" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A105" s="3">
         <v>104</v>
       </c>
@@ -4767,7 +4769,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="106" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="106" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A106" s="3">
         <v>105</v>
       </c>
@@ -4790,7 +4792,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="107" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="107" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A107" s="3">
         <v>106</v>
       </c>
@@ -4813,7 +4815,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="108" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="108" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A108" s="3">
         <v>107</v>
       </c>
@@ -4836,7 +4838,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="109" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="109" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A109" s="3">
         <v>108</v>
       </c>
@@ -4857,7 +4859,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="110" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="110" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A110" s="3">
         <v>109</v>
       </c>
@@ -4878,7 +4880,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="111" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="111" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A111" s="3">
         <v>110</v>
       </c>
@@ -4901,7 +4903,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="112" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="112" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A112" s="3">
         <v>111</v>
       </c>
@@ -4924,7 +4926,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="45.75" hidden="1" thickBot="1">
+    <row r="113" spans="1:8" ht="45.75" thickBot="1">
       <c r="A113" s="3">
         <v>112</v>
       </c>
@@ -4947,7 +4949,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="114" spans="1:8" ht="30.75" thickBot="1">
       <c r="A114" s="3">
         <v>113</v>
       </c>
@@ -4970,7 +4972,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="45.75" hidden="1" thickBot="1">
+    <row r="115" spans="1:8" ht="45.75" thickBot="1">
       <c r="A115" s="3">
         <v>114</v>
       </c>
@@ -4993,7 +4995,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="116" spans="1:8" ht="15.75" thickBot="1">
       <c r="A116" s="3">
         <v>115</v>
       </c>
@@ -5016,7 +5018,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="117" spans="1:8" ht="15.75" thickBot="1">
       <c r="A117" s="3">
         <v>116</v>
       </c>
@@ -5039,7 +5041,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="118" spans="1:8" ht="30.75" thickBot="1">
       <c r="A118" s="3">
         <v>117</v>
       </c>
@@ -5062,7 +5064,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="119" spans="1:8" ht="15.75" thickBot="1">
       <c r="A119" s="3">
         <v>118</v>
       </c>
@@ -5085,7 +5087,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="120" spans="1:8" ht="30.75" thickBot="1">
       <c r="A120" s="3">
         <v>119</v>
       </c>
@@ -5108,7 +5110,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="121" spans="1:8" ht="15.75" thickBot="1">
       <c r="A121" s="3">
         <v>120</v>
       </c>
@@ -5131,7 +5133,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="122" spans="1:8" ht="15.75" thickBot="1">
       <c r="A122" s="3">
         <v>121</v>
       </c>
@@ -5154,7 +5156,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="123" spans="1:8" ht="30.75" thickBot="1">
       <c r="A123" s="3">
         <v>122</v>
       </c>
@@ -5178,7 +5180,7 @@
       </c>
       <c r="H123"/>
     </row>
-    <row r="124" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="124" spans="1:8" ht="30.75" thickBot="1">
       <c r="A124" s="3">
         <v>123</v>
       </c>
@@ -5202,7 +5204,7 @@
       </c>
       <c r="H124"/>
     </row>
-    <row r="125" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="125" spans="1:8" ht="30.75" thickBot="1">
       <c r="A125" s="3">
         <v>124</v>
       </c>
@@ -5226,7 +5228,7 @@
       </c>
       <c r="H125"/>
     </row>
-    <row r="126" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="126" spans="1:8" ht="15.75" thickBot="1">
       <c r="A126" s="3">
         <v>125</v>
       </c>
@@ -5250,7 +5252,7 @@
       </c>
       <c r="H126"/>
     </row>
-    <row r="127" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="127" spans="1:8" ht="15.75" thickBot="1">
       <c r="A127" s="3">
         <v>126</v>
       </c>
@@ -5274,7 +5276,7 @@
       </c>
       <c r="H127"/>
     </row>
-    <row r="128" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="128" spans="1:8" ht="15.75" thickBot="1">
       <c r="A128" s="3">
         <v>127</v>
       </c>
@@ -5298,7 +5300,7 @@
       </c>
       <c r="H128"/>
     </row>
-    <row r="129" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="129" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A129" s="3">
         <v>128</v>
       </c>
@@ -5321,7 +5323,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="130" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
+    <row r="130" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A130" s="3">
         <v>129</v>
       </c>
@@ -5344,7 +5346,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="131" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
+    <row r="131" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A131" s="3">
         <v>130</v>
       </c>
@@ -5367,7 +5369,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="132" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="132" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A132" s="3">
         <v>131</v>
       </c>
@@ -5390,7 +5392,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="133" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="133" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A133" s="3">
         <v>132</v>
       </c>
@@ -5413,7 +5415,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="134" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="134" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A134" s="3">
         <v>133</v>
       </c>
@@ -5436,7 +5438,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="135" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="135" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A135" s="3">
         <v>134</v>
       </c>
@@ -5459,7 +5461,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="136" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="136" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A136" s="3">
         <v>135</v>
       </c>
@@ -5480,7 +5482,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="137" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="137" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A137" s="3">
         <v>136</v>
       </c>
@@ -5503,7 +5505,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="138" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="138" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A138" s="3">
         <v>137</v>
       </c>
@@ -5526,7 +5528,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="139" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="139" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A139" s="3">
         <v>138</v>
       </c>
@@ -5547,7 +5549,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="140" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="140" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A140" s="3">
         <v>139</v>
       </c>
@@ -5568,7 +5570,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="141" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="141" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A141" s="3">
         <v>140</v>
       </c>
@@ -5589,7 +5591,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="142" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="142" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A142" s="3">
         <v>141</v>
       </c>
@@ -5610,7 +5612,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="143" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="143" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A143" s="3">
         <v>142</v>
       </c>
@@ -5631,7 +5633,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="144" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="144" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A144" s="3">
         <v>143</v>
       </c>
@@ -5765,7 +5767,7 @@
         <v>386</v>
       </c>
       <c r="F149" s="16" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="G149" s="7" t="s">
         <v>307</v>
@@ -5868,7 +5870,7 @@
       </c>
       <c r="H153"/>
     </row>
-    <row r="154" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="154" spans="1:8" ht="30.75" thickBot="1">
       <c r="A154" s="3">
         <v>153</v>
       </c>
@@ -5892,7 +5894,7 @@
       </c>
       <c r="H154"/>
     </row>
-    <row r="155" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="155" spans="1:8" ht="30.75" thickBot="1">
       <c r="A155" s="27">
         <v>152</v>
       </c>
@@ -5916,7 +5918,7 @@
       </c>
       <c r="H155"/>
     </row>
-    <row r="156" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="156" spans="1:8" ht="30.75" thickBot="1">
       <c r="A156" s="3">
         <v>154</v>
       </c>
@@ -5940,7 +5942,7 @@
       </c>
       <c r="H156"/>
     </row>
-    <row r="157" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="157" spans="1:8" ht="30.75" thickBot="1">
       <c r="A157" s="3">
         <v>155</v>
       </c>
@@ -5964,7 +5966,7 @@
       </c>
       <c r="H157"/>
     </row>
-    <row r="158" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="158" spans="1:8" ht="30.75" thickBot="1">
       <c r="A158" s="3">
         <v>156</v>
       </c>
@@ -5988,7 +5990,7 @@
       </c>
       <c r="H158"/>
     </row>
-    <row r="159" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="159" spans="1:8" ht="30.75" thickBot="1">
       <c r="A159" s="3">
         <v>157</v>
       </c>
@@ -6012,7 +6014,7 @@
       </c>
       <c r="H159"/>
     </row>
-    <row r="160" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="160" spans="1:8" ht="30.75" thickBot="1">
       <c r="A160" s="3">
         <v>158</v>
       </c>
@@ -6036,7 +6038,7 @@
       </c>
       <c r="H160"/>
     </row>
-    <row r="161" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="161" spans="1:8" ht="30.75" thickBot="1">
       <c r="A161" s="3">
         <v>159</v>
       </c>
@@ -6060,7 +6062,7 @@
       </c>
       <c r="H161"/>
     </row>
-    <row r="162" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="162" spans="1:8" ht="30.75" thickBot="1">
       <c r="A162" s="3">
         <v>160</v>
       </c>
@@ -6108,7 +6110,7 @@
       </c>
       <c r="H163"/>
     </row>
-    <row r="164" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="164" spans="1:8" ht="30.75" thickBot="1">
       <c r="A164" s="3">
         <v>162</v>
       </c>
@@ -6130,7 +6132,7 @@
       </c>
       <c r="H164"/>
     </row>
-    <row r="165" spans="1:8" ht="45.75" hidden="1" thickBot="1">
+    <row r="165" spans="1:8" ht="45.75" thickBot="1">
       <c r="A165" s="3">
         <v>163</v>
       </c>
@@ -6152,7 +6154,7 @@
       </c>
       <c r="H165"/>
     </row>
-    <row r="166" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="166" spans="1:8" ht="30.75" thickBot="1">
       <c r="A166" s="3">
         <v>164</v>
       </c>
@@ -6174,7 +6176,7 @@
       </c>
       <c r="H166"/>
     </row>
-    <row r="167" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="167" spans="1:8" ht="30.75" thickBot="1">
       <c r="A167" s="3">
         <v>165</v>
       </c>
@@ -6196,7 +6198,7 @@
       </c>
       <c r="H167"/>
     </row>
-    <row r="168" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="168" spans="1:8" ht="30.75" thickBot="1">
       <c r="A168" s="3">
         <v>166</v>
       </c>
@@ -6218,7 +6220,7 @@
       </c>
       <c r="H168"/>
     </row>
-    <row r="169" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="169" spans="1:8" ht="30.75" thickBot="1">
       <c r="A169" s="3">
         <v>167</v>
       </c>
@@ -6240,7 +6242,7 @@
       </c>
       <c r="H169"/>
     </row>
-    <row r="170" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="170" spans="1:8" ht="30.75" thickBot="1">
       <c r="A170" s="3">
         <v>168</v>
       </c>
@@ -6262,7 +6264,7 @@
       </c>
       <c r="H170"/>
     </row>
-    <row r="171" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="171" spans="1:8" ht="30.75" thickBot="1">
       <c r="A171" s="3">
         <v>169</v>
       </c>
@@ -6284,7 +6286,7 @@
       </c>
       <c r="H171"/>
     </row>
-    <row r="172" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="172" spans="1:8" ht="30.75" thickBot="1">
       <c r="A172" s="3">
         <v>170</v>
       </c>
@@ -6306,7 +6308,7 @@
       </c>
       <c r="H172"/>
     </row>
-    <row r="173" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="173" spans="1:8" ht="30.75" thickBot="1">
       <c r="A173" s="3">
         <v>171</v>
       </c>
@@ -6328,7 +6330,7 @@
       </c>
       <c r="H173"/>
     </row>
-    <row r="174" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="174" spans="1:8" ht="30.75" thickBot="1">
       <c r="A174" s="3">
         <v>172</v>
       </c>
@@ -6350,7 +6352,7 @@
       </c>
       <c r="H174"/>
     </row>
-    <row r="175" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="175" spans="1:8" ht="30.75" thickBot="1">
       <c r="A175" s="3">
         <v>173</v>
       </c>
@@ -6372,7 +6374,7 @@
       </c>
       <c r="H175"/>
     </row>
-    <row r="176" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="176" spans="1:8" ht="30.75" thickBot="1">
       <c r="A176" s="3">
         <v>174</v>
       </c>
@@ -6394,7 +6396,7 @@
       </c>
       <c r="H176"/>
     </row>
-    <row r="177" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="177" spans="1:8" ht="30.75" thickBot="1">
       <c r="A177" s="3">
         <v>175</v>
       </c>
@@ -6416,7 +6418,7 @@
       </c>
       <c r="H177"/>
     </row>
-    <row r="178" spans="1:8" ht="60.75" hidden="1" thickBot="1">
+    <row r="178" spans="1:8" ht="60.75" thickBot="1">
       <c r="A178" s="3">
         <v>176</v>
       </c>
@@ -6438,7 +6440,7 @@
       </c>
       <c r="H178"/>
     </row>
-    <row r="179" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="179" spans="1:8" ht="15.75" thickBot="1">
       <c r="A179" s="3">
         <v>177</v>
       </c>
@@ -6460,7 +6462,7 @@
       </c>
       <c r="H179"/>
     </row>
-    <row r="180" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="180" spans="1:8" ht="30.75" thickBot="1">
       <c r="A180" s="3">
         <v>178</v>
       </c>
@@ -6484,7 +6486,7 @@
       </c>
       <c r="H180"/>
     </row>
-    <row r="181" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="181" spans="1:8" ht="30.75" thickBot="1">
       <c r="A181" s="27">
         <v>178</v>
       </c>
@@ -6508,7 +6510,7 @@
       </c>
       <c r="H181"/>
     </row>
-    <row r="182" spans="1:8" hidden="1">
+    <row r="182" spans="1:8">
       <c r="A182" s="10"/>
       <c r="B182" s="30" t="s">
         <v>297</v>
@@ -6530,7 +6532,7 @@
       </c>
       <c r="H182"/>
     </row>
-    <row r="183" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="183" spans="1:8" ht="15.75" thickBot="1">
       <c r="A183" s="3">
         <v>179</v>
       </c>
@@ -6542,7 +6544,7 @@
       <c r="G183" s="35"/>
       <c r="H183"/>
     </row>
-    <row r="184" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="184" spans="1:8" ht="30.75" thickBot="1">
       <c r="A184" s="3">
         <v>180</v>
       </c>
@@ -6566,7 +6568,7 @@
       </c>
       <c r="H184"/>
     </row>
-    <row r="185" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="185" spans="1:8" ht="30.75" thickBot="1">
       <c r="A185" s="3">
         <v>181</v>
       </c>
@@ -6590,7 +6592,7 @@
       </c>
       <c r="H185"/>
     </row>
-    <row r="186" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="186" spans="1:8" ht="30.75" thickBot="1">
       <c r="A186" s="3">
         <v>182</v>
       </c>
@@ -6627,7 +6629,7 @@
         <v>384</v>
       </c>
       <c r="E187" s="16" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="F187" s="16" t="s">
         <v>390</v>
@@ -6640,16 +6642,8 @@
   </sheetData>
   <autoFilter ref="A1:G187">
     <filterColumn colId="3"/>
-    <filterColumn colId="4">
-      <filters>
-        <filter val="Lore"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="5">
-      <filters>
-        <filter val="Sin Empezar"/>
-      </filters>
-    </filterColumn>
+    <filterColumn colId="4"/>
+    <filterColumn colId="5"/>
   </autoFilter>
   <mergeCells count="6">
     <mergeCell ref="B182:B183"/>

--- a/Planificacion/PlanificacionTesis.xlsx
+++ b/Planificacion/PlanificacionTesis.xlsx
@@ -2272,10 +2272,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:L187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C180" workbookViewId="0">
-      <selection activeCell="E189" sqref="E189"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="119.42578125" defaultRowHeight="15"/>
@@ -2317,7 +2318,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="30.75" thickBot="1">
+    <row r="2" spans="1:12" ht="30.75" hidden="1" thickBot="1">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2421,7 +2422,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" thickBot="1">
+    <row r="6" spans="1:12" ht="15.75" hidden="1" thickBot="1">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -2472,7 +2473,7 @@
       </c>
       <c r="H7"/>
     </row>
-    <row r="8" spans="1:12" ht="15.75" thickBot="1">
+    <row r="8" spans="1:12" ht="15.75" hidden="1" thickBot="1">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -2498,7 +2499,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="30.75" thickBot="1">
+    <row r="9" spans="1:12" ht="30.75" hidden="1" thickBot="1">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -2524,7 +2525,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="30.75" thickBot="1">
+    <row r="10" spans="1:12" ht="30.75" hidden="1" thickBot="1">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -2549,7 +2550,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="30.75" thickBot="1">
+    <row r="11" spans="1:12" ht="30.75" hidden="1" thickBot="1">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -2575,7 +2576,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="30.75" thickBot="1">
+    <row r="12" spans="1:12" ht="30.75" hidden="1" thickBot="1">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -2601,7 +2602,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="30.75" thickBot="1">
+    <row r="13" spans="1:12" ht="30.75" hidden="1" thickBot="1">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -2624,7 +2625,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="30.75" thickBot="1">
+    <row r="14" spans="1:12" ht="30.75" hidden="1" thickBot="1">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -2650,7 +2651,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15.75" thickBot="1">
+    <row r="15" spans="1:12" ht="15.75" hidden="1" thickBot="1">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -2675,7 +2676,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="30.75" thickBot="1">
+    <row r="16" spans="1:12" ht="30.75" hidden="1" thickBot="1">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -2700,7 +2701,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15.75" thickBot="1">
+    <row r="17" spans="1:12" ht="15.75" hidden="1" thickBot="1">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -2726,7 +2727,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="30.75" thickBot="1">
+    <row r="18" spans="1:12" ht="30.75" hidden="1" thickBot="1">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -2752,7 +2753,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15.75" thickBot="1">
+    <row r="19" spans="1:12" ht="15.75" hidden="1" thickBot="1">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -2778,7 +2779,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15.75" thickBot="1">
+    <row r="20" spans="1:12" ht="15.75" hidden="1" thickBot="1">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -2804,7 +2805,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15.75" thickBot="1">
+    <row r="21" spans="1:12" ht="15.75" hidden="1" thickBot="1">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -2827,7 +2828,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15.75" thickBot="1">
+    <row r="22" spans="1:12" ht="15.75" hidden="1" thickBot="1">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -2849,7 +2850,7 @@
       </c>
       <c r="H22"/>
     </row>
-    <row r="23" spans="1:12" ht="30.75" thickBot="1">
+    <row r="23" spans="1:12" ht="30.75" hidden="1" thickBot="1">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -2871,7 +2872,7 @@
       </c>
       <c r="H23"/>
     </row>
-    <row r="24" spans="1:12" ht="30.75" thickBot="1">
+    <row r="24" spans="1:12" ht="30.75" hidden="1" thickBot="1">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -2893,7 +2894,7 @@
       </c>
       <c r="H24"/>
     </row>
-    <row r="25" spans="1:12" ht="30.75" thickBot="1">
+    <row r="25" spans="1:12" ht="30.75" hidden="1" thickBot="1">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -2915,7 +2916,7 @@
       </c>
       <c r="H25"/>
     </row>
-    <row r="26" spans="1:12" ht="30.75" thickBot="1">
+    <row r="26" spans="1:12" ht="30.75" hidden="1" thickBot="1">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -2937,7 +2938,7 @@
       </c>
       <c r="H26"/>
     </row>
-    <row r="27" spans="1:12" ht="15.75" thickBot="1">
+    <row r="27" spans="1:12" ht="15.75" hidden="1" thickBot="1">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -2983,7 +2984,7 @@
       </c>
       <c r="H28"/>
     </row>
-    <row r="29" spans="1:12" ht="15.75" thickBot="1">
+    <row r="29" spans="1:12" ht="15.75" hidden="1" thickBot="1">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -3005,7 +3006,7 @@
       </c>
       <c r="H29"/>
     </row>
-    <row r="30" spans="1:12" ht="30.75" thickBot="1">
+    <row r="30" spans="1:12" ht="30.75" hidden="1" thickBot="1">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -3027,7 +3028,7 @@
       </c>
       <c r="H30"/>
     </row>
-    <row r="31" spans="1:12" ht="15.75" thickBot="1">
+    <row r="31" spans="1:12" ht="15.75" hidden="1" thickBot="1">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -3050,7 +3051,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="15.75" thickBot="1">
+    <row r="32" spans="1:12" ht="15.75" hidden="1" thickBot="1">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -3072,7 +3073,7 @@
       </c>
       <c r="H32"/>
     </row>
-    <row r="33" spans="1:8" ht="30.75" thickBot="1">
+    <row r="33" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -3094,7 +3095,7 @@
       </c>
       <c r="H33"/>
     </row>
-    <row r="34" spans="1:8" ht="15.75" thickBot="1">
+    <row r="34" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -3117,7 +3118,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="30.75" thickBot="1">
+    <row r="35" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -3141,7 +3142,7 @@
       </c>
       <c r="H35"/>
     </row>
-    <row r="36" spans="1:8" ht="15.75" thickBot="1">
+    <row r="36" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -3163,7 +3164,7 @@
       </c>
       <c r="H36"/>
     </row>
-    <row r="37" spans="1:8" ht="15.75" thickBot="1">
+    <row r="37" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -3185,7 +3186,7 @@
       </c>
       <c r="H37"/>
     </row>
-    <row r="38" spans="1:8" ht="15.75" thickBot="1">
+    <row r="38" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -3207,7 +3208,7 @@
       </c>
       <c r="H38"/>
     </row>
-    <row r="39" spans="1:8" ht="15.75" thickBot="1">
+    <row r="39" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -3229,7 +3230,7 @@
       </c>
       <c r="H39"/>
     </row>
-    <row r="40" spans="1:8" ht="15.75" thickBot="1">
+    <row r="40" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -3251,7 +3252,7 @@
       </c>
       <c r="H40"/>
     </row>
-    <row r="41" spans="1:8" ht="15.75" thickBot="1">
+    <row r="41" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -3273,7 +3274,7 @@
       </c>
       <c r="H41"/>
     </row>
-    <row r="42" spans="1:8" ht="15.75" thickBot="1">
+    <row r="42" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -3295,7 +3296,7 @@
       </c>
       <c r="H42"/>
     </row>
-    <row r="43" spans="1:8" ht="15.75" thickBot="1">
+    <row r="43" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -3341,7 +3342,7 @@
       </c>
       <c r="H44"/>
     </row>
-    <row r="45" spans="1:8" ht="15.75" thickBot="1">
+    <row r="45" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -3388,7 +3389,7 @@
       </c>
       <c r="H46"/>
     </row>
-    <row r="47" spans="1:8" ht="30.75" thickBot="1">
+    <row r="47" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -3434,7 +3435,7 @@
       </c>
       <c r="H48"/>
     </row>
-    <row r="49" spans="1:8" ht="15.75" thickBot="1">
+    <row r="49" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -3458,7 +3459,7 @@
       </c>
       <c r="H49"/>
     </row>
-    <row r="50" spans="1:8" ht="15.75" thickBot="1">
+    <row r="50" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -3482,7 +3483,7 @@
       </c>
       <c r="H50"/>
     </row>
-    <row r="51" spans="1:8" ht="30.75" thickBot="1">
+    <row r="51" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -3696,7 +3697,7 @@
       </c>
       <c r="H59"/>
     </row>
-    <row r="60" spans="1:8" ht="15.75" thickBot="1">
+    <row r="60" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -3720,7 +3721,7 @@
       </c>
       <c r="H60"/>
     </row>
-    <row r="61" spans="1:8" ht="15.75" thickBot="1">
+    <row r="61" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -3744,7 +3745,7 @@
       </c>
       <c r="H61"/>
     </row>
-    <row r="62" spans="1:8" ht="15.75" thickBot="1">
+    <row r="62" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -3768,7 +3769,7 @@
       </c>
       <c r="H62"/>
     </row>
-    <row r="63" spans="1:8" ht="60.75" thickBot="1">
+    <row r="63" spans="1:8" ht="60.75" hidden="1" thickBot="1">
       <c r="A63" s="3">
         <v>62</v>
       </c>
@@ -3794,7 +3795,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="30.75" thickBot="1">
+    <row r="64" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A64" s="3">
         <v>63</v>
       </c>
@@ -3913,7 +3914,7 @@
       </c>
       <c r="H68"/>
     </row>
-    <row r="69" spans="1:8" ht="30.75" thickBot="1">
+    <row r="69" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A69" s="3">
         <v>68</v>
       </c>
@@ -3936,7 +3937,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="15.75" thickBot="1">
+    <row r="70" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A70" s="3">
         <v>69</v>
       </c>
@@ -3959,7 +3960,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="30.75" thickBot="1">
+    <row r="71" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A71" s="3">
         <v>70</v>
       </c>
@@ -3982,7 +3983,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="15.75" thickBot="1">
+    <row r="72" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A72" s="3">
         <v>71</v>
       </c>
@@ -4005,7 +4006,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="30.75" thickBot="1">
+    <row r="73" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A73" s="3">
         <v>72</v>
       </c>
@@ -4052,7 +4053,7 @@
       </c>
       <c r="H74"/>
     </row>
-    <row r="75" spans="1:8" ht="15.75" thickBot="1">
+    <row r="75" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A75" s="3">
         <v>74</v>
       </c>
@@ -4074,7 +4075,7 @@
       </c>
       <c r="H75"/>
     </row>
-    <row r="76" spans="1:8" ht="30.75" thickBot="1">
+    <row r="76" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A76" s="3">
         <v>75</v>
       </c>
@@ -4122,7 +4123,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="15.75" thickBot="1">
+    <row r="78" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A78" s="3">
         <v>77</v>
       </c>
@@ -4145,7 +4146,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="15.75" thickBot="1">
+    <row r="79" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A79" s="3">
         <v>78</v>
       </c>
@@ -4168,7 +4169,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="15.75" thickBot="1">
+    <row r="80" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A80" s="3">
         <v>79</v>
       </c>
@@ -4191,7 +4192,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15.75" thickBot="1">
+    <row r="81" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A81" s="3">
         <v>80</v>
       </c>
@@ -4214,7 +4215,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="15.75" thickBot="1">
+    <row r="82" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A82" s="3">
         <v>81</v>
       </c>
@@ -4237,7 +4238,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="15.75" thickBot="1">
+    <row r="83" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A83" s="3">
         <v>82</v>
       </c>
@@ -4260,7 +4261,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="15.75" thickBot="1">
+    <row r="84" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A84" s="3">
         <v>83</v>
       </c>
@@ -4283,7 +4284,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15.75" thickBot="1">
+    <row r="85" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A85" s="3">
         <v>84</v>
       </c>
@@ -4402,7 +4403,7 @@
       </c>
       <c r="H89"/>
     </row>
-    <row r="90" spans="1:8" ht="15.75" thickBot="1">
+    <row r="90" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A90" s="3">
         <v>89</v>
       </c>
@@ -4425,7 +4426,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="15.75" thickBot="1">
+    <row r="91" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A91" s="3">
         <v>90</v>
       </c>
@@ -4448,7 +4449,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="15.75" thickBot="1">
+    <row r="92" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A92" s="3">
         <v>91</v>
       </c>
@@ -4471,7 +4472,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="15.75" thickBot="1">
+    <row r="93" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A93" s="3">
         <v>92</v>
       </c>
@@ -4494,7 +4495,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="30.75" thickBot="1">
+    <row r="94" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A94" s="3">
         <v>93</v>
       </c>
@@ -4518,7 +4519,7 @@
       </c>
       <c r="H94"/>
     </row>
-    <row r="95" spans="1:8" ht="15.75" thickBot="1">
+    <row r="95" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A95" s="3">
         <v>94</v>
       </c>
@@ -4542,7 +4543,7 @@
       </c>
       <c r="H95"/>
     </row>
-    <row r="96" spans="1:8" ht="30.75" thickBot="1">
+    <row r="96" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A96" s="3">
         <v>95</v>
       </c>
@@ -4566,7 +4567,7 @@
       </c>
       <c r="H96"/>
     </row>
-    <row r="97" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+    <row r="97" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
       <c r="A97" s="3">
         <v>96</v>
       </c>
@@ -4589,7 +4590,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="98" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+    <row r="98" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
       <c r="A98" s="3">
         <v>97</v>
       </c>
@@ -4612,7 +4613,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="99" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="99" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A99" s="3">
         <v>98</v>
       </c>
@@ -4635,7 +4636,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="100" spans="1:7" customFormat="1" ht="45.75" thickBot="1">
+    <row r="100" spans="1:7" customFormat="1" ht="45.75" hidden="1" thickBot="1">
       <c r="A100" s="3">
         <v>99</v>
       </c>
@@ -4658,7 +4659,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="101" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+    <row r="101" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
       <c r="A101" s="3">
         <v>100</v>
       </c>
@@ -4681,7 +4682,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="102" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="102" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A102" s="3">
         <v>101</v>
       </c>
@@ -4702,7 +4703,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="103" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+    <row r="103" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
       <c r="A103" s="3">
         <v>102</v>
       </c>
@@ -4725,7 +4726,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="104" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+    <row r="104" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
       <c r="A104" s="3">
         <v>103</v>
       </c>
@@ -4748,7 +4749,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="105" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="105" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A105" s="3">
         <v>104</v>
       </c>
@@ -4838,7 +4839,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="109" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="109" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A109" s="3">
         <v>108</v>
       </c>
@@ -4859,7 +4860,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="110" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="110" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A110" s="3">
         <v>109</v>
       </c>
@@ -4880,7 +4881,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="111" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="111" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A111" s="3">
         <v>110</v>
       </c>
@@ -4926,7 +4927,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="45.75" thickBot="1">
+    <row r="113" spans="1:8" ht="45.75" hidden="1" thickBot="1">
       <c r="A113" s="3">
         <v>112</v>
       </c>
@@ -4949,7 +4950,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="30.75" thickBot="1">
+    <row r="114" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A114" s="3">
         <v>113</v>
       </c>
@@ -4972,7 +4973,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="45.75" thickBot="1">
+    <row r="115" spans="1:8" ht="45.75" hidden="1" thickBot="1">
       <c r="A115" s="3">
         <v>114</v>
       </c>
@@ -4995,7 +4996,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="15.75" thickBot="1">
+    <row r="116" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A116" s="3">
         <v>115</v>
       </c>
@@ -5018,7 +5019,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="15.75" thickBot="1">
+    <row r="117" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A117" s="3">
         <v>116</v>
       </c>
@@ -5041,7 +5042,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="30.75" thickBot="1">
+    <row r="118" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A118" s="3">
         <v>117</v>
       </c>
@@ -5064,7 +5065,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="15.75" thickBot="1">
+    <row r="119" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A119" s="3">
         <v>118</v>
       </c>
@@ -5087,7 +5088,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="30.75" thickBot="1">
+    <row r="120" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A120" s="3">
         <v>119</v>
       </c>
@@ -5110,7 +5111,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="15.75" thickBot="1">
+    <row r="121" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A121" s="3">
         <v>120</v>
       </c>
@@ -5133,7 +5134,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="15.75" thickBot="1">
+    <row r="122" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A122" s="3">
         <v>121</v>
       </c>
@@ -5346,7 +5347,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="131" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+    <row r="131" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
       <c r="A131" s="3">
         <v>130</v>
       </c>
@@ -5461,7 +5462,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="136" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="136" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A136" s="3">
         <v>135</v>
       </c>
@@ -5528,7 +5529,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="139" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="139" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A139" s="3">
         <v>138</v>
       </c>
@@ -5549,7 +5550,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="140" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="140" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A140" s="3">
         <v>139</v>
       </c>
@@ -5570,7 +5571,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="141" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="141" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A141" s="3">
         <v>140</v>
       </c>
@@ -5591,7 +5592,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="142" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="142" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A142" s="3">
         <v>141</v>
       </c>
@@ -5612,7 +5613,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="143" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="143" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A143" s="3">
         <v>142</v>
       </c>
@@ -5633,7 +5634,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="144" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="144" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A144" s="3">
         <v>143</v>
       </c>
@@ -5654,7 +5655,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="145" spans="1:8" ht="30.75" thickBot="1">
+    <row r="145" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A145" s="3">
         <v>144</v>
       </c>
@@ -5678,7 +5679,7 @@
       </c>
       <c r="H145"/>
     </row>
-    <row r="146" spans="1:8" ht="30.75" thickBot="1">
+    <row r="146" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A146" s="3">
         <v>145</v>
       </c>
@@ -5702,7 +5703,7 @@
       </c>
       <c r="H146"/>
     </row>
-    <row r="147" spans="1:8" ht="30.75" thickBot="1">
+    <row r="147" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A147" s="3">
         <v>146</v>
       </c>
@@ -5726,7 +5727,7 @@
       </c>
       <c r="H147"/>
     </row>
-    <row r="148" spans="1:8" ht="30.75" thickBot="1">
+    <row r="148" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A148" s="3">
         <v>147</v>
       </c>
@@ -5750,7 +5751,7 @@
       </c>
       <c r="H148"/>
     </row>
-    <row r="149" spans="1:8" ht="30.75" thickBot="1">
+    <row r="149" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A149" s="3">
         <v>148</v>
       </c>
@@ -5774,7 +5775,7 @@
       </c>
       <c r="H149"/>
     </row>
-    <row r="150" spans="1:8" ht="30.75" thickBot="1">
+    <row r="150" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A150" s="3">
         <v>149</v>
       </c>
@@ -5798,7 +5799,7 @@
       </c>
       <c r="H150"/>
     </row>
-    <row r="151" spans="1:8" ht="30.75" thickBot="1">
+    <row r="151" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A151" s="3">
         <v>150</v>
       </c>
@@ -5822,7 +5823,7 @@
       </c>
       <c r="H151"/>
     </row>
-    <row r="152" spans="1:8" ht="30.75" thickBot="1">
+    <row r="152" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A152" s="3">
         <v>151</v>
       </c>
@@ -5846,7 +5847,7 @@
       </c>
       <c r="H152"/>
     </row>
-    <row r="153" spans="1:8" ht="30.75" thickBot="1">
+    <row r="153" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A153" s="3">
         <v>152</v>
       </c>
@@ -5870,7 +5871,7 @@
       </c>
       <c r="H153"/>
     </row>
-    <row r="154" spans="1:8" ht="30.75" thickBot="1">
+    <row r="154" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A154" s="3">
         <v>153</v>
       </c>
@@ -5918,7 +5919,7 @@
       </c>
       <c r="H155"/>
     </row>
-    <row r="156" spans="1:8" ht="30.75" thickBot="1">
+    <row r="156" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A156" s="3">
         <v>154</v>
       </c>
@@ -5942,7 +5943,7 @@
       </c>
       <c r="H156"/>
     </row>
-    <row r="157" spans="1:8" ht="30.75" thickBot="1">
+    <row r="157" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A157" s="3">
         <v>155</v>
       </c>
@@ -5966,7 +5967,7 @@
       </c>
       <c r="H157"/>
     </row>
-    <row r="158" spans="1:8" ht="30.75" thickBot="1">
+    <row r="158" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A158" s="3">
         <v>156</v>
       </c>
@@ -5990,7 +5991,7 @@
       </c>
       <c r="H158"/>
     </row>
-    <row r="159" spans="1:8" ht="30.75" thickBot="1">
+    <row r="159" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A159" s="3">
         <v>157</v>
       </c>
@@ -6014,7 +6015,7 @@
       </c>
       <c r="H159"/>
     </row>
-    <row r="160" spans="1:8" ht="30.75" thickBot="1">
+    <row r="160" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A160" s="3">
         <v>158</v>
       </c>
@@ -6038,7 +6039,7 @@
       </c>
       <c r="H160"/>
     </row>
-    <row r="161" spans="1:8" ht="30.75" thickBot="1">
+    <row r="161" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A161" s="3">
         <v>159</v>
       </c>
@@ -6062,7 +6063,7 @@
       </c>
       <c r="H161"/>
     </row>
-    <row r="162" spans="1:8" ht="30.75" thickBot="1">
+    <row r="162" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A162" s="3">
         <v>160</v>
       </c>
@@ -6086,7 +6087,7 @@
       </c>
       <c r="H162"/>
     </row>
-    <row r="163" spans="1:8" ht="30.75" thickBot="1">
+    <row r="163" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A163" s="3">
         <v>161</v>
       </c>
@@ -6110,7 +6111,7 @@
       </c>
       <c r="H163"/>
     </row>
-    <row r="164" spans="1:8" ht="30.75" thickBot="1">
+    <row r="164" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A164" s="3">
         <v>162</v>
       </c>
@@ -6132,7 +6133,7 @@
       </c>
       <c r="H164"/>
     </row>
-    <row r="165" spans="1:8" ht="45.75" thickBot="1">
+    <row r="165" spans="1:8" ht="45.75" hidden="1" thickBot="1">
       <c r="A165" s="3">
         <v>163</v>
       </c>
@@ -6154,7 +6155,7 @@
       </c>
       <c r="H165"/>
     </row>
-    <row r="166" spans="1:8" ht="30.75" thickBot="1">
+    <row r="166" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A166" s="3">
         <v>164</v>
       </c>
@@ -6176,7 +6177,7 @@
       </c>
       <c r="H166"/>
     </row>
-    <row r="167" spans="1:8" ht="30.75" thickBot="1">
+    <row r="167" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A167" s="3">
         <v>165</v>
       </c>
@@ -6198,7 +6199,7 @@
       </c>
       <c r="H167"/>
     </row>
-    <row r="168" spans="1:8" ht="30.75" thickBot="1">
+    <row r="168" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A168" s="3">
         <v>166</v>
       </c>
@@ -6220,7 +6221,7 @@
       </c>
       <c r="H168"/>
     </row>
-    <row r="169" spans="1:8" ht="30.75" thickBot="1">
+    <row r="169" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A169" s="3">
         <v>167</v>
       </c>
@@ -6242,7 +6243,7 @@
       </c>
       <c r="H169"/>
     </row>
-    <row r="170" spans="1:8" ht="30.75" thickBot="1">
+    <row r="170" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A170" s="3">
         <v>168</v>
       </c>
@@ -6264,7 +6265,7 @@
       </c>
       <c r="H170"/>
     </row>
-    <row r="171" spans="1:8" ht="30.75" thickBot="1">
+    <row r="171" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A171" s="3">
         <v>169</v>
       </c>
@@ -6286,7 +6287,7 @@
       </c>
       <c r="H171"/>
     </row>
-    <row r="172" spans="1:8" ht="30.75" thickBot="1">
+    <row r="172" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A172" s="3">
         <v>170</v>
       </c>
@@ -6308,7 +6309,7 @@
       </c>
       <c r="H172"/>
     </row>
-    <row r="173" spans="1:8" ht="30.75" thickBot="1">
+    <row r="173" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A173" s="3">
         <v>171</v>
       </c>
@@ -6330,7 +6331,7 @@
       </c>
       <c r="H173"/>
     </row>
-    <row r="174" spans="1:8" ht="30.75" thickBot="1">
+    <row r="174" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A174" s="3">
         <v>172</v>
       </c>
@@ -6352,7 +6353,7 @@
       </c>
       <c r="H174"/>
     </row>
-    <row r="175" spans="1:8" ht="30.75" thickBot="1">
+    <row r="175" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A175" s="3">
         <v>173</v>
       </c>
@@ -6374,7 +6375,7 @@
       </c>
       <c r="H175"/>
     </row>
-    <row r="176" spans="1:8" ht="30.75" thickBot="1">
+    <row r="176" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A176" s="3">
         <v>174</v>
       </c>
@@ -6396,7 +6397,7 @@
       </c>
       <c r="H176"/>
     </row>
-    <row r="177" spans="1:8" ht="30.75" thickBot="1">
+    <row r="177" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A177" s="3">
         <v>175</v>
       </c>
@@ -6418,7 +6419,7 @@
       </c>
       <c r="H177"/>
     </row>
-    <row r="178" spans="1:8" ht="60.75" thickBot="1">
+    <row r="178" spans="1:8" ht="60.75" hidden="1" thickBot="1">
       <c r="A178" s="3">
         <v>176</v>
       </c>
@@ -6440,7 +6441,7 @@
       </c>
       <c r="H178"/>
     </row>
-    <row r="179" spans="1:8" ht="15.75" thickBot="1">
+    <row r="179" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A179" s="3">
         <v>177</v>
       </c>
@@ -6486,7 +6487,7 @@
       </c>
       <c r="H180"/>
     </row>
-    <row r="181" spans="1:8" ht="30.75" thickBot="1">
+    <row r="181" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A181" s="27">
         <v>178</v>
       </c>
@@ -6510,7 +6511,7 @@
       </c>
       <c r="H181"/>
     </row>
-    <row r="182" spans="1:8">
+    <row r="182" spans="1:8" hidden="1">
       <c r="A182" s="10"/>
       <c r="B182" s="30" t="s">
         <v>297</v>
@@ -6532,7 +6533,7 @@
       </c>
       <c r="H182"/>
     </row>
-    <row r="183" spans="1:8" ht="15.75" thickBot="1">
+    <row r="183" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A183" s="3">
         <v>179</v>
       </c>
@@ -6544,7 +6545,7 @@
       <c r="G183" s="35"/>
       <c r="H183"/>
     </row>
-    <row r="184" spans="1:8" ht="30.75" thickBot="1">
+    <row r="184" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A184" s="3">
         <v>180</v>
       </c>
@@ -6568,7 +6569,7 @@
       </c>
       <c r="H184"/>
     </row>
-    <row r="185" spans="1:8" ht="30.75" thickBot="1">
+    <row r="185" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A185" s="3">
         <v>181</v>
       </c>
@@ -6592,7 +6593,7 @@
       </c>
       <c r="H185"/>
     </row>
-    <row r="186" spans="1:8" ht="30.75" thickBot="1">
+    <row r="186" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A186" s="3">
         <v>182</v>
       </c>
@@ -6615,7 +6616,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="187" spans="1:8" ht="30.75" thickBot="1">
+    <row r="187" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A187" s="3">
         <v>183</v>
       </c>
@@ -6642,7 +6643,11 @@
   </sheetData>
   <autoFilter ref="A1:G187">
     <filterColumn colId="3"/>
-    <filterColumn colId="4"/>
+    <filterColumn colId="4">
+      <filters>
+        <filter val="Vicky"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="5"/>
   </autoFilter>
   <mergeCells count="6">

--- a/Planificacion/PlanificacionTesis.xlsx
+++ b/Planificacion/PlanificacionTesis.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="403">
   <si>
     <t>Nº</t>
   </si>
@@ -1230,6 +1230,18 @@
   </si>
   <si>
     <t>en Progreso</t>
+  </si>
+  <si>
+    <t>Registrar Tipo de Máquina</t>
+  </si>
+  <si>
+    <t>Modificar Tipode Máquina</t>
+  </si>
+  <si>
+    <t>Consultar Tipo de Máquina</t>
+  </si>
+  <si>
+    <t>Eliminar Tipo de Máquina</t>
   </si>
 </sst>
 </file>
@@ -1596,7 +1608,45 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="50">
+  <dxfs count="55">
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color auto="1"/>
@@ -2272,11 +2322,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:L187"/>
+  <dimension ref="A1:L191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="C179" workbookViewId="0">
+      <selection activeCell="F191" sqref="F191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="119.42578125" defaultRowHeight="15"/>
@@ -2318,7 +2367,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="30.75" hidden="1" thickBot="1">
+    <row r="2" spans="1:12" ht="30.75" thickBot="1">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2422,7 +2471,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" hidden="1" thickBot="1">
+    <row r="6" spans="1:12" ht="15.75" thickBot="1">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -2473,7 +2522,7 @@
       </c>
       <c r="H7"/>
     </row>
-    <row r="8" spans="1:12" ht="15.75" hidden="1" thickBot="1">
+    <row r="8" spans="1:12" ht="15.75" thickBot="1">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -2499,7 +2548,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="30.75" hidden="1" thickBot="1">
+    <row r="9" spans="1:12" ht="30.75" thickBot="1">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -2525,7 +2574,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="30.75" hidden="1" thickBot="1">
+    <row r="10" spans="1:12" ht="30.75" thickBot="1">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -2550,7 +2599,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="30.75" hidden="1" thickBot="1">
+    <row r="11" spans="1:12" ht="30.75" thickBot="1">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -2576,7 +2625,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="30.75" hidden="1" thickBot="1">
+    <row r="12" spans="1:12" ht="30.75" thickBot="1">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -2602,7 +2651,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="30.75" hidden="1" thickBot="1">
+    <row r="13" spans="1:12" ht="30.75" thickBot="1">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -2625,7 +2674,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="30.75" hidden="1" thickBot="1">
+    <row r="14" spans="1:12" ht="30.75" thickBot="1">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -2651,7 +2700,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15.75" hidden="1" thickBot="1">
+    <row r="15" spans="1:12" ht="15.75" thickBot="1">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -2676,7 +2725,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="30.75" hidden="1" thickBot="1">
+    <row r="16" spans="1:12" ht="30.75" thickBot="1">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -2701,7 +2750,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15.75" hidden="1" thickBot="1">
+    <row r="17" spans="1:12" ht="15.75" thickBot="1">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -2727,7 +2776,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="30.75" hidden="1" thickBot="1">
+    <row r="18" spans="1:12" ht="30.75" thickBot="1">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -2753,7 +2802,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15.75" hidden="1" thickBot="1">
+    <row r="19" spans="1:12" ht="15.75" thickBot="1">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -2779,7 +2828,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15.75" hidden="1" thickBot="1">
+    <row r="20" spans="1:12" ht="15.75" thickBot="1">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -2805,7 +2854,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15.75" hidden="1" thickBot="1">
+    <row r="21" spans="1:12" ht="15.75" thickBot="1">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -2828,7 +2877,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15.75" hidden="1" thickBot="1">
+    <row r="22" spans="1:12" ht="15.75" thickBot="1">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -2850,7 +2899,7 @@
       </c>
       <c r="H22"/>
     </row>
-    <row r="23" spans="1:12" ht="30.75" hidden="1" thickBot="1">
+    <row r="23" spans="1:12" ht="30.75" thickBot="1">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -2872,7 +2921,7 @@
       </c>
       <c r="H23"/>
     </row>
-    <row r="24" spans="1:12" ht="30.75" hidden="1" thickBot="1">
+    <row r="24" spans="1:12" ht="30.75" thickBot="1">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -2894,7 +2943,7 @@
       </c>
       <c r="H24"/>
     </row>
-    <row r="25" spans="1:12" ht="30.75" hidden="1" thickBot="1">
+    <row r="25" spans="1:12" ht="30.75" thickBot="1">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -2916,7 +2965,7 @@
       </c>
       <c r="H25"/>
     </row>
-    <row r="26" spans="1:12" ht="30.75" hidden="1" thickBot="1">
+    <row r="26" spans="1:12" ht="30.75" thickBot="1">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -2938,7 +2987,7 @@
       </c>
       <c r="H26"/>
     </row>
-    <row r="27" spans="1:12" ht="15.75" hidden="1" thickBot="1">
+    <row r="27" spans="1:12" ht="15.75" thickBot="1">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -2984,7 +3033,7 @@
       </c>
       <c r="H28"/>
     </row>
-    <row r="29" spans="1:12" ht="15.75" hidden="1" thickBot="1">
+    <row r="29" spans="1:12" ht="15.75" thickBot="1">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -3006,7 +3055,7 @@
       </c>
       <c r="H29"/>
     </row>
-    <row r="30" spans="1:12" ht="30.75" hidden="1" thickBot="1">
+    <row r="30" spans="1:12" ht="30.75" thickBot="1">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -3028,7 +3077,7 @@
       </c>
       <c r="H30"/>
     </row>
-    <row r="31" spans="1:12" ht="15.75" hidden="1" thickBot="1">
+    <row r="31" spans="1:12" ht="15.75" thickBot="1">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -3051,7 +3100,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="15.75" hidden="1" thickBot="1">
+    <row r="32" spans="1:12" ht="15.75" thickBot="1">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -3073,7 +3122,7 @@
       </c>
       <c r="H32"/>
     </row>
-    <row r="33" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="33" spans="1:8" ht="30.75" thickBot="1">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -3095,7 +3144,7 @@
       </c>
       <c r="H33"/>
     </row>
-    <row r="34" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="34" spans="1:8" ht="15.75" thickBot="1">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -3118,7 +3167,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="35" spans="1:8" ht="30.75" thickBot="1">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -3142,7 +3191,7 @@
       </c>
       <c r="H35"/>
     </row>
-    <row r="36" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="36" spans="1:8" ht="15.75" thickBot="1">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -3164,7 +3213,7 @@
       </c>
       <c r="H36"/>
     </row>
-    <row r="37" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="37" spans="1:8" ht="15.75" thickBot="1">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -3186,7 +3235,7 @@
       </c>
       <c r="H37"/>
     </row>
-    <row r="38" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="38" spans="1:8" ht="15.75" thickBot="1">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -3208,7 +3257,7 @@
       </c>
       <c r="H38"/>
     </row>
-    <row r="39" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="39" spans="1:8" ht="15.75" thickBot="1">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -3230,7 +3279,7 @@
       </c>
       <c r="H39"/>
     </row>
-    <row r="40" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="40" spans="1:8" ht="15.75" thickBot="1">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -3252,7 +3301,7 @@
       </c>
       <c r="H40"/>
     </row>
-    <row r="41" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="41" spans="1:8" ht="15.75" thickBot="1">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -3274,7 +3323,7 @@
       </c>
       <c r="H41"/>
     </row>
-    <row r="42" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="42" spans="1:8" ht="15.75" thickBot="1">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -3296,7 +3345,7 @@
       </c>
       <c r="H42"/>
     </row>
-    <row r="43" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="43" spans="1:8" ht="15.75" thickBot="1">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -3342,7 +3391,7 @@
       </c>
       <c r="H44"/>
     </row>
-    <row r="45" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="45" spans="1:8" ht="15.75" thickBot="1">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -3389,7 +3438,7 @@
       </c>
       <c r="H46"/>
     </row>
-    <row r="47" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="47" spans="1:8" ht="30.75" thickBot="1">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -3435,7 +3484,7 @@
       </c>
       <c r="H48"/>
     </row>
-    <row r="49" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="49" spans="1:8" ht="15.75" thickBot="1">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -3459,7 +3508,7 @@
       </c>
       <c r="H49"/>
     </row>
-    <row r="50" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="50" spans="1:8" ht="15.75" thickBot="1">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -3483,7 +3532,7 @@
       </c>
       <c r="H50"/>
     </row>
-    <row r="51" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="51" spans="1:8" ht="30.75" thickBot="1">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -3697,7 +3746,7 @@
       </c>
       <c r="H59"/>
     </row>
-    <row r="60" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="60" spans="1:8" ht="15.75" thickBot="1">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -3721,7 +3770,7 @@
       </c>
       <c r="H60"/>
     </row>
-    <row r="61" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="61" spans="1:8" ht="15.75" thickBot="1">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -3745,7 +3794,7 @@
       </c>
       <c r="H61"/>
     </row>
-    <row r="62" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="62" spans="1:8" ht="15.75" thickBot="1">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -3769,7 +3818,7 @@
       </c>
       <c r="H62"/>
     </row>
-    <row r="63" spans="1:8" ht="60.75" hidden="1" thickBot="1">
+    <row r="63" spans="1:8" ht="60.75" thickBot="1">
       <c r="A63" s="3">
         <v>62</v>
       </c>
@@ -3795,7 +3844,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="64" spans="1:8" ht="30.75" thickBot="1">
       <c r="A64" s="3">
         <v>63</v>
       </c>
@@ -3914,7 +3963,7 @@
       </c>
       <c r="H68"/>
     </row>
-    <row r="69" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="69" spans="1:8" ht="30.75" thickBot="1">
       <c r="A69" s="3">
         <v>68</v>
       </c>
@@ -3937,7 +3986,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="70" spans="1:8" ht="15.75" thickBot="1">
       <c r="A70" s="3">
         <v>69</v>
       </c>
@@ -3960,7 +4009,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="71" spans="1:8" ht="30.75" thickBot="1">
       <c r="A71" s="3">
         <v>70</v>
       </c>
@@ -3983,7 +4032,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="72" spans="1:8" ht="15.75" thickBot="1">
       <c r="A72" s="3">
         <v>71</v>
       </c>
@@ -4006,7 +4055,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="73" spans="1:8" ht="30.75" thickBot="1">
       <c r="A73" s="3">
         <v>72</v>
       </c>
@@ -4053,7 +4102,7 @@
       </c>
       <c r="H74"/>
     </row>
-    <row r="75" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="75" spans="1:8" ht="15.75" thickBot="1">
       <c r="A75" s="3">
         <v>74</v>
       </c>
@@ -4075,7 +4124,7 @@
       </c>
       <c r="H75"/>
     </row>
-    <row r="76" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="76" spans="1:8" ht="30.75" thickBot="1">
       <c r="A76" s="3">
         <v>75</v>
       </c>
@@ -4123,7 +4172,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="78" spans="1:8" ht="15.75" thickBot="1">
       <c r="A78" s="3">
         <v>77</v>
       </c>
@@ -4146,7 +4195,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="79" spans="1:8" ht="15.75" thickBot="1">
       <c r="A79" s="3">
         <v>78</v>
       </c>
@@ -4169,7 +4218,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="80" spans="1:8" ht="15.75" thickBot="1">
       <c r="A80" s="3">
         <v>79</v>
       </c>
@@ -4192,7 +4241,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="81" spans="1:8" ht="15.75" thickBot="1">
       <c r="A81" s="3">
         <v>80</v>
       </c>
@@ -4215,7 +4264,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="82" spans="1:8" ht="15.75" thickBot="1">
       <c r="A82" s="3">
         <v>81</v>
       </c>
@@ -4238,7 +4287,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="83" spans="1:8" ht="15.75" thickBot="1">
       <c r="A83" s="3">
         <v>82</v>
       </c>
@@ -4261,7 +4310,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="84" spans="1:8" ht="15.75" thickBot="1">
       <c r="A84" s="3">
         <v>83</v>
       </c>
@@ -4284,7 +4333,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="85" spans="1:8" ht="15.75" thickBot="1">
       <c r="A85" s="3">
         <v>84</v>
       </c>
@@ -4403,7 +4452,7 @@
       </c>
       <c r="H89"/>
     </row>
-    <row r="90" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="90" spans="1:8" ht="15.75" thickBot="1">
       <c r="A90" s="3">
         <v>89</v>
       </c>
@@ -4426,7 +4475,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="91" spans="1:8" ht="15.75" thickBot="1">
       <c r="A91" s="3">
         <v>90</v>
       </c>
@@ -4449,7 +4498,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="92" spans="1:8" ht="15.75" thickBot="1">
       <c r="A92" s="3">
         <v>91</v>
       </c>
@@ -4472,7 +4521,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="93" spans="1:8" ht="15.75" thickBot="1">
       <c r="A93" s="3">
         <v>92</v>
       </c>
@@ -4495,7 +4544,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="94" spans="1:8" ht="30.75" thickBot="1">
       <c r="A94" s="3">
         <v>93</v>
       </c>
@@ -4519,7 +4568,7 @@
       </c>
       <c r="H94"/>
     </row>
-    <row r="95" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="95" spans="1:8" ht="15.75" thickBot="1">
       <c r="A95" s="3">
         <v>94</v>
       </c>
@@ -4543,7 +4592,7 @@
       </c>
       <c r="H95"/>
     </row>
-    <row r="96" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="96" spans="1:8" ht="30.75" thickBot="1">
       <c r="A96" s="3">
         <v>95</v>
       </c>
@@ -4567,7 +4616,7 @@
       </c>
       <c r="H96"/>
     </row>
-    <row r="97" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
+    <row r="97" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A97" s="3">
         <v>96</v>
       </c>
@@ -4590,7 +4639,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="98" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
+    <row r="98" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A98" s="3">
         <v>97</v>
       </c>
@@ -4613,7 +4662,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="99" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="99" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A99" s="3">
         <v>98</v>
       </c>
@@ -4636,7 +4685,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="100" spans="1:7" customFormat="1" ht="45.75" hidden="1" thickBot="1">
+    <row r="100" spans="1:7" customFormat="1" ht="45.75" thickBot="1">
       <c r="A100" s="3">
         <v>99</v>
       </c>
@@ -4659,7 +4708,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="101" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
+    <row r="101" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A101" s="3">
         <v>100</v>
       </c>
@@ -4682,7 +4731,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="102" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="102" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A102" s="3">
         <v>101</v>
       </c>
@@ -4703,7 +4752,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="103" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
+    <row r="103" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A103" s="3">
         <v>102</v>
       </c>
@@ -4726,7 +4775,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="104" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
+    <row r="104" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A104" s="3">
         <v>103</v>
       </c>
@@ -4749,7 +4798,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="105" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="105" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A105" s="3">
         <v>104</v>
       </c>
@@ -4839,7 +4888,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="109" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="109" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A109" s="3">
         <v>108</v>
       </c>
@@ -4860,7 +4909,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="110" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="110" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A110" s="3">
         <v>109</v>
       </c>
@@ -4881,7 +4930,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="111" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="111" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A111" s="3">
         <v>110</v>
       </c>
@@ -4927,7 +4976,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="45.75" hidden="1" thickBot="1">
+    <row r="113" spans="1:8" ht="45.75" thickBot="1">
       <c r="A113" s="3">
         <v>112</v>
       </c>
@@ -4950,7 +4999,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="114" spans="1:8" ht="30.75" thickBot="1">
       <c r="A114" s="3">
         <v>113</v>
       </c>
@@ -4973,7 +5022,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="45.75" hidden="1" thickBot="1">
+    <row r="115" spans="1:8" ht="45.75" thickBot="1">
       <c r="A115" s="3">
         <v>114</v>
       </c>
@@ -4996,7 +5045,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="116" spans="1:8" ht="15.75" thickBot="1">
       <c r="A116" s="3">
         <v>115</v>
       </c>
@@ -5019,7 +5068,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="117" spans="1:8" ht="15.75" thickBot="1">
       <c r="A117" s="3">
         <v>116</v>
       </c>
@@ -5042,7 +5091,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="118" spans="1:8" ht="30.75" thickBot="1">
       <c r="A118" s="3">
         <v>117</v>
       </c>
@@ -5065,7 +5114,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="119" spans="1:8" ht="15.75" thickBot="1">
       <c r="A119" s="3">
         <v>118</v>
       </c>
@@ -5088,7 +5137,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="120" spans="1:8" ht="30.75" thickBot="1">
       <c r="A120" s="3">
         <v>119</v>
       </c>
@@ -5111,7 +5160,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="121" spans="1:8" ht="15.75" thickBot="1">
       <c r="A121" s="3">
         <v>120</v>
       </c>
@@ -5134,7 +5183,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="122" spans="1:8" ht="15.75" thickBot="1">
       <c r="A122" s="3">
         <v>121</v>
       </c>
@@ -5347,7 +5396,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="131" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
+    <row r="131" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A131" s="3">
         <v>130</v>
       </c>
@@ -5462,7 +5511,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="136" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="136" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A136" s="3">
         <v>135</v>
       </c>
@@ -5529,7 +5578,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="139" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="139" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A139" s="3">
         <v>138</v>
       </c>
@@ -5550,7 +5599,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="140" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="140" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A140" s="3">
         <v>139</v>
       </c>
@@ -5571,7 +5620,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="141" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="141" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A141" s="3">
         <v>140</v>
       </c>
@@ -5592,7 +5641,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="142" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="142" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A142" s="3">
         <v>141</v>
       </c>
@@ -5613,7 +5662,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="143" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="143" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A143" s="3">
         <v>142</v>
       </c>
@@ -5634,7 +5683,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="144" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="144" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A144" s="3">
         <v>143</v>
       </c>
@@ -5655,7 +5704,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="145" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="145" spans="1:8" ht="30.75" thickBot="1">
       <c r="A145" s="3">
         <v>144</v>
       </c>
@@ -5679,7 +5728,7 @@
       </c>
       <c r="H145"/>
     </row>
-    <row r="146" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="146" spans="1:8" ht="30.75" thickBot="1">
       <c r="A146" s="3">
         <v>145</v>
       </c>
@@ -5703,7 +5752,7 @@
       </c>
       <c r="H146"/>
     </row>
-    <row r="147" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="147" spans="1:8" ht="30.75" thickBot="1">
       <c r="A147" s="3">
         <v>146</v>
       </c>
@@ -5727,7 +5776,7 @@
       </c>
       <c r="H147"/>
     </row>
-    <row r="148" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="148" spans="1:8" ht="30.75" thickBot="1">
       <c r="A148" s="3">
         <v>147</v>
       </c>
@@ -5751,7 +5800,7 @@
       </c>
       <c r="H148"/>
     </row>
-    <row r="149" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="149" spans="1:8" ht="30.75" thickBot="1">
       <c r="A149" s="3">
         <v>148</v>
       </c>
@@ -5775,7 +5824,7 @@
       </c>
       <c r="H149"/>
     </row>
-    <row r="150" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="150" spans="1:8" ht="30.75" thickBot="1">
       <c r="A150" s="3">
         <v>149</v>
       </c>
@@ -5799,7 +5848,7 @@
       </c>
       <c r="H150"/>
     </row>
-    <row r="151" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="151" spans="1:8" ht="30.75" thickBot="1">
       <c r="A151" s="3">
         <v>150</v>
       </c>
@@ -5823,7 +5872,7 @@
       </c>
       <c r="H151"/>
     </row>
-    <row r="152" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="152" spans="1:8" ht="30.75" thickBot="1">
       <c r="A152" s="3">
         <v>151</v>
       </c>
@@ -5847,7 +5896,7 @@
       </c>
       <c r="H152"/>
     </row>
-    <row r="153" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="153" spans="1:8" ht="30.75" thickBot="1">
       <c r="A153" s="3">
         <v>152</v>
       </c>
@@ -5871,7 +5920,7 @@
       </c>
       <c r="H153"/>
     </row>
-    <row r="154" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="154" spans="1:8" ht="30.75" thickBot="1">
       <c r="A154" s="3">
         <v>153</v>
       </c>
@@ -5919,7 +5968,7 @@
       </c>
       <c r="H155"/>
     </row>
-    <row r="156" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="156" spans="1:8" ht="30.75" thickBot="1">
       <c r="A156" s="3">
         <v>154</v>
       </c>
@@ -5943,7 +5992,7 @@
       </c>
       <c r="H156"/>
     </row>
-    <row r="157" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="157" spans="1:8" ht="30.75" thickBot="1">
       <c r="A157" s="3">
         <v>155</v>
       </c>
@@ -5967,7 +6016,7 @@
       </c>
       <c r="H157"/>
     </row>
-    <row r="158" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="158" spans="1:8" ht="30.75" thickBot="1">
       <c r="A158" s="3">
         <v>156</v>
       </c>
@@ -5991,7 +6040,7 @@
       </c>
       <c r="H158"/>
     </row>
-    <row r="159" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="159" spans="1:8" ht="30.75" thickBot="1">
       <c r="A159" s="3">
         <v>157</v>
       </c>
@@ -6015,7 +6064,7 @@
       </c>
       <c r="H159"/>
     </row>
-    <row r="160" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="160" spans="1:8" ht="30.75" thickBot="1">
       <c r="A160" s="3">
         <v>158</v>
       </c>
@@ -6039,7 +6088,7 @@
       </c>
       <c r="H160"/>
     </row>
-    <row r="161" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="161" spans="1:8" ht="30.75" thickBot="1">
       <c r="A161" s="3">
         <v>159</v>
       </c>
@@ -6063,7 +6112,7 @@
       </c>
       <c r="H161"/>
     </row>
-    <row r="162" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="162" spans="1:8" ht="30.75" thickBot="1">
       <c r="A162" s="3">
         <v>160</v>
       </c>
@@ -6087,7 +6136,7 @@
       </c>
       <c r="H162"/>
     </row>
-    <row r="163" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="163" spans="1:8" ht="30.75" thickBot="1">
       <c r="A163" s="3">
         <v>161</v>
       </c>
@@ -6111,7 +6160,7 @@
       </c>
       <c r="H163"/>
     </row>
-    <row r="164" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="164" spans="1:8" ht="30.75" thickBot="1">
       <c r="A164" s="3">
         <v>162</v>
       </c>
@@ -6133,7 +6182,7 @@
       </c>
       <c r="H164"/>
     </row>
-    <row r="165" spans="1:8" ht="45.75" hidden="1" thickBot="1">
+    <row r="165" spans="1:8" ht="45.75" thickBot="1">
       <c r="A165" s="3">
         <v>163</v>
       </c>
@@ -6155,7 +6204,7 @@
       </c>
       <c r="H165"/>
     </row>
-    <row r="166" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="166" spans="1:8" ht="30.75" thickBot="1">
       <c r="A166" s="3">
         <v>164</v>
       </c>
@@ -6177,7 +6226,7 @@
       </c>
       <c r="H166"/>
     </row>
-    <row r="167" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="167" spans="1:8" ht="30.75" thickBot="1">
       <c r="A167" s="3">
         <v>165</v>
       </c>
@@ -6199,7 +6248,7 @@
       </c>
       <c r="H167"/>
     </row>
-    <row r="168" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="168" spans="1:8" ht="30.75" thickBot="1">
       <c r="A168" s="3">
         <v>166</v>
       </c>
@@ -6221,7 +6270,7 @@
       </c>
       <c r="H168"/>
     </row>
-    <row r="169" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="169" spans="1:8" ht="30.75" thickBot="1">
       <c r="A169" s="3">
         <v>167</v>
       </c>
@@ -6243,7 +6292,7 @@
       </c>
       <c r="H169"/>
     </row>
-    <row r="170" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="170" spans="1:8" ht="30.75" thickBot="1">
       <c r="A170" s="3">
         <v>168</v>
       </c>
@@ -6265,7 +6314,7 @@
       </c>
       <c r="H170"/>
     </row>
-    <row r="171" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="171" spans="1:8" ht="30.75" thickBot="1">
       <c r="A171" s="3">
         <v>169</v>
       </c>
@@ -6287,7 +6336,7 @@
       </c>
       <c r="H171"/>
     </row>
-    <row r="172" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="172" spans="1:8" ht="30.75" thickBot="1">
       <c r="A172" s="3">
         <v>170</v>
       </c>
@@ -6309,7 +6358,7 @@
       </c>
       <c r="H172"/>
     </row>
-    <row r="173" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="173" spans="1:8" ht="30.75" thickBot="1">
       <c r="A173" s="3">
         <v>171</v>
       </c>
@@ -6331,7 +6380,7 @@
       </c>
       <c r="H173"/>
     </row>
-    <row r="174" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="174" spans="1:8" ht="30.75" thickBot="1">
       <c r="A174" s="3">
         <v>172</v>
       </c>
@@ -6353,7 +6402,7 @@
       </c>
       <c r="H174"/>
     </row>
-    <row r="175" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="175" spans="1:8" ht="30.75" thickBot="1">
       <c r="A175" s="3">
         <v>173</v>
       </c>
@@ -6375,7 +6424,7 @@
       </c>
       <c r="H175"/>
     </row>
-    <row r="176" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="176" spans="1:8" ht="30.75" thickBot="1">
       <c r="A176" s="3">
         <v>174</v>
       </c>
@@ -6397,7 +6446,7 @@
       </c>
       <c r="H176"/>
     </row>
-    <row r="177" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="177" spans="1:8" ht="30.75" thickBot="1">
       <c r="A177" s="3">
         <v>175</v>
       </c>
@@ -6419,7 +6468,7 @@
       </c>
       <c r="H177"/>
     </row>
-    <row r="178" spans="1:8" ht="60.75" hidden="1" thickBot="1">
+    <row r="178" spans="1:8" ht="60.75" thickBot="1">
       <c r="A178" s="3">
         <v>176</v>
       </c>
@@ -6441,7 +6490,7 @@
       </c>
       <c r="H178"/>
     </row>
-    <row r="179" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="179" spans="1:8" ht="15.75" thickBot="1">
       <c r="A179" s="3">
         <v>177</v>
       </c>
@@ -6487,7 +6536,7 @@
       </c>
       <c r="H180"/>
     </row>
-    <row r="181" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="181" spans="1:8" ht="30.75" thickBot="1">
       <c r="A181" s="27">
         <v>178</v>
       </c>
@@ -6511,7 +6560,7 @@
       </c>
       <c r="H181"/>
     </row>
-    <row r="182" spans="1:8" hidden="1">
+    <row r="182" spans="1:8">
       <c r="A182" s="10"/>
       <c r="B182" s="30" t="s">
         <v>297</v>
@@ -6533,7 +6582,7 @@
       </c>
       <c r="H182"/>
     </row>
-    <row r="183" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="183" spans="1:8" ht="15.75" thickBot="1">
       <c r="A183" s="3">
         <v>179</v>
       </c>
@@ -6545,7 +6594,7 @@
       <c r="G183" s="35"/>
       <c r="H183"/>
     </row>
-    <row r="184" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="184" spans="1:8" ht="30.75" thickBot="1">
       <c r="A184" s="3">
         <v>180</v>
       </c>
@@ -6569,7 +6618,7 @@
       </c>
       <c r="H184"/>
     </row>
-    <row r="185" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="185" spans="1:8" ht="30.75" thickBot="1">
       <c r="A185" s="3">
         <v>181</v>
       </c>
@@ -6593,7 +6642,7 @@
       </c>
       <c r="H185"/>
     </row>
-    <row r="186" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="186" spans="1:8" ht="30.75" thickBot="1">
       <c r="A186" s="3">
         <v>182</v>
       </c>
@@ -6616,7 +6665,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="187" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="187" spans="1:8" ht="30.75" thickBot="1">
       <c r="A187" s="3">
         <v>183</v>
       </c>
@@ -6639,15 +6688,71 @@
         <v>378</v>
       </c>
       <c r="H187"/>
+    </row>
+    <row r="188" spans="1:8" ht="15.75" thickBot="1">
+      <c r="C188" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="D188" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E188" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="F188" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="G188" s="7"/>
+    </row>
+    <row r="189" spans="1:8" ht="15.75" thickBot="1">
+      <c r="C189" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="D189" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E189" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="F189" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="G189" s="7"/>
+    </row>
+    <row r="190" spans="1:8" ht="15.75" thickBot="1">
+      <c r="C190" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="D190" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E190" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="F190" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="G190" s="7"/>
+    </row>
+    <row r="191" spans="1:8" ht="15.75" thickBot="1">
+      <c r="C191" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="D191" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E191" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="F191" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="G191" s="7"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G187">
     <filterColumn colId="3"/>
-    <filterColumn colId="4">
-      <filters>
-        <filter val="Vicky"/>
-      </filters>
-    </filterColumn>
+    <filterColumn colId="4"/>
     <filterColumn colId="5"/>
   </autoFilter>
   <mergeCells count="6">
@@ -6659,183 +6764,183 @@
     <mergeCell ref="F182:F183"/>
   </mergeCells>
   <conditionalFormatting sqref="H63 F1:F1048576">
-    <cfRule type="containsText" dxfId="49" priority="46" operator="containsText" text="Testeado con errores">
+    <cfRule type="containsText" dxfId="54" priority="46" operator="containsText" text="Testeado con errores">
       <formula>NOT(ISERROR(SEARCH("Testeado con errores",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="47" operator="containsText" text="Implementado">
+    <cfRule type="containsText" dxfId="53" priority="47" operator="containsText" text="Implementado">
       <formula>NOT(ISERROR(SEARCH("Implementado",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="47" priority="48" operator="containsText" text="En Progreso">
+    <cfRule type="containsText" dxfId="52" priority="48" operator="containsText" text="En Progreso">
       <formula>NOT(ISERROR(SEARCH("En Progreso",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="49" operator="containsText" text="Finalizado">
+    <cfRule type="containsText" dxfId="51" priority="49" operator="containsText" text="Finalizado">
       <formula>NOT(ISERROR(SEARCH("Finalizado",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="50" operator="containsText" text="Sin Empezar">
+    <cfRule type="containsText" dxfId="50" priority="50" operator="containsText" text="Sin Empezar">
       <formula>NOT(ISERROR(SEARCH("Sin Empezar",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L15">
-    <cfRule type="containsText" dxfId="44" priority="41" operator="containsText" text="Testeado con errores">
+    <cfRule type="containsText" dxfId="49" priority="41" operator="containsText" text="Testeado con errores">
       <formula>NOT(ISERROR(SEARCH("Testeado con errores",L15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="42" operator="containsText" text="Implementado">
+    <cfRule type="containsText" dxfId="48" priority="42" operator="containsText" text="Implementado">
       <formula>NOT(ISERROR(SEARCH("Implementado",L15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="43" operator="containsText" text="En Progreso">
+    <cfRule type="containsText" dxfId="47" priority="43" operator="containsText" text="En Progreso">
       <formula>NOT(ISERROR(SEARCH("En Progreso",L15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="44" operator="containsText" text="Finalizado">
+    <cfRule type="containsText" dxfId="46" priority="44" operator="containsText" text="Finalizado">
       <formula>NOT(ISERROR(SEARCH("Finalizado",L15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="45" operator="containsText" text="Sin Empezar">
+    <cfRule type="containsText" dxfId="45" priority="45" operator="containsText" text="Sin Empezar">
       <formula>NOT(ISERROR(SEARCH("Sin Empezar",L15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L16">
-    <cfRule type="containsText" dxfId="39" priority="36" operator="containsText" text="Testeado con errores">
+    <cfRule type="containsText" dxfId="44" priority="36" operator="containsText" text="Testeado con errores">
       <formula>NOT(ISERROR(SEARCH("Testeado con errores",L16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="37" operator="containsText" text="Implementado">
+    <cfRule type="containsText" dxfId="43" priority="37" operator="containsText" text="Implementado">
       <formula>NOT(ISERROR(SEARCH("Implementado",L16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="38" operator="containsText" text="En Progreso">
+    <cfRule type="containsText" dxfId="42" priority="38" operator="containsText" text="En Progreso">
       <formula>NOT(ISERROR(SEARCH("En Progreso",L16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="39" operator="containsText" text="Finalizado">
+    <cfRule type="containsText" dxfId="41" priority="39" operator="containsText" text="Finalizado">
       <formula>NOT(ISERROR(SEARCH("Finalizado",L16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="40" operator="containsText" text="Sin Empezar">
+    <cfRule type="containsText" dxfId="40" priority="40" operator="containsText" text="Sin Empezar">
       <formula>NOT(ISERROR(SEARCH("Sin Empezar",L16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L17">
-    <cfRule type="containsText" dxfId="34" priority="31" operator="containsText" text="Testeado con errores">
+    <cfRule type="containsText" dxfId="39" priority="31" operator="containsText" text="Testeado con errores">
       <formula>NOT(ISERROR(SEARCH("Testeado con errores",L17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="32" operator="containsText" text="Implementado">
+    <cfRule type="containsText" dxfId="38" priority="32" operator="containsText" text="Implementado">
       <formula>NOT(ISERROR(SEARCH("Implementado",L17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="33" operator="containsText" text="En Progreso">
+    <cfRule type="containsText" dxfId="37" priority="33" operator="containsText" text="En Progreso">
       <formula>NOT(ISERROR(SEARCH("En Progreso",L17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="34" operator="containsText" text="Finalizado">
+    <cfRule type="containsText" dxfId="36" priority="34" operator="containsText" text="Finalizado">
       <formula>NOT(ISERROR(SEARCH("Finalizado",L17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="35" operator="containsText" text="Sin Empezar">
+    <cfRule type="containsText" dxfId="35" priority="35" operator="containsText" text="Sin Empezar">
       <formula>NOT(ISERROR(SEARCH("Sin Empezar",L17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L18">
-    <cfRule type="containsText" dxfId="29" priority="26" operator="containsText" text="Testeado con errores">
+    <cfRule type="containsText" dxfId="34" priority="26" operator="containsText" text="Testeado con errores">
       <formula>NOT(ISERROR(SEARCH("Testeado con errores",L18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="27" operator="containsText" text="Implementado">
+    <cfRule type="containsText" dxfId="33" priority="27" operator="containsText" text="Implementado">
       <formula>NOT(ISERROR(SEARCH("Implementado",L18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="28" operator="containsText" text="En Progreso">
+    <cfRule type="containsText" dxfId="32" priority="28" operator="containsText" text="En Progreso">
       <formula>NOT(ISERROR(SEARCH("En Progreso",L18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="29" operator="containsText" text="Finalizado">
+    <cfRule type="containsText" dxfId="31" priority="29" operator="containsText" text="Finalizado">
       <formula>NOT(ISERROR(SEARCH("Finalizado",L18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="30" operator="containsText" text="Sin Empezar">
+    <cfRule type="containsText" dxfId="30" priority="30" operator="containsText" text="Sin Empezar">
       <formula>NOT(ISERROR(SEARCH("Sin Empezar",L18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L19">
-    <cfRule type="containsText" dxfId="24" priority="21" operator="containsText" text="Testeado con errores">
+    <cfRule type="containsText" dxfId="29" priority="21" operator="containsText" text="Testeado con errores">
       <formula>NOT(ISERROR(SEARCH("Testeado con errores",L19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="22" operator="containsText" text="Implementado">
+    <cfRule type="containsText" dxfId="28" priority="22" operator="containsText" text="Implementado">
       <formula>NOT(ISERROR(SEARCH("Implementado",L19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="23" operator="containsText" text="En Progreso">
+    <cfRule type="containsText" dxfId="27" priority="23" operator="containsText" text="En Progreso">
       <formula>NOT(ISERROR(SEARCH("En Progreso",L19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="24" operator="containsText" text="Finalizado">
+    <cfRule type="containsText" dxfId="26" priority="24" operator="containsText" text="Finalizado">
       <formula>NOT(ISERROR(SEARCH("Finalizado",L19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="25" operator="containsText" text="Sin Empezar">
+    <cfRule type="containsText" dxfId="25" priority="25" operator="containsText" text="Sin Empezar">
       <formula>NOT(ISERROR(SEARCH("Sin Empezar",L19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F181">
-    <cfRule type="containsText" dxfId="19" priority="16" operator="containsText" text="Testeado con errores">
+    <cfRule type="containsText" dxfId="24" priority="16" operator="containsText" text="Testeado con errores">
       <formula>NOT(ISERROR(SEARCH("Testeado con errores",F181)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="17" operator="containsText" text="Implementado">
+    <cfRule type="containsText" dxfId="23" priority="17" operator="containsText" text="Implementado">
       <formula>NOT(ISERROR(SEARCH("Implementado",F181)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="18" operator="containsText" text="En Progreso">
+    <cfRule type="containsText" dxfId="22" priority="18" operator="containsText" text="En Progreso">
       <formula>NOT(ISERROR(SEARCH("En Progreso",F181)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="19" operator="containsText" text="Finalizado">
+    <cfRule type="containsText" dxfId="21" priority="19" operator="containsText" text="Finalizado">
       <formula>NOT(ISERROR(SEARCH("Finalizado",F181)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="20" operator="containsText" text="Sin Empezar">
+    <cfRule type="containsText" dxfId="20" priority="20" operator="containsText" text="Sin Empezar">
       <formula>NOT(ISERROR(SEARCH("Sin Empezar",F181)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F155">
-    <cfRule type="containsText" dxfId="14" priority="11" operator="containsText" text="Testeado con errores">
+    <cfRule type="containsText" dxfId="19" priority="11" operator="containsText" text="Testeado con errores">
       <formula>NOT(ISERROR(SEARCH("Testeado con errores",F155)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="12" operator="containsText" text="Implementado">
+    <cfRule type="containsText" dxfId="18" priority="12" operator="containsText" text="Implementado">
       <formula>NOT(ISERROR(SEARCH("Implementado",F155)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="En Progreso">
+    <cfRule type="containsText" dxfId="17" priority="13" operator="containsText" text="En Progreso">
       <formula>NOT(ISERROR(SEARCH("En Progreso",F155)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="14" operator="containsText" text="Finalizado">
+    <cfRule type="containsText" dxfId="16" priority="14" operator="containsText" text="Finalizado">
       <formula>NOT(ISERROR(SEARCH("Finalizado",F155)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="15" operator="containsText" text="Sin Empezar">
+    <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="Sin Empezar">
       <formula>NOT(ISERROR(SEARCH("Sin Empezar",F155)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L20">
-    <cfRule type="containsText" dxfId="9" priority="6" operator="containsText" text="Testeado con errores">
+    <cfRule type="containsText" dxfId="14" priority="6" operator="containsText" text="Testeado con errores">
       <formula>NOT(ISERROR(SEARCH("Testeado con errores",L20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="Implementado">
+    <cfRule type="containsText" dxfId="13" priority="7" operator="containsText" text="Implementado">
       <formula>NOT(ISERROR(SEARCH("Implementado",L20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="En Progreso">
+    <cfRule type="containsText" dxfId="12" priority="8" operator="containsText" text="En Progreso">
       <formula>NOT(ISERROR(SEARCH("En Progreso",L20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="Finalizado">
+    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="Finalizado">
       <formula>NOT(ISERROR(SEARCH("Finalizado",L20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="10" operator="containsText" text="Sin Empezar">
+    <cfRule type="containsText" dxfId="10" priority="10" operator="containsText" text="Sin Empezar">
       <formula>NOT(ISERROR(SEARCH("Sin Empezar",L20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F77">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="Testeado con errores">
+    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="Testeado con errores">
       <formula>NOT(ISERROR(SEARCH("Testeado con errores",F77)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="Implementado">
+    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="Implementado">
       <formula>NOT(ISERROR(SEARCH("Implementado",F77)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="En Progreso">
+    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="En Progreso">
       <formula>NOT(ISERROR(SEARCH("En Progreso",F77)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="Finalizado">
+    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="Finalizado">
       <formula>NOT(ISERROR(SEARCH("Finalizado",F77)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="5" operator="containsText" text="Sin Empezar">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="Sin Empezar">
       <formula>NOT(ISERROR(SEARCH("Sin Empezar",F77)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D187">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D191">
       <formula1>$L$4:$L$6</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E187">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E191">
       <formula1>$L$9:$L$12</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F187">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F191">
       <formula1>Sin_Empezar</formula1>
     </dataValidation>
   </dataValidations>

--- a/Planificacion/PlanificacionTesis.xlsx
+++ b/Planificacion/PlanificacionTesis.xlsx
@@ -1608,45 +1608,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="55">
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="50">
     <dxf>
       <font>
         <color auto="1"/>
@@ -2324,8 +2286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C179" workbookViewId="0">
-      <selection activeCell="F191" sqref="F191"/>
+    <sheetView tabSelected="1" topLeftCell="C59" workbookViewId="0">
+      <selection activeCell="F135" sqref="F135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="119.42578125" defaultRowHeight="15"/>
@@ -5459,7 +5421,7 @@
         <v>387</v>
       </c>
       <c r="F133" s="16" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="G133" s="7" t="s">
         <v>275</v>
@@ -5505,7 +5467,7 @@
         <v>387</v>
       </c>
       <c r="F135" s="16" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="G135" s="7" t="s">
         <v>115</v>
@@ -6764,172 +6726,172 @@
     <mergeCell ref="F182:F183"/>
   </mergeCells>
   <conditionalFormatting sqref="H63 F1:F1048576">
-    <cfRule type="containsText" dxfId="54" priority="46" operator="containsText" text="Testeado con errores">
+    <cfRule type="containsText" dxfId="49" priority="46" operator="containsText" text="Testeado con errores">
       <formula>NOT(ISERROR(SEARCH("Testeado con errores",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="47" operator="containsText" text="Implementado">
+    <cfRule type="containsText" dxfId="48" priority="47" operator="containsText" text="Implementado">
       <formula>NOT(ISERROR(SEARCH("Implementado",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="48" operator="containsText" text="En Progreso">
+    <cfRule type="containsText" dxfId="47" priority="48" operator="containsText" text="En Progreso">
       <formula>NOT(ISERROR(SEARCH("En Progreso",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="49" operator="containsText" text="Finalizado">
+    <cfRule type="containsText" dxfId="46" priority="49" operator="containsText" text="Finalizado">
       <formula>NOT(ISERROR(SEARCH("Finalizado",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="50" operator="containsText" text="Sin Empezar">
+    <cfRule type="containsText" dxfId="45" priority="50" operator="containsText" text="Sin Empezar">
       <formula>NOT(ISERROR(SEARCH("Sin Empezar",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L15">
-    <cfRule type="containsText" dxfId="49" priority="41" operator="containsText" text="Testeado con errores">
+    <cfRule type="containsText" dxfId="44" priority="41" operator="containsText" text="Testeado con errores">
       <formula>NOT(ISERROR(SEARCH("Testeado con errores",L15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="42" operator="containsText" text="Implementado">
+    <cfRule type="containsText" dxfId="43" priority="42" operator="containsText" text="Implementado">
       <formula>NOT(ISERROR(SEARCH("Implementado",L15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="47" priority="43" operator="containsText" text="En Progreso">
+    <cfRule type="containsText" dxfId="42" priority="43" operator="containsText" text="En Progreso">
       <formula>NOT(ISERROR(SEARCH("En Progreso",L15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="44" operator="containsText" text="Finalizado">
+    <cfRule type="containsText" dxfId="41" priority="44" operator="containsText" text="Finalizado">
       <formula>NOT(ISERROR(SEARCH("Finalizado",L15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="45" operator="containsText" text="Sin Empezar">
+    <cfRule type="containsText" dxfId="40" priority="45" operator="containsText" text="Sin Empezar">
       <formula>NOT(ISERROR(SEARCH("Sin Empezar",L15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L16">
-    <cfRule type="containsText" dxfId="44" priority="36" operator="containsText" text="Testeado con errores">
+    <cfRule type="containsText" dxfId="39" priority="36" operator="containsText" text="Testeado con errores">
       <formula>NOT(ISERROR(SEARCH("Testeado con errores",L16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="37" operator="containsText" text="Implementado">
+    <cfRule type="containsText" dxfId="38" priority="37" operator="containsText" text="Implementado">
       <formula>NOT(ISERROR(SEARCH("Implementado",L16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="38" operator="containsText" text="En Progreso">
+    <cfRule type="containsText" dxfId="37" priority="38" operator="containsText" text="En Progreso">
       <formula>NOT(ISERROR(SEARCH("En Progreso",L16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="39" operator="containsText" text="Finalizado">
+    <cfRule type="containsText" dxfId="36" priority="39" operator="containsText" text="Finalizado">
       <formula>NOT(ISERROR(SEARCH("Finalizado",L16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="40" operator="containsText" text="Sin Empezar">
+    <cfRule type="containsText" dxfId="35" priority="40" operator="containsText" text="Sin Empezar">
       <formula>NOT(ISERROR(SEARCH("Sin Empezar",L16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L17">
-    <cfRule type="containsText" dxfId="39" priority="31" operator="containsText" text="Testeado con errores">
+    <cfRule type="containsText" dxfId="34" priority="31" operator="containsText" text="Testeado con errores">
       <formula>NOT(ISERROR(SEARCH("Testeado con errores",L17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="32" operator="containsText" text="Implementado">
+    <cfRule type="containsText" dxfId="33" priority="32" operator="containsText" text="Implementado">
       <formula>NOT(ISERROR(SEARCH("Implementado",L17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="33" operator="containsText" text="En Progreso">
+    <cfRule type="containsText" dxfId="32" priority="33" operator="containsText" text="En Progreso">
       <formula>NOT(ISERROR(SEARCH("En Progreso",L17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="34" operator="containsText" text="Finalizado">
+    <cfRule type="containsText" dxfId="31" priority="34" operator="containsText" text="Finalizado">
       <formula>NOT(ISERROR(SEARCH("Finalizado",L17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="35" operator="containsText" text="Sin Empezar">
+    <cfRule type="containsText" dxfId="30" priority="35" operator="containsText" text="Sin Empezar">
       <formula>NOT(ISERROR(SEARCH("Sin Empezar",L17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L18">
-    <cfRule type="containsText" dxfId="34" priority="26" operator="containsText" text="Testeado con errores">
+    <cfRule type="containsText" dxfId="29" priority="26" operator="containsText" text="Testeado con errores">
       <formula>NOT(ISERROR(SEARCH("Testeado con errores",L18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="27" operator="containsText" text="Implementado">
+    <cfRule type="containsText" dxfId="28" priority="27" operator="containsText" text="Implementado">
       <formula>NOT(ISERROR(SEARCH("Implementado",L18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="28" operator="containsText" text="En Progreso">
+    <cfRule type="containsText" dxfId="27" priority="28" operator="containsText" text="En Progreso">
       <formula>NOT(ISERROR(SEARCH("En Progreso",L18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="29" operator="containsText" text="Finalizado">
+    <cfRule type="containsText" dxfId="26" priority="29" operator="containsText" text="Finalizado">
       <formula>NOT(ISERROR(SEARCH("Finalizado",L18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="30" operator="containsText" text="Sin Empezar">
+    <cfRule type="containsText" dxfId="25" priority="30" operator="containsText" text="Sin Empezar">
       <formula>NOT(ISERROR(SEARCH("Sin Empezar",L18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L19">
-    <cfRule type="containsText" dxfId="29" priority="21" operator="containsText" text="Testeado con errores">
+    <cfRule type="containsText" dxfId="24" priority="21" operator="containsText" text="Testeado con errores">
       <formula>NOT(ISERROR(SEARCH("Testeado con errores",L19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="22" operator="containsText" text="Implementado">
+    <cfRule type="containsText" dxfId="23" priority="22" operator="containsText" text="Implementado">
       <formula>NOT(ISERROR(SEARCH("Implementado",L19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="23" operator="containsText" text="En Progreso">
+    <cfRule type="containsText" dxfId="22" priority="23" operator="containsText" text="En Progreso">
       <formula>NOT(ISERROR(SEARCH("En Progreso",L19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="24" operator="containsText" text="Finalizado">
+    <cfRule type="containsText" dxfId="21" priority="24" operator="containsText" text="Finalizado">
       <formula>NOT(ISERROR(SEARCH("Finalizado",L19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="25" operator="containsText" text="Sin Empezar">
+    <cfRule type="containsText" dxfId="20" priority="25" operator="containsText" text="Sin Empezar">
       <formula>NOT(ISERROR(SEARCH("Sin Empezar",L19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F181">
-    <cfRule type="containsText" dxfId="24" priority="16" operator="containsText" text="Testeado con errores">
+    <cfRule type="containsText" dxfId="19" priority="16" operator="containsText" text="Testeado con errores">
       <formula>NOT(ISERROR(SEARCH("Testeado con errores",F181)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="17" operator="containsText" text="Implementado">
+    <cfRule type="containsText" dxfId="18" priority="17" operator="containsText" text="Implementado">
       <formula>NOT(ISERROR(SEARCH("Implementado",F181)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="18" operator="containsText" text="En Progreso">
+    <cfRule type="containsText" dxfId="17" priority="18" operator="containsText" text="En Progreso">
       <formula>NOT(ISERROR(SEARCH("En Progreso",F181)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="19" operator="containsText" text="Finalizado">
+    <cfRule type="containsText" dxfId="16" priority="19" operator="containsText" text="Finalizado">
       <formula>NOT(ISERROR(SEARCH("Finalizado",F181)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="20" operator="containsText" text="Sin Empezar">
+    <cfRule type="containsText" dxfId="15" priority="20" operator="containsText" text="Sin Empezar">
       <formula>NOT(ISERROR(SEARCH("Sin Empezar",F181)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F155">
-    <cfRule type="containsText" dxfId="19" priority="11" operator="containsText" text="Testeado con errores">
+    <cfRule type="containsText" dxfId="14" priority="11" operator="containsText" text="Testeado con errores">
       <formula>NOT(ISERROR(SEARCH("Testeado con errores",F155)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="12" operator="containsText" text="Implementado">
+    <cfRule type="containsText" dxfId="13" priority="12" operator="containsText" text="Implementado">
       <formula>NOT(ISERROR(SEARCH("Implementado",F155)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="13" operator="containsText" text="En Progreso">
+    <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="En Progreso">
       <formula>NOT(ISERROR(SEARCH("En Progreso",F155)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="14" operator="containsText" text="Finalizado">
+    <cfRule type="containsText" dxfId="11" priority="14" operator="containsText" text="Finalizado">
       <formula>NOT(ISERROR(SEARCH("Finalizado",F155)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="Sin Empezar">
+    <cfRule type="containsText" dxfId="10" priority="15" operator="containsText" text="Sin Empezar">
       <formula>NOT(ISERROR(SEARCH("Sin Empezar",F155)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L20">
-    <cfRule type="containsText" dxfId="14" priority="6" operator="containsText" text="Testeado con errores">
+    <cfRule type="containsText" dxfId="9" priority="6" operator="containsText" text="Testeado con errores">
       <formula>NOT(ISERROR(SEARCH("Testeado con errores",L20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="7" operator="containsText" text="Implementado">
+    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="Implementado">
       <formula>NOT(ISERROR(SEARCH("Implementado",L20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="8" operator="containsText" text="En Progreso">
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="En Progreso">
       <formula>NOT(ISERROR(SEARCH("En Progreso",L20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="Finalizado">
+    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="Finalizado">
       <formula>NOT(ISERROR(SEARCH("Finalizado",L20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="10" operator="containsText" text="Sin Empezar">
+    <cfRule type="containsText" dxfId="5" priority="10" operator="containsText" text="Sin Empezar">
       <formula>NOT(ISERROR(SEARCH("Sin Empezar",L20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F77">
-    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="Testeado con errores">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="Testeado con errores">
       <formula>NOT(ISERROR(SEARCH("Testeado con errores",F77)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="Implementado">
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="Implementado">
       <formula>NOT(ISERROR(SEARCH("Implementado",F77)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="En Progreso">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="En Progreso">
       <formula>NOT(ISERROR(SEARCH("En Progreso",F77)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="Finalizado">
+    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="Finalizado">
       <formula>NOT(ISERROR(SEARCH("Finalizado",F77)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="Sin Empezar">
+    <cfRule type="containsText" dxfId="0" priority="5" operator="containsText" text="Sin Empezar">
       <formula>NOT(ISERROR(SEARCH("Sin Empezar",F77)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Planificacion/PlanificacionTesis.xlsx
+++ b/Planificacion/PlanificacionTesis.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$G$187</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$G$191</definedName>
     <definedName name="Sin_Empezar">Hoja1!$L$15:$L$20</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
@@ -2284,10 +2284,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:L191"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C59" workbookViewId="0">
-      <selection activeCell="F135" sqref="F135"/>
+      <selection activeCell="F152" sqref="F152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="119.42578125" defaultRowHeight="15"/>
@@ -2329,7 +2330,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="30.75" thickBot="1">
+    <row r="2" spans="1:12" ht="30.75" hidden="1" thickBot="1">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2352,7 +2353,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="30.75" thickBot="1">
+    <row r="3" spans="1:12" ht="30.75" hidden="1" thickBot="1">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -2379,7 +2380,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" thickBot="1">
+    <row r="4" spans="1:12" ht="15.75" hidden="1" thickBot="1">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -2406,7 +2407,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" thickBot="1">
+    <row r="5" spans="1:12" ht="15.75" hidden="1" thickBot="1">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -2433,7 +2434,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" thickBot="1">
+    <row r="6" spans="1:12" ht="15.75" hidden="1" thickBot="1">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -2460,7 +2461,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75" thickBot="1">
+    <row r="7" spans="1:12" ht="15.75" hidden="1" thickBot="1">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -2484,7 +2485,7 @@
       </c>
       <c r="H7"/>
     </row>
-    <row r="8" spans="1:12" ht="15.75" thickBot="1">
+    <row r="8" spans="1:12" ht="15.75" hidden="1" thickBot="1">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -2510,7 +2511,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="30.75" thickBot="1">
+    <row r="9" spans="1:12" ht="30.75" hidden="1" thickBot="1">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -2536,7 +2537,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="30.75" thickBot="1">
+    <row r="10" spans="1:12" ht="30.75" hidden="1" thickBot="1">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -2561,7 +2562,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="30.75" thickBot="1">
+    <row r="11" spans="1:12" ht="30.75" hidden="1" thickBot="1">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -2587,7 +2588,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="30.75" thickBot="1">
+    <row r="12" spans="1:12" ht="30.75" hidden="1" thickBot="1">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -2613,7 +2614,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="30.75" thickBot="1">
+    <row r="13" spans="1:12" ht="30.75" hidden="1" thickBot="1">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -2636,7 +2637,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="30.75" thickBot="1">
+    <row r="14" spans="1:12" ht="30.75" hidden="1" thickBot="1">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -2662,7 +2663,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15.75" thickBot="1">
+    <row r="15" spans="1:12" ht="15.75" hidden="1" thickBot="1">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -2687,7 +2688,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="30.75" thickBot="1">
+    <row r="16" spans="1:12" ht="30.75" hidden="1" thickBot="1">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -2712,7 +2713,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15.75" thickBot="1">
+    <row r="17" spans="1:12" ht="15.75" hidden="1" thickBot="1">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -2738,7 +2739,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="30.75" thickBot="1">
+    <row r="18" spans="1:12" ht="30.75" hidden="1" thickBot="1">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -2764,7 +2765,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15.75" thickBot="1">
+    <row r="19" spans="1:12" ht="15.75" hidden="1" thickBot="1">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -2790,7 +2791,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15.75" thickBot="1">
+    <row r="20" spans="1:12" ht="15.75" hidden="1" thickBot="1">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -2816,7 +2817,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15.75" thickBot="1">
+    <row r="21" spans="1:12" ht="15.75" hidden="1" thickBot="1">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -2839,7 +2840,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15.75" thickBot="1">
+    <row r="22" spans="1:12" ht="15.75" hidden="1" thickBot="1">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -2861,7 +2862,7 @@
       </c>
       <c r="H22"/>
     </row>
-    <row r="23" spans="1:12" ht="30.75" thickBot="1">
+    <row r="23" spans="1:12" ht="30.75" hidden="1" thickBot="1">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -2883,7 +2884,7 @@
       </c>
       <c r="H23"/>
     </row>
-    <row r="24" spans="1:12" ht="30.75" thickBot="1">
+    <row r="24" spans="1:12" ht="30.75" hidden="1" thickBot="1">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -2905,7 +2906,7 @@
       </c>
       <c r="H24"/>
     </row>
-    <row r="25" spans="1:12" ht="30.75" thickBot="1">
+    <row r="25" spans="1:12" ht="30.75" hidden="1" thickBot="1">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -2927,7 +2928,7 @@
       </c>
       <c r="H25"/>
     </row>
-    <row r="26" spans="1:12" ht="30.75" thickBot="1">
+    <row r="26" spans="1:12" ht="30.75" hidden="1" thickBot="1">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -2949,7 +2950,7 @@
       </c>
       <c r="H26"/>
     </row>
-    <row r="27" spans="1:12" ht="15.75" thickBot="1">
+    <row r="27" spans="1:12" ht="15.75" hidden="1" thickBot="1">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -2971,7 +2972,7 @@
       </c>
       <c r="H27"/>
     </row>
-    <row r="28" spans="1:12" ht="15.75" thickBot="1">
+    <row r="28" spans="1:12" ht="15.75" hidden="1" thickBot="1">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -2995,7 +2996,7 @@
       </c>
       <c r="H28"/>
     </row>
-    <row r="29" spans="1:12" ht="15.75" thickBot="1">
+    <row r="29" spans="1:12" ht="15.75" hidden="1" thickBot="1">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -3017,7 +3018,7 @@
       </c>
       <c r="H29"/>
     </row>
-    <row r="30" spans="1:12" ht="30.75" thickBot="1">
+    <row r="30" spans="1:12" ht="30.75" hidden="1" thickBot="1">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -3039,7 +3040,7 @@
       </c>
       <c r="H30"/>
     </row>
-    <row r="31" spans="1:12" ht="15.75" thickBot="1">
+    <row r="31" spans="1:12" ht="15.75" hidden="1" thickBot="1">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -3062,7 +3063,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="15.75" thickBot="1">
+    <row r="32" spans="1:12" ht="15.75" hidden="1" thickBot="1">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -3084,7 +3085,7 @@
       </c>
       <c r="H32"/>
     </row>
-    <row r="33" spans="1:8" ht="30.75" thickBot="1">
+    <row r="33" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -3106,7 +3107,7 @@
       </c>
       <c r="H33"/>
     </row>
-    <row r="34" spans="1:8" ht="15.75" thickBot="1">
+    <row r="34" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -3129,7 +3130,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="30.75" thickBot="1">
+    <row r="35" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -3153,7 +3154,7 @@
       </c>
       <c r="H35"/>
     </row>
-    <row r="36" spans="1:8" ht="15.75" thickBot="1">
+    <row r="36" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -3175,7 +3176,7 @@
       </c>
       <c r="H36"/>
     </row>
-    <row r="37" spans="1:8" ht="15.75" thickBot="1">
+    <row r="37" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -3197,7 +3198,7 @@
       </c>
       <c r="H37"/>
     </row>
-    <row r="38" spans="1:8" ht="15.75" thickBot="1">
+    <row r="38" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -3219,7 +3220,7 @@
       </c>
       <c r="H38"/>
     </row>
-    <row r="39" spans="1:8" ht="15.75" thickBot="1">
+    <row r="39" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -3241,7 +3242,7 @@
       </c>
       <c r="H39"/>
     </row>
-    <row r="40" spans="1:8" ht="15.75" thickBot="1">
+    <row r="40" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -3263,7 +3264,7 @@
       </c>
       <c r="H40"/>
     </row>
-    <row r="41" spans="1:8" ht="15.75" thickBot="1">
+    <row r="41" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -3285,7 +3286,7 @@
       </c>
       <c r="H41"/>
     </row>
-    <row r="42" spans="1:8" ht="15.75" thickBot="1">
+    <row r="42" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -3307,7 +3308,7 @@
       </c>
       <c r="H42"/>
     </row>
-    <row r="43" spans="1:8" ht="15.75" thickBot="1">
+    <row r="43" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -3329,7 +3330,7 @@
       </c>
       <c r="H43"/>
     </row>
-    <row r="44" spans="1:8" ht="15.75" thickBot="1">
+    <row r="44" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -3353,7 +3354,7 @@
       </c>
       <c r="H44"/>
     </row>
-    <row r="45" spans="1:8" ht="15.75" thickBot="1">
+    <row r="45" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -3376,7 +3377,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="15.75" thickBot="1">
+    <row r="46" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -3400,7 +3401,7 @@
       </c>
       <c r="H46"/>
     </row>
-    <row r="47" spans="1:8" ht="30.75" thickBot="1">
+    <row r="47" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -3422,7 +3423,7 @@
       </c>
       <c r="H47"/>
     </row>
-    <row r="48" spans="1:8" ht="30.75" thickBot="1">
+    <row r="48" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -3446,7 +3447,7 @@
       </c>
       <c r="H48"/>
     </row>
-    <row r="49" spans="1:8" ht="15.75" thickBot="1">
+    <row r="49" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -3470,7 +3471,7 @@
       </c>
       <c r="H49"/>
     </row>
-    <row r="50" spans="1:8" ht="15.75" thickBot="1">
+    <row r="50" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -3494,7 +3495,7 @@
       </c>
       <c r="H50"/>
     </row>
-    <row r="51" spans="1:8" ht="30.75" thickBot="1">
+    <row r="51" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -3516,7 +3517,7 @@
       </c>
       <c r="H51"/>
     </row>
-    <row r="52" spans="1:8" ht="15.75" thickBot="1">
+    <row r="52" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -3540,7 +3541,7 @@
       </c>
       <c r="H52"/>
     </row>
-    <row r="53" spans="1:8" ht="15.75" thickBot="1">
+    <row r="53" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -3564,7 +3565,7 @@
       </c>
       <c r="H53"/>
     </row>
-    <row r="54" spans="1:8" ht="15.75" thickBot="1">
+    <row r="54" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -3588,7 +3589,7 @@
       </c>
       <c r="H54"/>
     </row>
-    <row r="55" spans="1:8" ht="15.75" thickBot="1">
+    <row r="55" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -3612,7 +3613,7 @@
       </c>
       <c r="H55"/>
     </row>
-    <row r="56" spans="1:8" ht="15.75" thickBot="1">
+    <row r="56" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -3636,7 +3637,7 @@
       </c>
       <c r="H56"/>
     </row>
-    <row r="57" spans="1:8" ht="15.75" thickBot="1">
+    <row r="57" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -3660,7 +3661,7 @@
       </c>
       <c r="H57"/>
     </row>
-    <row r="58" spans="1:8" ht="15.75" thickBot="1">
+    <row r="58" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -3698,7 +3699,7 @@
         <v>385</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F59" s="16" t="s">
         <v>393</v>
@@ -3708,7 +3709,7 @@
       </c>
       <c r="H59"/>
     </row>
-    <row r="60" spans="1:8" ht="15.75" thickBot="1">
+    <row r="60" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -3732,7 +3733,7 @@
       </c>
       <c r="H60"/>
     </row>
-    <row r="61" spans="1:8" ht="15.75" thickBot="1">
+    <row r="61" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -3756,7 +3757,7 @@
       </c>
       <c r="H61"/>
     </row>
-    <row r="62" spans="1:8" ht="15.75" thickBot="1">
+    <row r="62" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -3780,7 +3781,7 @@
       </c>
       <c r="H62"/>
     </row>
-    <row r="63" spans="1:8" ht="60.75" thickBot="1">
+    <row r="63" spans="1:8" ht="60.75" hidden="1" thickBot="1">
       <c r="A63" s="3">
         <v>62</v>
       </c>
@@ -3806,7 +3807,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="30.75" thickBot="1">
+    <row r="64" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A64" s="3">
         <v>63</v>
       </c>
@@ -3829,7 +3830,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="30.75" thickBot="1">
+    <row r="65" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A65" s="3">
         <v>64</v>
       </c>
@@ -3853,7 +3854,7 @@
       </c>
       <c r="H65"/>
     </row>
-    <row r="66" spans="1:8" ht="15.75" thickBot="1">
+    <row r="66" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A66" s="3">
         <v>65</v>
       </c>
@@ -3877,7 +3878,7 @@
       </c>
       <c r="H66"/>
     </row>
-    <row r="67" spans="1:8" ht="15.75" thickBot="1">
+    <row r="67" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A67" s="3">
         <v>66</v>
       </c>
@@ -3901,7 +3902,7 @@
       </c>
       <c r="H67"/>
     </row>
-    <row r="68" spans="1:8" ht="15.75" thickBot="1">
+    <row r="68" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A68" s="3">
         <v>67</v>
       </c>
@@ -3925,7 +3926,7 @@
       </c>
       <c r="H68"/>
     </row>
-    <row r="69" spans="1:8" ht="30.75" thickBot="1">
+    <row r="69" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A69" s="3">
         <v>68</v>
       </c>
@@ -3948,7 +3949,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="15.75" thickBot="1">
+    <row r="70" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A70" s="3">
         <v>69</v>
       </c>
@@ -3971,7 +3972,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="30.75" thickBot="1">
+    <row r="71" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A71" s="3">
         <v>70</v>
       </c>
@@ -3994,7 +3995,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="15.75" thickBot="1">
+    <row r="72" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A72" s="3">
         <v>71</v>
       </c>
@@ -4017,7 +4018,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="30.75" thickBot="1">
+    <row r="73" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A73" s="3">
         <v>72</v>
       </c>
@@ -4040,7 +4041,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="15.75" thickBot="1">
+    <row r="74" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A74" s="3">
         <v>73</v>
       </c>
@@ -4064,7 +4065,7 @@
       </c>
       <c r="H74"/>
     </row>
-    <row r="75" spans="1:8" ht="15.75" thickBot="1">
+    <row r="75" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A75" s="3">
         <v>74</v>
       </c>
@@ -4086,7 +4087,7 @@
       </c>
       <c r="H75"/>
     </row>
-    <row r="76" spans="1:8" ht="30.75" thickBot="1">
+    <row r="76" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A76" s="3">
         <v>75</v>
       </c>
@@ -4108,7 +4109,7 @@
       </c>
       <c r="H76"/>
     </row>
-    <row r="77" spans="1:8" ht="30.75" thickBot="1">
+    <row r="77" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A77" s="3">
         <v>76</v>
       </c>
@@ -4134,7 +4135,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="15.75" thickBot="1">
+    <row r="78" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A78" s="3">
         <v>77</v>
       </c>
@@ -4157,7 +4158,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="15.75" thickBot="1">
+    <row r="79" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A79" s="3">
         <v>78</v>
       </c>
@@ -4180,7 +4181,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="15.75" thickBot="1">
+    <row r="80" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A80" s="3">
         <v>79</v>
       </c>
@@ -4203,7 +4204,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15.75" thickBot="1">
+    <row r="81" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A81" s="3">
         <v>80</v>
       </c>
@@ -4226,7 +4227,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="15.75" thickBot="1">
+    <row r="82" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A82" s="3">
         <v>81</v>
       </c>
@@ -4249,7 +4250,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="15.75" thickBot="1">
+    <row r="83" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A83" s="3">
         <v>82</v>
       </c>
@@ -4272,7 +4273,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="15.75" thickBot="1">
+    <row r="84" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A84" s="3">
         <v>83</v>
       </c>
@@ -4295,7 +4296,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15.75" thickBot="1">
+    <row r="85" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A85" s="3">
         <v>84</v>
       </c>
@@ -4318,7 +4319,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="15.75" thickBot="1">
+    <row r="86" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A86" s="3">
         <v>85</v>
       </c>
@@ -4342,7 +4343,7 @@
       </c>
       <c r="H86"/>
     </row>
-    <row r="87" spans="1:8" ht="15.75" thickBot="1">
+    <row r="87" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A87" s="3">
         <v>86</v>
       </c>
@@ -4366,7 +4367,7 @@
       </c>
       <c r="H87"/>
     </row>
-    <row r="88" spans="1:8" ht="15.75" thickBot="1">
+    <row r="88" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A88" s="3">
         <v>87</v>
       </c>
@@ -4390,7 +4391,7 @@
       </c>
       <c r="H88"/>
     </row>
-    <row r="89" spans="1:8" ht="15.75" thickBot="1">
+    <row r="89" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A89" s="3">
         <v>88</v>
       </c>
@@ -4414,7 +4415,7 @@
       </c>
       <c r="H89"/>
     </row>
-    <row r="90" spans="1:8" ht="15.75" thickBot="1">
+    <row r="90" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A90" s="3">
         <v>89</v>
       </c>
@@ -4437,7 +4438,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="15.75" thickBot="1">
+    <row r="91" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A91" s="3">
         <v>90</v>
       </c>
@@ -4460,7 +4461,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="15.75" thickBot="1">
+    <row r="92" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A92" s="3">
         <v>91</v>
       </c>
@@ -4483,7 +4484,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="15.75" thickBot="1">
+    <row r="93" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A93" s="3">
         <v>92</v>
       </c>
@@ -4506,7 +4507,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="30.75" thickBot="1">
+    <row r="94" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A94" s="3">
         <v>93</v>
       </c>
@@ -4530,7 +4531,7 @@
       </c>
       <c r="H94"/>
     </row>
-    <row r="95" spans="1:8" ht="15.75" thickBot="1">
+    <row r="95" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A95" s="3">
         <v>94</v>
       </c>
@@ -4554,7 +4555,7 @@
       </c>
       <c r="H95"/>
     </row>
-    <row r="96" spans="1:8" ht="30.75" thickBot="1">
+    <row r="96" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A96" s="3">
         <v>95</v>
       </c>
@@ -4578,7 +4579,7 @@
       </c>
       <c r="H96"/>
     </row>
-    <row r="97" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+    <row r="97" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
       <c r="A97" s="3">
         <v>96</v>
       </c>
@@ -4601,7 +4602,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="98" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+    <row r="98" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
       <c r="A98" s="3">
         <v>97</v>
       </c>
@@ -4624,7 +4625,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="99" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="99" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A99" s="3">
         <v>98</v>
       </c>
@@ -4647,7 +4648,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="100" spans="1:7" customFormat="1" ht="45.75" thickBot="1">
+    <row r="100" spans="1:7" customFormat="1" ht="45.75" hidden="1" thickBot="1">
       <c r="A100" s="3">
         <v>99</v>
       </c>
@@ -4670,7 +4671,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="101" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+    <row r="101" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
       <c r="A101" s="3">
         <v>100</v>
       </c>
@@ -4693,7 +4694,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="102" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="102" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A102" s="3">
         <v>101</v>
       </c>
@@ -4714,7 +4715,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="103" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+    <row r="103" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
       <c r="A103" s="3">
         <v>102</v>
       </c>
@@ -4737,7 +4738,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="104" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+    <row r="104" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
       <c r="A104" s="3">
         <v>103</v>
       </c>
@@ -4760,7 +4761,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="105" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="105" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A105" s="3">
         <v>104</v>
       </c>
@@ -4781,7 +4782,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="106" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="106" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A106" s="3">
         <v>105</v>
       </c>
@@ -4804,7 +4805,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="107" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="107" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A107" s="3">
         <v>106</v>
       </c>
@@ -4827,7 +4828,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="108" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="108" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A108" s="3">
         <v>107</v>
       </c>
@@ -4850,7 +4851,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="109" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="109" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A109" s="3">
         <v>108</v>
       </c>
@@ -4871,7 +4872,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="110" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="110" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A110" s="3">
         <v>109</v>
       </c>
@@ -4892,7 +4893,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="111" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="111" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A111" s="3">
         <v>110</v>
       </c>
@@ -4915,7 +4916,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="112" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="112" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A112" s="3">
         <v>111</v>
       </c>
@@ -4938,7 +4939,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="45.75" thickBot="1">
+    <row r="113" spans="1:8" ht="45.75" hidden="1" thickBot="1">
       <c r="A113" s="3">
         <v>112</v>
       </c>
@@ -4961,7 +4962,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="30.75" thickBot="1">
+    <row r="114" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A114" s="3">
         <v>113</v>
       </c>
@@ -4984,7 +4985,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="45.75" thickBot="1">
+    <row r="115" spans="1:8" ht="45.75" hidden="1" thickBot="1">
       <c r="A115" s="3">
         <v>114</v>
       </c>
@@ -5007,7 +5008,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="15.75" thickBot="1">
+    <row r="116" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A116" s="3">
         <v>115</v>
       </c>
@@ -5030,7 +5031,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="15.75" thickBot="1">
+    <row r="117" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A117" s="3">
         <v>116</v>
       </c>
@@ -5053,7 +5054,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="30.75" thickBot="1">
+    <row r="118" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A118" s="3">
         <v>117</v>
       </c>
@@ -5076,7 +5077,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="15.75" thickBot="1">
+    <row r="119" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A119" s="3">
         <v>118</v>
       </c>
@@ -5099,7 +5100,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="30.75" thickBot="1">
+    <row r="120" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A120" s="3">
         <v>119</v>
       </c>
@@ -5122,7 +5123,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="15.75" thickBot="1">
+    <row r="121" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A121" s="3">
         <v>120</v>
       </c>
@@ -5145,7 +5146,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="15.75" thickBot="1">
+    <row r="122" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A122" s="3">
         <v>121</v>
       </c>
@@ -5168,7 +5169,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="30.75" thickBot="1">
+    <row r="123" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A123" s="3">
         <v>122</v>
       </c>
@@ -5192,7 +5193,7 @@
       </c>
       <c r="H123"/>
     </row>
-    <row r="124" spans="1:8" ht="30.75" thickBot="1">
+    <row r="124" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A124" s="3">
         <v>123</v>
       </c>
@@ -5216,7 +5217,7 @@
       </c>
       <c r="H124"/>
     </row>
-    <row r="125" spans="1:8" ht="30.75" thickBot="1">
+    <row r="125" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A125" s="3">
         <v>124</v>
       </c>
@@ -5240,7 +5241,7 @@
       </c>
       <c r="H125"/>
     </row>
-    <row r="126" spans="1:8" ht="15.75" thickBot="1">
+    <row r="126" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A126" s="3">
         <v>125</v>
       </c>
@@ -5264,7 +5265,7 @@
       </c>
       <c r="H126"/>
     </row>
-    <row r="127" spans="1:8" ht="15.75" thickBot="1">
+    <row r="127" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A127" s="3">
         <v>126</v>
       </c>
@@ -5288,7 +5289,7 @@
       </c>
       <c r="H127"/>
     </row>
-    <row r="128" spans="1:8" ht="15.75" thickBot="1">
+    <row r="128" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A128" s="3">
         <v>127</v>
       </c>
@@ -5312,7 +5313,7 @@
       </c>
       <c r="H128"/>
     </row>
-    <row r="129" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="129" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A129" s="3">
         <v>128</v>
       </c>
@@ -5335,7 +5336,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="130" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+    <row r="130" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
       <c r="A130" s="3">
         <v>129</v>
       </c>
@@ -5358,7 +5359,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="131" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+    <row r="131" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
       <c r="A131" s="3">
         <v>130</v>
       </c>
@@ -5381,7 +5382,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="132" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="132" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A132" s="3">
         <v>131</v>
       </c>
@@ -5404,7 +5405,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="133" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="133" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A133" s="3">
         <v>132</v>
       </c>
@@ -5427,7 +5428,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="134" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="134" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A134" s="3">
         <v>133</v>
       </c>
@@ -5450,7 +5451,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="135" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="135" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A135" s="3">
         <v>134</v>
       </c>
@@ -5473,7 +5474,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="136" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="136" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A136" s="3">
         <v>135</v>
       </c>
@@ -5494,7 +5495,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="137" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="137" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A137" s="3">
         <v>136</v>
       </c>
@@ -5517,7 +5518,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="138" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="138" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A138" s="3">
         <v>137</v>
       </c>
@@ -5540,7 +5541,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="139" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="139" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A139" s="3">
         <v>138</v>
       </c>
@@ -5561,7 +5562,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="140" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="140" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A140" s="3">
         <v>139</v>
       </c>
@@ -5582,7 +5583,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="141" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="141" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A141" s="3">
         <v>140</v>
       </c>
@@ -5603,7 +5604,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="142" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="142" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A142" s="3">
         <v>141</v>
       </c>
@@ -5624,7 +5625,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="143" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="143" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A143" s="3">
         <v>142</v>
       </c>
@@ -5645,7 +5646,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="144" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="144" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A144" s="3">
         <v>143</v>
       </c>
@@ -5803,7 +5804,7 @@
         <v>386</v>
       </c>
       <c r="F150" s="16" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="G150" s="7" t="s">
         <v>309</v>
@@ -5827,7 +5828,7 @@
         <v>386</v>
       </c>
       <c r="F151" s="16" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="G151" s="7" t="s">
         <v>311</v>
@@ -5851,7 +5852,7 @@
         <v>386</v>
       </c>
       <c r="F152" s="16" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="G152" s="7" t="s">
         <v>313</v>
@@ -5906,7 +5907,7 @@
       </c>
       <c r="H154"/>
     </row>
-    <row r="155" spans="1:8" ht="30.75" thickBot="1">
+    <row r="155" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A155" s="27">
         <v>152</v>
       </c>
@@ -6122,7 +6123,7 @@
       </c>
       <c r="H163"/>
     </row>
-    <row r="164" spans="1:8" ht="30.75" thickBot="1">
+    <row r="164" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A164" s="3">
         <v>162</v>
       </c>
@@ -6144,7 +6145,7 @@
       </c>
       <c r="H164"/>
     </row>
-    <row r="165" spans="1:8" ht="45.75" thickBot="1">
+    <row r="165" spans="1:8" ht="45.75" hidden="1" thickBot="1">
       <c r="A165" s="3">
         <v>163</v>
       </c>
@@ -6166,7 +6167,7 @@
       </c>
       <c r="H165"/>
     </row>
-    <row r="166" spans="1:8" ht="30.75" thickBot="1">
+    <row r="166" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A166" s="3">
         <v>164</v>
       </c>
@@ -6188,7 +6189,7 @@
       </c>
       <c r="H166"/>
     </row>
-    <row r="167" spans="1:8" ht="30.75" thickBot="1">
+    <row r="167" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A167" s="3">
         <v>165</v>
       </c>
@@ -6210,7 +6211,7 @@
       </c>
       <c r="H167"/>
     </row>
-    <row r="168" spans="1:8" ht="30.75" thickBot="1">
+    <row r="168" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A168" s="3">
         <v>166</v>
       </c>
@@ -6232,7 +6233,7 @@
       </c>
       <c r="H168"/>
     </row>
-    <row r="169" spans="1:8" ht="30.75" thickBot="1">
+    <row r="169" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A169" s="3">
         <v>167</v>
       </c>
@@ -6254,7 +6255,7 @@
       </c>
       <c r="H169"/>
     </row>
-    <row r="170" spans="1:8" ht="30.75" thickBot="1">
+    <row r="170" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A170" s="3">
         <v>168</v>
       </c>
@@ -6276,7 +6277,7 @@
       </c>
       <c r="H170"/>
     </row>
-    <row r="171" spans="1:8" ht="30.75" thickBot="1">
+    <row r="171" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A171" s="3">
         <v>169</v>
       </c>
@@ -6298,7 +6299,7 @@
       </c>
       <c r="H171"/>
     </row>
-    <row r="172" spans="1:8" ht="30.75" thickBot="1">
+    <row r="172" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A172" s="3">
         <v>170</v>
       </c>
@@ -6320,7 +6321,7 @@
       </c>
       <c r="H172"/>
     </row>
-    <row r="173" spans="1:8" ht="30.75" thickBot="1">
+    <row r="173" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A173" s="3">
         <v>171</v>
       </c>
@@ -6342,7 +6343,7 @@
       </c>
       <c r="H173"/>
     </row>
-    <row r="174" spans="1:8" ht="30.75" thickBot="1">
+    <row r="174" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A174" s="3">
         <v>172</v>
       </c>
@@ -6364,7 +6365,7 @@
       </c>
       <c r="H174"/>
     </row>
-    <row r="175" spans="1:8" ht="30.75" thickBot="1">
+    <row r="175" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A175" s="3">
         <v>173</v>
       </c>
@@ -6386,7 +6387,7 @@
       </c>
       <c r="H175"/>
     </row>
-    <row r="176" spans="1:8" ht="30.75" thickBot="1">
+    <row r="176" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A176" s="3">
         <v>174</v>
       </c>
@@ -6408,7 +6409,7 @@
       </c>
       <c r="H176"/>
     </row>
-    <row r="177" spans="1:8" ht="30.75" thickBot="1">
+    <row r="177" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A177" s="3">
         <v>175</v>
       </c>
@@ -6430,7 +6431,7 @@
       </c>
       <c r="H177"/>
     </row>
-    <row r="178" spans="1:8" ht="60.75" thickBot="1">
+    <row r="178" spans="1:8" ht="60.75" hidden="1" thickBot="1">
       <c r="A178" s="3">
         <v>176</v>
       </c>
@@ -6452,7 +6453,7 @@
       </c>
       <c r="H178"/>
     </row>
-    <row r="179" spans="1:8" ht="15.75" thickBot="1">
+    <row r="179" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A179" s="3">
         <v>177</v>
       </c>
@@ -6474,7 +6475,7 @@
       </c>
       <c r="H179"/>
     </row>
-    <row r="180" spans="1:8" ht="30.75" thickBot="1">
+    <row r="180" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A180" s="3">
         <v>178</v>
       </c>
@@ -6544,7 +6545,7 @@
       </c>
       <c r="H182"/>
     </row>
-    <row r="183" spans="1:8" ht="15.75" thickBot="1">
+    <row r="183" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A183" s="3">
         <v>179</v>
       </c>
@@ -6604,7 +6605,7 @@
       </c>
       <c r="H185"/>
     </row>
-    <row r="186" spans="1:8" ht="30.75" thickBot="1">
+    <row r="186" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A186" s="3">
         <v>182</v>
       </c>
@@ -6627,7 +6628,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="187" spans="1:8" ht="30.75" thickBot="1">
+    <row r="187" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A187" s="3">
         <v>183</v>
       </c>
@@ -6712,9 +6713,13 @@
       <c r="G191" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G187">
+  <autoFilter ref="A1:G191">
     <filterColumn colId="3"/>
-    <filterColumn colId="4"/>
+    <filterColumn colId="4">
+      <filters>
+        <filter val="Lore"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="5"/>
   </autoFilter>
   <mergeCells count="6">

--- a/Planificacion/PlanificacionTesis.xlsx
+++ b/Planificacion/PlanificacionTesis.xlsx
@@ -2287,8 +2287,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:L191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C59" workbookViewId="0">
-      <selection activeCell="F152" sqref="F152"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E153" sqref="E153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="119.42578125" defaultRowHeight="15"/>
@@ -5873,7 +5873,7 @@
         <v>384</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F153" s="16" t="s">
         <v>390</v>

--- a/Planificacion/PlanificacionTesis.xlsx
+++ b/Planificacion/PlanificacionTesis.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$G$191</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$G$190</definedName>
     <definedName name="Sin_Empezar">Hoja1!$L$15:$L$20</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="403">
   <si>
     <t>Nº</t>
   </si>
@@ -1608,311 +1608,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="50">
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <font>
         <color auto="1"/>
@@ -2285,10 +1981,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:L191"/>
+  <dimension ref="A1:L190"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E153" sqref="E153"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="119.42578125" defaultRowHeight="15"/>
@@ -3685,7 +3381,7 @@
       </c>
       <c r="H58"/>
     </row>
-    <row r="59" spans="1:8" ht="15.75" thickBot="1">
+    <row r="59" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -5763,7 +5459,7 @@
       </c>
       <c r="H148"/>
     </row>
-    <row r="149" spans="1:8" ht="30.75" thickBot="1">
+    <row r="149" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A149" s="3">
         <v>148</v>
       </c>
@@ -5787,7 +5483,7 @@
       </c>
       <c r="H149"/>
     </row>
-    <row r="150" spans="1:8" ht="30.75" thickBot="1">
+    <row r="150" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A150" s="3">
         <v>149</v>
       </c>
@@ -5811,7 +5507,7 @@
       </c>
       <c r="H150"/>
     </row>
-    <row r="151" spans="1:8" ht="30.75" thickBot="1">
+    <row r="151" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A151" s="3">
         <v>150</v>
       </c>
@@ -5835,7 +5531,7 @@
       </c>
       <c r="H151"/>
     </row>
-    <row r="152" spans="1:8" ht="30.75" thickBot="1">
+    <row r="152" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A152" s="3">
         <v>151</v>
       </c>
@@ -5859,7 +5555,7 @@
       </c>
       <c r="H152"/>
     </row>
-    <row r="153" spans="1:8" ht="30.75" thickBot="1">
+    <row r="153" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A153" s="3">
         <v>152</v>
       </c>
@@ -5883,7 +5579,7 @@
       </c>
       <c r="H153"/>
     </row>
-    <row r="154" spans="1:8" ht="30.75" thickBot="1">
+    <row r="154" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A154" s="3">
         <v>153</v>
       </c>
@@ -5908,38 +5604,38 @@
       <c r="H154"/>
     </row>
     <row r="155" spans="1:8" ht="30.75" hidden="1" thickBot="1">
-      <c r="A155" s="27">
-        <v>152</v>
+      <c r="A155" s="3">
+        <v>154</v>
       </c>
       <c r="B155" s="4" t="s">
         <v>297</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="D155" s="16" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E155" s="16" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F155" s="16" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="G155" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="H155"/>
     </row>
-    <row r="156" spans="1:8" ht="30.75" thickBot="1">
+    <row r="156" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A156" s="3">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B156" s="4" t="s">
         <v>297</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D156" s="16" t="s">
         <v>385</v>
@@ -5951,19 +5647,19 @@
         <v>393</v>
       </c>
       <c r="G156" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="H156"/>
     </row>
-    <row r="157" spans="1:8" ht="30.75" thickBot="1">
+    <row r="157" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A157" s="3">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B157" s="4" t="s">
         <v>297</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D157" s="16" t="s">
         <v>385</v>
@@ -5975,22 +5671,22 @@
         <v>393</v>
       </c>
       <c r="G157" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="H157"/>
     </row>
-    <row r="158" spans="1:8" ht="30.75" thickBot="1">
+    <row r="158" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A158" s="3">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B158" s="4" t="s">
         <v>297</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D158" s="16" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E158" s="16" t="s">
         <v>386</v>
@@ -5999,22 +5695,22 @@
         <v>393</v>
       </c>
       <c r="G158" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="H158"/>
     </row>
-    <row r="159" spans="1:8" ht="30.75" thickBot="1">
+    <row r="159" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A159" s="3">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B159" s="4" t="s">
         <v>297</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D159" s="16" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E159" s="16" t="s">
         <v>386</v>
@@ -6023,19 +5719,19 @@
         <v>393</v>
       </c>
       <c r="G159" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="H159"/>
     </row>
-    <row r="160" spans="1:8" ht="30.75" thickBot="1">
+    <row r="160" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A160" s="3">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B160" s="4" t="s">
         <v>297</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D160" s="16" t="s">
         <v>385</v>
@@ -6047,19 +5743,19 @@
         <v>393</v>
       </c>
       <c r="G160" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="H160"/>
     </row>
-    <row r="161" spans="1:8" ht="30.75" thickBot="1">
+    <row r="161" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A161" s="3">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B161" s="4" t="s">
         <v>297</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D161" s="16" t="s">
         <v>385</v>
@@ -6071,67 +5767,65 @@
         <v>393</v>
       </c>
       <c r="G161" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="H161"/>
     </row>
     <row r="162" spans="1:8" ht="30.75" thickBot="1">
       <c r="A162" s="3">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B162" s="4" t="s">
         <v>297</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D162" s="16" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E162" s="16" t="s">
         <v>386</v>
       </c>
       <c r="F162" s="16" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="G162" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="H162"/>
     </row>
-    <row r="163" spans="1:8" ht="30.75" thickBot="1">
+    <row r="163" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A163" s="3">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>297</v>
+        <v>334</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="D163" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="E163" s="16" t="s">
-        <v>386</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="E163" s="16"/>
       <c r="F163" s="16" t="s">
         <v>390</v>
       </c>
       <c r="G163" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="H163"/>
     </row>
-    <row r="164" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="164" spans="1:8" ht="45.75" hidden="1" thickBot="1">
       <c r="A164" s="3">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B164" s="4" t="s">
         <v>334</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D164" s="16" t="s">
         <v>385</v>
@@ -6141,19 +5835,19 @@
         <v>390</v>
       </c>
       <c r="G164" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="H164"/>
     </row>
-    <row r="165" spans="1:8" ht="45.75" hidden="1" thickBot="1">
+    <row r="165" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A165" s="3">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B165" s="4" t="s">
         <v>334</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D165" s="16" t="s">
         <v>385</v>
@@ -6163,19 +5857,19 @@
         <v>390</v>
       </c>
       <c r="G165" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="H165"/>
     </row>
     <row r="166" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A166" s="3">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B166" s="4" t="s">
         <v>334</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D166" s="16" t="s">
         <v>385</v>
@@ -6185,19 +5879,19 @@
         <v>390</v>
       </c>
       <c r="G166" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="H166"/>
     </row>
     <row r="167" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A167" s="3">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B167" s="4" t="s">
         <v>334</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D167" s="16" t="s">
         <v>385</v>
@@ -6207,19 +5901,19 @@
         <v>390</v>
       </c>
       <c r="G167" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="H167"/>
     </row>
     <row r="168" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A168" s="3">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B168" s="4" t="s">
         <v>334</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D168" s="16" t="s">
         <v>385</v>
@@ -6229,19 +5923,19 @@
         <v>390</v>
       </c>
       <c r="G168" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H168"/>
     </row>
     <row r="169" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A169" s="3">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B169" s="4" t="s">
         <v>334</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D169" s="16" t="s">
         <v>385</v>
@@ -6251,19 +5945,19 @@
         <v>390</v>
       </c>
       <c r="G169" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="H169"/>
     </row>
     <row r="170" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A170" s="3">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B170" s="4" t="s">
         <v>334</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D170" s="16" t="s">
         <v>385</v>
@@ -6273,19 +5967,19 @@
         <v>390</v>
       </c>
       <c r="G170" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="H170"/>
     </row>
     <row r="171" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A171" s="3">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B171" s="4" t="s">
         <v>334</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D171" s="16" t="s">
         <v>385</v>
@@ -6295,19 +5989,19 @@
         <v>390</v>
       </c>
       <c r="G171" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="H171"/>
     </row>
     <row r="172" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A172" s="3">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B172" s="4" t="s">
         <v>334</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D172" s="16" t="s">
         <v>385</v>
@@ -6317,19 +6011,19 @@
         <v>390</v>
       </c>
       <c r="G172" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="H172"/>
     </row>
     <row r="173" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A173" s="3">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B173" s="4" t="s">
         <v>334</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D173" s="16" t="s">
         <v>385</v>
@@ -6339,19 +6033,19 @@
         <v>390</v>
       </c>
       <c r="G173" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="H173"/>
     </row>
     <row r="174" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A174" s="3">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B174" s="4" t="s">
         <v>334</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D174" s="16" t="s">
         <v>385</v>
@@ -6361,19 +6055,19 @@
         <v>390</v>
       </c>
       <c r="G174" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="H174"/>
     </row>
     <row r="175" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A175" s="3">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B175" s="4" t="s">
         <v>334</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D175" s="16" t="s">
         <v>385</v>
@@ -6383,19 +6077,19 @@
         <v>390</v>
       </c>
       <c r="G175" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="H175"/>
     </row>
     <row r="176" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A176" s="3">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B176" s="4" t="s">
         <v>334</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D176" s="16" t="s">
         <v>385</v>
@@ -6405,19 +6099,19 @@
         <v>390</v>
       </c>
       <c r="G176" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="H176"/>
     </row>
-    <row r="177" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="177" spans="1:8" ht="60.75" hidden="1" thickBot="1">
       <c r="A177" s="3">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B177" s="4" t="s">
         <v>334</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D177" s="16" t="s">
         <v>385</v>
@@ -6427,19 +6121,19 @@
         <v>390</v>
       </c>
       <c r="G177" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="H177"/>
     </row>
-    <row r="178" spans="1:8" ht="60.75" hidden="1" thickBot="1">
+    <row r="178" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A178" s="3">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>334</v>
+        <v>271</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D178" s="16" t="s">
         <v>385</v>
@@ -6449,34 +6143,36 @@
         <v>390</v>
       </c>
       <c r="G178" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="H178"/>
     </row>
-    <row r="179" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="179" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A179" s="3">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>271</v>
+        <v>297</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D179" s="16" t="s">
-        <v>385</v>
-      </c>
-      <c r="E179" s="16"/>
+        <v>384</v>
+      </c>
+      <c r="E179" s="16" t="s">
+        <v>387</v>
+      </c>
       <c r="F179" s="16" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="G179" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="H179"/>
     </row>
     <row r="180" spans="1:8" ht="30.75" hidden="1" thickBot="1">
-      <c r="A180" s="3">
+      <c r="A180" s="27">
         <v>178</v>
       </c>
       <c r="B180" s="4" t="s">
@@ -6489,7 +6185,7 @@
         <v>384</v>
       </c>
       <c r="E180" s="16" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F180" s="16" t="s">
         <v>393</v>
@@ -6499,73 +6195,73 @@
       </c>
       <c r="H180"/>
     </row>
-    <row r="181" spans="1:8" ht="30.75" thickBot="1">
-      <c r="A181" s="27">
-        <v>178</v>
-      </c>
-      <c r="B181" s="4" t="s">
+    <row r="181" spans="1:8" hidden="1">
+      <c r="A181" s="10"/>
+      <c r="B181" s="30" t="s">
         <v>297</v>
       </c>
-      <c r="C181" s="5" t="s">
-        <v>367</v>
-      </c>
-      <c r="D181" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="E181" s="16" t="s">
+      <c r="C181" s="32" t="s">
+        <v>369</v>
+      </c>
+      <c r="D181" s="36" t="s">
+        <v>385</v>
+      </c>
+      <c r="E181" s="36" t="s">
         <v>386</v>
       </c>
-      <c r="F181" s="16" t="s">
-        <v>393</v>
-      </c>
-      <c r="G181" s="7" t="s">
-        <v>368</v>
+      <c r="F181" s="36" t="s">
+        <v>393</v>
+      </c>
+      <c r="G181" s="34" t="s">
+        <v>370</v>
       </c>
       <c r="H181"/>
     </row>
-    <row r="182" spans="1:8">
-      <c r="A182" s="10"/>
-      <c r="B182" s="30" t="s">
+    <row r="182" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+      <c r="A182" s="3">
+        <v>179</v>
+      </c>
+      <c r="B182" s="31"/>
+      <c r="C182" s="33"/>
+      <c r="D182" s="37"/>
+      <c r="E182" s="37"/>
+      <c r="F182" s="37"/>
+      <c r="G182" s="35"/>
+      <c r="H182"/>
+    </row>
+    <row r="183" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+      <c r="A183" s="3">
+        <v>180</v>
+      </c>
+      <c r="B183" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="C182" s="32" t="s">
-        <v>369</v>
-      </c>
-      <c r="D182" s="36" t="s">
-        <v>385</v>
-      </c>
-      <c r="E182" s="36" t="s">
+      <c r="C183" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="D183" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E183" s="16" t="s">
         <v>386</v>
       </c>
-      <c r="F182" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="G182" s="34" t="s">
-        <v>370</v>
-      </c>
-      <c r="H182"/>
-    </row>
-    <row r="183" spans="1:8" ht="15.75" hidden="1" thickBot="1">
-      <c r="A183" s="3">
-        <v>179</v>
-      </c>
-      <c r="B183" s="31"/>
-      <c r="C183" s="33"/>
-      <c r="D183" s="37"/>
-      <c r="E183" s="37"/>
-      <c r="F183" s="37"/>
-      <c r="G183" s="35"/>
+      <c r="F183" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="G183" s="7" t="s">
+        <v>372</v>
+      </c>
       <c r="H183"/>
     </row>
-    <row r="184" spans="1:8" ht="30.75" thickBot="1">
+    <row r="184" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A184" s="3">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B184" s="4" t="s">
         <v>297</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D184" s="16" t="s">
         <v>385</v>
@@ -6577,84 +6273,75 @@
         <v>393</v>
       </c>
       <c r="G184" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="H184"/>
     </row>
-    <row r="185" spans="1:8" ht="30.75" thickBot="1">
+    <row r="185" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A185" s="3">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>297</v>
+        <v>231</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D185" s="16" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E185" s="16" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="F185" s="16" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="G185" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="H185"/>
+        <v>376</v>
+      </c>
     </row>
     <row r="186" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A186" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>231</v>
+        <v>297</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D186" s="16" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E186" s="16" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F186" s="16" t="s">
         <v>390</v>
       </c>
       <c r="G186" s="7" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" ht="30.75" hidden="1" thickBot="1">
-      <c r="A187" s="3">
-        <v>183</v>
-      </c>
-      <c r="B187" s="4" t="s">
-        <v>297</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="H186"/>
+    </row>
+    <row r="187" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="C187" s="5" t="s">
-        <v>377</v>
+        <v>399</v>
       </c>
       <c r="D187" s="16" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E187" s="16" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F187" s="16" t="s">
-        <v>390</v>
-      </c>
-      <c r="G187" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="H187"/>
-    </row>
-    <row r="188" spans="1:8" ht="15.75" thickBot="1">
+        <v>393</v>
+      </c>
+      <c r="G187" s="7"/>
+    </row>
+    <row r="188" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="C188" s="5" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D188" s="16" t="s">
         <v>385</v>
@@ -6667,9 +6354,9 @@
       </c>
       <c r="G188" s="7"/>
     </row>
-    <row r="189" spans="1:8" ht="15.75" thickBot="1">
+    <row r="189" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="C189" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D189" s="16" t="s">
         <v>385</v>
@@ -6682,9 +6369,9 @@
       </c>
       <c r="G189" s="7"/>
     </row>
-    <row r="190" spans="1:8" ht="15.75" thickBot="1">
+    <row r="190" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="C190" s="5" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="D190" s="16" t="s">
         <v>385</v>
@@ -6697,217 +6384,70 @@
       </c>
       <c r="G190" s="7"/>
     </row>
-    <row r="191" spans="1:8" ht="15.75" thickBot="1">
-      <c r="C191" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="D191" s="16" t="s">
-        <v>385</v>
-      </c>
-      <c r="E191" s="16" t="s">
-        <v>386</v>
-      </c>
-      <c r="F191" s="16" t="s">
-        <v>393</v>
-      </c>
-      <c r="G191" s="7"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:G191">
+  <autoFilter ref="A1:G190">
     <filterColumn colId="3"/>
     <filterColumn colId="4">
       <filters>
         <filter val="Lore"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="5"/>
+    <filterColumn colId="5">
+      <filters>
+        <filter val="Sin Empezar"/>
+      </filters>
+    </filterColumn>
   </autoFilter>
   <mergeCells count="6">
-    <mergeCell ref="B182:B183"/>
-    <mergeCell ref="C182:C183"/>
-    <mergeCell ref="G182:G183"/>
-    <mergeCell ref="D182:D183"/>
-    <mergeCell ref="E182:E183"/>
-    <mergeCell ref="F182:F183"/>
+    <mergeCell ref="B181:B182"/>
+    <mergeCell ref="C181:C182"/>
+    <mergeCell ref="G181:G182"/>
+    <mergeCell ref="D181:D182"/>
+    <mergeCell ref="E181:E182"/>
+    <mergeCell ref="F181:F182"/>
   </mergeCells>
-  <conditionalFormatting sqref="H63 F1:F1048576">
-    <cfRule type="containsText" dxfId="49" priority="46" operator="containsText" text="Testeado con errores">
+  <conditionalFormatting sqref="H63 L15:L20 F1:F1048576">
+    <cfRule type="containsText" dxfId="9" priority="46" operator="containsText" text="Testeado con errores">
       <formula>NOT(ISERROR(SEARCH("Testeado con errores",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="47" operator="containsText" text="Implementado">
+    <cfRule type="containsText" dxfId="8" priority="47" operator="containsText" text="Implementado">
       <formula>NOT(ISERROR(SEARCH("Implementado",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="47" priority="48" operator="containsText" text="En Progreso">
+    <cfRule type="containsText" dxfId="7" priority="48" operator="containsText" text="En Progreso">
       <formula>NOT(ISERROR(SEARCH("En Progreso",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="49" operator="containsText" text="Finalizado">
+    <cfRule type="containsText" dxfId="6" priority="49" operator="containsText" text="Finalizado">
       <formula>NOT(ISERROR(SEARCH("Finalizado",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="50" operator="containsText" text="Sin Empezar">
+    <cfRule type="containsText" dxfId="5" priority="50" operator="containsText" text="Sin Empezar">
       <formula>NOT(ISERROR(SEARCH("Sin Empezar",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L15">
-    <cfRule type="containsText" dxfId="44" priority="41" operator="containsText" text="Testeado con errores">
-      <formula>NOT(ISERROR(SEARCH("Testeado con errores",L15)))</formula>
+  <conditionalFormatting sqref="F180">
+    <cfRule type="containsText" dxfId="4" priority="16" operator="containsText" text="Testeado con errores">
+      <formula>NOT(ISERROR(SEARCH("Testeado con errores",F180)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="42" operator="containsText" text="Implementado">
-      <formula>NOT(ISERROR(SEARCH("Implementado",L15)))</formula>
+    <cfRule type="containsText" dxfId="3" priority="17" operator="containsText" text="Implementado">
+      <formula>NOT(ISERROR(SEARCH("Implementado",F180)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="43" operator="containsText" text="En Progreso">
-      <formula>NOT(ISERROR(SEARCH("En Progreso",L15)))</formula>
+    <cfRule type="containsText" dxfId="2" priority="18" operator="containsText" text="En Progreso">
+      <formula>NOT(ISERROR(SEARCH("En Progreso",F180)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="44" operator="containsText" text="Finalizado">
-      <formula>NOT(ISERROR(SEARCH("Finalizado",L15)))</formula>
+    <cfRule type="containsText" dxfId="1" priority="19" operator="containsText" text="Finalizado">
+      <formula>NOT(ISERROR(SEARCH("Finalizado",F180)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="45" operator="containsText" text="Sin Empezar">
-      <formula>NOT(ISERROR(SEARCH("Sin Empezar",L15)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L16">
-    <cfRule type="containsText" dxfId="39" priority="36" operator="containsText" text="Testeado con errores">
-      <formula>NOT(ISERROR(SEARCH("Testeado con errores",L16)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="37" operator="containsText" text="Implementado">
-      <formula>NOT(ISERROR(SEARCH("Implementado",L16)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="38" operator="containsText" text="En Progreso">
-      <formula>NOT(ISERROR(SEARCH("En Progreso",L16)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="39" operator="containsText" text="Finalizado">
-      <formula>NOT(ISERROR(SEARCH("Finalizado",L16)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="40" operator="containsText" text="Sin Empezar">
-      <formula>NOT(ISERROR(SEARCH("Sin Empezar",L16)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L17">
-    <cfRule type="containsText" dxfId="34" priority="31" operator="containsText" text="Testeado con errores">
-      <formula>NOT(ISERROR(SEARCH("Testeado con errores",L17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="32" operator="containsText" text="Implementado">
-      <formula>NOT(ISERROR(SEARCH("Implementado",L17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="33" operator="containsText" text="En Progreso">
-      <formula>NOT(ISERROR(SEARCH("En Progreso",L17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="34" operator="containsText" text="Finalizado">
-      <formula>NOT(ISERROR(SEARCH("Finalizado",L17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="35" operator="containsText" text="Sin Empezar">
-      <formula>NOT(ISERROR(SEARCH("Sin Empezar",L17)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L18">
-    <cfRule type="containsText" dxfId="29" priority="26" operator="containsText" text="Testeado con errores">
-      <formula>NOT(ISERROR(SEARCH("Testeado con errores",L18)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="27" operator="containsText" text="Implementado">
-      <formula>NOT(ISERROR(SEARCH("Implementado",L18)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="28" operator="containsText" text="En Progreso">
-      <formula>NOT(ISERROR(SEARCH("En Progreso",L18)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="29" operator="containsText" text="Finalizado">
-      <formula>NOT(ISERROR(SEARCH("Finalizado",L18)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="30" operator="containsText" text="Sin Empezar">
-      <formula>NOT(ISERROR(SEARCH("Sin Empezar",L18)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L19">
-    <cfRule type="containsText" dxfId="24" priority="21" operator="containsText" text="Testeado con errores">
-      <formula>NOT(ISERROR(SEARCH("Testeado con errores",L19)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="22" operator="containsText" text="Implementado">
-      <formula>NOT(ISERROR(SEARCH("Implementado",L19)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="23" operator="containsText" text="En Progreso">
-      <formula>NOT(ISERROR(SEARCH("En Progreso",L19)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="24" operator="containsText" text="Finalizado">
-      <formula>NOT(ISERROR(SEARCH("Finalizado",L19)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="25" operator="containsText" text="Sin Empezar">
-      <formula>NOT(ISERROR(SEARCH("Sin Empezar",L19)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F181">
-    <cfRule type="containsText" dxfId="19" priority="16" operator="containsText" text="Testeado con errores">
-      <formula>NOT(ISERROR(SEARCH("Testeado con errores",F181)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="17" operator="containsText" text="Implementado">
-      <formula>NOT(ISERROR(SEARCH("Implementado",F181)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="18" operator="containsText" text="En Progreso">
-      <formula>NOT(ISERROR(SEARCH("En Progreso",F181)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="19" operator="containsText" text="Finalizado">
-      <formula>NOT(ISERROR(SEARCH("Finalizado",F181)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="20" operator="containsText" text="Sin Empezar">
-      <formula>NOT(ISERROR(SEARCH("Sin Empezar",F181)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F155">
-    <cfRule type="containsText" dxfId="14" priority="11" operator="containsText" text="Testeado con errores">
-      <formula>NOT(ISERROR(SEARCH("Testeado con errores",F155)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="12" operator="containsText" text="Implementado">
-      <formula>NOT(ISERROR(SEARCH("Implementado",F155)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="En Progreso">
-      <formula>NOT(ISERROR(SEARCH("En Progreso",F155)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="14" operator="containsText" text="Finalizado">
-      <formula>NOT(ISERROR(SEARCH("Finalizado",F155)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="15" operator="containsText" text="Sin Empezar">
-      <formula>NOT(ISERROR(SEARCH("Sin Empezar",F155)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L20">
-    <cfRule type="containsText" dxfId="9" priority="6" operator="containsText" text="Testeado con errores">
-      <formula>NOT(ISERROR(SEARCH("Testeado con errores",L20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="Implementado">
-      <formula>NOT(ISERROR(SEARCH("Implementado",L20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="En Progreso">
-      <formula>NOT(ISERROR(SEARCH("En Progreso",L20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="Finalizado">
-      <formula>NOT(ISERROR(SEARCH("Finalizado",L20)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="10" operator="containsText" text="Sin Empezar">
-      <formula>NOT(ISERROR(SEARCH("Sin Empezar",L20)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F77">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="Testeado con errores">
-      <formula>NOT(ISERROR(SEARCH("Testeado con errores",F77)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="Implementado">
-      <formula>NOT(ISERROR(SEARCH("Implementado",F77)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="En Progreso">
-      <formula>NOT(ISERROR(SEARCH("En Progreso",F77)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="Finalizado">
-      <formula>NOT(ISERROR(SEARCH("Finalizado",F77)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="5" operator="containsText" text="Sin Empezar">
-      <formula>NOT(ISERROR(SEARCH("Sin Empezar",F77)))</formula>
+    <cfRule type="containsText" dxfId="0" priority="20" operator="containsText" text="Sin Empezar">
+      <formula>NOT(ISERROR(SEARCH("Sin Empezar",F180)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D191">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D190">
       <formula1>$L$4:$L$6</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E191">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E190">
       <formula1>$L$9:$L$12</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F191">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F190">
       <formula1>Sin_Empezar</formula1>
     </dataValidation>
   </dataValidations>

--- a/Planificacion/PlanificacionTesis.xlsx
+++ b/Planificacion/PlanificacionTesis.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$G$190</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$G$189</definedName>
     <definedName name="Sin_Empezar">Hoja1!$L$15:$L$20</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="403">
   <si>
     <t>Nº</t>
   </si>
@@ -1980,11 +1980,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:L190"/>
+  <dimension ref="A1:L189"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="119.42578125" defaultRowHeight="15"/>
@@ -2026,7 +2025,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="30.75" hidden="1" thickBot="1">
+    <row r="2" spans="1:12" ht="30.75" thickBot="1">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2049,7 +2048,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="30.75" hidden="1" thickBot="1">
+    <row r="3" spans="1:12" ht="30.75" thickBot="1">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -2076,7 +2075,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" hidden="1" thickBot="1">
+    <row r="4" spans="1:12" ht="15.75" thickBot="1">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -2103,7 +2102,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" hidden="1" thickBot="1">
+    <row r="5" spans="1:12" ht="15.75" thickBot="1">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -2130,7 +2129,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" hidden="1" thickBot="1">
+    <row r="6" spans="1:12" ht="15.75" thickBot="1">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -2157,7 +2156,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75" hidden="1" thickBot="1">
+    <row r="7" spans="1:12" ht="15.75" thickBot="1">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -2181,7 +2180,7 @@
       </c>
       <c r="H7"/>
     </row>
-    <row r="8" spans="1:12" ht="15.75" hidden="1" thickBot="1">
+    <row r="8" spans="1:12" ht="15.75" thickBot="1">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -2207,7 +2206,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="30.75" hidden="1" thickBot="1">
+    <row r="9" spans="1:12" ht="30.75" thickBot="1">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -2233,7 +2232,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="30.75" hidden="1" thickBot="1">
+    <row r="10" spans="1:12" ht="30.75" thickBot="1">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -2258,7 +2257,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="30.75" hidden="1" thickBot="1">
+    <row r="11" spans="1:12" ht="30.75" thickBot="1">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -2284,7 +2283,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="30.75" hidden="1" thickBot="1">
+    <row r="12" spans="1:12" ht="30.75" thickBot="1">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -2310,7 +2309,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="30.75" hidden="1" thickBot="1">
+    <row r="13" spans="1:12" ht="30.75" thickBot="1">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -2333,7 +2332,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="30.75" hidden="1" thickBot="1">
+    <row r="14" spans="1:12" ht="30.75" thickBot="1">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -2359,7 +2358,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15.75" hidden="1" thickBot="1">
+    <row r="15" spans="1:12" ht="15.75" thickBot="1">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -2384,7 +2383,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="30.75" hidden="1" thickBot="1">
+    <row r="16" spans="1:12" ht="30.75" thickBot="1">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -2409,7 +2408,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15.75" hidden="1" thickBot="1">
+    <row r="17" spans="1:12" ht="15.75" thickBot="1">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -2435,7 +2434,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="30.75" hidden="1" thickBot="1">
+    <row r="18" spans="1:12" ht="30.75" thickBot="1">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -2461,7 +2460,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15.75" hidden="1" thickBot="1">
+    <row r="19" spans="1:12" ht="15.75" thickBot="1">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -2487,7 +2486,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15.75" hidden="1" thickBot="1">
+    <row r="20" spans="1:12" ht="15.75" thickBot="1">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -2513,7 +2512,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15.75" hidden="1" thickBot="1">
+    <row r="21" spans="1:12" ht="15.75" thickBot="1">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -2536,7 +2535,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15.75" hidden="1" thickBot="1">
+    <row r="22" spans="1:12" ht="15.75" thickBot="1">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -2558,7 +2557,7 @@
       </c>
       <c r="H22"/>
     </row>
-    <row r="23" spans="1:12" ht="30.75" hidden="1" thickBot="1">
+    <row r="23" spans="1:12" ht="30.75" thickBot="1">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -2580,7 +2579,7 @@
       </c>
       <c r="H23"/>
     </row>
-    <row r="24" spans="1:12" ht="30.75" hidden="1" thickBot="1">
+    <row r="24" spans="1:12" ht="30.75" thickBot="1">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -2602,7 +2601,7 @@
       </c>
       <c r="H24"/>
     </row>
-    <row r="25" spans="1:12" ht="30.75" hidden="1" thickBot="1">
+    <row r="25" spans="1:12" ht="30.75" thickBot="1">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -2624,7 +2623,7 @@
       </c>
       <c r="H25"/>
     </row>
-    <row r="26" spans="1:12" ht="30.75" hidden="1" thickBot="1">
+    <row r="26" spans="1:12" ht="30.75" thickBot="1">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -2646,7 +2645,7 @@
       </c>
       <c r="H26"/>
     </row>
-    <row r="27" spans="1:12" ht="15.75" hidden="1" thickBot="1">
+    <row r="27" spans="1:12" ht="15.75" thickBot="1">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -2668,7 +2667,7 @@
       </c>
       <c r="H27"/>
     </row>
-    <row r="28" spans="1:12" ht="15.75" hidden="1" thickBot="1">
+    <row r="28" spans="1:12" ht="15.75" thickBot="1">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -2692,7 +2691,7 @@
       </c>
       <c r="H28"/>
     </row>
-    <row r="29" spans="1:12" ht="15.75" hidden="1" thickBot="1">
+    <row r="29" spans="1:12" ht="15.75" thickBot="1">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -2714,7 +2713,7 @@
       </c>
       <c r="H29"/>
     </row>
-    <row r="30" spans="1:12" ht="30.75" hidden="1" thickBot="1">
+    <row r="30" spans="1:12" ht="30.75" thickBot="1">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -2736,7 +2735,7 @@
       </c>
       <c r="H30"/>
     </row>
-    <row r="31" spans="1:12" ht="15.75" hidden="1" thickBot="1">
+    <row r="31" spans="1:12" ht="15.75" thickBot="1">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -2759,7 +2758,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="15.75" hidden="1" thickBot="1">
+    <row r="32" spans="1:12" ht="15.75" thickBot="1">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -2781,7 +2780,7 @@
       </c>
       <c r="H32"/>
     </row>
-    <row r="33" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="33" spans="1:8" ht="30.75" thickBot="1">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -2803,7 +2802,7 @@
       </c>
       <c r="H33"/>
     </row>
-    <row r="34" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="34" spans="1:8" ht="15.75" thickBot="1">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -2826,7 +2825,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="35" spans="1:8" ht="30.75" thickBot="1">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -2850,7 +2849,7 @@
       </c>
       <c r="H35"/>
     </row>
-    <row r="36" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="36" spans="1:8" ht="15.75" thickBot="1">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -2872,7 +2871,7 @@
       </c>
       <c r="H36"/>
     </row>
-    <row r="37" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="37" spans="1:8" ht="15.75" thickBot="1">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -2894,7 +2893,7 @@
       </c>
       <c r="H37"/>
     </row>
-    <row r="38" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="38" spans="1:8" ht="15.75" thickBot="1">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -2916,7 +2915,7 @@
       </c>
       <c r="H38"/>
     </row>
-    <row r="39" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="39" spans="1:8" ht="15.75" thickBot="1">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -2938,7 +2937,7 @@
       </c>
       <c r="H39"/>
     </row>
-    <row r="40" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="40" spans="1:8" ht="15.75" thickBot="1">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -2960,7 +2959,7 @@
       </c>
       <c r="H40"/>
     </row>
-    <row r="41" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="41" spans="1:8" ht="15.75" thickBot="1">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -2982,7 +2981,7 @@
       </c>
       <c r="H41"/>
     </row>
-    <row r="42" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="42" spans="1:8" ht="15.75" thickBot="1">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -3004,7 +3003,7 @@
       </c>
       <c r="H42"/>
     </row>
-    <row r="43" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="43" spans="1:8" ht="15.75" thickBot="1">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -3026,7 +3025,7 @@
       </c>
       <c r="H43"/>
     </row>
-    <row r="44" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="44" spans="1:8" ht="15.75" thickBot="1">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -3050,7 +3049,7 @@
       </c>
       <c r="H44"/>
     </row>
-    <row r="45" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="45" spans="1:8" ht="15.75" thickBot="1">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -3073,7 +3072,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="46" spans="1:8" ht="15.75" thickBot="1">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -3097,7 +3096,7 @@
       </c>
       <c r="H46"/>
     </row>
-    <row r="47" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="47" spans="1:8" ht="30.75" thickBot="1">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -3119,7 +3118,7 @@
       </c>
       <c r="H47"/>
     </row>
-    <row r="48" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="48" spans="1:8" ht="30.75" thickBot="1">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -3143,7 +3142,7 @@
       </c>
       <c r="H48"/>
     </row>
-    <row r="49" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="49" spans="1:8" ht="15.75" thickBot="1">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -3167,7 +3166,7 @@
       </c>
       <c r="H49"/>
     </row>
-    <row r="50" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="50" spans="1:8" ht="15.75" thickBot="1">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -3191,7 +3190,7 @@
       </c>
       <c r="H50"/>
     </row>
-    <row r="51" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="51" spans="1:8" ht="30.75" thickBot="1">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -3213,7 +3212,7 @@
       </c>
       <c r="H51"/>
     </row>
-    <row r="52" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="52" spans="1:8" ht="15.75" thickBot="1">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -3237,7 +3236,7 @@
       </c>
       <c r="H52"/>
     </row>
-    <row r="53" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="53" spans="1:8" ht="15.75" thickBot="1">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -3261,7 +3260,7 @@
       </c>
       <c r="H53"/>
     </row>
-    <row r="54" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="54" spans="1:8" ht="15.75" thickBot="1">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -3285,7 +3284,7 @@
       </c>
       <c r="H54"/>
     </row>
-    <row r="55" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="55" spans="1:8" ht="15.75" thickBot="1">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -3309,7 +3308,7 @@
       </c>
       <c r="H55"/>
     </row>
-    <row r="56" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="56" spans="1:8" ht="15.75" thickBot="1">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -3333,7 +3332,7 @@
       </c>
       <c r="H56"/>
     </row>
-    <row r="57" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="57" spans="1:8" ht="15.75" thickBot="1">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -3357,7 +3356,7 @@
       </c>
       <c r="H57"/>
     </row>
-    <row r="58" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="58" spans="1:8" ht="15.75" thickBot="1">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -3381,7 +3380,7 @@
       </c>
       <c r="H58"/>
     </row>
-    <row r="59" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="59" spans="1:8" ht="15.75" thickBot="1">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -3405,7 +3404,7 @@
       </c>
       <c r="H59"/>
     </row>
-    <row r="60" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="60" spans="1:8" ht="15.75" thickBot="1">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -3429,7 +3428,7 @@
       </c>
       <c r="H60"/>
     </row>
-    <row r="61" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="61" spans="1:8" ht="15.75" thickBot="1">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -3453,7 +3452,7 @@
       </c>
       <c r="H61"/>
     </row>
-    <row r="62" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="62" spans="1:8" ht="15.75" thickBot="1">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -3477,7 +3476,7 @@
       </c>
       <c r="H62"/>
     </row>
-    <row r="63" spans="1:8" ht="60.75" hidden="1" thickBot="1">
+    <row r="63" spans="1:8" ht="60.75" thickBot="1">
       <c r="A63" s="3">
         <v>62</v>
       </c>
@@ -3503,7 +3502,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="64" spans="1:8" ht="30.75" thickBot="1">
       <c r="A64" s="3">
         <v>63</v>
       </c>
@@ -3526,7 +3525,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="65" spans="1:8" ht="30.75" thickBot="1">
       <c r="A65" s="3">
         <v>64</v>
       </c>
@@ -3550,7 +3549,7 @@
       </c>
       <c r="H65"/>
     </row>
-    <row r="66" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="66" spans="1:8" ht="15.75" thickBot="1">
       <c r="A66" s="3">
         <v>65</v>
       </c>
@@ -3574,7 +3573,7 @@
       </c>
       <c r="H66"/>
     </row>
-    <row r="67" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="67" spans="1:8" ht="15.75" thickBot="1">
       <c r="A67" s="3">
         <v>66</v>
       </c>
@@ -3598,7 +3597,7 @@
       </c>
       <c r="H67"/>
     </row>
-    <row r="68" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="68" spans="1:8" ht="15.75" thickBot="1">
       <c r="A68" s="3">
         <v>67</v>
       </c>
@@ -3622,7 +3621,7 @@
       </c>
       <c r="H68"/>
     </row>
-    <row r="69" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="69" spans="1:8" ht="30.75" thickBot="1">
       <c r="A69" s="3">
         <v>68</v>
       </c>
@@ -3645,7 +3644,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="70" spans="1:8" ht="15.75" thickBot="1">
       <c r="A70" s="3">
         <v>69</v>
       </c>
@@ -3668,7 +3667,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="71" spans="1:8" ht="30.75" thickBot="1">
       <c r="A71" s="3">
         <v>70</v>
       </c>
@@ -3691,7 +3690,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="72" spans="1:8" ht="15.75" thickBot="1">
       <c r="A72" s="3">
         <v>71</v>
       </c>
@@ -3714,7 +3713,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="73" spans="1:8" ht="30.75" thickBot="1">
       <c r="A73" s="3">
         <v>72</v>
       </c>
@@ -3737,7 +3736,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="74" spans="1:8" ht="15.75" thickBot="1">
       <c r="A74" s="3">
         <v>73</v>
       </c>
@@ -3761,7 +3760,7 @@
       </c>
       <c r="H74"/>
     </row>
-    <row r="75" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="75" spans="1:8" ht="15.75" thickBot="1">
       <c r="A75" s="3">
         <v>74</v>
       </c>
@@ -3783,7 +3782,7 @@
       </c>
       <c r="H75"/>
     </row>
-    <row r="76" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="76" spans="1:8" ht="30.75" thickBot="1">
       <c r="A76" s="3">
         <v>75</v>
       </c>
@@ -3805,7 +3804,7 @@
       </c>
       <c r="H76"/>
     </row>
-    <row r="77" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="77" spans="1:8" ht="30.75" thickBot="1">
       <c r="A77" s="3">
         <v>76</v>
       </c>
@@ -3831,7 +3830,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="78" spans="1:8" ht="15.75" thickBot="1">
       <c r="A78" s="3">
         <v>77</v>
       </c>
@@ -3854,7 +3853,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="79" spans="1:8" ht="15.75" thickBot="1">
       <c r="A79" s="3">
         <v>78</v>
       </c>
@@ -3877,7 +3876,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="80" spans="1:8" ht="15.75" thickBot="1">
       <c r="A80" s="3">
         <v>79</v>
       </c>
@@ -3900,7 +3899,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="81" spans="1:8" ht="15.75" thickBot="1">
       <c r="A81" s="3">
         <v>80</v>
       </c>
@@ -3923,7 +3922,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="82" spans="1:8" ht="15.75" thickBot="1">
       <c r="A82" s="3">
         <v>81</v>
       </c>
@@ -3946,7 +3945,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="83" spans="1:8" ht="15.75" thickBot="1">
       <c r="A83" s="3">
         <v>82</v>
       </c>
@@ -3969,7 +3968,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="84" spans="1:8" ht="15.75" thickBot="1">
       <c r="A84" s="3">
         <v>83</v>
       </c>
@@ -3992,7 +3991,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="85" spans="1:8" ht="15.75" thickBot="1">
       <c r="A85" s="3">
         <v>84</v>
       </c>
@@ -4015,7 +4014,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="86" spans="1:8" ht="15.75" thickBot="1">
       <c r="A86" s="3">
         <v>85</v>
       </c>
@@ -4039,7 +4038,7 @@
       </c>
       <c r="H86"/>
     </row>
-    <row r="87" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="87" spans="1:8" ht="15.75" thickBot="1">
       <c r="A87" s="3">
         <v>86</v>
       </c>
@@ -4063,7 +4062,7 @@
       </c>
       <c r="H87"/>
     </row>
-    <row r="88" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="88" spans="1:8" ht="15.75" thickBot="1">
       <c r="A88" s="3">
         <v>87</v>
       </c>
@@ -4087,7 +4086,7 @@
       </c>
       <c r="H88"/>
     </row>
-    <row r="89" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="89" spans="1:8" ht="15.75" thickBot="1">
       <c r="A89" s="3">
         <v>88</v>
       </c>
@@ -4111,7 +4110,7 @@
       </c>
       <c r="H89"/>
     </row>
-    <row r="90" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="90" spans="1:8" ht="15.75" thickBot="1">
       <c r="A90" s="3">
         <v>89</v>
       </c>
@@ -4134,7 +4133,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="91" spans="1:8" ht="15.75" thickBot="1">
       <c r="A91" s="3">
         <v>90</v>
       </c>
@@ -4157,7 +4156,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="92" spans="1:8" ht="15.75" thickBot="1">
       <c r="A92" s="3">
         <v>91</v>
       </c>
@@ -4180,7 +4179,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="93" spans="1:8" ht="15.75" thickBot="1">
       <c r="A93" s="3">
         <v>92</v>
       </c>
@@ -4203,7 +4202,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="94" spans="1:8" ht="30.75" thickBot="1">
       <c r="A94" s="3">
         <v>93</v>
       </c>
@@ -4227,7 +4226,7 @@
       </c>
       <c r="H94"/>
     </row>
-    <row r="95" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="95" spans="1:8" ht="15.75" thickBot="1">
       <c r="A95" s="3">
         <v>94</v>
       </c>
@@ -4251,7 +4250,7 @@
       </c>
       <c r="H95"/>
     </row>
-    <row r="96" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="96" spans="1:8" ht="30.75" thickBot="1">
       <c r="A96" s="3">
         <v>95</v>
       </c>
@@ -4275,7 +4274,7 @@
       </c>
       <c r="H96"/>
     </row>
-    <row r="97" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
+    <row r="97" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A97" s="3">
         <v>96</v>
       </c>
@@ -4298,7 +4297,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="98" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
+    <row r="98" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A98" s="3">
         <v>97</v>
       </c>
@@ -4321,7 +4320,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="99" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="99" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A99" s="3">
         <v>98</v>
       </c>
@@ -4344,7 +4343,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="100" spans="1:7" customFormat="1" ht="45.75" hidden="1" thickBot="1">
+    <row r="100" spans="1:7" customFormat="1" ht="45.75" thickBot="1">
       <c r="A100" s="3">
         <v>99</v>
       </c>
@@ -4367,7 +4366,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="101" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
+    <row r="101" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A101" s="3">
         <v>100</v>
       </c>
@@ -4390,7 +4389,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="102" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="102" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A102" s="3">
         <v>101</v>
       </c>
@@ -4411,7 +4410,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="103" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
+    <row r="103" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A103" s="3">
         <v>102</v>
       </c>
@@ -4434,7 +4433,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="104" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
+    <row r="104" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A104" s="3">
         <v>103</v>
       </c>
@@ -4457,7 +4456,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="105" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="105" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A105" s="3">
         <v>104</v>
       </c>
@@ -4478,7 +4477,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="106" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="106" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A106" s="3">
         <v>105</v>
       </c>
@@ -4501,7 +4500,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="107" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="107" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A107" s="3">
         <v>106</v>
       </c>
@@ -4524,7 +4523,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="108" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="108" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A108" s="3">
         <v>107</v>
       </c>
@@ -4547,7 +4546,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="109" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="109" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A109" s="3">
         <v>108</v>
       </c>
@@ -4568,7 +4567,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="110" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="110" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A110" s="3">
         <v>109</v>
       </c>
@@ -4589,7 +4588,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="111" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="111" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A111" s="3">
         <v>110</v>
       </c>
@@ -4612,7 +4611,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="112" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="112" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A112" s="3">
         <v>111</v>
       </c>
@@ -4635,7 +4634,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="45.75" hidden="1" thickBot="1">
+    <row r="113" spans="1:8" ht="45.75" thickBot="1">
       <c r="A113" s="3">
         <v>112</v>
       </c>
@@ -4658,7 +4657,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="114" spans="1:8" ht="30.75" thickBot="1">
       <c r="A114" s="3">
         <v>113</v>
       </c>
@@ -4681,7 +4680,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="45.75" hidden="1" thickBot="1">
+    <row r="115" spans="1:8" ht="45.75" thickBot="1">
       <c r="A115" s="3">
         <v>114</v>
       </c>
@@ -4704,7 +4703,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="116" spans="1:8" ht="15.75" thickBot="1">
       <c r="A116" s="3">
         <v>115</v>
       </c>
@@ -4727,7 +4726,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="117" spans="1:8" ht="15.75" thickBot="1">
       <c r="A117" s="3">
         <v>116</v>
       </c>
@@ -4750,7 +4749,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="118" spans="1:8" ht="30.75" thickBot="1">
       <c r="A118" s="3">
         <v>117</v>
       </c>
@@ -4773,7 +4772,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="119" spans="1:8" ht="15.75" thickBot="1">
       <c r="A119" s="3">
         <v>118</v>
       </c>
@@ -4796,7 +4795,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="120" spans="1:8" ht="30.75" thickBot="1">
       <c r="A120" s="3">
         <v>119</v>
       </c>
@@ -4819,7 +4818,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="121" spans="1:8" ht="15.75" thickBot="1">
       <c r="A121" s="3">
         <v>120</v>
       </c>
@@ -4842,7 +4841,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="122" spans="1:8" ht="15.75" thickBot="1">
       <c r="A122" s="3">
         <v>121</v>
       </c>
@@ -4865,7 +4864,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="123" spans="1:8" ht="30.75" thickBot="1">
       <c r="A123" s="3">
         <v>122</v>
       </c>
@@ -4882,14 +4881,14 @@
         <v>387</v>
       </c>
       <c r="F123" s="16" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="G123" s="7" t="s">
         <v>254</v>
       </c>
       <c r="H123"/>
     </row>
-    <row r="124" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="124" spans="1:8" ht="30.75" thickBot="1">
       <c r="A124" s="3">
         <v>123</v>
       </c>
@@ -4913,7 +4912,7 @@
       </c>
       <c r="H124"/>
     </row>
-    <row r="125" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="125" spans="1:8" ht="30.75" thickBot="1">
       <c r="A125" s="3">
         <v>124</v>
       </c>
@@ -4937,7 +4936,7 @@
       </c>
       <c r="H125"/>
     </row>
-    <row r="126" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="126" spans="1:8" ht="15.75" thickBot="1">
       <c r="A126" s="3">
         <v>125</v>
       </c>
@@ -4961,7 +4960,7 @@
       </c>
       <c r="H126"/>
     </row>
-    <row r="127" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="127" spans="1:8" ht="15.75" thickBot="1">
       <c r="A127" s="3">
         <v>126</v>
       </c>
@@ -4985,7 +4984,7 @@
       </c>
       <c r="H127"/>
     </row>
-    <row r="128" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="128" spans="1:8" ht="15.75" thickBot="1">
       <c r="A128" s="3">
         <v>127</v>
       </c>
@@ -5009,7 +5008,7 @@
       </c>
       <c r="H128"/>
     </row>
-    <row r="129" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="129" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A129" s="3">
         <v>128</v>
       </c>
@@ -5032,7 +5031,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="130" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
+    <row r="130" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A130" s="3">
         <v>129</v>
       </c>
@@ -5055,7 +5054,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="131" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
+    <row r="131" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A131" s="3">
         <v>130</v>
       </c>
@@ -5078,7 +5077,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="132" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="132" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A132" s="3">
         <v>131</v>
       </c>
@@ -5101,7 +5100,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="133" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="133" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A133" s="3">
         <v>132</v>
       </c>
@@ -5124,7 +5123,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="134" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="134" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A134" s="3">
         <v>133</v>
       </c>
@@ -5147,7 +5146,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="135" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="135" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A135" s="3">
         <v>134</v>
       </c>
@@ -5170,7 +5169,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="136" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="136" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A136" s="3">
         <v>135</v>
       </c>
@@ -5191,7 +5190,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="137" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="137" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A137" s="3">
         <v>136</v>
       </c>
@@ -5214,7 +5213,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="138" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="138" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A138" s="3">
         <v>137</v>
       </c>
@@ -5237,7 +5236,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="139" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="139" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A139" s="3">
         <v>138</v>
       </c>
@@ -5258,7 +5257,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="140" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="140" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A140" s="3">
         <v>139</v>
       </c>
@@ -5279,7 +5278,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="141" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="141" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A141" s="3">
         <v>140</v>
       </c>
@@ -5300,7 +5299,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="142" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="142" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A142" s="3">
         <v>141</v>
       </c>
@@ -5321,7 +5320,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="143" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="143" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A143" s="3">
         <v>142</v>
       </c>
@@ -5342,7 +5341,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="144" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="144" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A144" s="3">
         <v>143</v>
       </c>
@@ -5459,7 +5458,7 @@
       </c>
       <c r="H148"/>
     </row>
-    <row r="149" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="149" spans="1:8" ht="30.75" thickBot="1">
       <c r="A149" s="3">
         <v>148</v>
       </c>
@@ -5483,7 +5482,7 @@
       </c>
       <c r="H149"/>
     </row>
-    <row r="150" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="150" spans="1:8" ht="30.75" thickBot="1">
       <c r="A150" s="3">
         <v>149</v>
       </c>
@@ -5507,7 +5506,7 @@
       </c>
       <c r="H150"/>
     </row>
-    <row r="151" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="151" spans="1:8" ht="30.75" thickBot="1">
       <c r="A151" s="3">
         <v>150</v>
       </c>
@@ -5531,7 +5530,7 @@
       </c>
       <c r="H151"/>
     </row>
-    <row r="152" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="152" spans="1:8" ht="30.75" thickBot="1">
       <c r="A152" s="3">
         <v>151</v>
       </c>
@@ -5555,7 +5554,7 @@
       </c>
       <c r="H152"/>
     </row>
-    <row r="153" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="153" spans="1:8" ht="30.75" thickBot="1">
       <c r="A153" s="3">
         <v>152</v>
       </c>
@@ -5579,7 +5578,7 @@
       </c>
       <c r="H153"/>
     </row>
-    <row r="154" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="154" spans="1:8" ht="30.75" thickBot="1">
       <c r="A154" s="3">
         <v>153</v>
       </c>
@@ -5603,7 +5602,7 @@
       </c>
       <c r="H154"/>
     </row>
-    <row r="155" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="155" spans="1:8" ht="30.75" thickBot="1">
       <c r="A155" s="3">
         <v>154</v>
       </c>
@@ -5627,7 +5626,7 @@
       </c>
       <c r="H155"/>
     </row>
-    <row r="156" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="156" spans="1:8" ht="30.75" thickBot="1">
       <c r="A156" s="3">
         <v>155</v>
       </c>
@@ -5651,7 +5650,7 @@
       </c>
       <c r="H156"/>
     </row>
-    <row r="157" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="157" spans="1:8" ht="30.75" thickBot="1">
       <c r="A157" s="3">
         <v>156</v>
       </c>
@@ -5675,7 +5674,7 @@
       </c>
       <c r="H157"/>
     </row>
-    <row r="158" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="158" spans="1:8" ht="30.75" thickBot="1">
       <c r="A158" s="3">
         <v>157</v>
       </c>
@@ -5699,7 +5698,7 @@
       </c>
       <c r="H158"/>
     </row>
-    <row r="159" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="159" spans="1:8" ht="30.75" thickBot="1">
       <c r="A159" s="3">
         <v>158</v>
       </c>
@@ -5723,7 +5722,7 @@
       </c>
       <c r="H159"/>
     </row>
-    <row r="160" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="160" spans="1:8" ht="30.75" thickBot="1">
       <c r="A160" s="3">
         <v>159</v>
       </c>
@@ -5747,7 +5746,7 @@
       </c>
       <c r="H160"/>
     </row>
-    <row r="161" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="161" spans="1:8" ht="30.75" thickBot="1">
       <c r="A161" s="3">
         <v>160</v>
       </c>
@@ -5795,7 +5794,7 @@
       </c>
       <c r="H162"/>
     </row>
-    <row r="163" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="163" spans="1:8" ht="30.75" thickBot="1">
       <c r="A163" s="3">
         <v>162</v>
       </c>
@@ -5817,7 +5816,7 @@
       </c>
       <c r="H163"/>
     </row>
-    <row r="164" spans="1:8" ht="45.75" hidden="1" thickBot="1">
+    <row r="164" spans="1:8" ht="45.75" thickBot="1">
       <c r="A164" s="3">
         <v>163</v>
       </c>
@@ -5839,7 +5838,7 @@
       </c>
       <c r="H164"/>
     </row>
-    <row r="165" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="165" spans="1:8" ht="30.75" thickBot="1">
       <c r="A165" s="3">
         <v>164</v>
       </c>
@@ -5861,7 +5860,7 @@
       </c>
       <c r="H165"/>
     </row>
-    <row r="166" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="166" spans="1:8" ht="30.75" thickBot="1">
       <c r="A166" s="3">
         <v>165</v>
       </c>
@@ -5883,7 +5882,7 @@
       </c>
       <c r="H166"/>
     </row>
-    <row r="167" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="167" spans="1:8" ht="30.75" thickBot="1">
       <c r="A167" s="3">
         <v>166</v>
       </c>
@@ -5905,7 +5904,7 @@
       </c>
       <c r="H167"/>
     </row>
-    <row r="168" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="168" spans="1:8" ht="30.75" thickBot="1">
       <c r="A168" s="3">
         <v>167</v>
       </c>
@@ -5927,7 +5926,7 @@
       </c>
       <c r="H168"/>
     </row>
-    <row r="169" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="169" spans="1:8" ht="30.75" thickBot="1">
       <c r="A169" s="3">
         <v>168</v>
       </c>
@@ -5949,7 +5948,7 @@
       </c>
       <c r="H169"/>
     </row>
-    <row r="170" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="170" spans="1:8" ht="30.75" thickBot="1">
       <c r="A170" s="3">
         <v>169</v>
       </c>
@@ -5971,7 +5970,7 @@
       </c>
       <c r="H170"/>
     </row>
-    <row r="171" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="171" spans="1:8" ht="30.75" thickBot="1">
       <c r="A171" s="3">
         <v>170</v>
       </c>
@@ -5993,7 +5992,7 @@
       </c>
       <c r="H171"/>
     </row>
-    <row r="172" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="172" spans="1:8" ht="30.75" thickBot="1">
       <c r="A172" s="3">
         <v>171</v>
       </c>
@@ -6015,7 +6014,7 @@
       </c>
       <c r="H172"/>
     </row>
-    <row r="173" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="173" spans="1:8" ht="30.75" thickBot="1">
       <c r="A173" s="3">
         <v>172</v>
       </c>
@@ -6037,7 +6036,7 @@
       </c>
       <c r="H173"/>
     </row>
-    <row r="174" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="174" spans="1:8" ht="30.75" thickBot="1">
       <c r="A174" s="3">
         <v>173</v>
       </c>
@@ -6059,7 +6058,7 @@
       </c>
       <c r="H174"/>
     </row>
-    <row r="175" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="175" spans="1:8" ht="30.75" thickBot="1">
       <c r="A175" s="3">
         <v>174</v>
       </c>
@@ -6081,7 +6080,7 @@
       </c>
       <c r="H175"/>
     </row>
-    <row r="176" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="176" spans="1:8" ht="30.75" thickBot="1">
       <c r="A176" s="3">
         <v>175</v>
       </c>
@@ -6103,7 +6102,7 @@
       </c>
       <c r="H176"/>
     </row>
-    <row r="177" spans="1:8" ht="60.75" hidden="1" thickBot="1">
+    <row r="177" spans="1:8" ht="60.75" thickBot="1">
       <c r="A177" s="3">
         <v>176</v>
       </c>
@@ -6125,7 +6124,7 @@
       </c>
       <c r="H177"/>
     </row>
-    <row r="178" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="178" spans="1:8" ht="15.75" thickBot="1">
       <c r="A178" s="3">
         <v>177</v>
       </c>
@@ -6147,8 +6146,8 @@
       </c>
       <c r="H178"/>
     </row>
-    <row r="179" spans="1:8" ht="30.75" hidden="1" thickBot="1">
-      <c r="A179" s="3">
+    <row r="179" spans="1:8" ht="30.75" thickBot="1">
+      <c r="A179" s="27">
         <v>178</v>
       </c>
       <c r="B179" s="4" t="s">
@@ -6171,162 +6170,153 @@
       </c>
       <c r="H179"/>
     </row>
-    <row r="180" spans="1:8" ht="30.75" hidden="1" thickBot="1">
-      <c r="A180" s="27">
-        <v>178</v>
-      </c>
-      <c r="B180" s="4" t="s">
+    <row r="180" spans="1:8">
+      <c r="A180" s="10"/>
+      <c r="B180" s="30" t="s">
         <v>297</v>
       </c>
-      <c r="C180" s="5" t="s">
-        <v>367</v>
-      </c>
-      <c r="D180" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="E180" s="16" t="s">
-        <v>386</v>
-      </c>
-      <c r="F180" s="16" t="s">
-        <v>393</v>
-      </c>
-      <c r="G180" s="7" t="s">
-        <v>368</v>
+      <c r="C180" s="32" t="s">
+        <v>369</v>
+      </c>
+      <c r="D180" s="36" t="s">
+        <v>385</v>
+      </c>
+      <c r="E180" s="36" t="s">
+        <v>387</v>
+      </c>
+      <c r="F180" s="36" t="s">
+        <v>393</v>
+      </c>
+      <c r="G180" s="34" t="s">
+        <v>370</v>
       </c>
       <c r="H180"/>
     </row>
-    <row r="181" spans="1:8" hidden="1">
-      <c r="A181" s="10"/>
-      <c r="B181" s="30" t="s">
+    <row r="181" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A181" s="3">
+        <v>179</v>
+      </c>
+      <c r="B181" s="31"/>
+      <c r="C181" s="33"/>
+      <c r="D181" s="37"/>
+      <c r="E181" s="37"/>
+      <c r="F181" s="37"/>
+      <c r="G181" s="35"/>
+      <c r="H181"/>
+    </row>
+    <row r="182" spans="1:8" ht="30.75" thickBot="1">
+      <c r="A182" s="3">
+        <v>180</v>
+      </c>
+      <c r="B182" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="C181" s="32" t="s">
-        <v>369</v>
-      </c>
-      <c r="D181" s="36" t="s">
-        <v>385</v>
-      </c>
-      <c r="E181" s="36" t="s">
-        <v>386</v>
-      </c>
-      <c r="F181" s="36" t="s">
-        <v>393</v>
-      </c>
-      <c r="G181" s="34" t="s">
-        <v>370</v>
-      </c>
-      <c r="H181"/>
-    </row>
-    <row r="182" spans="1:8" ht="15.75" hidden="1" thickBot="1">
-      <c r="A182" s="3">
-        <v>179</v>
-      </c>
-      <c r="B182" s="31"/>
-      <c r="C182" s="33"/>
-      <c r="D182" s="37"/>
-      <c r="E182" s="37"/>
-      <c r="F182" s="37"/>
-      <c r="G182" s="35"/>
+      <c r="C182" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="D182" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E182" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="F182" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="G182" s="7" t="s">
+        <v>372</v>
+      </c>
       <c r="H182"/>
     </row>
-    <row r="183" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="183" spans="1:8" ht="30.75" thickBot="1">
       <c r="A183" s="3">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B183" s="4" t="s">
         <v>297</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D183" s="16" t="s">
         <v>385</v>
       </c>
       <c r="E183" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="F183" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="G183" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="H183"/>
+    </row>
+    <row r="184" spans="1:8" ht="30.75" thickBot="1">
+      <c r="A184" s="3">
+        <v>182</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C184" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="D184" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="E184" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="F184" s="16" t="s">
+        <v>390</v>
+      </c>
+      <c r="G184" s="7" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" ht="30.75" thickBot="1">
+      <c r="A185" s="3">
+        <v>183</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="C185" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="D185" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="E185" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="F185" s="16" t="s">
+        <v>390</v>
+      </c>
+      <c r="G185" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="H185"/>
+    </row>
+    <row r="186" spans="1:8" ht="15.75" thickBot="1">
+      <c r="C186" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="D186" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="E186" s="16" t="s">
         <v>386</v>
       </c>
-      <c r="F183" s="16" t="s">
-        <v>393</v>
-      </c>
-      <c r="G183" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="H183"/>
-    </row>
-    <row r="184" spans="1:8" ht="30.75" hidden="1" thickBot="1">
-      <c r="A184" s="3">
-        <v>181</v>
-      </c>
-      <c r="B184" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="C184" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="D184" s="16" t="s">
-        <v>385</v>
-      </c>
-      <c r="E184" s="16" t="s">
-        <v>386</v>
-      </c>
-      <c r="F184" s="16" t="s">
-        <v>393</v>
-      </c>
-      <c r="G184" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="H184"/>
-    </row>
-    <row r="185" spans="1:8" ht="30.75" hidden="1" thickBot="1">
-      <c r="A185" s="3">
-        <v>182</v>
-      </c>
-      <c r="B185" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="C185" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="D185" s="16" t="s">
-        <v>383</v>
-      </c>
-      <c r="E185" s="16" t="s">
-        <v>388</v>
-      </c>
-      <c r="F185" s="16" t="s">
-        <v>390</v>
-      </c>
-      <c r="G185" s="7" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" ht="30.75" hidden="1" thickBot="1">
-      <c r="A186" s="3">
-        <v>183</v>
-      </c>
-      <c r="B186" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="C186" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="D186" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="E186" s="16" t="s">
-        <v>389</v>
-      </c>
       <c r="F186" s="16" t="s">
-        <v>390</v>
-      </c>
-      <c r="G186" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="H186"/>
-    </row>
-    <row r="187" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+        <v>393</v>
+      </c>
+      <c r="G186" s="7"/>
+    </row>
+    <row r="187" spans="1:8" ht="15.75" thickBot="1">
       <c r="C187" s="5" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D187" s="16" t="s">
         <v>385</v>
@@ -6339,9 +6329,9 @@
       </c>
       <c r="G187" s="7"/>
     </row>
-    <row r="188" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="188" spans="1:8" ht="15.75" thickBot="1">
       <c r="C188" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D188" s="16" t="s">
         <v>385</v>
@@ -6354,9 +6344,9 @@
       </c>
       <c r="G188" s="7"/>
     </row>
-    <row r="189" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="189" spans="1:8" ht="15.75" thickBot="1">
       <c r="C189" s="5" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="D189" s="16" t="s">
         <v>385</v>
@@ -6369,42 +6359,19 @@
       </c>
       <c r="G189" s="7"/>
     </row>
-    <row r="190" spans="1:8" ht="15.75" hidden="1" thickBot="1">
-      <c r="C190" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="D190" s="16" t="s">
-        <v>385</v>
-      </c>
-      <c r="E190" s="16" t="s">
-        <v>386</v>
-      </c>
-      <c r="F190" s="16" t="s">
-        <v>393</v>
-      </c>
-      <c r="G190" s="7"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:G190">
+  <autoFilter ref="A1:G189">
     <filterColumn colId="3"/>
-    <filterColumn colId="4">
-      <filters>
-        <filter val="Lore"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="5">
-      <filters>
-        <filter val="Sin Empezar"/>
-      </filters>
-    </filterColumn>
+    <filterColumn colId="4"/>
+    <filterColumn colId="5"/>
   </autoFilter>
   <mergeCells count="6">
-    <mergeCell ref="B181:B182"/>
-    <mergeCell ref="C181:C182"/>
-    <mergeCell ref="G181:G182"/>
-    <mergeCell ref="D181:D182"/>
-    <mergeCell ref="E181:E182"/>
-    <mergeCell ref="F181:F182"/>
+    <mergeCell ref="B180:B181"/>
+    <mergeCell ref="C180:C181"/>
+    <mergeCell ref="G180:G181"/>
+    <mergeCell ref="D180:D181"/>
+    <mergeCell ref="E180:E181"/>
+    <mergeCell ref="F180:F181"/>
   </mergeCells>
   <conditionalFormatting sqref="H63 L15:L20 F1:F1048576">
     <cfRule type="containsText" dxfId="9" priority="46" operator="containsText" text="Testeado con errores">
@@ -6423,31 +6390,31 @@
       <formula>NOT(ISERROR(SEARCH("Sin Empezar",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F180">
+  <conditionalFormatting sqref="F179">
     <cfRule type="containsText" dxfId="4" priority="16" operator="containsText" text="Testeado con errores">
-      <formula>NOT(ISERROR(SEARCH("Testeado con errores",F180)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Testeado con errores",F179)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="3" priority="17" operator="containsText" text="Implementado">
-      <formula>NOT(ISERROR(SEARCH("Implementado",F180)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Implementado",F179)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="2" priority="18" operator="containsText" text="En Progreso">
-      <formula>NOT(ISERROR(SEARCH("En Progreso",F180)))</formula>
+      <formula>NOT(ISERROR(SEARCH("En Progreso",F179)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="1" priority="19" operator="containsText" text="Finalizado">
-      <formula>NOT(ISERROR(SEARCH("Finalizado",F180)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Finalizado",F179)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="0" priority="20" operator="containsText" text="Sin Empezar">
-      <formula>NOT(ISERROR(SEARCH("Sin Empezar",F180)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Sin Empezar",F179)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D190">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D189">
       <formula1>$L$4:$L$6</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E190">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E189">
       <formula1>$L$9:$L$12</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F190">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F189">
       <formula1>Sin_Empezar</formula1>
     </dataValidation>
   </dataValidations>

--- a/Planificacion/PlanificacionTesis.xlsx
+++ b/Planificacion/PlanificacionTesis.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="403">
   <si>
     <t>Nº</t>
   </si>
@@ -1982,8 +1982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="C49" workbookViewId="0">
+      <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="119.42578125" defaultRowHeight="15"/>
@@ -2950,9 +2950,11 @@
       <c r="D40" s="16" t="s">
         <v>385</v>
       </c>
-      <c r="E40" s="16"/>
+      <c r="E40" s="16" t="s">
+        <v>386</v>
+      </c>
       <c r="F40" s="16" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="G40" s="7" t="s">
         <v>85</v>
@@ -2972,9 +2974,11 @@
       <c r="D41" s="16" t="s">
         <v>385</v>
       </c>
-      <c r="E41" s="16"/>
+      <c r="E41" s="16" t="s">
+        <v>386</v>
+      </c>
       <c r="F41" s="16" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="G41" s="7" t="s">
         <v>87</v>
@@ -2994,9 +2998,11 @@
       <c r="D42" s="16" t="s">
         <v>385</v>
       </c>
-      <c r="E42" s="16"/>
+      <c r="E42" s="16" t="s">
+        <v>386</v>
+      </c>
       <c r="F42" s="16" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="G42" s="7" t="s">
         <v>89</v>
@@ -3016,9 +3022,11 @@
       <c r="D43" s="16" t="s">
         <v>385</v>
       </c>
-      <c r="E43" s="16"/>
+      <c r="E43" s="16" t="s">
+        <v>386</v>
+      </c>
       <c r="F43" s="16" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="G43" s="7" t="s">
         <v>91</v>

--- a/Planificacion/PlanificacionTesis.xlsx
+++ b/Planificacion/PlanificacionTesis.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="403">
   <si>
     <t>Nº</t>
   </si>
@@ -1980,10 +1980,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:L189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C49" workbookViewId="0">
-      <selection activeCell="E59" sqref="E59"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="119.42578125" defaultRowHeight="15"/>
@@ -2025,7 +2026,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="30.75" thickBot="1">
+    <row r="2" spans="1:12" ht="30.75" hidden="1" thickBot="1">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2048,7 +2049,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="30.75" thickBot="1">
+    <row r="3" spans="1:12" ht="30.75" hidden="1" thickBot="1">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -2075,7 +2076,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" thickBot="1">
+    <row r="4" spans="1:12" ht="15.75" hidden="1" thickBot="1">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -2102,7 +2103,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" thickBot="1">
+    <row r="5" spans="1:12" ht="15.75" hidden="1" thickBot="1">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -2129,7 +2130,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" thickBot="1">
+    <row r="6" spans="1:12" ht="15.75" hidden="1" thickBot="1">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -2156,7 +2157,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75" thickBot="1">
+    <row r="7" spans="1:12" ht="15.75" hidden="1" thickBot="1">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -2180,7 +2181,7 @@
       </c>
       <c r="H7"/>
     </row>
-    <row r="8" spans="1:12" ht="15.75" thickBot="1">
+    <row r="8" spans="1:12" ht="15.75" hidden="1" thickBot="1">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -2206,7 +2207,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="30.75" thickBot="1">
+    <row r="9" spans="1:12" ht="30.75" hidden="1" thickBot="1">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -2232,7 +2233,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="30.75" thickBot="1">
+    <row r="10" spans="1:12" ht="30.75" hidden="1" thickBot="1">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -2257,7 +2258,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="30.75" thickBot="1">
+    <row r="11" spans="1:12" ht="30.75" hidden="1" thickBot="1">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -2283,7 +2284,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="30.75" thickBot="1">
+    <row r="12" spans="1:12" ht="30.75" hidden="1" thickBot="1">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -2309,7 +2310,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="30.75" thickBot="1">
+    <row r="13" spans="1:12" ht="30.75" hidden="1" thickBot="1">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -2332,7 +2333,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="30.75" thickBot="1">
+    <row r="14" spans="1:12" ht="30.75" hidden="1" thickBot="1">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -2358,7 +2359,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15.75" thickBot="1">
+    <row r="15" spans="1:12" ht="15.75" hidden="1" thickBot="1">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -2383,7 +2384,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="30.75" thickBot="1">
+    <row r="16" spans="1:12" ht="30.75" hidden="1" thickBot="1">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -2408,7 +2409,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15.75" thickBot="1">
+    <row r="17" spans="1:12" ht="15.75" hidden="1" thickBot="1">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -2434,7 +2435,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="30.75" thickBot="1">
+    <row r="18" spans="1:12" ht="30.75" hidden="1" thickBot="1">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -2460,7 +2461,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15.75" thickBot="1">
+    <row r="19" spans="1:12" ht="15.75" hidden="1" thickBot="1">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -2486,7 +2487,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15.75" thickBot="1">
+    <row r="20" spans="1:12" ht="15.75" hidden="1" thickBot="1">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -2512,7 +2513,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15.75" thickBot="1">
+    <row r="21" spans="1:12" ht="15.75" hidden="1" thickBot="1">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -2535,7 +2536,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15.75" thickBot="1">
+    <row r="22" spans="1:12" ht="15.75" hidden="1" thickBot="1">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -2557,7 +2558,7 @@
       </c>
       <c r="H22"/>
     </row>
-    <row r="23" spans="1:12" ht="30.75" thickBot="1">
+    <row r="23" spans="1:12" ht="30.75" hidden="1" thickBot="1">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -2579,7 +2580,7 @@
       </c>
       <c r="H23"/>
     </row>
-    <row r="24" spans="1:12" ht="30.75" thickBot="1">
+    <row r="24" spans="1:12" ht="30.75" hidden="1" thickBot="1">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -2601,7 +2602,7 @@
       </c>
       <c r="H24"/>
     </row>
-    <row r="25" spans="1:12" ht="30.75" thickBot="1">
+    <row r="25" spans="1:12" ht="30.75" hidden="1" thickBot="1">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -2623,7 +2624,7 @@
       </c>
       <c r="H25"/>
     </row>
-    <row r="26" spans="1:12" ht="30.75" thickBot="1">
+    <row r="26" spans="1:12" ht="30.75" hidden="1" thickBot="1">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -2645,7 +2646,7 @@
       </c>
       <c r="H26"/>
     </row>
-    <row r="27" spans="1:12" ht="15.75" thickBot="1">
+    <row r="27" spans="1:12" ht="15.75" hidden="1" thickBot="1">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -2667,7 +2668,7 @@
       </c>
       <c r="H27"/>
     </row>
-    <row r="28" spans="1:12" ht="15.75" thickBot="1">
+    <row r="28" spans="1:12" ht="15.75" hidden="1" thickBot="1">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -2691,7 +2692,7 @@
       </c>
       <c r="H28"/>
     </row>
-    <row r="29" spans="1:12" ht="15.75" thickBot="1">
+    <row r="29" spans="1:12" ht="15.75" hidden="1" thickBot="1">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -2713,7 +2714,7 @@
       </c>
       <c r="H29"/>
     </row>
-    <row r="30" spans="1:12" ht="30.75" thickBot="1">
+    <row r="30" spans="1:12" ht="30.75" hidden="1" thickBot="1">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -2735,7 +2736,7 @@
       </c>
       <c r="H30"/>
     </row>
-    <row r="31" spans="1:12" ht="15.75" thickBot="1">
+    <row r="31" spans="1:12" ht="15.75" hidden="1" thickBot="1">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -2758,7 +2759,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="15.75" thickBot="1">
+    <row r="32" spans="1:12" ht="15.75" hidden="1" thickBot="1">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -2780,7 +2781,7 @@
       </c>
       <c r="H32"/>
     </row>
-    <row r="33" spans="1:8" ht="30.75" thickBot="1">
+    <row r="33" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -2802,7 +2803,7 @@
       </c>
       <c r="H33"/>
     </row>
-    <row r="34" spans="1:8" ht="15.75" thickBot="1">
+    <row r="34" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -2825,7 +2826,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="30.75" thickBot="1">
+    <row r="35" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -2862,9 +2863,11 @@
       <c r="D36" s="16" t="s">
         <v>385</v>
       </c>
-      <c r="E36" s="16"/>
+      <c r="E36" s="16" t="s">
+        <v>386</v>
+      </c>
       <c r="F36" s="16" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>77</v>
@@ -2884,9 +2887,11 @@
       <c r="D37" s="16" t="s">
         <v>385</v>
       </c>
-      <c r="E37" s="16"/>
+      <c r="E37" s="16" t="s">
+        <v>386</v>
+      </c>
       <c r="F37" s="16" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>79</v>
@@ -2906,9 +2911,11 @@
       <c r="D38" s="16" t="s">
         <v>385</v>
       </c>
-      <c r="E38" s="16"/>
+      <c r="E38" s="16" t="s">
+        <v>386</v>
+      </c>
       <c r="F38" s="16" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>81</v>
@@ -2928,9 +2935,11 @@
       <c r="D39" s="16" t="s">
         <v>385</v>
       </c>
-      <c r="E39" s="16"/>
+      <c r="E39" s="16" t="s">
+        <v>386</v>
+      </c>
       <c r="F39" s="16" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="G39" s="7" t="s">
         <v>83</v>
@@ -3033,7 +3042,7 @@
       </c>
       <c r="H43"/>
     </row>
-    <row r="44" spans="1:8" ht="15.75" thickBot="1">
+    <row r="44" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -3057,7 +3066,7 @@
       </c>
       <c r="H44"/>
     </row>
-    <row r="45" spans="1:8" ht="15.75" thickBot="1">
+    <row r="45" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -3080,7 +3089,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="15.75" thickBot="1">
+    <row r="46" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -3104,7 +3113,7 @@
       </c>
       <c r="H46"/>
     </row>
-    <row r="47" spans="1:8" ht="30.75" thickBot="1">
+    <row r="47" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -3126,7 +3135,7 @@
       </c>
       <c r="H47"/>
     </row>
-    <row r="48" spans="1:8" ht="30.75" thickBot="1">
+    <row r="48" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -3150,7 +3159,7 @@
       </c>
       <c r="H48"/>
     </row>
-    <row r="49" spans="1:8" ht="15.75" thickBot="1">
+    <row r="49" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -3174,7 +3183,7 @@
       </c>
       <c r="H49"/>
     </row>
-    <row r="50" spans="1:8" ht="15.75" thickBot="1">
+    <row r="50" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -3198,7 +3207,7 @@
       </c>
       <c r="H50"/>
     </row>
-    <row r="51" spans="1:8" ht="30.75" thickBot="1">
+    <row r="51" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -3220,7 +3229,7 @@
       </c>
       <c r="H51"/>
     </row>
-    <row r="52" spans="1:8" ht="15.75" thickBot="1">
+    <row r="52" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -3244,7 +3253,7 @@
       </c>
       <c r="H52"/>
     </row>
-    <row r="53" spans="1:8" ht="15.75" thickBot="1">
+    <row r="53" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -3268,7 +3277,7 @@
       </c>
       <c r="H53"/>
     </row>
-    <row r="54" spans="1:8" ht="15.75" thickBot="1">
+    <row r="54" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -3292,7 +3301,7 @@
       </c>
       <c r="H54"/>
     </row>
-    <row r="55" spans="1:8" ht="15.75" thickBot="1">
+    <row r="55" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -3316,7 +3325,7 @@
       </c>
       <c r="H55"/>
     </row>
-    <row r="56" spans="1:8" ht="15.75" thickBot="1">
+    <row r="56" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -3340,7 +3349,7 @@
       </c>
       <c r="H56"/>
     </row>
-    <row r="57" spans="1:8" ht="15.75" thickBot="1">
+    <row r="57" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -3364,7 +3373,7 @@
       </c>
       <c r="H57"/>
     </row>
-    <row r="58" spans="1:8" ht="15.75" thickBot="1">
+    <row r="58" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -3412,7 +3421,7 @@
       </c>
       <c r="H59"/>
     </row>
-    <row r="60" spans="1:8" ht="15.75" thickBot="1">
+    <row r="60" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -3436,7 +3445,7 @@
       </c>
       <c r="H60"/>
     </row>
-    <row r="61" spans="1:8" ht="15.75" thickBot="1">
+    <row r="61" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -3460,7 +3469,7 @@
       </c>
       <c r="H61"/>
     </row>
-    <row r="62" spans="1:8" ht="15.75" thickBot="1">
+    <row r="62" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -3484,7 +3493,7 @@
       </c>
       <c r="H62"/>
     </row>
-    <row r="63" spans="1:8" ht="60.75" thickBot="1">
+    <row r="63" spans="1:8" ht="60.75" hidden="1" thickBot="1">
       <c r="A63" s="3">
         <v>62</v>
       </c>
@@ -3510,7 +3519,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="30.75" thickBot="1">
+    <row r="64" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A64" s="3">
         <v>63</v>
       </c>
@@ -3533,7 +3542,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="30.75" thickBot="1">
+    <row r="65" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A65" s="3">
         <v>64</v>
       </c>
@@ -3557,7 +3566,7 @@
       </c>
       <c r="H65"/>
     </row>
-    <row r="66" spans="1:8" ht="15.75" thickBot="1">
+    <row r="66" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A66" s="3">
         <v>65</v>
       </c>
@@ -3581,7 +3590,7 @@
       </c>
       <c r="H66"/>
     </row>
-    <row r="67" spans="1:8" ht="15.75" thickBot="1">
+    <row r="67" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A67" s="3">
         <v>66</v>
       </c>
@@ -3605,7 +3614,7 @@
       </c>
       <c r="H67"/>
     </row>
-    <row r="68" spans="1:8" ht="15.75" thickBot="1">
+    <row r="68" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A68" s="3">
         <v>67</v>
       </c>
@@ -3629,7 +3638,7 @@
       </c>
       <c r="H68"/>
     </row>
-    <row r="69" spans="1:8" ht="30.75" thickBot="1">
+    <row r="69" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A69" s="3">
         <v>68</v>
       </c>
@@ -3652,7 +3661,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="15.75" thickBot="1">
+    <row r="70" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A70" s="3">
         <v>69</v>
       </c>
@@ -3675,7 +3684,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="30.75" thickBot="1">
+    <row r="71" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A71" s="3">
         <v>70</v>
       </c>
@@ -3698,7 +3707,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="15.75" thickBot="1">
+    <row r="72" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A72" s="3">
         <v>71</v>
       </c>
@@ -3721,7 +3730,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="30.75" thickBot="1">
+    <row r="73" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A73" s="3">
         <v>72</v>
       </c>
@@ -3744,7 +3753,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="15.75" thickBot="1">
+    <row r="74" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A74" s="3">
         <v>73</v>
       </c>
@@ -3768,7 +3777,7 @@
       </c>
       <c r="H74"/>
     </row>
-    <row r="75" spans="1:8" ht="15.75" thickBot="1">
+    <row r="75" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A75" s="3">
         <v>74</v>
       </c>
@@ -3790,7 +3799,7 @@
       </c>
       <c r="H75"/>
     </row>
-    <row r="76" spans="1:8" ht="30.75" thickBot="1">
+    <row r="76" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A76" s="3">
         <v>75</v>
       </c>
@@ -3812,7 +3821,7 @@
       </c>
       <c r="H76"/>
     </row>
-    <row r="77" spans="1:8" ht="30.75" thickBot="1">
+    <row r="77" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A77" s="3">
         <v>76</v>
       </c>
@@ -3838,7 +3847,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="15.75" thickBot="1">
+    <row r="78" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A78" s="3">
         <v>77</v>
       </c>
@@ -3861,7 +3870,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="15.75" thickBot="1">
+    <row r="79" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A79" s="3">
         <v>78</v>
       </c>
@@ -3884,7 +3893,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="15.75" thickBot="1">
+    <row r="80" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A80" s="3">
         <v>79</v>
       </c>
@@ -3907,7 +3916,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15.75" thickBot="1">
+    <row r="81" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A81" s="3">
         <v>80</v>
       </c>
@@ -3930,7 +3939,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="15.75" thickBot="1">
+    <row r="82" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A82" s="3">
         <v>81</v>
       </c>
@@ -3953,7 +3962,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="15.75" thickBot="1">
+    <row r="83" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A83" s="3">
         <v>82</v>
       </c>
@@ -3976,7 +3985,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="15.75" thickBot="1">
+    <row r="84" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A84" s="3">
         <v>83</v>
       </c>
@@ -3999,7 +4008,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15.75" thickBot="1">
+    <row r="85" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A85" s="3">
         <v>84</v>
       </c>
@@ -4022,7 +4031,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="15.75" thickBot="1">
+    <row r="86" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A86" s="3">
         <v>85</v>
       </c>
@@ -4046,7 +4055,7 @@
       </c>
       <c r="H86"/>
     </row>
-    <row r="87" spans="1:8" ht="15.75" thickBot="1">
+    <row r="87" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A87" s="3">
         <v>86</v>
       </c>
@@ -4070,7 +4079,7 @@
       </c>
       <c r="H87"/>
     </row>
-    <row r="88" spans="1:8" ht="15.75" thickBot="1">
+    <row r="88" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A88" s="3">
         <v>87</v>
       </c>
@@ -4094,7 +4103,7 @@
       </c>
       <c r="H88"/>
     </row>
-    <row r="89" spans="1:8" ht="15.75" thickBot="1">
+    <row r="89" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A89" s="3">
         <v>88</v>
       </c>
@@ -4118,7 +4127,7 @@
       </c>
       <c r="H89"/>
     </row>
-    <row r="90" spans="1:8" ht="15.75" thickBot="1">
+    <row r="90" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A90" s="3">
         <v>89</v>
       </c>
@@ -4141,7 +4150,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="15.75" thickBot="1">
+    <row r="91" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A91" s="3">
         <v>90</v>
       </c>
@@ -4164,7 +4173,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="15.75" thickBot="1">
+    <row r="92" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A92" s="3">
         <v>91</v>
       </c>
@@ -4187,7 +4196,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="15.75" thickBot="1">
+    <row r="93" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A93" s="3">
         <v>92</v>
       </c>
@@ -4210,7 +4219,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="30.75" thickBot="1">
+    <row r="94" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A94" s="3">
         <v>93</v>
       </c>
@@ -4234,7 +4243,7 @@
       </c>
       <c r="H94"/>
     </row>
-    <row r="95" spans="1:8" ht="15.75" thickBot="1">
+    <row r="95" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A95" s="3">
         <v>94</v>
       </c>
@@ -4258,7 +4267,7 @@
       </c>
       <c r="H95"/>
     </row>
-    <row r="96" spans="1:8" ht="30.75" thickBot="1">
+    <row r="96" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A96" s="3">
         <v>95</v>
       </c>
@@ -4282,7 +4291,7 @@
       </c>
       <c r="H96"/>
     </row>
-    <row r="97" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+    <row r="97" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
       <c r="A97" s="3">
         <v>96</v>
       </c>
@@ -4305,7 +4314,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="98" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+    <row r="98" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
       <c r="A98" s="3">
         <v>97</v>
       </c>
@@ -4328,7 +4337,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="99" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="99" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A99" s="3">
         <v>98</v>
       </c>
@@ -4351,7 +4360,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="100" spans="1:7" customFormat="1" ht="45.75" thickBot="1">
+    <row r="100" spans="1:7" customFormat="1" ht="45.75" hidden="1" thickBot="1">
       <c r="A100" s="3">
         <v>99</v>
       </c>
@@ -4374,7 +4383,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="101" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+    <row r="101" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
       <c r="A101" s="3">
         <v>100</v>
       </c>
@@ -4397,7 +4406,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="102" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="102" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A102" s="3">
         <v>101</v>
       </c>
@@ -4418,7 +4427,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="103" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+    <row r="103" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
       <c r="A103" s="3">
         <v>102</v>
       </c>
@@ -4441,7 +4450,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="104" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+    <row r="104" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
       <c r="A104" s="3">
         <v>103</v>
       </c>
@@ -4464,7 +4473,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="105" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="105" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A105" s="3">
         <v>104</v>
       </c>
@@ -4485,7 +4494,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="106" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="106" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A106" s="3">
         <v>105</v>
       </c>
@@ -4508,7 +4517,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="107" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="107" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A107" s="3">
         <v>106</v>
       </c>
@@ -4531,7 +4540,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="108" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="108" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A108" s="3">
         <v>107</v>
       </c>
@@ -4554,7 +4563,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="109" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="109" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A109" s="3">
         <v>108</v>
       </c>
@@ -4575,7 +4584,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="110" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="110" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A110" s="3">
         <v>109</v>
       </c>
@@ -4596,7 +4605,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="111" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="111" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A111" s="3">
         <v>110</v>
       </c>
@@ -4619,7 +4628,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="112" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="112" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A112" s="3">
         <v>111</v>
       </c>
@@ -4642,7 +4651,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="45.75" thickBot="1">
+    <row r="113" spans="1:8" ht="45.75" hidden="1" thickBot="1">
       <c r="A113" s="3">
         <v>112</v>
       </c>
@@ -4665,7 +4674,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="30.75" thickBot="1">
+    <row r="114" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A114" s="3">
         <v>113</v>
       </c>
@@ -4688,7 +4697,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="45.75" thickBot="1">
+    <row r="115" spans="1:8" ht="45.75" hidden="1" thickBot="1">
       <c r="A115" s="3">
         <v>114</v>
       </c>
@@ -4711,7 +4720,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="15.75" thickBot="1">
+    <row r="116" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A116" s="3">
         <v>115</v>
       </c>
@@ -4734,7 +4743,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="15.75" thickBot="1">
+    <row r="117" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A117" s="3">
         <v>116</v>
       </c>
@@ -4757,7 +4766,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="30.75" thickBot="1">
+    <row r="118" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A118" s="3">
         <v>117</v>
       </c>
@@ -4780,7 +4789,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="15.75" thickBot="1">
+    <row r="119" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A119" s="3">
         <v>118</v>
       </c>
@@ -4803,7 +4812,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="30.75" thickBot="1">
+    <row r="120" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A120" s="3">
         <v>119</v>
       </c>
@@ -4826,7 +4835,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="15.75" thickBot="1">
+    <row r="121" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A121" s="3">
         <v>120</v>
       </c>
@@ -4849,7 +4858,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="15.75" thickBot="1">
+    <row r="122" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A122" s="3">
         <v>121</v>
       </c>
@@ -4872,7 +4881,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="30.75" thickBot="1">
+    <row r="123" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A123" s="3">
         <v>122</v>
       </c>
@@ -4896,7 +4905,7 @@
       </c>
       <c r="H123"/>
     </row>
-    <row r="124" spans="1:8" ht="30.75" thickBot="1">
+    <row r="124" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A124" s="3">
         <v>123</v>
       </c>
@@ -4920,7 +4929,7 @@
       </c>
       <c r="H124"/>
     </row>
-    <row r="125" spans="1:8" ht="30.75" thickBot="1">
+    <row r="125" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A125" s="3">
         <v>124</v>
       </c>
@@ -4944,7 +4953,7 @@
       </c>
       <c r="H125"/>
     </row>
-    <row r="126" spans="1:8" ht="15.75" thickBot="1">
+    <row r="126" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A126" s="3">
         <v>125</v>
       </c>
@@ -4968,7 +4977,7 @@
       </c>
       <c r="H126"/>
     </row>
-    <row r="127" spans="1:8" ht="15.75" thickBot="1">
+    <row r="127" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A127" s="3">
         <v>126</v>
       </c>
@@ -4992,7 +5001,7 @@
       </c>
       <c r="H127"/>
     </row>
-    <row r="128" spans="1:8" ht="15.75" thickBot="1">
+    <row r="128" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A128" s="3">
         <v>127</v>
       </c>
@@ -5016,7 +5025,7 @@
       </c>
       <c r="H128"/>
     </row>
-    <row r="129" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="129" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A129" s="3">
         <v>128</v>
       </c>
@@ -5039,7 +5048,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="130" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+    <row r="130" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
       <c r="A130" s="3">
         <v>129</v>
       </c>
@@ -5062,7 +5071,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="131" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+    <row r="131" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
       <c r="A131" s="3">
         <v>130</v>
       </c>
@@ -5085,7 +5094,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="132" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="132" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A132" s="3">
         <v>131</v>
       </c>
@@ -5108,7 +5117,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="133" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="133" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A133" s="3">
         <v>132</v>
       </c>
@@ -5131,7 +5140,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="134" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="134" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A134" s="3">
         <v>133</v>
       </c>
@@ -5154,7 +5163,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="135" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="135" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A135" s="3">
         <v>134</v>
       </c>
@@ -5177,7 +5186,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="136" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="136" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A136" s="3">
         <v>135</v>
       </c>
@@ -5198,7 +5207,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="137" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="137" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A137" s="3">
         <v>136</v>
       </c>
@@ -5221,7 +5230,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="138" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="138" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A138" s="3">
         <v>137</v>
       </c>
@@ -5244,7 +5253,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="139" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="139" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A139" s="3">
         <v>138</v>
       </c>
@@ -5265,7 +5274,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="140" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="140" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A140" s="3">
         <v>139</v>
       </c>
@@ -5286,7 +5295,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="141" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="141" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A141" s="3">
         <v>140</v>
       </c>
@@ -5307,7 +5316,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="142" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="142" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A142" s="3">
         <v>141</v>
       </c>
@@ -5328,7 +5337,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="143" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="143" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A143" s="3">
         <v>142</v>
       </c>
@@ -5349,7 +5358,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="144" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="144" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A144" s="3">
         <v>143</v>
       </c>
@@ -5562,7 +5571,7 @@
       </c>
       <c r="H152"/>
     </row>
-    <row r="153" spans="1:8" ht="30.75" thickBot="1">
+    <row r="153" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A153" s="3">
         <v>152</v>
       </c>
@@ -5802,7 +5811,7 @@
       </c>
       <c r="H162"/>
     </row>
-    <row r="163" spans="1:8" ht="30.75" thickBot="1">
+    <row r="163" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A163" s="3">
         <v>162</v>
       </c>
@@ -5824,7 +5833,7 @@
       </c>
       <c r="H163"/>
     </row>
-    <row r="164" spans="1:8" ht="45.75" thickBot="1">
+    <row r="164" spans="1:8" ht="45.75" hidden="1" thickBot="1">
       <c r="A164" s="3">
         <v>163</v>
       </c>
@@ -5846,7 +5855,7 @@
       </c>
       <c r="H164"/>
     </row>
-    <row r="165" spans="1:8" ht="30.75" thickBot="1">
+    <row r="165" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A165" s="3">
         <v>164</v>
       </c>
@@ -5868,7 +5877,7 @@
       </c>
       <c r="H165"/>
     </row>
-    <row r="166" spans="1:8" ht="30.75" thickBot="1">
+    <row r="166" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A166" s="3">
         <v>165</v>
       </c>
@@ -5890,7 +5899,7 @@
       </c>
       <c r="H166"/>
     </row>
-    <row r="167" spans="1:8" ht="30.75" thickBot="1">
+    <row r="167" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A167" s="3">
         <v>166</v>
       </c>
@@ -5912,7 +5921,7 @@
       </c>
       <c r="H167"/>
     </row>
-    <row r="168" spans="1:8" ht="30.75" thickBot="1">
+    <row r="168" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A168" s="3">
         <v>167</v>
       </c>
@@ -5934,7 +5943,7 @@
       </c>
       <c r="H168"/>
     </row>
-    <row r="169" spans="1:8" ht="30.75" thickBot="1">
+    <row r="169" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A169" s="3">
         <v>168</v>
       </c>
@@ -5956,7 +5965,7 @@
       </c>
       <c r="H169"/>
     </row>
-    <row r="170" spans="1:8" ht="30.75" thickBot="1">
+    <row r="170" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A170" s="3">
         <v>169</v>
       </c>
@@ -5978,7 +5987,7 @@
       </c>
       <c r="H170"/>
     </row>
-    <row r="171" spans="1:8" ht="30.75" thickBot="1">
+    <row r="171" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A171" s="3">
         <v>170</v>
       </c>
@@ -6000,7 +6009,7 @@
       </c>
       <c r="H171"/>
     </row>
-    <row r="172" spans="1:8" ht="30.75" thickBot="1">
+    <row r="172" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A172" s="3">
         <v>171</v>
       </c>
@@ -6022,7 +6031,7 @@
       </c>
       <c r="H172"/>
     </row>
-    <row r="173" spans="1:8" ht="30.75" thickBot="1">
+    <row r="173" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A173" s="3">
         <v>172</v>
       </c>
@@ -6044,7 +6053,7 @@
       </c>
       <c r="H173"/>
     </row>
-    <row r="174" spans="1:8" ht="30.75" thickBot="1">
+    <row r="174" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A174" s="3">
         <v>173</v>
       </c>
@@ -6066,7 +6075,7 @@
       </c>
       <c r="H174"/>
     </row>
-    <row r="175" spans="1:8" ht="30.75" thickBot="1">
+    <row r="175" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A175" s="3">
         <v>174</v>
       </c>
@@ -6088,7 +6097,7 @@
       </c>
       <c r="H175"/>
     </row>
-    <row r="176" spans="1:8" ht="30.75" thickBot="1">
+    <row r="176" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A176" s="3">
         <v>175</v>
       </c>
@@ -6110,7 +6119,7 @@
       </c>
       <c r="H176"/>
     </row>
-    <row r="177" spans="1:8" ht="60.75" thickBot="1">
+    <row r="177" spans="1:8" ht="60.75" hidden="1" thickBot="1">
       <c r="A177" s="3">
         <v>176</v>
       </c>
@@ -6132,7 +6141,7 @@
       </c>
       <c r="H177"/>
     </row>
-    <row r="178" spans="1:8" ht="15.75" thickBot="1">
+    <row r="178" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A178" s="3">
         <v>177</v>
       </c>
@@ -6154,7 +6163,7 @@
       </c>
       <c r="H178"/>
     </row>
-    <row r="179" spans="1:8" ht="30.75" thickBot="1">
+    <row r="179" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A179" s="27">
         <v>178</v>
       </c>
@@ -6178,7 +6187,7 @@
       </c>
       <c r="H179"/>
     </row>
-    <row r="180" spans="1:8">
+    <row r="180" spans="1:8" hidden="1">
       <c r="A180" s="10"/>
       <c r="B180" s="30" t="s">
         <v>297</v>
@@ -6200,7 +6209,7 @@
       </c>
       <c r="H180"/>
     </row>
-    <row r="181" spans="1:8" ht="15.75" thickBot="1">
+    <row r="181" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A181" s="3">
         <v>179</v>
       </c>
@@ -6212,7 +6221,7 @@
       <c r="G181" s="35"/>
       <c r="H181"/>
     </row>
-    <row r="182" spans="1:8" ht="30.75" thickBot="1">
+    <row r="182" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A182" s="3">
         <v>180</v>
       </c>
@@ -6236,7 +6245,7 @@
       </c>
       <c r="H182"/>
     </row>
-    <row r="183" spans="1:8" ht="30.75" thickBot="1">
+    <row r="183" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A183" s="3">
         <v>181</v>
       </c>
@@ -6260,7 +6269,7 @@
       </c>
       <c r="H183"/>
     </row>
-    <row r="184" spans="1:8" ht="30.75" thickBot="1">
+    <row r="184" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A184" s="3">
         <v>182</v>
       </c>
@@ -6283,7 +6292,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="185" spans="1:8" ht="30.75" thickBot="1">
+    <row r="185" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A185" s="3">
         <v>183</v>
       </c>
@@ -6370,7 +6379,11 @@
   </sheetData>
   <autoFilter ref="A1:G189">
     <filterColumn colId="3"/>
-    <filterColumn colId="4"/>
+    <filterColumn colId="4">
+      <filters>
+        <filter val="Lore"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="5"/>
   </autoFilter>
   <mergeCells count="6">

--- a/Planificacion/PlanificacionTesis.xlsx
+++ b/Planificacion/PlanificacionTesis.xlsx
@@ -1980,11 +1980,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:L189"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="C125" sqref="C125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="119.42578125" defaultRowHeight="15"/>
@@ -2026,7 +2025,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="30.75" hidden="1" thickBot="1">
+    <row r="2" spans="1:12" ht="30.75" thickBot="1">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2049,7 +2048,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="30.75" hidden="1" thickBot="1">
+    <row r="3" spans="1:12" ht="30.75" thickBot="1">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -2076,7 +2075,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" hidden="1" thickBot="1">
+    <row r="4" spans="1:12" ht="15.75" thickBot="1">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -2103,7 +2102,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" hidden="1" thickBot="1">
+    <row r="5" spans="1:12" ht="15.75" thickBot="1">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -2130,7 +2129,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" hidden="1" thickBot="1">
+    <row r="6" spans="1:12" ht="15.75" thickBot="1">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -2157,7 +2156,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75" hidden="1" thickBot="1">
+    <row r="7" spans="1:12" ht="15.75" thickBot="1">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -2181,7 +2180,7 @@
       </c>
       <c r="H7"/>
     </row>
-    <row r="8" spans="1:12" ht="15.75" hidden="1" thickBot="1">
+    <row r="8" spans="1:12" ht="15.75" thickBot="1">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -2207,7 +2206,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="30.75" hidden="1" thickBot="1">
+    <row r="9" spans="1:12" ht="30.75" thickBot="1">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -2233,7 +2232,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="30.75" hidden="1" thickBot="1">
+    <row r="10" spans="1:12" ht="30.75" thickBot="1">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -2258,7 +2257,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="30.75" hidden="1" thickBot="1">
+    <row r="11" spans="1:12" ht="30.75" thickBot="1">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -2284,7 +2283,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="30.75" hidden="1" thickBot="1">
+    <row r="12" spans="1:12" ht="30.75" thickBot="1">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -2310,7 +2309,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="30.75" hidden="1" thickBot="1">
+    <row r="13" spans="1:12" ht="30.75" thickBot="1">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -2333,7 +2332,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="30.75" hidden="1" thickBot="1">
+    <row r="14" spans="1:12" ht="30.75" thickBot="1">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -2359,7 +2358,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15.75" hidden="1" thickBot="1">
+    <row r="15" spans="1:12" ht="15.75" thickBot="1">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -2384,7 +2383,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="30.75" hidden="1" thickBot="1">
+    <row r="16" spans="1:12" ht="30.75" thickBot="1">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -2409,7 +2408,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15.75" hidden="1" thickBot="1">
+    <row r="17" spans="1:12" ht="15.75" thickBot="1">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -2435,7 +2434,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="30.75" hidden="1" thickBot="1">
+    <row r="18" spans="1:12" ht="30.75" thickBot="1">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -2461,7 +2460,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15.75" hidden="1" thickBot="1">
+    <row r="19" spans="1:12" ht="15.75" thickBot="1">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -2487,7 +2486,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15.75" hidden="1" thickBot="1">
+    <row r="20" spans="1:12" ht="15.75" thickBot="1">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -2513,7 +2512,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15.75" hidden="1" thickBot="1">
+    <row r="21" spans="1:12" ht="15.75" thickBot="1">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -2536,7 +2535,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15.75" hidden="1" thickBot="1">
+    <row r="22" spans="1:12" ht="15.75" thickBot="1">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -2558,7 +2557,7 @@
       </c>
       <c r="H22"/>
     </row>
-    <row r="23" spans="1:12" ht="30.75" hidden="1" thickBot="1">
+    <row r="23" spans="1:12" ht="30.75" thickBot="1">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -2580,7 +2579,7 @@
       </c>
       <c r="H23"/>
     </row>
-    <row r="24" spans="1:12" ht="30.75" hidden="1" thickBot="1">
+    <row r="24" spans="1:12" ht="30.75" thickBot="1">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -2602,7 +2601,7 @@
       </c>
       <c r="H24"/>
     </row>
-    <row r="25" spans="1:12" ht="30.75" hidden="1" thickBot="1">
+    <row r="25" spans="1:12" ht="30.75" thickBot="1">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -2624,7 +2623,7 @@
       </c>
       <c r="H25"/>
     </row>
-    <row r="26" spans="1:12" ht="30.75" hidden="1" thickBot="1">
+    <row r="26" spans="1:12" ht="30.75" thickBot="1">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -2646,7 +2645,7 @@
       </c>
       <c r="H26"/>
     </row>
-    <row r="27" spans="1:12" ht="15.75" hidden="1" thickBot="1">
+    <row r="27" spans="1:12" ht="15.75" thickBot="1">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -2668,7 +2667,7 @@
       </c>
       <c r="H27"/>
     </row>
-    <row r="28" spans="1:12" ht="15.75" hidden="1" thickBot="1">
+    <row r="28" spans="1:12" ht="15.75" thickBot="1">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -2692,7 +2691,7 @@
       </c>
       <c r="H28"/>
     </row>
-    <row r="29" spans="1:12" ht="15.75" hidden="1" thickBot="1">
+    <row r="29" spans="1:12" ht="15.75" thickBot="1">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -2714,7 +2713,7 @@
       </c>
       <c r="H29"/>
     </row>
-    <row r="30" spans="1:12" ht="30.75" hidden="1" thickBot="1">
+    <row r="30" spans="1:12" ht="30.75" thickBot="1">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -2736,7 +2735,7 @@
       </c>
       <c r="H30"/>
     </row>
-    <row r="31" spans="1:12" ht="15.75" hidden="1" thickBot="1">
+    <row r="31" spans="1:12" ht="15.75" thickBot="1">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -2759,7 +2758,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="15.75" hidden="1" thickBot="1">
+    <row r="32" spans="1:12" ht="15.75" thickBot="1">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -2781,7 +2780,7 @@
       </c>
       <c r="H32"/>
     </row>
-    <row r="33" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="33" spans="1:8" ht="30.75" thickBot="1">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -2803,7 +2802,7 @@
       </c>
       <c r="H33"/>
     </row>
-    <row r="34" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="34" spans="1:8" ht="15.75" thickBot="1">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -2826,7 +2825,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="35" spans="1:8" ht="30.75" thickBot="1">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -3042,7 +3041,7 @@
       </c>
       <c r="H43"/>
     </row>
-    <row r="44" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="44" spans="1:8" ht="15.75" thickBot="1">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -3066,7 +3065,7 @@
       </c>
       <c r="H44"/>
     </row>
-    <row r="45" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="45" spans="1:8" ht="15.75" thickBot="1">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -3089,7 +3088,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="46" spans="1:8" ht="15.75" thickBot="1">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -3113,7 +3112,7 @@
       </c>
       <c r="H46"/>
     </row>
-    <row r="47" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="47" spans="1:8" ht="30.75" thickBot="1">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -3135,7 +3134,7 @@
       </c>
       <c r="H47"/>
     </row>
-    <row r="48" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="48" spans="1:8" ht="30.75" thickBot="1">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -3159,7 +3158,7 @@
       </c>
       <c r="H48"/>
     </row>
-    <row r="49" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="49" spans="1:8" ht="15.75" thickBot="1">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -3183,7 +3182,7 @@
       </c>
       <c r="H49"/>
     </row>
-    <row r="50" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="50" spans="1:8" ht="15.75" thickBot="1">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -3207,7 +3206,7 @@
       </c>
       <c r="H50"/>
     </row>
-    <row r="51" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="51" spans="1:8" ht="30.75" thickBot="1">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -3229,7 +3228,7 @@
       </c>
       <c r="H51"/>
     </row>
-    <row r="52" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="52" spans="1:8" ht="15.75" thickBot="1">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -3253,7 +3252,7 @@
       </c>
       <c r="H52"/>
     </row>
-    <row r="53" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="53" spans="1:8" ht="15.75" thickBot="1">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -3277,7 +3276,7 @@
       </c>
       <c r="H53"/>
     </row>
-    <row r="54" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="54" spans="1:8" ht="15.75" thickBot="1">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -3301,7 +3300,7 @@
       </c>
       <c r="H54"/>
     </row>
-    <row r="55" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="55" spans="1:8" ht="15.75" thickBot="1">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -3325,7 +3324,7 @@
       </c>
       <c r="H55"/>
     </row>
-    <row r="56" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="56" spans="1:8" ht="15.75" thickBot="1">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -3349,7 +3348,7 @@
       </c>
       <c r="H56"/>
     </row>
-    <row r="57" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="57" spans="1:8" ht="15.75" thickBot="1">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -3373,7 +3372,7 @@
       </c>
       <c r="H57"/>
     </row>
-    <row r="58" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="58" spans="1:8" ht="15.75" thickBot="1">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -3421,7 +3420,7 @@
       </c>
       <c r="H59"/>
     </row>
-    <row r="60" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="60" spans="1:8" ht="15.75" thickBot="1">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -3445,7 +3444,7 @@
       </c>
       <c r="H60"/>
     </row>
-    <row r="61" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="61" spans="1:8" ht="15.75" thickBot="1">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -3469,7 +3468,7 @@
       </c>
       <c r="H61"/>
     </row>
-    <row r="62" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="62" spans="1:8" ht="15.75" thickBot="1">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -3493,7 +3492,7 @@
       </c>
       <c r="H62"/>
     </row>
-    <row r="63" spans="1:8" ht="60.75" hidden="1" thickBot="1">
+    <row r="63" spans="1:8" ht="60.75" thickBot="1">
       <c r="A63" s="3">
         <v>62</v>
       </c>
@@ -3519,7 +3518,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="64" spans="1:8" ht="30.75" thickBot="1">
       <c r="A64" s="3">
         <v>63</v>
       </c>
@@ -3542,7 +3541,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="65" spans="1:8" ht="30.75" thickBot="1">
       <c r="A65" s="3">
         <v>64</v>
       </c>
@@ -3566,7 +3565,7 @@
       </c>
       <c r="H65"/>
     </row>
-    <row r="66" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="66" spans="1:8" ht="15.75" thickBot="1">
       <c r="A66" s="3">
         <v>65</v>
       </c>
@@ -3590,7 +3589,7 @@
       </c>
       <c r="H66"/>
     </row>
-    <row r="67" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="67" spans="1:8" ht="15.75" thickBot="1">
       <c r="A67" s="3">
         <v>66</v>
       </c>
@@ -3614,7 +3613,7 @@
       </c>
       <c r="H67"/>
     </row>
-    <row r="68" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="68" spans="1:8" ht="15.75" thickBot="1">
       <c r="A68" s="3">
         <v>67</v>
       </c>
@@ -3638,7 +3637,7 @@
       </c>
       <c r="H68"/>
     </row>
-    <row r="69" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="69" spans="1:8" ht="30.75" thickBot="1">
       <c r="A69" s="3">
         <v>68</v>
       </c>
@@ -3661,7 +3660,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="70" spans="1:8" ht="15.75" thickBot="1">
       <c r="A70" s="3">
         <v>69</v>
       </c>
@@ -3684,7 +3683,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="71" spans="1:8" ht="30.75" thickBot="1">
       <c r="A71" s="3">
         <v>70</v>
       </c>
@@ -3707,7 +3706,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="72" spans="1:8" ht="15.75" thickBot="1">
       <c r="A72" s="3">
         <v>71</v>
       </c>
@@ -3730,7 +3729,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="73" spans="1:8" ht="30.75" thickBot="1">
       <c r="A73" s="3">
         <v>72</v>
       </c>
@@ -3753,7 +3752,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="74" spans="1:8" ht="15.75" thickBot="1">
       <c r="A74" s="3">
         <v>73</v>
       </c>
@@ -3777,7 +3776,7 @@
       </c>
       <c r="H74"/>
     </row>
-    <row r="75" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="75" spans="1:8" ht="15.75" thickBot="1">
       <c r="A75" s="3">
         <v>74</v>
       </c>
@@ -3799,7 +3798,7 @@
       </c>
       <c r="H75"/>
     </row>
-    <row r="76" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="76" spans="1:8" ht="30.75" thickBot="1">
       <c r="A76" s="3">
         <v>75</v>
       </c>
@@ -3821,7 +3820,7 @@
       </c>
       <c r="H76"/>
     </row>
-    <row r="77" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="77" spans="1:8" ht="30.75" thickBot="1">
       <c r="A77" s="3">
         <v>76</v>
       </c>
@@ -3847,7 +3846,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="78" spans="1:8" ht="15.75" thickBot="1">
       <c r="A78" s="3">
         <v>77</v>
       </c>
@@ -3870,7 +3869,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="79" spans="1:8" ht="15.75" thickBot="1">
       <c r="A79" s="3">
         <v>78</v>
       </c>
@@ -3893,7 +3892,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="80" spans="1:8" ht="15.75" thickBot="1">
       <c r="A80" s="3">
         <v>79</v>
       </c>
@@ -3916,7 +3915,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="81" spans="1:8" ht="15.75" thickBot="1">
       <c r="A81" s="3">
         <v>80</v>
       </c>
@@ -3939,7 +3938,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="82" spans="1:8" ht="15.75" thickBot="1">
       <c r="A82" s="3">
         <v>81</v>
       </c>
@@ -3962,7 +3961,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="83" spans="1:8" ht="15.75" thickBot="1">
       <c r="A83" s="3">
         <v>82</v>
       </c>
@@ -3985,7 +3984,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="84" spans="1:8" ht="15.75" thickBot="1">
       <c r="A84" s="3">
         <v>83</v>
       </c>
@@ -4008,7 +4007,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="85" spans="1:8" ht="15.75" thickBot="1">
       <c r="A85" s="3">
         <v>84</v>
       </c>
@@ -4031,7 +4030,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="86" spans="1:8" ht="15.75" thickBot="1">
       <c r="A86" s="3">
         <v>85</v>
       </c>
@@ -4055,7 +4054,7 @@
       </c>
       <c r="H86"/>
     </row>
-    <row r="87" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="87" spans="1:8" ht="15.75" thickBot="1">
       <c r="A87" s="3">
         <v>86</v>
       </c>
@@ -4079,7 +4078,7 @@
       </c>
       <c r="H87"/>
     </row>
-    <row r="88" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="88" spans="1:8" ht="15.75" thickBot="1">
       <c r="A88" s="3">
         <v>87</v>
       </c>
@@ -4103,7 +4102,7 @@
       </c>
       <c r="H88"/>
     </row>
-    <row r="89" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="89" spans="1:8" ht="15.75" thickBot="1">
       <c r="A89" s="3">
         <v>88</v>
       </c>
@@ -4127,7 +4126,7 @@
       </c>
       <c r="H89"/>
     </row>
-    <row r="90" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="90" spans="1:8" ht="15.75" thickBot="1">
       <c r="A90" s="3">
         <v>89</v>
       </c>
@@ -4150,7 +4149,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="91" spans="1:8" ht="15.75" thickBot="1">
       <c r="A91" s="3">
         <v>90</v>
       </c>
@@ -4173,7 +4172,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="92" spans="1:8" ht="15.75" thickBot="1">
       <c r="A92" s="3">
         <v>91</v>
       </c>
@@ -4196,7 +4195,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="93" spans="1:8" ht="15.75" thickBot="1">
       <c r="A93" s="3">
         <v>92</v>
       </c>
@@ -4219,7 +4218,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="94" spans="1:8" ht="30.75" thickBot="1">
       <c r="A94" s="3">
         <v>93</v>
       </c>
@@ -4243,7 +4242,7 @@
       </c>
       <c r="H94"/>
     </row>
-    <row r="95" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="95" spans="1:8" ht="15.75" thickBot="1">
       <c r="A95" s="3">
         <v>94</v>
       </c>
@@ -4267,7 +4266,7 @@
       </c>
       <c r="H95"/>
     </row>
-    <row r="96" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="96" spans="1:8" ht="30.75" thickBot="1">
       <c r="A96" s="3">
         <v>95</v>
       </c>
@@ -4291,7 +4290,7 @@
       </c>
       <c r="H96"/>
     </row>
-    <row r="97" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
+    <row r="97" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A97" s="3">
         <v>96</v>
       </c>
@@ -4314,7 +4313,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="98" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
+    <row r="98" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A98" s="3">
         <v>97</v>
       </c>
@@ -4337,7 +4336,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="99" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="99" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A99" s="3">
         <v>98</v>
       </c>
@@ -4360,7 +4359,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="100" spans="1:7" customFormat="1" ht="45.75" hidden="1" thickBot="1">
+    <row r="100" spans="1:7" customFormat="1" ht="45.75" thickBot="1">
       <c r="A100" s="3">
         <v>99</v>
       </c>
@@ -4383,7 +4382,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="101" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
+    <row r="101" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A101" s="3">
         <v>100</v>
       </c>
@@ -4406,7 +4405,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="102" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="102" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A102" s="3">
         <v>101</v>
       </c>
@@ -4427,7 +4426,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="103" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
+    <row r="103" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A103" s="3">
         <v>102</v>
       </c>
@@ -4450,7 +4449,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="104" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
+    <row r="104" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A104" s="3">
         <v>103</v>
       </c>
@@ -4473,7 +4472,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="105" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="105" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A105" s="3">
         <v>104</v>
       </c>
@@ -4494,7 +4493,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="106" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="106" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A106" s="3">
         <v>105</v>
       </c>
@@ -4517,7 +4516,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="107" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="107" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A107" s="3">
         <v>106</v>
       </c>
@@ -4540,7 +4539,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="108" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="108" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A108" s="3">
         <v>107</v>
       </c>
@@ -4563,7 +4562,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="109" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="109" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A109" s="3">
         <v>108</v>
       </c>
@@ -4584,7 +4583,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="110" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="110" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A110" s="3">
         <v>109</v>
       </c>
@@ -4605,7 +4604,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="111" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="111" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A111" s="3">
         <v>110</v>
       </c>
@@ -4628,7 +4627,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="112" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="112" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A112" s="3">
         <v>111</v>
       </c>
@@ -4651,7 +4650,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="45.75" hidden="1" thickBot="1">
+    <row r="113" spans="1:8" ht="45.75" thickBot="1">
       <c r="A113" s="3">
         <v>112</v>
       </c>
@@ -4674,7 +4673,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="114" spans="1:8" ht="30.75" thickBot="1">
       <c r="A114" s="3">
         <v>113</v>
       </c>
@@ -4697,7 +4696,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="45.75" hidden="1" thickBot="1">
+    <row r="115" spans="1:8" ht="45.75" thickBot="1">
       <c r="A115" s="3">
         <v>114</v>
       </c>
@@ -4720,7 +4719,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="116" spans="1:8" ht="15.75" thickBot="1">
       <c r="A116" s="3">
         <v>115</v>
       </c>
@@ -4743,7 +4742,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="117" spans="1:8" ht="15.75" thickBot="1">
       <c r="A117" s="3">
         <v>116</v>
       </c>
@@ -4766,7 +4765,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="118" spans="1:8" ht="30.75" thickBot="1">
       <c r="A118" s="3">
         <v>117</v>
       </c>
@@ -4789,7 +4788,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="119" spans="1:8" ht="15.75" thickBot="1">
       <c r="A119" s="3">
         <v>118</v>
       </c>
@@ -4812,7 +4811,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="120" spans="1:8" ht="30.75" thickBot="1">
       <c r="A120" s="3">
         <v>119</v>
       </c>
@@ -4835,7 +4834,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="121" spans="1:8" ht="15.75" thickBot="1">
       <c r="A121" s="3">
         <v>120</v>
       </c>
@@ -4858,7 +4857,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="122" spans="1:8" ht="15.75" thickBot="1">
       <c r="A122" s="3">
         <v>121</v>
       </c>
@@ -4881,7 +4880,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="123" spans="1:8" ht="30.75" thickBot="1">
       <c r="A123" s="3">
         <v>122</v>
       </c>
@@ -4905,7 +4904,7 @@
       </c>
       <c r="H123"/>
     </row>
-    <row r="124" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="124" spans="1:8" ht="30.75" thickBot="1">
       <c r="A124" s="3">
         <v>123</v>
       </c>
@@ -4922,14 +4921,14 @@
         <v>387</v>
       </c>
       <c r="F124" s="16" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="G124" s="7" t="s">
         <v>256</v>
       </c>
       <c r="H124"/>
     </row>
-    <row r="125" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="125" spans="1:8" ht="30.75" thickBot="1">
       <c r="A125" s="3">
         <v>124</v>
       </c>
@@ -4953,7 +4952,7 @@
       </c>
       <c r="H125"/>
     </row>
-    <row r="126" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="126" spans="1:8" ht="15.75" thickBot="1">
       <c r="A126" s="3">
         <v>125</v>
       </c>
@@ -4977,7 +4976,7 @@
       </c>
       <c r="H126"/>
     </row>
-    <row r="127" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="127" spans="1:8" ht="15.75" thickBot="1">
       <c r="A127" s="3">
         <v>126</v>
       </c>
@@ -5001,7 +5000,7 @@
       </c>
       <c r="H127"/>
     </row>
-    <row r="128" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="128" spans="1:8" ht="15.75" thickBot="1">
       <c r="A128" s="3">
         <v>127</v>
       </c>
@@ -5025,7 +5024,7 @@
       </c>
       <c r="H128"/>
     </row>
-    <row r="129" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="129" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A129" s="3">
         <v>128</v>
       </c>
@@ -5048,7 +5047,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="130" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
+    <row r="130" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A130" s="3">
         <v>129</v>
       </c>
@@ -5071,7 +5070,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="131" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
+    <row r="131" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A131" s="3">
         <v>130</v>
       </c>
@@ -5094,7 +5093,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="132" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="132" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A132" s="3">
         <v>131</v>
       </c>
@@ -5117,7 +5116,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="133" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="133" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A133" s="3">
         <v>132</v>
       </c>
@@ -5140,7 +5139,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="134" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="134" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A134" s="3">
         <v>133</v>
       </c>
@@ -5163,7 +5162,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="135" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="135" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A135" s="3">
         <v>134</v>
       </c>
@@ -5186,7 +5185,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="136" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="136" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A136" s="3">
         <v>135</v>
       </c>
@@ -5207,7 +5206,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="137" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="137" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A137" s="3">
         <v>136</v>
       </c>
@@ -5230,7 +5229,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="138" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="138" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A138" s="3">
         <v>137</v>
       </c>
@@ -5253,7 +5252,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="139" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="139" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A139" s="3">
         <v>138</v>
       </c>
@@ -5274,7 +5273,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="140" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="140" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A140" s="3">
         <v>139</v>
       </c>
@@ -5295,7 +5294,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="141" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="141" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A141" s="3">
         <v>140</v>
       </c>
@@ -5316,7 +5315,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="142" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="142" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A142" s="3">
         <v>141</v>
       </c>
@@ -5337,7 +5336,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="143" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="143" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A143" s="3">
         <v>142</v>
       </c>
@@ -5358,7 +5357,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="144" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="144" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A144" s="3">
         <v>143</v>
       </c>
@@ -5571,7 +5570,7 @@
       </c>
       <c r="H152"/>
     </row>
-    <row r="153" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="153" spans="1:8" ht="30.75" thickBot="1">
       <c r="A153" s="3">
         <v>152</v>
       </c>
@@ -5811,7 +5810,7 @@
       </c>
       <c r="H162"/>
     </row>
-    <row r="163" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="163" spans="1:8" ht="30.75" thickBot="1">
       <c r="A163" s="3">
         <v>162</v>
       </c>
@@ -5833,7 +5832,7 @@
       </c>
       <c r="H163"/>
     </row>
-    <row r="164" spans="1:8" ht="45.75" hidden="1" thickBot="1">
+    <row r="164" spans="1:8" ht="45.75" thickBot="1">
       <c r="A164" s="3">
         <v>163</v>
       </c>
@@ -5855,7 +5854,7 @@
       </c>
       <c r="H164"/>
     </row>
-    <row r="165" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="165" spans="1:8" ht="30.75" thickBot="1">
       <c r="A165" s="3">
         <v>164</v>
       </c>
@@ -5877,7 +5876,7 @@
       </c>
       <c r="H165"/>
     </row>
-    <row r="166" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="166" spans="1:8" ht="30.75" thickBot="1">
       <c r="A166" s="3">
         <v>165</v>
       </c>
@@ -5899,7 +5898,7 @@
       </c>
       <c r="H166"/>
     </row>
-    <row r="167" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="167" spans="1:8" ht="30.75" thickBot="1">
       <c r="A167" s="3">
         <v>166</v>
       </c>
@@ -5921,7 +5920,7 @@
       </c>
       <c r="H167"/>
     </row>
-    <row r="168" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="168" spans="1:8" ht="30.75" thickBot="1">
       <c r="A168" s="3">
         <v>167</v>
       </c>
@@ -5943,7 +5942,7 @@
       </c>
       <c r="H168"/>
     </row>
-    <row r="169" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="169" spans="1:8" ht="30.75" thickBot="1">
       <c r="A169" s="3">
         <v>168</v>
       </c>
@@ -5965,7 +5964,7 @@
       </c>
       <c r="H169"/>
     </row>
-    <row r="170" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="170" spans="1:8" ht="30.75" thickBot="1">
       <c r="A170" s="3">
         <v>169</v>
       </c>
@@ -5987,7 +5986,7 @@
       </c>
       <c r="H170"/>
     </row>
-    <row r="171" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="171" spans="1:8" ht="30.75" thickBot="1">
       <c r="A171" s="3">
         <v>170</v>
       </c>
@@ -6009,7 +6008,7 @@
       </c>
       <c r="H171"/>
     </row>
-    <row r="172" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="172" spans="1:8" ht="30.75" thickBot="1">
       <c r="A172" s="3">
         <v>171</v>
       </c>
@@ -6031,7 +6030,7 @@
       </c>
       <c r="H172"/>
     </row>
-    <row r="173" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="173" spans="1:8" ht="30.75" thickBot="1">
       <c r="A173" s="3">
         <v>172</v>
       </c>
@@ -6053,7 +6052,7 @@
       </c>
       <c r="H173"/>
     </row>
-    <row r="174" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="174" spans="1:8" ht="30.75" thickBot="1">
       <c r="A174" s="3">
         <v>173</v>
       </c>
@@ -6075,7 +6074,7 @@
       </c>
       <c r="H174"/>
     </row>
-    <row r="175" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="175" spans="1:8" ht="30.75" thickBot="1">
       <c r="A175" s="3">
         <v>174</v>
       </c>
@@ -6097,7 +6096,7 @@
       </c>
       <c r="H175"/>
     </row>
-    <row r="176" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="176" spans="1:8" ht="30.75" thickBot="1">
       <c r="A176" s="3">
         <v>175</v>
       </c>
@@ -6119,7 +6118,7 @@
       </c>
       <c r="H176"/>
     </row>
-    <row r="177" spans="1:8" ht="60.75" hidden="1" thickBot="1">
+    <row r="177" spans="1:8" ht="60.75" thickBot="1">
       <c r="A177" s="3">
         <v>176</v>
       </c>
@@ -6141,7 +6140,7 @@
       </c>
       <c r="H177"/>
     </row>
-    <row r="178" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="178" spans="1:8" ht="15.75" thickBot="1">
       <c r="A178" s="3">
         <v>177</v>
       </c>
@@ -6163,7 +6162,7 @@
       </c>
       <c r="H178"/>
     </row>
-    <row r="179" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="179" spans="1:8" ht="30.75" thickBot="1">
       <c r="A179" s="27">
         <v>178</v>
       </c>
@@ -6187,7 +6186,7 @@
       </c>
       <c r="H179"/>
     </row>
-    <row r="180" spans="1:8" hidden="1">
+    <row r="180" spans="1:8">
       <c r="A180" s="10"/>
       <c r="B180" s="30" t="s">
         <v>297</v>
@@ -6209,7 +6208,7 @@
       </c>
       <c r="H180"/>
     </row>
-    <row r="181" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="181" spans="1:8" ht="15.75" thickBot="1">
       <c r="A181" s="3">
         <v>179</v>
       </c>
@@ -6221,7 +6220,7 @@
       <c r="G181" s="35"/>
       <c r="H181"/>
     </row>
-    <row r="182" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="182" spans="1:8" ht="30.75" thickBot="1">
       <c r="A182" s="3">
         <v>180</v>
       </c>
@@ -6245,7 +6244,7 @@
       </c>
       <c r="H182"/>
     </row>
-    <row r="183" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="183" spans="1:8" ht="30.75" thickBot="1">
       <c r="A183" s="3">
         <v>181</v>
       </c>
@@ -6269,7 +6268,7 @@
       </c>
       <c r="H183"/>
     </row>
-    <row r="184" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="184" spans="1:8" ht="30.75" thickBot="1">
       <c r="A184" s="3">
         <v>182</v>
       </c>
@@ -6292,7 +6291,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="185" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="185" spans="1:8" ht="30.75" thickBot="1">
       <c r="A185" s="3">
         <v>183</v>
       </c>
@@ -6379,11 +6378,7 @@
   </sheetData>
   <autoFilter ref="A1:G189">
     <filterColumn colId="3"/>
-    <filterColumn colId="4">
-      <filters>
-        <filter val="Lore"/>
-      </filters>
-    </filterColumn>
+    <filterColumn colId="4"/>
     <filterColumn colId="5"/>
   </autoFilter>
   <mergeCells count="6">

--- a/Planificacion/PlanificacionTesis.xlsx
+++ b/Planificacion/PlanificacionTesis.xlsx
@@ -1983,7 +1983,7 @@
   <dimension ref="A1:L189"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C125" sqref="C125"/>
+      <selection activeCell="F125" sqref="F125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="119.42578125" defaultRowHeight="15"/>
@@ -4945,7 +4945,7 @@
         <v>387</v>
       </c>
       <c r="F125" s="16" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="G125" s="7" t="s">
         <v>258</v>

--- a/Planificacion/PlanificacionTesis.xlsx
+++ b/Planificacion/PlanificacionTesis.xlsx
@@ -1983,7 +1983,7 @@
   <dimension ref="A1:L189"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F125" sqref="F125"/>
+      <selection activeCell="G130" sqref="G130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="119.42578125" defaultRowHeight="15"/>
@@ -5064,7 +5064,7 @@
         <v>387</v>
       </c>
       <c r="F130" s="16" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="G130" s="7" t="s">
         <v>268</v>

--- a/Planificacion/PlanificacionTesis.xlsx
+++ b/Planificacion/PlanificacionTesis.xlsx
@@ -1983,7 +1983,7 @@
   <dimension ref="A1:L189"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G130" sqref="G130"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="119.42578125" defaultRowHeight="15"/>
@@ -2065,7 +2065,7 @@
         <v>387</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>8</v>
@@ -2119,7 +2119,7 @@
         <v>387</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>12</v>

--- a/Planificacion/PlanificacionTesis.xlsx
+++ b/Planificacion/PlanificacionTesis.xlsx
@@ -1983,7 +1983,7 @@
   <dimension ref="A1:L189"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="119.42578125" defaultRowHeight="15"/>
@@ -2092,7 +2092,7 @@
         <v>387</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>10</v>

--- a/Planificacion/PlanificacionTesis.xlsx
+++ b/Planificacion/PlanificacionTesis.xlsx
@@ -1983,7 +1983,7 @@
   <dimension ref="A1:L189"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="119.42578125" defaultRowHeight="15"/>
@@ -3058,7 +3058,7 @@
         <v>387</v>
       </c>
       <c r="F44" s="16" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="G44" s="7" t="s">
         <v>93</v>

--- a/Planificacion/PlanificacionTesis.xlsx
+++ b/Planificacion/PlanificacionTesis.xlsx
@@ -1983,7 +1983,7 @@
   <dimension ref="A1:L189"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+      <selection activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="119.42578125" defaultRowHeight="15"/>
@@ -3485,7 +3485,7 @@
         <v>389</v>
       </c>
       <c r="F62" s="16" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="G62" s="7" t="s">
         <v>128</v>
@@ -5087,7 +5087,7 @@
         <v>389</v>
       </c>
       <c r="F131" s="16" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="G131" s="7" t="s">
         <v>270</v>

--- a/Planificacion/PlanificacionTesis.xlsx
+++ b/Planificacion/PlanificacionTesis.xlsx
@@ -1983,7 +1983,7 @@
   <dimension ref="A1:L189"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F62" sqref="F62"/>
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="119.42578125" defaultRowHeight="15"/>
@@ -3058,7 +3058,7 @@
         <v>387</v>
       </c>
       <c r="F44" s="16" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G44" s="7" t="s">
         <v>93</v>
@@ -3105,7 +3105,7 @@
         <v>387</v>
       </c>
       <c r="F46" s="16" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="G46" s="7" t="s">
         <v>97</v>

--- a/Planificacion/PlanificacionTesis.xlsx
+++ b/Planificacion/PlanificacionTesis.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="403">
   <si>
     <t>Nº</t>
   </si>
@@ -1980,10 +1980,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:L189"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="119.42578125" defaultRowHeight="15"/>
@@ -2025,7 +2026,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="30.75" thickBot="1">
+    <row r="2" spans="1:12" ht="30.75" hidden="1" thickBot="1">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2048,7 +2049,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="30.75" thickBot="1">
+    <row r="3" spans="1:12" ht="30.75" hidden="1" thickBot="1">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -2075,7 +2076,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" thickBot="1">
+    <row r="4" spans="1:12" ht="15.75" hidden="1" thickBot="1">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -2102,7 +2103,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" thickBot="1">
+    <row r="5" spans="1:12" ht="15.75" hidden="1" thickBot="1">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -2129,7 +2130,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" thickBot="1">
+    <row r="6" spans="1:12" ht="15.75" hidden="1" thickBot="1">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -2156,7 +2157,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75" thickBot="1">
+    <row r="7" spans="1:12" ht="15.75" hidden="1" thickBot="1">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -2180,7 +2181,7 @@
       </c>
       <c r="H7"/>
     </row>
-    <row r="8" spans="1:12" ht="15.75" thickBot="1">
+    <row r="8" spans="1:12" ht="15.75" hidden="1" thickBot="1">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -2206,7 +2207,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="30.75" thickBot="1">
+    <row r="9" spans="1:12" ht="30.75" hidden="1" thickBot="1">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -2220,7 +2221,7 @@
         <v>384</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F9" s="16" t="s">
         <v>390</v>
@@ -2232,7 +2233,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="30.75" thickBot="1">
+    <row r="10" spans="1:12" ht="30.75" hidden="1" thickBot="1">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -2245,7 +2246,9 @@
       <c r="D10" s="16" t="s">
         <v>383</v>
       </c>
-      <c r="E10" s="16"/>
+      <c r="E10" s="16" t="s">
+        <v>388</v>
+      </c>
       <c r="F10" s="16" t="s">
         <v>392</v>
       </c>
@@ -2257,7 +2260,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="30.75" thickBot="1">
+    <row r="11" spans="1:12" ht="30.75" hidden="1" thickBot="1">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -2283,7 +2286,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="30.75" thickBot="1">
+    <row r="12" spans="1:12" ht="30.75" hidden="1" thickBot="1">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -2309,7 +2312,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="30.75" thickBot="1">
+    <row r="13" spans="1:12" ht="30.75" hidden="1" thickBot="1">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -2332,7 +2335,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="30.75" thickBot="1">
+    <row r="14" spans="1:12" ht="30.75" hidden="1" thickBot="1">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -2358,7 +2361,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15.75" thickBot="1">
+    <row r="15" spans="1:12" ht="15.75" hidden="1" thickBot="1">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -2383,7 +2386,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="30.75" thickBot="1">
+    <row r="16" spans="1:12" ht="30.75" hidden="1" thickBot="1">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -2396,7 +2399,9 @@
       <c r="D16" s="16" t="s">
         <v>385</v>
       </c>
-      <c r="E16" s="16"/>
+      <c r="E16" s="16" t="s">
+        <v>387</v>
+      </c>
       <c r="F16" s="16" t="s">
         <v>390</v>
       </c>
@@ -2408,7 +2413,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15.75" thickBot="1">
+    <row r="17" spans="1:12" ht="15.75" hidden="1" thickBot="1">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -2434,7 +2439,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="30.75" thickBot="1">
+    <row r="18" spans="1:12" ht="30.75" hidden="1" thickBot="1">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -2460,7 +2465,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15.75" thickBot="1">
+    <row r="19" spans="1:12" ht="15.75" hidden="1" thickBot="1">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -2486,7 +2491,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15.75" thickBot="1">
+    <row r="20" spans="1:12" ht="15.75" hidden="1" thickBot="1">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -2512,7 +2517,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15.75" thickBot="1">
+    <row r="21" spans="1:12" ht="15.75" hidden="1" thickBot="1">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -2535,7 +2540,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15.75" thickBot="1">
+    <row r="22" spans="1:12" ht="15.75" hidden="1" thickBot="1">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -2557,7 +2562,7 @@
       </c>
       <c r="H22"/>
     </row>
-    <row r="23" spans="1:12" ht="30.75" thickBot="1">
+    <row r="23" spans="1:12" ht="30.75" hidden="1" thickBot="1">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -2579,7 +2584,7 @@
       </c>
       <c r="H23"/>
     </row>
-    <row r="24" spans="1:12" ht="30.75" thickBot="1">
+    <row r="24" spans="1:12" ht="30.75" hidden="1" thickBot="1">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -2601,7 +2606,7 @@
       </c>
       <c r="H24"/>
     </row>
-    <row r="25" spans="1:12" ht="30.75" thickBot="1">
+    <row r="25" spans="1:12" ht="30.75" hidden="1" thickBot="1">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -2614,7 +2619,9 @@
       <c r="D25" s="16" t="s">
         <v>384</v>
       </c>
-      <c r="E25" s="16"/>
+      <c r="E25" s="16" t="s">
+        <v>389</v>
+      </c>
       <c r="F25" s="16" t="s">
         <v>390</v>
       </c>
@@ -2623,7 +2630,7 @@
       </c>
       <c r="H25"/>
     </row>
-    <row r="26" spans="1:12" ht="30.75" thickBot="1">
+    <row r="26" spans="1:12" ht="30.75" hidden="1" thickBot="1">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -2636,7 +2643,9 @@
       <c r="D26" s="16" t="s">
         <v>384</v>
       </c>
-      <c r="E26" s="16"/>
+      <c r="E26" s="16" t="s">
+        <v>387</v>
+      </c>
       <c r="F26" s="16" t="s">
         <v>390</v>
       </c>
@@ -2645,7 +2654,7 @@
       </c>
       <c r="H26"/>
     </row>
-    <row r="27" spans="1:12" ht="15.75" thickBot="1">
+    <row r="27" spans="1:12" ht="15.75" hidden="1" thickBot="1">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -2667,7 +2676,7 @@
       </c>
       <c r="H27"/>
     </row>
-    <row r="28" spans="1:12" ht="15.75" thickBot="1">
+    <row r="28" spans="1:12" ht="15.75" hidden="1" thickBot="1">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -2691,7 +2700,7 @@
       </c>
       <c r="H28"/>
     </row>
-    <row r="29" spans="1:12" ht="15.75" thickBot="1">
+    <row r="29" spans="1:12" ht="15.75" hidden="1" thickBot="1">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -2735,7 +2744,7 @@
       </c>
       <c r="H30"/>
     </row>
-    <row r="31" spans="1:12" ht="15.75" thickBot="1">
+    <row r="31" spans="1:12" ht="15.75" hidden="1" thickBot="1">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -2758,7 +2767,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="15.75" thickBot="1">
+    <row r="32" spans="1:12" ht="15.75" hidden="1" thickBot="1">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -2771,7 +2780,9 @@
       <c r="D32" s="16" t="s">
         <v>384</v>
       </c>
-      <c r="E32" s="16"/>
+      <c r="E32" s="16" t="s">
+        <v>389</v>
+      </c>
       <c r="F32" s="16" t="s">
         <v>390</v>
       </c>
@@ -2802,7 +2813,7 @@
       </c>
       <c r="H33"/>
     </row>
-    <row r="34" spans="1:8" ht="15.75" thickBot="1">
+    <row r="34" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -2825,7 +2836,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="30.75" thickBot="1">
+    <row r="35" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -2849,7 +2860,7 @@
       </c>
       <c r="H35"/>
     </row>
-    <row r="36" spans="1:8" ht="15.75" thickBot="1">
+    <row r="36" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -2873,7 +2884,7 @@
       </c>
       <c r="H36"/>
     </row>
-    <row r="37" spans="1:8" ht="15.75" thickBot="1">
+    <row r="37" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -2897,7 +2908,7 @@
       </c>
       <c r="H37"/>
     </row>
-    <row r="38" spans="1:8" ht="15.75" thickBot="1">
+    <row r="38" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -2921,7 +2932,7 @@
       </c>
       <c r="H38"/>
     </row>
-    <row r="39" spans="1:8" ht="15.75" thickBot="1">
+    <row r="39" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -2945,7 +2956,7 @@
       </c>
       <c r="H39"/>
     </row>
-    <row r="40" spans="1:8" ht="15.75" thickBot="1">
+    <row r="40" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -2969,7 +2980,7 @@
       </c>
       <c r="H40"/>
     </row>
-    <row r="41" spans="1:8" ht="15.75" thickBot="1">
+    <row r="41" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -2993,7 +3004,7 @@
       </c>
       <c r="H41"/>
     </row>
-    <row r="42" spans="1:8" ht="15.75" thickBot="1">
+    <row r="42" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -3017,7 +3028,7 @@
       </c>
       <c r="H42"/>
     </row>
-    <row r="43" spans="1:8" ht="15.75" thickBot="1">
+    <row r="43" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -3041,7 +3052,7 @@
       </c>
       <c r="H43"/>
     </row>
-    <row r="44" spans="1:8" ht="15.75" thickBot="1">
+    <row r="44" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -3065,7 +3076,7 @@
       </c>
       <c r="H44"/>
     </row>
-    <row r="45" spans="1:8" ht="15.75" thickBot="1">
+    <row r="45" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -3088,7 +3099,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="15.75" thickBot="1">
+    <row r="46" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -3112,7 +3123,7 @@
       </c>
       <c r="H46"/>
     </row>
-    <row r="47" spans="1:8" ht="30.75" thickBot="1">
+    <row r="47" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -3125,7 +3136,9 @@
       <c r="D47" s="16" t="s">
         <v>385</v>
       </c>
-      <c r="E47" s="23"/>
+      <c r="E47" s="23" t="s">
+        <v>387</v>
+      </c>
       <c r="F47" s="16" t="s">
         <v>390</v>
       </c>
@@ -3134,7 +3147,7 @@
       </c>
       <c r="H47"/>
     </row>
-    <row r="48" spans="1:8" ht="30.75" thickBot="1">
+    <row r="48" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -3158,7 +3171,7 @@
       </c>
       <c r="H48"/>
     </row>
-    <row r="49" spans="1:8" ht="15.75" thickBot="1">
+    <row r="49" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -3182,7 +3195,7 @@
       </c>
       <c r="H49"/>
     </row>
-    <row r="50" spans="1:8" ht="15.75" thickBot="1">
+    <row r="50" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -3228,7 +3241,7 @@
       </c>
       <c r="H51"/>
     </row>
-    <row r="52" spans="1:8" ht="15.75" thickBot="1">
+    <row r="52" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -3252,7 +3265,7 @@
       </c>
       <c r="H52"/>
     </row>
-    <row r="53" spans="1:8" ht="15.75" thickBot="1">
+    <row r="53" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -3276,7 +3289,7 @@
       </c>
       <c r="H53"/>
     </row>
-    <row r="54" spans="1:8" ht="15.75" thickBot="1">
+    <row r="54" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -3300,7 +3313,7 @@
       </c>
       <c r="H54"/>
     </row>
-    <row r="55" spans="1:8" ht="15.75" thickBot="1">
+    <row r="55" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -3324,7 +3337,7 @@
       </c>
       <c r="H55"/>
     </row>
-    <row r="56" spans="1:8" ht="15.75" thickBot="1">
+    <row r="56" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -3348,7 +3361,7 @@
       </c>
       <c r="H56"/>
     </row>
-    <row r="57" spans="1:8" ht="15.75" thickBot="1">
+    <row r="57" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -3372,7 +3385,7 @@
       </c>
       <c r="H57"/>
     </row>
-    <row r="58" spans="1:8" ht="15.75" thickBot="1">
+    <row r="58" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -3396,7 +3409,7 @@
       </c>
       <c r="H58"/>
     </row>
-    <row r="59" spans="1:8" ht="15.75" thickBot="1">
+    <row r="59" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -3420,7 +3433,7 @@
       </c>
       <c r="H59"/>
     </row>
-    <row r="60" spans="1:8" ht="15.75" thickBot="1">
+    <row r="60" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -3444,7 +3457,7 @@
       </c>
       <c r="H60"/>
     </row>
-    <row r="61" spans="1:8" ht="15.75" thickBot="1">
+    <row r="61" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -3468,7 +3481,7 @@
       </c>
       <c r="H61"/>
     </row>
-    <row r="62" spans="1:8" ht="15.75" thickBot="1">
+    <row r="62" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -3492,7 +3505,7 @@
       </c>
       <c r="H62"/>
     </row>
-    <row r="63" spans="1:8" ht="60.75" thickBot="1">
+    <row r="63" spans="1:8" ht="60.75" hidden="1" thickBot="1">
       <c r="A63" s="3">
         <v>62</v>
       </c>
@@ -3518,7 +3531,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="30.75" thickBot="1">
+    <row r="64" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A64" s="3">
         <v>63</v>
       </c>
@@ -3541,7 +3554,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="30.75" thickBot="1">
+    <row r="65" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A65" s="3">
         <v>64</v>
       </c>
@@ -3565,7 +3578,7 @@
       </c>
       <c r="H65"/>
     </row>
-    <row r="66" spans="1:8" ht="15.75" thickBot="1">
+    <row r="66" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A66" s="3">
         <v>65</v>
       </c>
@@ -3589,7 +3602,7 @@
       </c>
       <c r="H66"/>
     </row>
-    <row r="67" spans="1:8" ht="15.75" thickBot="1">
+    <row r="67" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A67" s="3">
         <v>66</v>
       </c>
@@ -3613,7 +3626,7 @@
       </c>
       <c r="H67"/>
     </row>
-    <row r="68" spans="1:8" ht="15.75" thickBot="1">
+    <row r="68" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A68" s="3">
         <v>67</v>
       </c>
@@ -3637,7 +3650,7 @@
       </c>
       <c r="H68"/>
     </row>
-    <row r="69" spans="1:8" ht="30.75" thickBot="1">
+    <row r="69" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A69" s="3">
         <v>68</v>
       </c>
@@ -3660,7 +3673,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="15.75" thickBot="1">
+    <row r="70" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A70" s="3">
         <v>69</v>
       </c>
@@ -3683,7 +3696,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="30.75" thickBot="1">
+    <row r="71" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A71" s="3">
         <v>70</v>
       </c>
@@ -3706,7 +3719,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="15.75" thickBot="1">
+    <row r="72" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A72" s="3">
         <v>71</v>
       </c>
@@ -3729,7 +3742,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="30.75" thickBot="1">
+    <row r="73" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A73" s="3">
         <v>72</v>
       </c>
@@ -3752,7 +3765,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="15.75" thickBot="1">
+    <row r="74" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A74" s="3">
         <v>73</v>
       </c>
@@ -3798,7 +3811,7 @@
       </c>
       <c r="H75"/>
     </row>
-    <row r="76" spans="1:8" ht="30.75" thickBot="1">
+    <row r="76" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A76" s="3">
         <v>75</v>
       </c>
@@ -3811,7 +3824,9 @@
       <c r="D76" s="16" t="s">
         <v>385</v>
       </c>
-      <c r="E76" s="16"/>
+      <c r="E76" s="16" t="s">
+        <v>387</v>
+      </c>
       <c r="F76" s="16" t="s">
         <v>390</v>
       </c>
@@ -3820,7 +3835,7 @@
       </c>
       <c r="H76"/>
     </row>
-    <row r="77" spans="1:8" ht="30.75" thickBot="1">
+    <row r="77" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A77" s="3">
         <v>76</v>
       </c>
@@ -3846,7 +3861,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="15.75" thickBot="1">
+    <row r="78" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A78" s="3">
         <v>77</v>
       </c>
@@ -3869,7 +3884,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="15.75" thickBot="1">
+    <row r="79" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A79" s="3">
         <v>78</v>
       </c>
@@ -3892,7 +3907,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="15.75" thickBot="1">
+    <row r="80" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A80" s="3">
         <v>79</v>
       </c>
@@ -3915,7 +3930,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15.75" thickBot="1">
+    <row r="81" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A81" s="3">
         <v>80</v>
       </c>
@@ -3938,7 +3953,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="15.75" thickBot="1">
+    <row r="82" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A82" s="3">
         <v>81</v>
       </c>
@@ -3961,7 +3976,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="15.75" thickBot="1">
+    <row r="83" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A83" s="3">
         <v>82</v>
       </c>
@@ -3984,7 +3999,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="15.75" thickBot="1">
+    <row r="84" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A84" s="3">
         <v>83</v>
       </c>
@@ -4007,7 +4022,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15.75" thickBot="1">
+    <row r="85" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A85" s="3">
         <v>84</v>
       </c>
@@ -4030,7 +4045,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="15.75" thickBot="1">
+    <row r="86" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A86" s="3">
         <v>85</v>
       </c>
@@ -4054,7 +4069,7 @@
       </c>
       <c r="H86"/>
     </row>
-    <row r="87" spans="1:8" ht="15.75" thickBot="1">
+    <row r="87" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A87" s="3">
         <v>86</v>
       </c>
@@ -4078,7 +4093,7 @@
       </c>
       <c r="H87"/>
     </row>
-    <row r="88" spans="1:8" ht="15.75" thickBot="1">
+    <row r="88" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A88" s="3">
         <v>87</v>
       </c>
@@ -4102,7 +4117,7 @@
       </c>
       <c r="H88"/>
     </row>
-    <row r="89" spans="1:8" ht="15.75" thickBot="1">
+    <row r="89" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A89" s="3">
         <v>88</v>
       </c>
@@ -4126,7 +4141,7 @@
       </c>
       <c r="H89"/>
     </row>
-    <row r="90" spans="1:8" ht="15.75" thickBot="1">
+    <row r="90" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A90" s="3">
         <v>89</v>
       </c>
@@ -4149,7 +4164,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="15.75" thickBot="1">
+    <row r="91" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A91" s="3">
         <v>90</v>
       </c>
@@ -4172,7 +4187,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="15.75" thickBot="1">
+    <row r="92" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A92" s="3">
         <v>91</v>
       </c>
@@ -4195,7 +4210,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="15.75" thickBot="1">
+    <row r="93" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A93" s="3">
         <v>92</v>
       </c>
@@ -4218,7 +4233,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="30.75" thickBot="1">
+    <row r="94" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A94" s="3">
         <v>93</v>
       </c>
@@ -4242,7 +4257,7 @@
       </c>
       <c r="H94"/>
     </row>
-    <row r="95" spans="1:8" ht="15.75" thickBot="1">
+    <row r="95" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A95" s="3">
         <v>94</v>
       </c>
@@ -4266,7 +4281,7 @@
       </c>
       <c r="H95"/>
     </row>
-    <row r="96" spans="1:8" ht="30.75" thickBot="1">
+    <row r="96" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A96" s="3">
         <v>95</v>
       </c>
@@ -4290,7 +4305,7 @@
       </c>
       <c r="H96"/>
     </row>
-    <row r="97" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+    <row r="97" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
       <c r="A97" s="3">
         <v>96</v>
       </c>
@@ -4313,7 +4328,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="98" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+    <row r="98" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
       <c r="A98" s="3">
         <v>97</v>
       </c>
@@ -4336,7 +4351,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="99" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="99" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A99" s="3">
         <v>98</v>
       </c>
@@ -4359,7 +4374,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="100" spans="1:7" customFormat="1" ht="45.75" thickBot="1">
+    <row r="100" spans="1:7" customFormat="1" ht="45.75" hidden="1" thickBot="1">
       <c r="A100" s="3">
         <v>99</v>
       </c>
@@ -4382,7 +4397,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="101" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+    <row r="101" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
       <c r="A101" s="3">
         <v>100</v>
       </c>
@@ -4405,7 +4420,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="102" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="102" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A102" s="3">
         <v>101</v>
       </c>
@@ -4426,7 +4441,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="103" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+    <row r="103" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
       <c r="A103" s="3">
         <v>102</v>
       </c>
@@ -4449,7 +4464,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="104" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+    <row r="104" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
       <c r="A104" s="3">
         <v>103</v>
       </c>
@@ -4463,7 +4478,7 @@
         <v>384</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F104" s="16" t="s">
         <v>390</v>
@@ -4493,7 +4508,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="106" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="106" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A106" s="3">
         <v>105</v>
       </c>
@@ -4516,7 +4531,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="107" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="107" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A107" s="3">
         <v>106</v>
       </c>
@@ -4539,7 +4554,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="108" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="108" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A108" s="3">
         <v>107</v>
       </c>
@@ -4604,7 +4619,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="111" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="111" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A111" s="3">
         <v>110</v>
       </c>
@@ -4627,7 +4642,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="112" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="112" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A112" s="3">
         <v>111</v>
       </c>
@@ -4650,7 +4665,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="45.75" thickBot="1">
+    <row r="113" spans="1:8" ht="45.75" hidden="1" thickBot="1">
       <c r="A113" s="3">
         <v>112</v>
       </c>
@@ -4673,7 +4688,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="30.75" thickBot="1">
+    <row r="114" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A114" s="3">
         <v>113</v>
       </c>
@@ -4696,7 +4711,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="45.75" thickBot="1">
+    <row r="115" spans="1:8" ht="45.75" hidden="1" thickBot="1">
       <c r="A115" s="3">
         <v>114</v>
       </c>
@@ -4719,7 +4734,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="15.75" thickBot="1">
+    <row r="116" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A116" s="3">
         <v>115</v>
       </c>
@@ -4742,7 +4757,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="15.75" thickBot="1">
+    <row r="117" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A117" s="3">
         <v>116</v>
       </c>
@@ -4765,7 +4780,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="30.75" thickBot="1">
+    <row r="118" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A118" s="3">
         <v>117</v>
       </c>
@@ -4788,7 +4803,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="15.75" thickBot="1">
+    <row r="119" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A119" s="3">
         <v>118</v>
       </c>
@@ -4811,7 +4826,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="30.75" thickBot="1">
+    <row r="120" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A120" s="3">
         <v>119</v>
       </c>
@@ -4834,7 +4849,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="15.75" thickBot="1">
+    <row r="121" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A121" s="3">
         <v>120</v>
       </c>
@@ -4857,7 +4872,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="15.75" thickBot="1">
+    <row r="122" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A122" s="3">
         <v>121</v>
       </c>
@@ -4880,7 +4895,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="30.75" thickBot="1">
+    <row r="123" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A123" s="3">
         <v>122</v>
       </c>
@@ -4904,7 +4919,7 @@
       </c>
       <c r="H123"/>
     </row>
-    <row r="124" spans="1:8" ht="30.75" thickBot="1">
+    <row r="124" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A124" s="3">
         <v>123</v>
       </c>
@@ -4928,7 +4943,7 @@
       </c>
       <c r="H124"/>
     </row>
-    <row r="125" spans="1:8" ht="30.75" thickBot="1">
+    <row r="125" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A125" s="3">
         <v>124</v>
       </c>
@@ -4952,7 +4967,7 @@
       </c>
       <c r="H125"/>
     </row>
-    <row r="126" spans="1:8" ht="15.75" thickBot="1">
+    <row r="126" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A126" s="3">
         <v>125</v>
       </c>
@@ -4976,7 +4991,7 @@
       </c>
       <c r="H126"/>
     </row>
-    <row r="127" spans="1:8" ht="15.75" thickBot="1">
+    <row r="127" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A127" s="3">
         <v>126</v>
       </c>
@@ -5000,7 +5015,7 @@
       </c>
       <c r="H127"/>
     </row>
-    <row r="128" spans="1:8" ht="15.75" thickBot="1">
+    <row r="128" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A128" s="3">
         <v>127</v>
       </c>
@@ -5024,7 +5039,7 @@
       </c>
       <c r="H128"/>
     </row>
-    <row r="129" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="129" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A129" s="3">
         <v>128</v>
       </c>
@@ -5047,7 +5062,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="130" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+    <row r="130" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
       <c r="A130" s="3">
         <v>129</v>
       </c>
@@ -5070,7 +5085,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="131" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+    <row r="131" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
       <c r="A131" s="3">
         <v>130</v>
       </c>
@@ -5093,7 +5108,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="132" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="132" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A132" s="3">
         <v>131</v>
       </c>
@@ -5116,7 +5131,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="133" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="133" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A133" s="3">
         <v>132</v>
       </c>
@@ -5139,7 +5154,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="134" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="134" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A134" s="3">
         <v>133</v>
       </c>
@@ -5162,7 +5177,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="135" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="135" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A135" s="3">
         <v>134</v>
       </c>
@@ -5185,7 +5200,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="136" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="136" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A136" s="3">
         <v>135</v>
       </c>
@@ -5206,7 +5221,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="137" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="137" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A137" s="3">
         <v>136</v>
       </c>
@@ -5229,7 +5244,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="138" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="138" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A138" s="3">
         <v>137</v>
       </c>
@@ -5294,7 +5309,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="141" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="141" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A141" s="3">
         <v>140</v>
       </c>
@@ -5307,15 +5322,17 @@
       <c r="D141" s="16" t="s">
         <v>385</v>
       </c>
-      <c r="E141" s="16"/>
+      <c r="E141" s="16" t="s">
+        <v>386</v>
+      </c>
       <c r="F141" s="16" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="G141" s="7" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="142" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="142" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A142" s="3">
         <v>141</v>
       </c>
@@ -5328,15 +5345,17 @@
       <c r="D142" s="16" t="s">
         <v>385</v>
       </c>
-      <c r="E142" s="16"/>
+      <c r="E142" s="16" t="s">
+        <v>386</v>
+      </c>
       <c r="F142" s="16" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="G142" s="7" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="143" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="143" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A143" s="3">
         <v>142</v>
       </c>
@@ -5349,15 +5368,17 @@
       <c r="D143" s="16" t="s">
         <v>385</v>
       </c>
-      <c r="E143" s="16"/>
+      <c r="E143" s="16" t="s">
+        <v>386</v>
+      </c>
       <c r="F143" s="16" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="G143" s="7" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="144" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="144" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A144" s="3">
         <v>143</v>
       </c>
@@ -5370,15 +5391,17 @@
       <c r="D144" s="16" t="s">
         <v>385</v>
       </c>
-      <c r="E144" s="16"/>
+      <c r="E144" s="16" t="s">
+        <v>386</v>
+      </c>
       <c r="F144" s="16" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="G144" s="7" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="145" spans="1:8" ht="30.75" thickBot="1">
+    <row r="145" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A145" s="3">
         <v>144</v>
       </c>
@@ -5402,7 +5425,7 @@
       </c>
       <c r="H145"/>
     </row>
-    <row r="146" spans="1:8" ht="30.75" thickBot="1">
+    <row r="146" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A146" s="3">
         <v>145</v>
       </c>
@@ -5426,7 +5449,7 @@
       </c>
       <c r="H146"/>
     </row>
-    <row r="147" spans="1:8" ht="30.75" thickBot="1">
+    <row r="147" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A147" s="3">
         <v>146</v>
       </c>
@@ -5450,7 +5473,7 @@
       </c>
       <c r="H147"/>
     </row>
-    <row r="148" spans="1:8" ht="30.75" thickBot="1">
+    <row r="148" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A148" s="3">
         <v>147</v>
       </c>
@@ -5474,7 +5497,7 @@
       </c>
       <c r="H148"/>
     </row>
-    <row r="149" spans="1:8" ht="30.75" thickBot="1">
+    <row r="149" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A149" s="3">
         <v>148</v>
       </c>
@@ -5498,7 +5521,7 @@
       </c>
       <c r="H149"/>
     </row>
-    <row r="150" spans="1:8" ht="30.75" thickBot="1">
+    <row r="150" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A150" s="3">
         <v>149</v>
       </c>
@@ -5522,7 +5545,7 @@
       </c>
       <c r="H150"/>
     </row>
-    <row r="151" spans="1:8" ht="30.75" thickBot="1">
+    <row r="151" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A151" s="3">
         <v>150</v>
       </c>
@@ -5546,7 +5569,7 @@
       </c>
       <c r="H151"/>
     </row>
-    <row r="152" spans="1:8" ht="30.75" thickBot="1">
+    <row r="152" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A152" s="3">
         <v>151</v>
       </c>
@@ -5570,7 +5593,7 @@
       </c>
       <c r="H152"/>
     </row>
-    <row r="153" spans="1:8" ht="30.75" thickBot="1">
+    <row r="153" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A153" s="3">
         <v>152</v>
       </c>
@@ -5594,7 +5617,7 @@
       </c>
       <c r="H153"/>
     </row>
-    <row r="154" spans="1:8" ht="30.75" thickBot="1">
+    <row r="154" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A154" s="3">
         <v>153</v>
       </c>
@@ -5618,7 +5641,7 @@
       </c>
       <c r="H154"/>
     </row>
-    <row r="155" spans="1:8" ht="30.75" thickBot="1">
+    <row r="155" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A155" s="3">
         <v>154</v>
       </c>
@@ -5642,7 +5665,7 @@
       </c>
       <c r="H155"/>
     </row>
-    <row r="156" spans="1:8" ht="30.75" thickBot="1">
+    <row r="156" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A156" s="3">
         <v>155</v>
       </c>
@@ -5666,7 +5689,7 @@
       </c>
       <c r="H156"/>
     </row>
-    <row r="157" spans="1:8" ht="30.75" thickBot="1">
+    <row r="157" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A157" s="3">
         <v>156</v>
       </c>
@@ -5690,7 +5713,7 @@
       </c>
       <c r="H157"/>
     </row>
-    <row r="158" spans="1:8" ht="30.75" thickBot="1">
+    <row r="158" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A158" s="3">
         <v>157</v>
       </c>
@@ -5714,7 +5737,7 @@
       </c>
       <c r="H158"/>
     </row>
-    <row r="159" spans="1:8" ht="30.75" thickBot="1">
+    <row r="159" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A159" s="3">
         <v>158</v>
       </c>
@@ -5738,7 +5761,7 @@
       </c>
       <c r="H159"/>
     </row>
-    <row r="160" spans="1:8" ht="30.75" thickBot="1">
+    <row r="160" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A160" s="3">
         <v>159</v>
       </c>
@@ -5762,7 +5785,7 @@
       </c>
       <c r="H160"/>
     </row>
-    <row r="161" spans="1:8" ht="30.75" thickBot="1">
+    <row r="161" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A161" s="3">
         <v>160</v>
       </c>
@@ -5786,7 +5809,7 @@
       </c>
       <c r="H161"/>
     </row>
-    <row r="162" spans="1:8" ht="30.75" thickBot="1">
+    <row r="162" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A162" s="3">
         <v>161</v>
       </c>
@@ -5810,7 +5833,7 @@
       </c>
       <c r="H162"/>
     </row>
-    <row r="163" spans="1:8" ht="30.75" thickBot="1">
+    <row r="163" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A163" s="3">
         <v>162</v>
       </c>
@@ -5823,7 +5846,9 @@
       <c r="D163" s="16" t="s">
         <v>385</v>
       </c>
-      <c r="E163" s="16"/>
+      <c r="E163" s="16" t="s">
+        <v>386</v>
+      </c>
       <c r="F163" s="16" t="s">
         <v>390</v>
       </c>
@@ -5832,7 +5857,7 @@
       </c>
       <c r="H163"/>
     </row>
-    <row r="164" spans="1:8" ht="45.75" thickBot="1">
+    <row r="164" spans="1:8" ht="45.75" hidden="1" thickBot="1">
       <c r="A164" s="3">
         <v>163</v>
       </c>
@@ -5845,7 +5870,9 @@
       <c r="D164" s="16" t="s">
         <v>385</v>
       </c>
-      <c r="E164" s="16"/>
+      <c r="E164" s="16" t="s">
+        <v>386</v>
+      </c>
       <c r="F164" s="16" t="s">
         <v>390</v>
       </c>
@@ -5854,7 +5881,7 @@
       </c>
       <c r="H164"/>
     </row>
-    <row r="165" spans="1:8" ht="30.75" thickBot="1">
+    <row r="165" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A165" s="3">
         <v>164</v>
       </c>
@@ -5867,7 +5894,9 @@
       <c r="D165" s="16" t="s">
         <v>385</v>
       </c>
-      <c r="E165" s="16"/>
+      <c r="E165" s="16" t="s">
+        <v>386</v>
+      </c>
       <c r="F165" s="16" t="s">
         <v>390</v>
       </c>
@@ -5876,7 +5905,7 @@
       </c>
       <c r="H165"/>
     </row>
-    <row r="166" spans="1:8" ht="30.75" thickBot="1">
+    <row r="166" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A166" s="3">
         <v>165</v>
       </c>
@@ -5889,7 +5918,9 @@
       <c r="D166" s="16" t="s">
         <v>385</v>
       </c>
-      <c r="E166" s="16"/>
+      <c r="E166" s="16" t="s">
+        <v>386</v>
+      </c>
       <c r="F166" s="16" t="s">
         <v>390</v>
       </c>
@@ -5898,7 +5929,7 @@
       </c>
       <c r="H166"/>
     </row>
-    <row r="167" spans="1:8" ht="30.75" thickBot="1">
+    <row r="167" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A167" s="3">
         <v>166</v>
       </c>
@@ -5911,7 +5942,9 @@
       <c r="D167" s="16" t="s">
         <v>385</v>
       </c>
-      <c r="E167" s="16"/>
+      <c r="E167" s="16" t="s">
+        <v>386</v>
+      </c>
       <c r="F167" s="16" t="s">
         <v>390</v>
       </c>
@@ -5920,7 +5953,7 @@
       </c>
       <c r="H167"/>
     </row>
-    <row r="168" spans="1:8" ht="30.75" thickBot="1">
+    <row r="168" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A168" s="3">
         <v>167</v>
       </c>
@@ -5933,7 +5966,9 @@
       <c r="D168" s="16" t="s">
         <v>385</v>
       </c>
-      <c r="E168" s="16"/>
+      <c r="E168" s="16" t="s">
+        <v>386</v>
+      </c>
       <c r="F168" s="16" t="s">
         <v>390</v>
       </c>
@@ -5942,7 +5977,7 @@
       </c>
       <c r="H168"/>
     </row>
-    <row r="169" spans="1:8" ht="30.75" thickBot="1">
+    <row r="169" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A169" s="3">
         <v>168</v>
       </c>
@@ -5955,7 +5990,9 @@
       <c r="D169" s="16" t="s">
         <v>385</v>
       </c>
-      <c r="E169" s="16"/>
+      <c r="E169" s="16" t="s">
+        <v>386</v>
+      </c>
       <c r="F169" s="16" t="s">
         <v>390</v>
       </c>
@@ -5964,7 +6001,7 @@
       </c>
       <c r="H169"/>
     </row>
-    <row r="170" spans="1:8" ht="30.75" thickBot="1">
+    <row r="170" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A170" s="3">
         <v>169</v>
       </c>
@@ -5977,7 +6014,9 @@
       <c r="D170" s="16" t="s">
         <v>385</v>
       </c>
-      <c r="E170" s="16"/>
+      <c r="E170" s="16" t="s">
+        <v>386</v>
+      </c>
       <c r="F170" s="16" t="s">
         <v>390</v>
       </c>
@@ -5986,7 +6025,7 @@
       </c>
       <c r="H170"/>
     </row>
-    <row r="171" spans="1:8" ht="30.75" thickBot="1">
+    <row r="171" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A171" s="3">
         <v>170</v>
       </c>
@@ -5999,7 +6038,9 @@
       <c r="D171" s="16" t="s">
         <v>385</v>
       </c>
-      <c r="E171" s="16"/>
+      <c r="E171" s="16" t="s">
+        <v>386</v>
+      </c>
       <c r="F171" s="16" t="s">
         <v>390</v>
       </c>
@@ -6008,7 +6049,7 @@
       </c>
       <c r="H171"/>
     </row>
-    <row r="172" spans="1:8" ht="30.75" thickBot="1">
+    <row r="172" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A172" s="3">
         <v>171</v>
       </c>
@@ -6021,7 +6062,9 @@
       <c r="D172" s="16" t="s">
         <v>385</v>
       </c>
-      <c r="E172" s="16"/>
+      <c r="E172" s="16" t="s">
+        <v>386</v>
+      </c>
       <c r="F172" s="16" t="s">
         <v>390</v>
       </c>
@@ -6030,7 +6073,7 @@
       </c>
       <c r="H172"/>
     </row>
-    <row r="173" spans="1:8" ht="30.75" thickBot="1">
+    <row r="173" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A173" s="3">
         <v>172</v>
       </c>
@@ -6043,7 +6086,9 @@
       <c r="D173" s="16" t="s">
         <v>385</v>
       </c>
-      <c r="E173" s="16"/>
+      <c r="E173" s="16" t="s">
+        <v>386</v>
+      </c>
       <c r="F173" s="16" t="s">
         <v>390</v>
       </c>
@@ -6052,7 +6097,7 @@
       </c>
       <c r="H173"/>
     </row>
-    <row r="174" spans="1:8" ht="30.75" thickBot="1">
+    <row r="174" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A174" s="3">
         <v>173</v>
       </c>
@@ -6065,7 +6110,9 @@
       <c r="D174" s="16" t="s">
         <v>385</v>
       </c>
-      <c r="E174" s="16"/>
+      <c r="E174" s="16" t="s">
+        <v>386</v>
+      </c>
       <c r="F174" s="16" t="s">
         <v>390</v>
       </c>
@@ -6074,7 +6121,7 @@
       </c>
       <c r="H174"/>
     </row>
-    <row r="175" spans="1:8" ht="30.75" thickBot="1">
+    <row r="175" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A175" s="3">
         <v>174</v>
       </c>
@@ -6087,7 +6134,9 @@
       <c r="D175" s="16" t="s">
         <v>385</v>
       </c>
-      <c r="E175" s="16"/>
+      <c r="E175" s="16" t="s">
+        <v>386</v>
+      </c>
       <c r="F175" s="16" t="s">
         <v>390</v>
       </c>
@@ -6096,7 +6145,7 @@
       </c>
       <c r="H175"/>
     </row>
-    <row r="176" spans="1:8" ht="30.75" thickBot="1">
+    <row r="176" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A176" s="3">
         <v>175</v>
       </c>
@@ -6109,7 +6158,9 @@
       <c r="D176" s="16" t="s">
         <v>385</v>
       </c>
-      <c r="E176" s="16"/>
+      <c r="E176" s="16" t="s">
+        <v>386</v>
+      </c>
       <c r="F176" s="16" t="s">
         <v>390</v>
       </c>
@@ -6118,7 +6169,7 @@
       </c>
       <c r="H176"/>
     </row>
-    <row r="177" spans="1:8" ht="60.75" thickBot="1">
+    <row r="177" spans="1:8" ht="60.75" hidden="1" thickBot="1">
       <c r="A177" s="3">
         <v>176</v>
       </c>
@@ -6131,7 +6182,9 @@
       <c r="D177" s="16" t="s">
         <v>385</v>
       </c>
-      <c r="E177" s="16"/>
+      <c r="E177" s="16" t="s">
+        <v>386</v>
+      </c>
       <c r="F177" s="16" t="s">
         <v>390</v>
       </c>
@@ -6162,7 +6215,7 @@
       </c>
       <c r="H178"/>
     </row>
-    <row r="179" spans="1:8" ht="30.75" thickBot="1">
+    <row r="179" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A179" s="27">
         <v>178</v>
       </c>
@@ -6186,7 +6239,7 @@
       </c>
       <c r="H179"/>
     </row>
-    <row r="180" spans="1:8">
+    <row r="180" spans="1:8" hidden="1">
       <c r="A180" s="10"/>
       <c r="B180" s="30" t="s">
         <v>297</v>
@@ -6208,7 +6261,7 @@
       </c>
       <c r="H180"/>
     </row>
-    <row r="181" spans="1:8" ht="15.75" thickBot="1">
+    <row r="181" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A181" s="3">
         <v>179</v>
       </c>
@@ -6220,7 +6273,7 @@
       <c r="G181" s="35"/>
       <c r="H181"/>
     </row>
-    <row r="182" spans="1:8" ht="30.75" thickBot="1">
+    <row r="182" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A182" s="3">
         <v>180</v>
       </c>
@@ -6244,7 +6297,7 @@
       </c>
       <c r="H182"/>
     </row>
-    <row r="183" spans="1:8" ht="30.75" thickBot="1">
+    <row r="183" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A183" s="3">
         <v>181</v>
       </c>
@@ -6268,7 +6321,7 @@
       </c>
       <c r="H183"/>
     </row>
-    <row r="184" spans="1:8" ht="30.75" thickBot="1">
+    <row r="184" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A184" s="3">
         <v>182</v>
       </c>
@@ -6291,7 +6344,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="185" spans="1:8" ht="30.75" thickBot="1">
+    <row r="185" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A185" s="3">
         <v>183</v>
       </c>
@@ -6315,7 +6368,7 @@
       </c>
       <c r="H185"/>
     </row>
-    <row r="186" spans="1:8" ht="15.75" thickBot="1">
+    <row r="186" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="C186" s="5" t="s">
         <v>399</v>
       </c>
@@ -6330,7 +6383,7 @@
       </c>
       <c r="G186" s="7"/>
     </row>
-    <row r="187" spans="1:8" ht="15.75" thickBot="1">
+    <row r="187" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="C187" s="5" t="s">
         <v>401</v>
       </c>
@@ -6345,7 +6398,7 @@
       </c>
       <c r="G187" s="7"/>
     </row>
-    <row r="188" spans="1:8" ht="15.75" thickBot="1">
+    <row r="188" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="C188" s="5" t="s">
         <v>400</v>
       </c>
@@ -6360,7 +6413,7 @@
       </c>
       <c r="G188" s="7"/>
     </row>
-    <row r="189" spans="1:8" ht="15.75" thickBot="1">
+    <row r="189" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="C189" s="5" t="s">
         <v>402</v>
       </c>
@@ -6378,8 +6431,14 @@
   </sheetData>
   <autoFilter ref="A1:G189">
     <filterColumn colId="3"/>
-    <filterColumn colId="4"/>
-    <filterColumn colId="5"/>
+    <filterColumn colId="4">
+      <filters blank="1"/>
+    </filterColumn>
+    <filterColumn colId="5">
+      <filters>
+        <filter val="Sin Empezar"/>
+      </filters>
+    </filterColumn>
   </autoFilter>
   <mergeCells count="6">
     <mergeCell ref="B180:B181"/>

--- a/Planificacion/PlanificacionTesis.xlsx
+++ b/Planificacion/PlanificacionTesis.xlsx
@@ -1983,8 +1983,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:L189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="C25" workbookViewId="0">
+      <selection activeCell="F103" sqref="F103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="119.42578125" defaultRowHeight="15"/>
@@ -2606,7 +2606,7 @@
       </c>
       <c r="H24"/>
     </row>
-    <row r="25" spans="1:12" ht="30.75" hidden="1" thickBot="1">
+    <row r="25" spans="1:12" ht="30.75" thickBot="1">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -2722,7 +2722,7 @@
       </c>
       <c r="H29"/>
     </row>
-    <row r="30" spans="1:12" ht="30.75" thickBot="1">
+    <row r="30" spans="1:12" ht="30.75" hidden="1" thickBot="1">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -2767,7 +2767,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="15.75" hidden="1" thickBot="1">
+    <row r="32" spans="1:12" ht="15.75" thickBot="1">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -2791,7 +2791,7 @@
       </c>
       <c r="H32"/>
     </row>
-    <row r="33" spans="1:8" ht="30.75" thickBot="1">
+    <row r="33" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -2836,7 +2836,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="35" spans="1:8" ht="30.75" thickBot="1">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -3219,7 +3219,7 @@
       </c>
       <c r="H50"/>
     </row>
-    <row r="51" spans="1:8" ht="30.75" thickBot="1">
+    <row r="51" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -3433,7 +3433,7 @@
       </c>
       <c r="H59"/>
     </row>
-    <row r="60" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="60" spans="1:8" ht="15.75" thickBot="1">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -3481,7 +3481,7 @@
       </c>
       <c r="H61"/>
     </row>
-    <row r="62" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="62" spans="1:8" ht="15.75" thickBot="1">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -3498,7 +3498,7 @@
         <v>389</v>
       </c>
       <c r="F62" s="16" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G62" s="7" t="s">
         <v>128</v>
@@ -3789,7 +3789,7 @@
       </c>
       <c r="H74"/>
     </row>
-    <row r="75" spans="1:8" ht="15.75" thickBot="1">
+    <row r="75" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A75" s="3">
         <v>74</v>
       </c>
@@ -4233,7 +4233,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="94" spans="1:8" ht="30.75" thickBot="1">
       <c r="A94" s="3">
         <v>93</v>
       </c>
@@ -4257,7 +4257,7 @@
       </c>
       <c r="H94"/>
     </row>
-    <row r="95" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="95" spans="1:8" ht="15.75" thickBot="1">
       <c r="A95" s="3">
         <v>94</v>
       </c>
@@ -4281,7 +4281,7 @@
       </c>
       <c r="H95"/>
     </row>
-    <row r="96" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="96" spans="1:8" ht="30.75" thickBot="1">
       <c r="A96" s="3">
         <v>95</v>
       </c>
@@ -4305,7 +4305,7 @@
       </c>
       <c r="H96"/>
     </row>
-    <row r="97" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
+    <row r="97" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A97" s="3">
         <v>96</v>
       </c>
@@ -4328,7 +4328,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="98" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
+    <row r="98" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A98" s="3">
         <v>97</v>
       </c>
@@ -4351,7 +4351,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="99" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="99" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A99" s="3">
         <v>98</v>
       </c>
@@ -4374,7 +4374,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="100" spans="1:7" customFormat="1" ht="45.75" hidden="1" thickBot="1">
+    <row r="100" spans="1:7" customFormat="1" ht="45.75" thickBot="1">
       <c r="A100" s="3">
         <v>99</v>
       </c>
@@ -4397,7 +4397,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="101" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
+    <row r="101" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A101" s="3">
         <v>100</v>
       </c>
@@ -4441,7 +4441,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="103" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
+    <row r="103" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A103" s="3">
         <v>102</v>
       </c>
@@ -4458,7 +4458,7 @@
         <v>389</v>
       </c>
       <c r="F103" s="16" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G103" s="6" t="s">
         <v>212</v>
@@ -4487,7 +4487,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="105" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="105" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A105" s="3">
         <v>104</v>
       </c>
@@ -4577,7 +4577,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="109" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="109" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A109" s="3">
         <v>108</v>
       </c>
@@ -4598,7 +4598,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="110" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="110" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A110" s="3">
         <v>109</v>
       </c>
@@ -5085,7 +5085,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="131" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
+    <row r="131" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A131" s="3">
         <v>130</v>
       </c>
@@ -5267,7 +5267,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="139" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="139" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A139" s="3">
         <v>138</v>
       </c>
@@ -5288,7 +5288,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="140" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="140" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A140" s="3">
         <v>139</v>
       </c>
@@ -6193,7 +6193,7 @@
       </c>
       <c r="H177"/>
     </row>
-    <row r="178" spans="1:8" ht="15.75" thickBot="1">
+    <row r="178" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A178" s="3">
         <v>177</v>
       </c>
@@ -6344,7 +6344,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="185" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="185" spans="1:8" ht="30.75" thickBot="1">
       <c r="A185" s="3">
         <v>183</v>
       </c>
@@ -6432,10 +6432,13 @@
   <autoFilter ref="A1:G189">
     <filterColumn colId="3"/>
     <filterColumn colId="4">
-      <filters blank="1"/>
+      <filters>
+        <filter val="Mari"/>
+      </filters>
     </filterColumn>
     <filterColumn colId="5">
       <filters>
+        <filter val="En Progreso"/>
         <filter val="Sin Empezar"/>
       </filters>
     </filterColumn>

--- a/Planificacion/PlanificacionTesis.xlsx
+++ b/Planificacion/PlanificacionTesis.xlsx
@@ -1983,8 +1983,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:L189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C25" workbookViewId="0">
-      <selection activeCell="F103" sqref="F103"/>
+    <sheetView tabSelected="1" topLeftCell="C145" workbookViewId="0">
+      <selection activeCell="F153" sqref="F153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="119.42578125" defaultRowHeight="15"/>
@@ -2207,7 +2207,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="30.75" hidden="1" thickBot="1">
+    <row r="9" spans="1:12" ht="30.75" thickBot="1">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -2233,7 +2233,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="30.75" hidden="1" thickBot="1">
+    <row r="10" spans="1:12" ht="30.75" thickBot="1">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -2260,7 +2260,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="30.75" hidden="1" thickBot="1">
+    <row r="11" spans="1:12" ht="30.75" thickBot="1">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -2361,7 +2361,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15.75" hidden="1" thickBot="1">
+    <row r="15" spans="1:12" ht="15.75" thickBot="1">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -2386,7 +2386,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="30.75" hidden="1" thickBot="1">
+    <row r="16" spans="1:12" ht="30.75" thickBot="1">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -2413,7 +2413,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15.75" hidden="1" thickBot="1">
+    <row r="17" spans="1:12" ht="15.75" thickBot="1">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -2439,7 +2439,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="30.75" hidden="1" thickBot="1">
+    <row r="18" spans="1:12" ht="30.75" thickBot="1">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -2540,7 +2540,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15.75" hidden="1" thickBot="1">
+    <row r="22" spans="1:12" ht="15.75" thickBot="1">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -2630,7 +2630,7 @@
       </c>
       <c r="H25"/>
     </row>
-    <row r="26" spans="1:12" ht="30.75" hidden="1" thickBot="1">
+    <row r="26" spans="1:12" ht="30.75" thickBot="1">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -2722,7 +2722,7 @@
       </c>
       <c r="H29"/>
     </row>
-    <row r="30" spans="1:12" ht="30.75" hidden="1" thickBot="1">
+    <row r="30" spans="1:12" ht="30.75" thickBot="1">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -2744,7 +2744,7 @@
       </c>
       <c r="H30"/>
     </row>
-    <row r="31" spans="1:12" ht="15.75" hidden="1" thickBot="1">
+    <row r="31" spans="1:12" ht="15.75" thickBot="1">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -2791,7 +2791,7 @@
       </c>
       <c r="H32"/>
     </row>
-    <row r="33" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="33" spans="1:8" ht="30.75" thickBot="1">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -2813,7 +2813,7 @@
       </c>
       <c r="H33"/>
     </row>
-    <row r="34" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="34" spans="1:8" ht="15.75" thickBot="1">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -3076,7 +3076,7 @@
       </c>
       <c r="H44"/>
     </row>
-    <row r="45" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="45" spans="1:8" ht="15.75" thickBot="1">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -3123,7 +3123,7 @@
       </c>
       <c r="H46"/>
     </row>
-    <row r="47" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="47" spans="1:8" ht="30.75" thickBot="1">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -3164,7 +3164,7 @@
         <v>387</v>
       </c>
       <c r="F48" s="16" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="G48" s="7" t="s">
         <v>101</v>
@@ -3219,7 +3219,7 @@
       </c>
       <c r="H50"/>
     </row>
-    <row r="51" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="51" spans="1:8" ht="30.75" thickBot="1">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -3481,7 +3481,7 @@
       </c>
       <c r="H61"/>
     </row>
-    <row r="62" spans="1:8" ht="15.75" thickBot="1">
+    <row r="62" spans="1:8" ht="15.75" hidden="1" thickBot="1">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -3531,7 +3531,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="64" spans="1:8" ht="30.75" thickBot="1">
       <c r="A64" s="3">
         <v>63</v>
       </c>
@@ -3673,7 +3673,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="70" spans="1:8" ht="15.75" thickBot="1">
       <c r="A70" s="3">
         <v>69</v>
       </c>
@@ -3742,7 +3742,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="73" spans="1:8" ht="30.75" thickBot="1">
       <c r="A73" s="3">
         <v>72</v>
       </c>
@@ -3789,7 +3789,7 @@
       </c>
       <c r="H74"/>
     </row>
-    <row r="75" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="75" spans="1:8" ht="15.75" thickBot="1">
       <c r="A75" s="3">
         <v>74</v>
       </c>
@@ -3811,7 +3811,7 @@
       </c>
       <c r="H75"/>
     </row>
-    <row r="76" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="76" spans="1:8" ht="30.75" thickBot="1">
       <c r="A76" s="3">
         <v>75</v>
       </c>
@@ -4420,7 +4420,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="102" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="102" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A102" s="3">
         <v>101</v>
       </c>
@@ -4441,7 +4441,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="103" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
+    <row r="103" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
       <c r="A103" s="3">
         <v>102</v>
       </c>
@@ -4464,7 +4464,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="104" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
+    <row r="104" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A104" s="3">
         <v>103</v>
       </c>
@@ -4487,7 +4487,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="105" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="105" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A105" s="3">
         <v>104</v>
       </c>
@@ -4577,7 +4577,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="109" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="109" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A109" s="3">
         <v>108</v>
       </c>
@@ -4598,7 +4598,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="110" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="110" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A110" s="3">
         <v>109</v>
       </c>
@@ -4665,7 +4665,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="45.75" hidden="1" thickBot="1">
+    <row r="113" spans="1:8" ht="45.75" thickBot="1">
       <c r="A113" s="3">
         <v>112</v>
       </c>
@@ -4688,7 +4688,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="114" spans="1:8" ht="30.75" thickBot="1">
       <c r="A114" s="3">
         <v>113</v>
       </c>
@@ -4711,7 +4711,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="45.75" hidden="1" thickBot="1">
+    <row r="115" spans="1:8" ht="45.75" thickBot="1">
       <c r="A115" s="3">
         <v>114</v>
       </c>
@@ -4734,7 +4734,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="116" spans="1:8" ht="15.75" thickBot="1">
       <c r="A116" s="3">
         <v>115</v>
       </c>
@@ -4757,7 +4757,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="117" spans="1:8" ht="15.75" thickBot="1">
       <c r="A117" s="3">
         <v>116</v>
       </c>
@@ -4780,7 +4780,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="118" spans="1:8" ht="30.75" thickBot="1">
       <c r="A118" s="3">
         <v>117</v>
       </c>
@@ -4803,7 +4803,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="119" spans="1:8" ht="15.75" thickBot="1">
       <c r="A119" s="3">
         <v>118</v>
       </c>
@@ -4849,7 +4849,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="121" spans="1:8" ht="15.75" thickBot="1">
       <c r="A121" s="3">
         <v>120</v>
       </c>
@@ -4872,7 +4872,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="122" spans="1:8" ht="15.75" thickBot="1">
       <c r="A122" s="3">
         <v>121</v>
       </c>
@@ -5200,7 +5200,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="136" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="136" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A136" s="3">
         <v>135</v>
       </c>
@@ -5221,7 +5221,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="137" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="137" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A137" s="3">
         <v>136</v>
       </c>
@@ -5244,7 +5244,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="138" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="138" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A138" s="3">
         <v>137</v>
       </c>
@@ -5267,7 +5267,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="139" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="139" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A139" s="3">
         <v>138</v>
       </c>
@@ -5288,7 +5288,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="140" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="140" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A140" s="3">
         <v>139</v>
       </c>
@@ -5401,7 +5401,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="145" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="145" spans="1:8" ht="30.75" thickBot="1">
       <c r="A145" s="3">
         <v>144</v>
       </c>
@@ -5425,7 +5425,7 @@
       </c>
       <c r="H145"/>
     </row>
-    <row r="146" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="146" spans="1:8" ht="30.75" thickBot="1">
       <c r="A146" s="3">
         <v>145</v>
       </c>
@@ -5449,7 +5449,7 @@
       </c>
       <c r="H146"/>
     </row>
-    <row r="147" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="147" spans="1:8" ht="30.75" thickBot="1">
       <c r="A147" s="3">
         <v>146</v>
       </c>
@@ -5473,7 +5473,7 @@
       </c>
       <c r="H147"/>
     </row>
-    <row r="148" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="148" spans="1:8" ht="30.75" thickBot="1">
       <c r="A148" s="3">
         <v>147</v>
       </c>
@@ -5497,7 +5497,7 @@
       </c>
       <c r="H148"/>
     </row>
-    <row r="149" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="149" spans="1:8" ht="30.75" thickBot="1">
       <c r="A149" s="3">
         <v>148</v>
       </c>
@@ -5521,7 +5521,7 @@
       </c>
       <c r="H149"/>
     </row>
-    <row r="150" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="150" spans="1:8" ht="30.75" thickBot="1">
       <c r="A150" s="3">
         <v>149</v>
       </c>
@@ -5545,7 +5545,7 @@
       </c>
       <c r="H150"/>
     </row>
-    <row r="151" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="151" spans="1:8" ht="30.75" thickBot="1">
       <c r="A151" s="3">
         <v>150</v>
       </c>
@@ -5569,7 +5569,7 @@
       </c>
       <c r="H151"/>
     </row>
-    <row r="152" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="152" spans="1:8" ht="30.75" thickBot="1">
       <c r="A152" s="3">
         <v>151</v>
       </c>
@@ -5593,7 +5593,7 @@
       </c>
       <c r="H152"/>
     </row>
-    <row r="153" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="153" spans="1:8" ht="30.75" thickBot="1">
       <c r="A153" s="3">
         <v>152</v>
       </c>
@@ -5610,7 +5610,7 @@
         <v>387</v>
       </c>
       <c r="F153" s="16" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="G153" s="7" t="s">
         <v>315</v>
@@ -5809,7 +5809,7 @@
       </c>
       <c r="H161"/>
     </row>
-    <row r="162" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="162" spans="1:8" ht="30.75" thickBot="1">
       <c r="A162" s="3">
         <v>161</v>
       </c>
@@ -5833,7 +5833,7 @@
       </c>
       <c r="H162"/>
     </row>
-    <row r="163" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="163" spans="1:8" ht="30.75" thickBot="1">
       <c r="A163" s="3">
         <v>162</v>
       </c>
@@ -5857,7 +5857,7 @@
       </c>
       <c r="H163"/>
     </row>
-    <row r="164" spans="1:8" ht="45.75" hidden="1" thickBot="1">
+    <row r="164" spans="1:8" ht="45.75" thickBot="1">
       <c r="A164" s="3">
         <v>163</v>
       </c>
@@ -5881,7 +5881,7 @@
       </c>
       <c r="H164"/>
     </row>
-    <row r="165" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="165" spans="1:8" ht="30.75" thickBot="1">
       <c r="A165" s="3">
         <v>164</v>
       </c>
@@ -5905,7 +5905,7 @@
       </c>
       <c r="H165"/>
     </row>
-    <row r="166" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="166" spans="1:8" ht="30.75" thickBot="1">
       <c r="A166" s="3">
         <v>165</v>
       </c>
@@ -5929,7 +5929,7 @@
       </c>
       <c r="H166"/>
     </row>
-    <row r="167" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="167" spans="1:8" ht="30.75" thickBot="1">
       <c r="A167" s="3">
         <v>166</v>
       </c>
@@ -5953,7 +5953,7 @@
       </c>
       <c r="H167"/>
     </row>
-    <row r="168" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="168" spans="1:8" ht="30.75" thickBot="1">
       <c r="A168" s="3">
         <v>167</v>
       </c>
@@ -5977,7 +5977,7 @@
       </c>
       <c r="H168"/>
     </row>
-    <row r="169" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="169" spans="1:8" ht="30.75" thickBot="1">
       <c r="A169" s="3">
         <v>168</v>
       </c>
@@ -6001,7 +6001,7 @@
       </c>
       <c r="H169"/>
     </row>
-    <row r="170" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="170" spans="1:8" ht="30.75" thickBot="1">
       <c r="A170" s="3">
         <v>169</v>
       </c>
@@ -6025,7 +6025,7 @@
       </c>
       <c r="H170"/>
     </row>
-    <row r="171" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="171" spans="1:8" ht="30.75" thickBot="1">
       <c r="A171" s="3">
         <v>170</v>
       </c>
@@ -6049,7 +6049,7 @@
       </c>
       <c r="H171"/>
     </row>
-    <row r="172" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="172" spans="1:8" ht="30.75" thickBot="1">
       <c r="A172" s="3">
         <v>171</v>
       </c>
@@ -6073,7 +6073,7 @@
       </c>
       <c r="H172"/>
     </row>
-    <row r="173" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="173" spans="1:8" ht="30.75" thickBot="1">
       <c r="A173" s="3">
         <v>172</v>
       </c>
@@ -6097,7 +6097,7 @@
       </c>
       <c r="H173"/>
     </row>
-    <row r="174" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="174" spans="1:8" ht="30.75" thickBot="1">
       <c r="A174" s="3">
         <v>173</v>
       </c>
@@ -6121,7 +6121,7 @@
       </c>
       <c r="H174"/>
     </row>
-    <row r="175" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="175" spans="1:8" ht="30.75" thickBot="1">
       <c r="A175" s="3">
         <v>174</v>
       </c>
@@ -6145,7 +6145,7 @@
       </c>
       <c r="H175"/>
     </row>
-    <row r="176" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="176" spans="1:8" ht="30.75" thickBot="1">
       <c r="A176" s="3">
         <v>175</v>
       </c>
@@ -6169,7 +6169,7 @@
       </c>
       <c r="H176"/>
     </row>
-    <row r="177" spans="1:8" ht="60.75" hidden="1" thickBot="1">
+    <row r="177" spans="1:8" ht="60.75" thickBot="1">
       <c r="A177" s="3">
         <v>176</v>
       </c>
@@ -6193,7 +6193,7 @@
       </c>
       <c r="H177"/>
     </row>
-    <row r="178" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="178" spans="1:8" ht="15.75" thickBot="1">
       <c r="A178" s="3">
         <v>177</v>
       </c>
@@ -6321,7 +6321,7 @@
       </c>
       <c r="H183"/>
     </row>
-    <row r="184" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="184" spans="1:8" ht="30.75" thickBot="1">
       <c r="A184" s="3">
         <v>182</v>
       </c>
@@ -6431,11 +6431,7 @@
   </sheetData>
   <autoFilter ref="A1:G189">
     <filterColumn colId="3"/>
-    <filterColumn colId="4">
-      <filters>
-        <filter val="Mari"/>
-      </filters>
-    </filterColumn>
+    <filterColumn colId="4"/>
     <filterColumn colId="5">
       <filters>
         <filter val="En Progreso"/>

--- a/Planificacion/PlanificacionTesis.xlsx
+++ b/Planificacion/PlanificacionTesis.xlsx
@@ -1983,7 +1983,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:L189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C145" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="F153" sqref="F153"/>
     </sheetView>
   </sheetViews>
@@ -2207,7 +2207,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="30.75" thickBot="1">
+    <row r="9" spans="1:12" ht="30.75" hidden="1" thickBot="1">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -2224,7 +2224,7 @@
         <v>387</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>22</v>
@@ -2386,7 +2386,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="30.75" thickBot="1">
+    <row r="16" spans="1:12" ht="30.75" hidden="1" thickBot="1">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -2403,7 +2403,7 @@
         <v>387</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>36</v>
@@ -2630,7 +2630,7 @@
       </c>
       <c r="H25"/>
     </row>
-    <row r="26" spans="1:12" ht="30.75" thickBot="1">
+    <row r="26" spans="1:12" ht="30.75" hidden="1" thickBot="1">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -2647,7 +2647,7 @@
         <v>387</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>56</v>
@@ -3123,7 +3123,7 @@
       </c>
       <c r="H46"/>
     </row>
-    <row r="47" spans="1:8" ht="30.75" thickBot="1">
+    <row r="47" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -3140,7 +3140,7 @@
         <v>387</v>
       </c>
       <c r="F47" s="16" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="G47" s="7" t="s">
         <v>99</v>
@@ -3811,7 +3811,7 @@
       </c>
       <c r="H75"/>
     </row>
-    <row r="76" spans="1:8" ht="30.75" thickBot="1">
+    <row r="76" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A76" s="3">
         <v>75</v>
       </c>
@@ -3828,7 +3828,7 @@
         <v>387</v>
       </c>
       <c r="F76" s="16" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="G76" s="7" t="s">
         <v>157</v>
@@ -4478,7 +4478,7 @@
         <v>384</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="F104" s="16" t="s">
         <v>390</v>
@@ -5221,7 +5221,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="137" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="137" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A137" s="3">
         <v>136</v>
       </c>
@@ -5238,13 +5238,13 @@
         <v>387</v>
       </c>
       <c r="F137" s="16" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="G137" s="7" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="138" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
+    <row r="138" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A138" s="3">
         <v>137</v>
       </c>
@@ -5261,7 +5261,7 @@
         <v>387</v>
       </c>
       <c r="F138" s="16" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="G138" s="7" t="s">
         <v>284</v>
@@ -5415,7 +5415,7 @@
         <v>384</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F145" s="16" t="s">
         <v>390</v>
@@ -5439,7 +5439,7 @@
         <v>384</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F146" s="16" t="s">
         <v>390</v>
@@ -5463,7 +5463,7 @@
         <v>385</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F147" s="16" t="s">
         <v>390</v>
@@ -5487,7 +5487,7 @@
         <v>385</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F148" s="16" t="s">
         <v>390</v>
@@ -5511,7 +5511,7 @@
         <v>384</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F149" s="16" t="s">
         <v>398</v>
@@ -5535,7 +5535,7 @@
         <v>385</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F150" s="16" t="s">
         <v>392</v>
@@ -5559,7 +5559,7 @@
         <v>385</v>
       </c>
       <c r="E151" s="16" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F151" s="16" t="s">
         <v>392</v>
@@ -5583,7 +5583,7 @@
         <v>385</v>
       </c>
       <c r="E152" s="16" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F152" s="16" t="s">
         <v>392</v>
@@ -5593,7 +5593,7 @@
       </c>
       <c r="H152"/>
     </row>
-    <row r="153" spans="1:8" ht="30.75" thickBot="1">
+    <row r="153" spans="1:8" ht="30.75" hidden="1" thickBot="1">
       <c r="A153" s="3">
         <v>152</v>
       </c>
@@ -5610,7 +5610,7 @@
         <v>387</v>
       </c>
       <c r="F153" s="16" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G153" s="7" t="s">
         <v>315</v>

--- a/Planificacion/PlanificacionTesis.xlsx
+++ b/Planificacion/PlanificacionTesis.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="402">
   <si>
     <t>Nº</t>
   </si>
@@ -1227,9 +1227,6 @@
   </si>
   <si>
     <t>Integrar con pedido de cliente. Diferenciar entre pedido externo e interno. Crear tipoPedido</t>
-  </si>
-  <si>
-    <t>en Progreso</t>
   </si>
   <si>
     <t>Registrar Tipo de Máquina</t>
@@ -1608,7 +1605,45 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color auto="1"/>
@@ -1980,11 +2015,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:L189"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F153" sqref="F153"/>
+      <selection activeCell="C146" sqref="C146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="119.42578125" defaultRowHeight="15"/>
@@ -2026,7 +2060,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="30.75" hidden="1" thickBot="1">
+    <row r="2" spans="1:12" ht="30.75" thickBot="1">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2049,7 +2083,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="30.75" hidden="1" thickBot="1">
+    <row r="3" spans="1:12" ht="30.75" thickBot="1">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -2076,7 +2110,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" hidden="1" thickBot="1">
+    <row r="4" spans="1:12" ht="15.75" thickBot="1">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -2103,7 +2137,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" hidden="1" thickBot="1">
+    <row r="5" spans="1:12" ht="15.75" thickBot="1">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -2130,7 +2164,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" hidden="1" thickBot="1">
+    <row r="6" spans="1:12" ht="15.75" thickBot="1">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -2157,7 +2191,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75" hidden="1" thickBot="1">
+    <row r="7" spans="1:12" ht="15.75" thickBot="1">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -2181,7 +2215,7 @@
       </c>
       <c r="H7"/>
     </row>
-    <row r="8" spans="1:12" ht="15.75" hidden="1" thickBot="1">
+    <row r="8" spans="1:12" ht="15.75" thickBot="1">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -2207,7 +2241,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="30.75" hidden="1" thickBot="1">
+    <row r="9" spans="1:12" ht="30.75" thickBot="1">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -2286,7 +2320,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="30.75" hidden="1" thickBot="1">
+    <row r="12" spans="1:12" ht="30.75" thickBot="1">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -2312,7 +2346,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="30.75" hidden="1" thickBot="1">
+    <row r="13" spans="1:12" ht="30.75" thickBot="1">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -2335,7 +2369,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="30.75" hidden="1" thickBot="1">
+    <row r="14" spans="1:12" ht="30.75" thickBot="1">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -2386,7 +2420,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="30.75" hidden="1" thickBot="1">
+    <row r="16" spans="1:12" ht="30.75" thickBot="1">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -2465,7 +2499,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15.75" hidden="1" thickBot="1">
+    <row r="19" spans="1:12" ht="15.75" thickBot="1">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -2491,7 +2525,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15.75" hidden="1" thickBot="1">
+    <row r="20" spans="1:12" ht="15.75" thickBot="1">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -2517,7 +2551,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15.75" hidden="1" thickBot="1">
+    <row r="21" spans="1:12" ht="15.75" thickBot="1">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -2562,7 +2596,7 @@
       </c>
       <c r="H22"/>
     </row>
-    <row r="23" spans="1:12" ht="30.75" hidden="1" thickBot="1">
+    <row r="23" spans="1:12" ht="30.75" thickBot="1">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -2584,7 +2618,7 @@
       </c>
       <c r="H23"/>
     </row>
-    <row r="24" spans="1:12" ht="30.75" hidden="1" thickBot="1">
+    <row r="24" spans="1:12" ht="30.75" thickBot="1">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -2630,7 +2664,7 @@
       </c>
       <c r="H25"/>
     </row>
-    <row r="26" spans="1:12" ht="30.75" hidden="1" thickBot="1">
+    <row r="26" spans="1:12" ht="30.75" thickBot="1">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -2654,7 +2688,7 @@
       </c>
       <c r="H26"/>
     </row>
-    <row r="27" spans="1:12" ht="15.75" hidden="1" thickBot="1">
+    <row r="27" spans="1:12" ht="15.75" thickBot="1">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -2676,7 +2710,7 @@
       </c>
       <c r="H27"/>
     </row>
-    <row r="28" spans="1:12" ht="15.75" hidden="1" thickBot="1">
+    <row r="28" spans="1:12" ht="15.75" thickBot="1">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -2700,7 +2734,7 @@
       </c>
       <c r="H28"/>
     </row>
-    <row r="29" spans="1:12" ht="15.75" hidden="1" thickBot="1">
+    <row r="29" spans="1:12" ht="15.75" thickBot="1">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -2860,7 +2894,7 @@
       </c>
       <c r="H35"/>
     </row>
-    <row r="36" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="36" spans="1:8" ht="15.75" thickBot="1">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -2884,7 +2918,7 @@
       </c>
       <c r="H36"/>
     </row>
-    <row r="37" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="37" spans="1:8" ht="15.75" thickBot="1">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -2908,7 +2942,7 @@
       </c>
       <c r="H37"/>
     </row>
-    <row r="38" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="38" spans="1:8" ht="15.75" thickBot="1">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -2932,7 +2966,7 @@
       </c>
       <c r="H38"/>
     </row>
-    <row r="39" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="39" spans="1:8" ht="15.75" thickBot="1">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -2956,7 +2990,7 @@
       </c>
       <c r="H39"/>
     </row>
-    <row r="40" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="40" spans="1:8" ht="15.75" thickBot="1">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -2980,7 +3014,7 @@
       </c>
       <c r="H40"/>
     </row>
-    <row r="41" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="41" spans="1:8" ht="15.75" thickBot="1">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -3004,7 +3038,7 @@
       </c>
       <c r="H41"/>
     </row>
-    <row r="42" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="42" spans="1:8" ht="15.75" thickBot="1">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -3028,7 +3062,7 @@
       </c>
       <c r="H42"/>
     </row>
-    <row r="43" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="43" spans="1:8" ht="15.75" thickBot="1">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -3052,7 +3086,7 @@
       </c>
       <c r="H43"/>
     </row>
-    <row r="44" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="44" spans="1:8" ht="15.75" thickBot="1">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -3099,7 +3133,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="46" spans="1:8" ht="15.75" thickBot="1">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -3123,7 +3157,7 @@
       </c>
       <c r="H46"/>
     </row>
-    <row r="47" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="47" spans="1:8" ht="30.75" thickBot="1">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -3147,7 +3181,7 @@
       </c>
       <c r="H47"/>
     </row>
-    <row r="48" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="48" spans="1:8" ht="30.75" thickBot="1">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -3171,7 +3205,7 @@
       </c>
       <c r="H48"/>
     </row>
-    <row r="49" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="49" spans="1:8" ht="15.75" thickBot="1">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -3195,7 +3229,7 @@
       </c>
       <c r="H49"/>
     </row>
-    <row r="50" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="50" spans="1:8" ht="15.75" thickBot="1">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -3241,7 +3275,7 @@
       </c>
       <c r="H51"/>
     </row>
-    <row r="52" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="52" spans="1:8" ht="15.75" thickBot="1">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -3265,7 +3299,7 @@
       </c>
       <c r="H52"/>
     </row>
-    <row r="53" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="53" spans="1:8" ht="15.75" thickBot="1">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -3289,7 +3323,7 @@
       </c>
       <c r="H53"/>
     </row>
-    <row r="54" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="54" spans="1:8" ht="15.75" thickBot="1">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -3313,7 +3347,7 @@
       </c>
       <c r="H54"/>
     </row>
-    <row r="55" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="55" spans="1:8" ht="15.75" thickBot="1">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -3337,7 +3371,7 @@
       </c>
       <c r="H55"/>
     </row>
-    <row r="56" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="56" spans="1:8" ht="15.75" thickBot="1">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -3361,7 +3395,7 @@
       </c>
       <c r="H56"/>
     </row>
-    <row r="57" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="57" spans="1:8" ht="15.75" thickBot="1">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -3385,7 +3419,7 @@
       </c>
       <c r="H57"/>
     </row>
-    <row r="58" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="58" spans="1:8" ht="15.75" thickBot="1">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -3409,7 +3443,7 @@
       </c>
       <c r="H58"/>
     </row>
-    <row r="59" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="59" spans="1:8" ht="15.75" thickBot="1">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -3457,7 +3491,7 @@
       </c>
       <c r="H60"/>
     </row>
-    <row r="61" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="61" spans="1:8" ht="15.75" thickBot="1">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -3481,7 +3515,7 @@
       </c>
       <c r="H61"/>
     </row>
-    <row r="62" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="62" spans="1:8" ht="15.75" thickBot="1">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -3505,7 +3539,7 @@
       </c>
       <c r="H62"/>
     </row>
-    <row r="63" spans="1:8" ht="60.75" hidden="1" thickBot="1">
+    <row r="63" spans="1:8" ht="60.75" thickBot="1">
       <c r="A63" s="3">
         <v>62</v>
       </c>
@@ -3554,7 +3588,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="65" spans="1:8" ht="30.75" thickBot="1">
       <c r="A65" s="3">
         <v>64</v>
       </c>
@@ -3578,7 +3612,7 @@
       </c>
       <c r="H65"/>
     </row>
-    <row r="66" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="66" spans="1:8" ht="15.75" thickBot="1">
       <c r="A66" s="3">
         <v>65</v>
       </c>
@@ -3602,7 +3636,7 @@
       </c>
       <c r="H66"/>
     </row>
-    <row r="67" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="67" spans="1:8" ht="15.75" thickBot="1">
       <c r="A67" s="3">
         <v>66</v>
       </c>
@@ -3626,7 +3660,7 @@
       </c>
       <c r="H67"/>
     </row>
-    <row r="68" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="68" spans="1:8" ht="15.75" thickBot="1">
       <c r="A68" s="3">
         <v>67</v>
       </c>
@@ -3650,7 +3684,7 @@
       </c>
       <c r="H68"/>
     </row>
-    <row r="69" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="69" spans="1:8" ht="30.75" thickBot="1">
       <c r="A69" s="3">
         <v>68</v>
       </c>
@@ -3696,7 +3730,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="71" spans="1:8" ht="30.75" thickBot="1">
       <c r="A71" s="3">
         <v>70</v>
       </c>
@@ -3719,7 +3753,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="72" spans="1:8" ht="15.75" thickBot="1">
       <c r="A72" s="3">
         <v>71</v>
       </c>
@@ -3765,7 +3799,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="74" spans="1:8" ht="15.75" thickBot="1">
       <c r="A74" s="3">
         <v>73</v>
       </c>
@@ -3811,7 +3845,7 @@
       </c>
       <c r="H75"/>
     </row>
-    <row r="76" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="76" spans="1:8" ht="30.75" thickBot="1">
       <c r="A76" s="3">
         <v>75</v>
       </c>
@@ -3835,7 +3869,7 @@
       </c>
       <c r="H76"/>
     </row>
-    <row r="77" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="77" spans="1:8" ht="30.75" thickBot="1">
       <c r="A77" s="3">
         <v>76</v>
       </c>
@@ -3861,7 +3895,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="78" spans="1:8" ht="15.75" thickBot="1">
       <c r="A78" s="3">
         <v>77</v>
       </c>
@@ -3884,7 +3918,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="79" spans="1:8" ht="15.75" thickBot="1">
       <c r="A79" s="3">
         <v>78</v>
       </c>
@@ -3907,7 +3941,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="80" spans="1:8" ht="15.75" thickBot="1">
       <c r="A80" s="3">
         <v>79</v>
       </c>
@@ -3930,7 +3964,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="81" spans="1:8" ht="15.75" thickBot="1">
       <c r="A81" s="3">
         <v>80</v>
       </c>
@@ -3953,7 +3987,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="82" spans="1:8" ht="15.75" thickBot="1">
       <c r="A82" s="3">
         <v>81</v>
       </c>
@@ -3976,7 +4010,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="83" spans="1:8" ht="15.75" thickBot="1">
       <c r="A83" s="3">
         <v>82</v>
       </c>
@@ -3999,7 +4033,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="84" spans="1:8" ht="15.75" thickBot="1">
       <c r="A84" s="3">
         <v>83</v>
       </c>
@@ -4022,7 +4056,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="85" spans="1:8" ht="15.75" thickBot="1">
       <c r="A85" s="3">
         <v>84</v>
       </c>
@@ -4045,7 +4079,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="86" spans="1:8" ht="15.75" thickBot="1">
       <c r="A86" s="3">
         <v>85</v>
       </c>
@@ -4069,7 +4103,7 @@
       </c>
       <c r="H86"/>
     </row>
-    <row r="87" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="87" spans="1:8" ht="15.75" thickBot="1">
       <c r="A87" s="3">
         <v>86</v>
       </c>
@@ -4093,7 +4127,7 @@
       </c>
       <c r="H87"/>
     </row>
-    <row r="88" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="88" spans="1:8" ht="15.75" thickBot="1">
       <c r="A88" s="3">
         <v>87</v>
       </c>
@@ -4117,7 +4151,7 @@
       </c>
       <c r="H88"/>
     </row>
-    <row r="89" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="89" spans="1:8" ht="15.75" thickBot="1">
       <c r="A89" s="3">
         <v>88</v>
       </c>
@@ -4141,7 +4175,7 @@
       </c>
       <c r="H89"/>
     </row>
-    <row r="90" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="90" spans="1:8" ht="15.75" thickBot="1">
       <c r="A90" s="3">
         <v>89</v>
       </c>
@@ -4164,7 +4198,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="91" spans="1:8" ht="15.75" thickBot="1">
       <c r="A91" s="3">
         <v>90</v>
       </c>
@@ -4187,7 +4221,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="92" spans="1:8" ht="15.75" thickBot="1">
       <c r="A92" s="3">
         <v>91</v>
       </c>
@@ -4210,7 +4244,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="93" spans="1:8" ht="15.75" thickBot="1">
       <c r="A93" s="3">
         <v>92</v>
       </c>
@@ -4441,7 +4475,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="103" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
+    <row r="103" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A103" s="3">
         <v>102</v>
       </c>
@@ -4508,7 +4542,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="106" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="106" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A106" s="3">
         <v>105</v>
       </c>
@@ -4531,7 +4565,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="107" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="107" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A107" s="3">
         <v>106</v>
       </c>
@@ -4554,7 +4588,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="108" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="108" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A108" s="3">
         <v>107</v>
       </c>
@@ -4619,7 +4653,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="111" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="111" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A111" s="3">
         <v>110</v>
       </c>
@@ -4642,7 +4676,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="112" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="112" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A112" s="3">
         <v>111</v>
       </c>
@@ -4826,7 +4860,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="120" spans="1:8" ht="30.75" thickBot="1">
       <c r="A120" s="3">
         <v>119</v>
       </c>
@@ -4895,7 +4929,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="123" spans="1:8" ht="30.75" thickBot="1">
       <c r="A123" s="3">
         <v>122</v>
       </c>
@@ -4919,7 +4953,7 @@
       </c>
       <c r="H123"/>
     </row>
-    <row r="124" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="124" spans="1:8" ht="30.75" thickBot="1">
       <c r="A124" s="3">
         <v>123</v>
       </c>
@@ -4943,7 +4977,7 @@
       </c>
       <c r="H124"/>
     </row>
-    <row r="125" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="125" spans="1:8" ht="30.75" thickBot="1">
       <c r="A125" s="3">
         <v>124</v>
       </c>
@@ -4967,7 +5001,7 @@
       </c>
       <c r="H125"/>
     </row>
-    <row r="126" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="126" spans="1:8" ht="15.75" thickBot="1">
       <c r="A126" s="3">
         <v>125</v>
       </c>
@@ -4991,7 +5025,7 @@
       </c>
       <c r="H126"/>
     </row>
-    <row r="127" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="127" spans="1:8" ht="15.75" thickBot="1">
       <c r="A127" s="3">
         <v>126</v>
       </c>
@@ -5015,7 +5049,7 @@
       </c>
       <c r="H127"/>
     </row>
-    <row r="128" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="128" spans="1:8" ht="15.75" thickBot="1">
       <c r="A128" s="3">
         <v>127</v>
       </c>
@@ -5039,7 +5073,7 @@
       </c>
       <c r="H128"/>
     </row>
-    <row r="129" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="129" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A129" s="3">
         <v>128</v>
       </c>
@@ -5062,7 +5096,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="130" spans="1:7" customFormat="1" ht="30.75" hidden="1" thickBot="1">
+    <row r="130" spans="1:7" customFormat="1" ht="30.75" thickBot="1">
       <c r="A130" s="3">
         <v>129</v>
       </c>
@@ -5108,7 +5142,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="132" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="132" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A132" s="3">
         <v>131</v>
       </c>
@@ -5131,7 +5165,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="133" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="133" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A133" s="3">
         <v>132</v>
       </c>
@@ -5154,7 +5188,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="134" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="134" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A134" s="3">
         <v>133</v>
       </c>
@@ -5177,7 +5211,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="135" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="135" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A135" s="3">
         <v>134</v>
       </c>
@@ -5221,7 +5255,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="137" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="137" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A137" s="3">
         <v>136</v>
       </c>
@@ -5244,7 +5278,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="138" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="138" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A138" s="3">
         <v>137</v>
       </c>
@@ -5309,7 +5343,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="141" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="141" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A141" s="3">
         <v>140</v>
       </c>
@@ -5332,7 +5366,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="142" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="142" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A142" s="3">
         <v>141</v>
       </c>
@@ -5355,7 +5389,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="143" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="143" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A143" s="3">
         <v>142</v>
       </c>
@@ -5378,7 +5412,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="144" spans="1:7" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="144" spans="1:7" customFormat="1" ht="15.75" thickBot="1">
       <c r="A144" s="3">
         <v>143</v>
       </c>
@@ -5514,7 +5548,7 @@
         <v>387</v>
       </c>
       <c r="F149" s="16" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="G149" s="7" t="s">
         <v>307</v>
@@ -5538,7 +5572,7 @@
         <v>387</v>
       </c>
       <c r="F150" s="16" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G150" s="7" t="s">
         <v>309</v>
@@ -5562,7 +5596,7 @@
         <v>387</v>
       </c>
       <c r="F151" s="16" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G151" s="7" t="s">
         <v>311</v>
@@ -5586,14 +5620,14 @@
         <v>387</v>
       </c>
       <c r="F152" s="16" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G152" s="7" t="s">
         <v>313</v>
       </c>
       <c r="H152"/>
     </row>
-    <row r="153" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="153" spans="1:8" ht="30.75" thickBot="1">
       <c r="A153" s="3">
         <v>152</v>
       </c>
@@ -5617,7 +5651,7 @@
       </c>
       <c r="H153"/>
     </row>
-    <row r="154" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="154" spans="1:8" ht="30.75" thickBot="1">
       <c r="A154" s="3">
         <v>153</v>
       </c>
@@ -5641,7 +5675,7 @@
       </c>
       <c r="H154"/>
     </row>
-    <row r="155" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="155" spans="1:8" ht="30.75" thickBot="1">
       <c r="A155" s="3">
         <v>154</v>
       </c>
@@ -5665,7 +5699,7 @@
       </c>
       <c r="H155"/>
     </row>
-    <row r="156" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="156" spans="1:8" ht="30.75" thickBot="1">
       <c r="A156" s="3">
         <v>155</v>
       </c>
@@ -5689,7 +5723,7 @@
       </c>
       <c r="H156"/>
     </row>
-    <row r="157" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="157" spans="1:8" ht="30.75" thickBot="1">
       <c r="A157" s="3">
         <v>156</v>
       </c>
@@ -5713,7 +5747,7 @@
       </c>
       <c r="H157"/>
     </row>
-    <row r="158" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="158" spans="1:8" ht="30.75" thickBot="1">
       <c r="A158" s="3">
         <v>157</v>
       </c>
@@ -5737,7 +5771,7 @@
       </c>
       <c r="H158"/>
     </row>
-    <row r="159" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="159" spans="1:8" ht="30.75" thickBot="1">
       <c r="A159" s="3">
         <v>158</v>
       </c>
@@ -5761,7 +5795,7 @@
       </c>
       <c r="H159"/>
     </row>
-    <row r="160" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="160" spans="1:8" ht="30.75" thickBot="1">
       <c r="A160" s="3">
         <v>159</v>
       </c>
@@ -5785,7 +5819,7 @@
       </c>
       <c r="H160"/>
     </row>
-    <row r="161" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="161" spans="1:8" ht="30.75" thickBot="1">
       <c r="A161" s="3">
         <v>160</v>
       </c>
@@ -6215,7 +6249,7 @@
       </c>
       <c r="H178"/>
     </row>
-    <row r="179" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="179" spans="1:8" ht="30.75" thickBot="1">
       <c r="A179" s="27">
         <v>178</v>
       </c>
@@ -6239,7 +6273,7 @@
       </c>
       <c r="H179"/>
     </row>
-    <row r="180" spans="1:8" hidden="1">
+    <row r="180" spans="1:8">
       <c r="A180" s="10"/>
       <c r="B180" s="30" t="s">
         <v>297</v>
@@ -6261,7 +6295,7 @@
       </c>
       <c r="H180"/>
     </row>
-    <row r="181" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="181" spans="1:8" ht="15.75" thickBot="1">
       <c r="A181" s="3">
         <v>179</v>
       </c>
@@ -6273,7 +6307,7 @@
       <c r="G181" s="35"/>
       <c r="H181"/>
     </row>
-    <row r="182" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="182" spans="1:8" ht="30.75" thickBot="1">
       <c r="A182" s="3">
         <v>180</v>
       </c>
@@ -6297,7 +6331,7 @@
       </c>
       <c r="H182"/>
     </row>
-    <row r="183" spans="1:8" ht="30.75" hidden="1" thickBot="1">
+    <row r="183" spans="1:8" ht="30.75" thickBot="1">
       <c r="A183" s="3">
         <v>181</v>
       </c>
@@ -6368,9 +6402,9 @@
       </c>
       <c r="H185"/>
     </row>
-    <row r="186" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="186" spans="1:8" ht="15.75" thickBot="1">
       <c r="C186" s="5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D186" s="16" t="s">
         <v>385</v>
@@ -6383,9 +6417,9 @@
       </c>
       <c r="G186" s="7"/>
     </row>
-    <row r="187" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="187" spans="1:8" ht="15.75" thickBot="1">
       <c r="C187" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D187" s="16" t="s">
         <v>385</v>
@@ -6398,9 +6432,9 @@
       </c>
       <c r="G187" s="7"/>
     </row>
-    <row r="188" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="188" spans="1:8" ht="15.75" thickBot="1">
       <c r="C188" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D188" s="16" t="s">
         <v>385</v>
@@ -6413,9 +6447,9 @@
       </c>
       <c r="G188" s="7"/>
     </row>
-    <row r="189" spans="1:8" ht="15.75" hidden="1" thickBot="1">
+    <row r="189" spans="1:8" ht="15.75" thickBot="1">
       <c r="C189" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D189" s="16" t="s">
         <v>385</v>
@@ -6432,12 +6466,7 @@
   <autoFilter ref="A1:G189">
     <filterColumn colId="3"/>
     <filterColumn colId="4"/>
-    <filterColumn colId="5">
-      <filters>
-        <filter val="En Progreso"/>
-        <filter val="Sin Empezar"/>
-      </filters>
-    </filterColumn>
+    <filterColumn colId="5"/>
   </autoFilter>
   <mergeCells count="6">
     <mergeCell ref="B180:B181"/>
@@ -6448,36 +6477,36 @@
     <mergeCell ref="F180:F181"/>
   </mergeCells>
   <conditionalFormatting sqref="H63 L15:L20 F1:F1048576">
-    <cfRule type="containsText" dxfId="9" priority="46" operator="containsText" text="Testeado con errores">
+    <cfRule type="containsText" dxfId="14" priority="46" operator="containsText" text="Testeado con errores">
       <formula>NOT(ISERROR(SEARCH("Testeado con errores",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="47" operator="containsText" text="Implementado">
+    <cfRule type="containsText" dxfId="13" priority="47" operator="containsText" text="Implementado">
       <formula>NOT(ISERROR(SEARCH("Implementado",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="48" operator="containsText" text="En Progreso">
+    <cfRule type="containsText" dxfId="12" priority="48" operator="containsText" text="En Progreso">
       <formula>NOT(ISERROR(SEARCH("En Progreso",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="49" operator="containsText" text="Finalizado">
+    <cfRule type="containsText" dxfId="11" priority="49" operator="containsText" text="Finalizado">
       <formula>NOT(ISERROR(SEARCH("Finalizado",F1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="50" operator="containsText" text="Sin Empezar">
+    <cfRule type="containsText" dxfId="10" priority="50" operator="containsText" text="Sin Empezar">
       <formula>NOT(ISERROR(SEARCH("Sin Empezar",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F179">
-    <cfRule type="containsText" dxfId="4" priority="16" operator="containsText" text="Testeado con errores">
+    <cfRule type="containsText" dxfId="9" priority="16" operator="containsText" text="Testeado con errores">
       <formula>NOT(ISERROR(SEARCH("Testeado con errores",F179)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="17" operator="containsText" text="Implementado">
+    <cfRule type="containsText" dxfId="8" priority="17" operator="containsText" text="Implementado">
       <formula>NOT(ISERROR(SEARCH("Implementado",F179)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="18" operator="containsText" text="En Progreso">
+    <cfRule type="containsText" dxfId="7" priority="18" operator="containsText" text="En Progreso">
       <formula>NOT(ISERROR(SEARCH("En Progreso",F179)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="19" operator="containsText" text="Finalizado">
+    <cfRule type="containsText" dxfId="6" priority="19" operator="containsText" text="Finalizado">
       <formula>NOT(ISERROR(SEARCH("Finalizado",F179)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="20" operator="containsText" text="Sin Empezar">
+    <cfRule type="containsText" dxfId="5" priority="20" operator="containsText" text="Sin Empezar">
       <formula>NOT(ISERROR(SEARCH("Sin Empezar",F179)))</formula>
     </cfRule>
   </conditionalFormatting>
